--- a/Assets/06.Table/Meditation.xlsx
+++ b/Assets/06.Table/Meditation.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9CA4374-A74A-455B-BBC5-264DFFCB07D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{799E2202-B576-4D3D-A110-5F731D8FBF3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28770" yWindow="0" windowWidth="28830" windowHeight="15480" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Meditation" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="103">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -438,6 +438,14 @@
     <t>함수 시작</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>적</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1360,8 +1368,8 @@
           </cell>
         </row>
         <row r="57">
-          <cell r="J57" t="e">
-            <v>#N/A</v>
+          <cell r="J57" t="str">
+            <v>1E+136</v>
           </cell>
           <cell r="K57">
             <v>42500</v>
@@ -1374,8 +1382,8 @@
           </cell>
         </row>
         <row r="58">
-          <cell r="J58" t="e">
-            <v>#N/A</v>
+          <cell r="J58" t="str">
+            <v>1E+136</v>
           </cell>
           <cell r="K58">
             <v>45000</v>
@@ -1388,8 +1396,8 @@
           </cell>
         </row>
         <row r="59">
-          <cell r="J59" t="e">
-            <v>#N/A</v>
+          <cell r="J59" t="str">
+            <v>1E+140</v>
           </cell>
           <cell r="K59">
             <v>47500</v>
@@ -1402,8 +1410,8 @@
           </cell>
         </row>
         <row r="60">
-          <cell r="J60" t="e">
-            <v>#N/A</v>
+          <cell r="J60" t="str">
+            <v>1E+140</v>
           </cell>
           <cell r="K60">
             <v>50000</v>
@@ -1416,8 +1424,8 @@
           </cell>
         </row>
         <row r="61">
-          <cell r="J61" t="e">
-            <v>#N/A</v>
+          <cell r="J61" t="str">
+            <v>1E+144</v>
           </cell>
           <cell r="K61">
             <v>52500</v>
@@ -1430,8 +1438,8 @@
           </cell>
         </row>
         <row r="62">
-          <cell r="J62" t="e">
-            <v>#N/A</v>
+          <cell r="J62" t="str">
+            <v>1E+144</v>
           </cell>
           <cell r="K62">
             <v>55000</v>
@@ -1444,8 +1452,8 @@
           </cell>
         </row>
         <row r="63">
-          <cell r="J63" t="e">
-            <v>#N/A</v>
+          <cell r="J63" t="str">
+            <v>1E+148</v>
           </cell>
           <cell r="K63">
             <v>57500</v>
@@ -1458,8 +1466,8 @@
           </cell>
         </row>
         <row r="64">
-          <cell r="J64" t="e">
-            <v>#N/A</v>
+          <cell r="J64" t="str">
+            <v>1E+148</v>
           </cell>
           <cell r="K64">
             <v>60000</v>
@@ -1472,8 +1480,8 @@
           </cell>
         </row>
         <row r="65">
-          <cell r="J65" t="e">
-            <v>#N/A</v>
+          <cell r="J65" t="str">
+            <v>1E+152</v>
           </cell>
           <cell r="K65">
             <v>62500</v>
@@ -1486,8 +1494,8 @@
           </cell>
         </row>
         <row r="66">
-          <cell r="J66" t="e">
-            <v>#N/A</v>
+          <cell r="J66" t="str">
+            <v>1E+152</v>
           </cell>
           <cell r="K66">
             <v>65000</v>
@@ -1844,11 +1852,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:D101"/>
+  <dimension ref="A1:D151"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D105" sqref="D105"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A142" sqref="A142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1856,6 +1864,7 @@
     <col min="1" max="1" width="10.5" customWidth="1"/>
     <col min="2" max="2" width="11.875" style="17" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -3572,9 +3581,859 @@
         <v>486</v>
       </c>
     </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>100</v>
+      </c>
+      <c r="B102" s="18" t="str">
+        <f>VLOOKUP(A102,AbilBalance!D:M,9,FALSE)</f>
+        <v>35,54</v>
+      </c>
+      <c r="C102" s="19" t="str">
+        <f>VLOOKUP(A102,AbilBalance!D:M,10,FALSE)</f>
+        <v>750,2</v>
+      </c>
+      <c r="D102">
+        <f>ROUNDUP(VLOOKUP(A102,LevelBalance!L:M,2,FALSE)/(24*60),0)</f>
+        <v>491</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>101</v>
+      </c>
+      <c r="B103" s="18" t="str">
+        <f>VLOOKUP(A103,AbilBalance!D:M,9,FALSE)</f>
+        <v>36,50</v>
+      </c>
+      <c r="C103" s="19" t="str">
+        <f>VLOOKUP(A103,AbilBalance!D:M,10,FALSE)</f>
+        <v>425,10.75</v>
+      </c>
+      <c r="D103">
+        <f>ROUNDUP(VLOOKUP(A103,LevelBalance!L:M,2,FALSE)/(24*60),0)</f>
+        <v>496</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>102</v>
+      </c>
+      <c r="B104" s="18" t="str">
+        <f>VLOOKUP(A104,AbilBalance!D:M,9,FALSE)</f>
+        <v>39,47</v>
+      </c>
+      <c r="C104" s="19" t="str">
+        <f>VLOOKUP(A104,AbilBalance!D:M,10,FALSE)</f>
+        <v>265,37.5</v>
+      </c>
+      <c r="D104">
+        <f>ROUNDUP(VLOOKUP(A104,LevelBalance!L:M,2,FALSE)/(24*60),0)</f>
+        <v>501</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>103</v>
+      </c>
+      <c r="B105" s="18" t="str">
+        <f>VLOOKUP(A105,AbilBalance!D:M,9,FALSE)</f>
+        <v>43,55</v>
+      </c>
+      <c r="C105" s="19" t="str">
+        <f>VLOOKUP(A105,AbilBalance!D:M,10,FALSE)</f>
+        <v>105,0.16</v>
+      </c>
+      <c r="D105">
+        <f>ROUNDUP(VLOOKUP(A105,LevelBalance!L:M,2,FALSE)/(24*60),0)</f>
+        <v>507</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>104</v>
+      </c>
+      <c r="B106" s="18" t="str">
+        <f>VLOOKUP(A106,AbilBalance!D:M,9,FALSE)</f>
+        <v>60,61</v>
+      </c>
+      <c r="C106" s="19" t="str">
+        <f>VLOOKUP(A106,AbilBalance!D:M,10,FALSE)</f>
+        <v>0.61,0.225</v>
+      </c>
+      <c r="D106">
+        <f>ROUNDUP(VLOOKUP(A106,LevelBalance!L:M,2,FALSE)/(24*60),0)</f>
+        <v>512</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>105</v>
+      </c>
+      <c r="B107" s="18" t="str">
+        <f>VLOOKUP(A107,AbilBalance!D:M,9,FALSE)</f>
+        <v>35,54</v>
+      </c>
+      <c r="C107" s="19" t="str">
+        <f>VLOOKUP(A107,AbilBalance!D:M,10,FALSE)</f>
+        <v>800,2.05</v>
+      </c>
+      <c r="D107">
+        <f>ROUNDUP(VLOOKUP(A107,LevelBalance!L:M,2,FALSE)/(24*60),0)</f>
+        <v>518</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>106</v>
+      </c>
+      <c r="B108" s="18" t="str">
+        <f>VLOOKUP(A108,AbilBalance!D:M,9,FALSE)</f>
+        <v>36,50</v>
+      </c>
+      <c r="C108" s="19" t="str">
+        <f>VLOOKUP(A108,AbilBalance!D:M,10,FALSE)</f>
+        <v>450,11.5</v>
+      </c>
+      <c r="D108">
+        <f>ROUNDUP(VLOOKUP(A108,LevelBalance!L:M,2,FALSE)/(24*60),0)</f>
+        <v>523</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>107</v>
+      </c>
+      <c r="B109" s="18" t="str">
+        <f>VLOOKUP(A109,AbilBalance!D:M,9,FALSE)</f>
+        <v>39,47</v>
+      </c>
+      <c r="C109" s="19" t="str">
+        <f>VLOOKUP(A109,AbilBalance!D:M,10,FALSE)</f>
+        <v>280,40</v>
+      </c>
+      <c r="D109">
+        <f>ROUNDUP(VLOOKUP(A109,LevelBalance!L:M,2,FALSE)/(24*60),0)</f>
+        <v>529</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>108</v>
+      </c>
+      <c r="B110" s="18" t="str">
+        <f>VLOOKUP(A110,AbilBalance!D:M,9,FALSE)</f>
+        <v>43,55</v>
+      </c>
+      <c r="C110" s="19" t="str">
+        <f>VLOOKUP(A110,AbilBalance!D:M,10,FALSE)</f>
+        <v>110,0.17</v>
+      </c>
+      <c r="D110">
+        <f>ROUNDUP(VLOOKUP(A110,LevelBalance!L:M,2,FALSE)/(24*60),0)</f>
+        <v>535</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>109</v>
+      </c>
+      <c r="B111" s="18" t="str">
+        <f>VLOOKUP(A111,AbilBalance!D:M,9,FALSE)</f>
+        <v>60,42</v>
+      </c>
+      <c r="C111" s="19" t="str">
+        <f>VLOOKUP(A111,AbilBalance!D:M,10,FALSE)</f>
+        <v>0.62,80</v>
+      </c>
+      <c r="D111">
+        <f>ROUNDUP(VLOOKUP(A111,LevelBalance!L:M,2,FALSE)/(24*60),0)</f>
+        <v>540</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>110</v>
+      </c>
+      <c r="B112" s="18" t="str">
+        <f>VLOOKUP(A112,AbilBalance!D:M,9,FALSE)</f>
+        <v>35,54</v>
+      </c>
+      <c r="C112" s="19" t="str">
+        <f>VLOOKUP(A112,AbilBalance!D:M,10,FALSE)</f>
+        <v>850,2.1</v>
+      </c>
+      <c r="D112">
+        <f>ROUNDUP(VLOOKUP(A112,LevelBalance!L:M,2,FALSE)/(24*60),0)</f>
+        <v>546</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>111</v>
+      </c>
+      <c r="B113" s="18" t="str">
+        <f>VLOOKUP(A113,AbilBalance!D:M,9,FALSE)</f>
+        <v>36,50</v>
+      </c>
+      <c r="C113" s="19" t="str">
+        <f>VLOOKUP(A113,AbilBalance!D:M,10,FALSE)</f>
+        <v>475,12.25</v>
+      </c>
+      <c r="D113">
+        <f>ROUNDUP(VLOOKUP(A113,LevelBalance!L:M,2,FALSE)/(24*60),0)</f>
+        <v>552</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>112</v>
+      </c>
+      <c r="B114" s="18" t="str">
+        <f>VLOOKUP(A114,AbilBalance!D:M,9,FALSE)</f>
+        <v>39,47</v>
+      </c>
+      <c r="C114" s="19" t="str">
+        <f>VLOOKUP(A114,AbilBalance!D:M,10,FALSE)</f>
+        <v>295,42.5</v>
+      </c>
+      <c r="D114">
+        <f>ROUNDUP(VLOOKUP(A114,LevelBalance!L:M,2,FALSE)/(24*60),0)</f>
+        <v>558</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>113</v>
+      </c>
+      <c r="B115" s="18" t="str">
+        <f>VLOOKUP(A115,AbilBalance!D:M,9,FALSE)</f>
+        <v>43,55</v>
+      </c>
+      <c r="C115" s="19" t="str">
+        <f>VLOOKUP(A115,AbilBalance!D:M,10,FALSE)</f>
+        <v>115,0.18</v>
+      </c>
+      <c r="D115">
+        <f>ROUNDUP(VLOOKUP(A115,LevelBalance!L:M,2,FALSE)/(24*60),0)</f>
+        <v>564</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>114</v>
+      </c>
+      <c r="B116" s="18" t="str">
+        <f>VLOOKUP(A116,AbilBalance!D:M,9,FALSE)</f>
+        <v>60,46</v>
+      </c>
+      <c r="C116" s="19" t="str">
+        <f>VLOOKUP(A116,AbilBalance!D:M,10,FALSE)</f>
+        <v>0.63,8</v>
+      </c>
+      <c r="D116">
+        <f>ROUNDUP(VLOOKUP(A116,LevelBalance!L:M,2,FALSE)/(24*60),0)</f>
+        <v>570</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>115</v>
+      </c>
+      <c r="B117" s="18" t="str">
+        <f>VLOOKUP(A117,AbilBalance!D:M,9,FALSE)</f>
+        <v>35,54</v>
+      </c>
+      <c r="C117" s="19" t="str">
+        <f>VLOOKUP(A117,AbilBalance!D:M,10,FALSE)</f>
+        <v>900,2.15</v>
+      </c>
+      <c r="D117">
+        <f>ROUNDUP(VLOOKUP(A117,LevelBalance!L:M,2,FALSE)/(24*60),0)</f>
+        <v>576</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>116</v>
+      </c>
+      <c r="B118" s="18" t="str">
+        <f>VLOOKUP(A118,AbilBalance!D:M,9,FALSE)</f>
+        <v>36,50</v>
+      </c>
+      <c r="C118" s="19" t="str">
+        <f>VLOOKUP(A118,AbilBalance!D:M,10,FALSE)</f>
+        <v>500,13</v>
+      </c>
+      <c r="D118">
+        <f>ROUNDUP(VLOOKUP(A118,LevelBalance!L:M,2,FALSE)/(24*60),0)</f>
+        <v>582</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>117</v>
+      </c>
+      <c r="B119" s="18" t="str">
+        <f>VLOOKUP(A119,AbilBalance!D:M,9,FALSE)</f>
+        <v>39,47</v>
+      </c>
+      <c r="C119" s="19" t="str">
+        <f>VLOOKUP(A119,AbilBalance!D:M,10,FALSE)</f>
+        <v>310,45</v>
+      </c>
+      <c r="D119">
+        <f>ROUNDUP(VLOOKUP(A119,LevelBalance!L:M,2,FALSE)/(24*60),0)</f>
+        <v>588</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>118</v>
+      </c>
+      <c r="B120" s="18" t="str">
+        <f>VLOOKUP(A120,AbilBalance!D:M,9,FALSE)</f>
+        <v>43,55</v>
+      </c>
+      <c r="C120" s="19" t="str">
+        <f>VLOOKUP(A120,AbilBalance!D:M,10,FALSE)</f>
+        <v>120,0.19</v>
+      </c>
+      <c r="D120">
+        <f>ROUNDUP(VLOOKUP(A120,LevelBalance!L:M,2,FALSE)/(24*60),0)</f>
+        <v>595</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>119</v>
+      </c>
+      <c r="B121" s="18" t="str">
+        <f>VLOOKUP(A121,AbilBalance!D:M,9,FALSE)</f>
+        <v>60,61</v>
+      </c>
+      <c r="C121" s="19" t="str">
+        <f>VLOOKUP(A121,AbilBalance!D:M,10,FALSE)</f>
+        <v>0.64,0.25</v>
+      </c>
+      <c r="D121">
+        <f>ROUNDUP(VLOOKUP(A121,LevelBalance!L:M,2,FALSE)/(24*60),0)</f>
+        <v>601</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>120</v>
+      </c>
+      <c r="B122" s="18" t="str">
+        <f>VLOOKUP(A122,AbilBalance!D:M,9,FALSE)</f>
+        <v>35,54</v>
+      </c>
+      <c r="C122" s="19" t="str">
+        <f>VLOOKUP(A122,AbilBalance!D:M,10,FALSE)</f>
+        <v>950,2.2</v>
+      </c>
+      <c r="D122">
+        <f>ROUNDUP(VLOOKUP(A122,LevelBalance!L:M,2,FALSE)/(24*60),0)</f>
+        <v>607</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>121</v>
+      </c>
+      <c r="B123" s="18" t="str">
+        <f>VLOOKUP(A123,AbilBalance!D:M,9,FALSE)</f>
+        <v>36,50</v>
+      </c>
+      <c r="C123" s="19" t="str">
+        <f>VLOOKUP(A123,AbilBalance!D:M,10,FALSE)</f>
+        <v>525,13.75</v>
+      </c>
+      <c r="D123">
+        <f>ROUNDUP(VLOOKUP(A123,LevelBalance!L:M,2,FALSE)/(24*60),0)</f>
+        <v>614</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>122</v>
+      </c>
+      <c r="B124" s="18" t="str">
+        <f>VLOOKUP(A124,AbilBalance!D:M,9,FALSE)</f>
+        <v>39,47</v>
+      </c>
+      <c r="C124" s="19" t="str">
+        <f>VLOOKUP(A124,AbilBalance!D:M,10,FALSE)</f>
+        <v>325,47.5</v>
+      </c>
+      <c r="D124">
+        <f>ROUNDUP(VLOOKUP(A124,LevelBalance!L:M,2,FALSE)/(24*60),0)</f>
+        <v>620</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <v>123</v>
+      </c>
+      <c r="B125" s="18" t="str">
+        <f>VLOOKUP(A125,AbilBalance!D:M,9,FALSE)</f>
+        <v>43,55</v>
+      </c>
+      <c r="C125" s="19" t="str">
+        <f>VLOOKUP(A125,AbilBalance!D:M,10,FALSE)</f>
+        <v>125,0.2</v>
+      </c>
+      <c r="D125">
+        <f>ROUNDUP(VLOOKUP(A125,LevelBalance!L:M,2,FALSE)/(24*60),0)</f>
+        <v>627</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <v>124</v>
+      </c>
+      <c r="B126" s="18" t="str">
+        <f>VLOOKUP(A126,AbilBalance!D:M,9,FALSE)</f>
+        <v>60,42</v>
+      </c>
+      <c r="C126" s="19" t="str">
+        <f>VLOOKUP(A126,AbilBalance!D:M,10,FALSE)</f>
+        <v>0.65,85</v>
+      </c>
+      <c r="D126">
+        <f>ROUNDUP(VLOOKUP(A126,LevelBalance!L:M,2,FALSE)/(24*60),0)</f>
+        <v>633</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>125</v>
+      </c>
+      <c r="B127" s="18" t="str">
+        <f>VLOOKUP(A127,AbilBalance!D:M,9,FALSE)</f>
+        <v>35,54</v>
+      </c>
+      <c r="C127" s="19" t="str">
+        <f>VLOOKUP(A127,AbilBalance!D:M,10,FALSE)</f>
+        <v>1000,2.25</v>
+      </c>
+      <c r="D127">
+        <f>ROUNDUP(VLOOKUP(A127,LevelBalance!L:M,2,FALSE)/(24*60),0)</f>
+        <v>640</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>126</v>
+      </c>
+      <c r="B128" s="18" t="str">
+        <f>VLOOKUP(A128,AbilBalance!D:M,9,FALSE)</f>
+        <v>36,50</v>
+      </c>
+      <c r="C128" s="19" t="str">
+        <f>VLOOKUP(A128,AbilBalance!D:M,10,FALSE)</f>
+        <v>550,14.5</v>
+      </c>
+      <c r="D128">
+        <f>ROUNDUP(VLOOKUP(A128,LevelBalance!L:M,2,FALSE)/(24*60),0)</f>
+        <v>647</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>127</v>
+      </c>
+      <c r="B129" s="18" t="str">
+        <f>VLOOKUP(A129,AbilBalance!D:M,9,FALSE)</f>
+        <v>39,47</v>
+      </c>
+      <c r="C129" s="19" t="str">
+        <f>VLOOKUP(A129,AbilBalance!D:M,10,FALSE)</f>
+        <v>340,50</v>
+      </c>
+      <c r="D129">
+        <f>ROUNDUP(VLOOKUP(A129,LevelBalance!L:M,2,FALSE)/(24*60),0)</f>
+        <v>654</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <v>128</v>
+      </c>
+      <c r="B130" s="18" t="str">
+        <f>VLOOKUP(A130,AbilBalance!D:M,9,FALSE)</f>
+        <v>43,55</v>
+      </c>
+      <c r="C130" s="19" t="str">
+        <f>VLOOKUP(A130,AbilBalance!D:M,10,FALSE)</f>
+        <v>130,0.21</v>
+      </c>
+      <c r="D130">
+        <f>ROUNDUP(VLOOKUP(A130,LevelBalance!L:M,2,FALSE)/(24*60),0)</f>
+        <v>661</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <v>129</v>
+      </c>
+      <c r="B131" s="18" t="str">
+        <f>VLOOKUP(A131,AbilBalance!D:M,9,FALSE)</f>
+        <v>60,46</v>
+      </c>
+      <c r="C131" s="19" t="str">
+        <f>VLOOKUP(A131,AbilBalance!D:M,10,FALSE)</f>
+        <v>0.66,8.5</v>
+      </c>
+      <c r="D131">
+        <f>ROUNDUP(VLOOKUP(A131,LevelBalance!L:M,2,FALSE)/(24*60),0)</f>
+        <v>668</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <v>130</v>
+      </c>
+      <c r="B132" s="18" t="str">
+        <f>VLOOKUP(A132,AbilBalance!D:M,9,FALSE)</f>
+        <v>35,54</v>
+      </c>
+      <c r="C132" s="19" t="str">
+        <f>VLOOKUP(A132,AbilBalance!D:M,10,FALSE)</f>
+        <v>1050,2.3</v>
+      </c>
+      <c r="D132">
+        <f>ROUNDUP(VLOOKUP(A132,LevelBalance!L:M,2,FALSE)/(24*60),0)</f>
+        <v>675</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A133">
+        <v>131</v>
+      </c>
+      <c r="B133" s="18" t="str">
+        <f>VLOOKUP(A133,AbilBalance!D:M,9,FALSE)</f>
+        <v>36,50</v>
+      </c>
+      <c r="C133" s="19" t="str">
+        <f>VLOOKUP(A133,AbilBalance!D:M,10,FALSE)</f>
+        <v>575,15.25</v>
+      </c>
+      <c r="D133">
+        <f>ROUNDUP(VLOOKUP(A133,LevelBalance!L:M,2,FALSE)/(24*60),0)</f>
+        <v>682</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <v>132</v>
+      </c>
+      <c r="B134" s="18" t="str">
+        <f>VLOOKUP(A134,AbilBalance!D:M,9,FALSE)</f>
+        <v>39,47</v>
+      </c>
+      <c r="C134" s="19" t="str">
+        <f>VLOOKUP(A134,AbilBalance!D:M,10,FALSE)</f>
+        <v>355,52.5</v>
+      </c>
+      <c r="D134">
+        <f>ROUNDUP(VLOOKUP(A134,LevelBalance!L:M,2,FALSE)/(24*60),0)</f>
+        <v>689</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A135">
+        <v>133</v>
+      </c>
+      <c r="B135" s="18" t="str">
+        <f>VLOOKUP(A135,AbilBalance!D:M,9,FALSE)</f>
+        <v>43,55</v>
+      </c>
+      <c r="C135" s="19" t="str">
+        <f>VLOOKUP(A135,AbilBalance!D:M,10,FALSE)</f>
+        <v>135,0.22</v>
+      </c>
+      <c r="D135">
+        <f>ROUNDUP(VLOOKUP(A135,LevelBalance!L:M,2,FALSE)/(24*60),0)</f>
+        <v>697</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <v>134</v>
+      </c>
+      <c r="B136" s="18" t="str">
+        <f>VLOOKUP(A136,AbilBalance!D:M,9,FALSE)</f>
+        <v>60,61</v>
+      </c>
+      <c r="C136" s="19" t="str">
+        <f>VLOOKUP(A136,AbilBalance!D:M,10,FALSE)</f>
+        <v>0.67,0.275</v>
+      </c>
+      <c r="D136">
+        <f>ROUNDUP(VLOOKUP(A136,LevelBalance!L:M,2,FALSE)/(24*60),0)</f>
+        <v>704</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <v>135</v>
+      </c>
+      <c r="B137" s="18" t="str">
+        <f>VLOOKUP(A137,AbilBalance!D:M,9,FALSE)</f>
+        <v>35,54</v>
+      </c>
+      <c r="C137" s="19" t="str">
+        <f>VLOOKUP(A137,AbilBalance!D:M,10,FALSE)</f>
+        <v>1100,2.35</v>
+      </c>
+      <c r="D137">
+        <f>ROUNDUP(VLOOKUP(A137,LevelBalance!L:M,2,FALSE)/(24*60),0)</f>
+        <v>711</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <v>136</v>
+      </c>
+      <c r="B138" s="18" t="str">
+        <f>VLOOKUP(A138,AbilBalance!D:M,9,FALSE)</f>
+        <v>36,50</v>
+      </c>
+      <c r="C138" s="19" t="str">
+        <f>VLOOKUP(A138,AbilBalance!D:M,10,FALSE)</f>
+        <v>600,16</v>
+      </c>
+      <c r="D138">
+        <f>ROUNDUP(VLOOKUP(A138,LevelBalance!L:M,2,FALSE)/(24*60),0)</f>
+        <v>719</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A139">
+        <v>137</v>
+      </c>
+      <c r="B139" s="18" t="str">
+        <f>VLOOKUP(A139,AbilBalance!D:M,9,FALSE)</f>
+        <v>39,47</v>
+      </c>
+      <c r="C139" s="19" t="str">
+        <f>VLOOKUP(A139,AbilBalance!D:M,10,FALSE)</f>
+        <v>370,55</v>
+      </c>
+      <c r="D139">
+        <f>ROUNDUP(VLOOKUP(A139,LevelBalance!L:M,2,FALSE)/(24*60),0)</f>
+        <v>726</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A140">
+        <v>138</v>
+      </c>
+      <c r="B140" s="18" t="str">
+        <f>VLOOKUP(A140,AbilBalance!D:M,9,FALSE)</f>
+        <v>43,55</v>
+      </c>
+      <c r="C140" s="19" t="str">
+        <f>VLOOKUP(A140,AbilBalance!D:M,10,FALSE)</f>
+        <v>140,0.23</v>
+      </c>
+      <c r="D140">
+        <f>ROUNDUP(VLOOKUP(A140,LevelBalance!L:M,2,FALSE)/(24*60),0)</f>
+        <v>734</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A141">
+        <v>139</v>
+      </c>
+      <c r="B141" s="18" t="str">
+        <f>VLOOKUP(A141,AbilBalance!D:M,9,FALSE)</f>
+        <v>60,42</v>
+      </c>
+      <c r="C141" s="19" t="str">
+        <f>VLOOKUP(A141,AbilBalance!D:M,10,FALSE)</f>
+        <v>0.68,90</v>
+      </c>
+      <c r="D141">
+        <f>ROUNDUP(VLOOKUP(A141,LevelBalance!L:M,2,FALSE)/(24*60),0)</f>
+        <v>742</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A142">
+        <v>140</v>
+      </c>
+      <c r="B142" s="18" t="str">
+        <f>VLOOKUP(A142,AbilBalance!D:M,9,FALSE)</f>
+        <v>35,54</v>
+      </c>
+      <c r="C142" s="19" t="str">
+        <f>VLOOKUP(A142,AbilBalance!D:M,10,FALSE)</f>
+        <v>1150,2.4</v>
+      </c>
+      <c r="D142">
+        <f>ROUNDUP(VLOOKUP(A142,LevelBalance!L:M,2,FALSE)/(24*60),0)</f>
+        <v>750</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A143">
+        <v>141</v>
+      </c>
+      <c r="B143" s="18" t="str">
+        <f>VLOOKUP(A143,AbilBalance!D:M,9,FALSE)</f>
+        <v>36,50</v>
+      </c>
+      <c r="C143" s="19" t="str">
+        <f>VLOOKUP(A143,AbilBalance!D:M,10,FALSE)</f>
+        <v>625,16.75</v>
+      </c>
+      <c r="D143">
+        <f>ROUNDUP(VLOOKUP(A143,LevelBalance!L:M,2,FALSE)/(24*60),0)</f>
+        <v>757</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A144">
+        <v>142</v>
+      </c>
+      <c r="B144" s="18" t="str">
+        <f>VLOOKUP(A144,AbilBalance!D:M,9,FALSE)</f>
+        <v>39,47</v>
+      </c>
+      <c r="C144" s="19" t="str">
+        <f>VLOOKUP(A144,AbilBalance!D:M,10,FALSE)</f>
+        <v>385,57.5</v>
+      </c>
+      <c r="D144">
+        <f>ROUNDUP(VLOOKUP(A144,LevelBalance!L:M,2,FALSE)/(24*60),0)</f>
+        <v>765</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A145">
+        <v>143</v>
+      </c>
+      <c r="B145" s="18" t="str">
+        <f>VLOOKUP(A145,AbilBalance!D:M,9,FALSE)</f>
+        <v>43,55</v>
+      </c>
+      <c r="C145" s="19" t="str">
+        <f>VLOOKUP(A145,AbilBalance!D:M,10,FALSE)</f>
+        <v>145,0.24</v>
+      </c>
+      <c r="D145">
+        <f>ROUNDUP(VLOOKUP(A145,LevelBalance!L:M,2,FALSE)/(24*60),0)</f>
+        <v>773</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A146">
+        <v>144</v>
+      </c>
+      <c r="B146" s="18" t="str">
+        <f>VLOOKUP(A146,AbilBalance!D:M,9,FALSE)</f>
+        <v>60,46</v>
+      </c>
+      <c r="C146" s="19" t="str">
+        <f>VLOOKUP(A146,AbilBalance!D:M,10,FALSE)</f>
+        <v>0.69,9</v>
+      </c>
+      <c r="D146">
+        <f>ROUNDUP(VLOOKUP(A146,LevelBalance!L:M,2,FALSE)/(24*60),0)</f>
+        <v>782</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A147">
+        <v>145</v>
+      </c>
+      <c r="B147" s="18" t="str">
+        <f>VLOOKUP(A147,AbilBalance!D:M,9,FALSE)</f>
+        <v>35,54</v>
+      </c>
+      <c r="C147" s="19" t="str">
+        <f>VLOOKUP(A147,AbilBalance!D:M,10,FALSE)</f>
+        <v>1200,2.45</v>
+      </c>
+      <c r="D147">
+        <f>ROUNDUP(VLOOKUP(A147,LevelBalance!L:M,2,FALSE)/(24*60),0)</f>
+        <v>790</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A148">
+        <v>146</v>
+      </c>
+      <c r="B148" s="18" t="str">
+        <f>VLOOKUP(A148,AbilBalance!D:M,9,FALSE)</f>
+        <v>36,50</v>
+      </c>
+      <c r="C148" s="19" t="str">
+        <f>VLOOKUP(A148,AbilBalance!D:M,10,FALSE)</f>
+        <v>650,17.5</v>
+      </c>
+      <c r="D148">
+        <f>ROUNDUP(VLOOKUP(A148,LevelBalance!L:M,2,FALSE)/(24*60),0)</f>
+        <v>798</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A149">
+        <v>147</v>
+      </c>
+      <c r="B149" s="18" t="str">
+        <f>VLOOKUP(A149,AbilBalance!D:M,9,FALSE)</f>
+        <v>39,47</v>
+      </c>
+      <c r="C149" s="19" t="str">
+        <f>VLOOKUP(A149,AbilBalance!D:M,10,FALSE)</f>
+        <v>400,60</v>
+      </c>
+      <c r="D149">
+        <f>ROUNDUP(VLOOKUP(A149,LevelBalance!L:M,2,FALSE)/(24*60),0)</f>
+        <v>806</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A150">
+        <v>148</v>
+      </c>
+      <c r="B150" s="18" t="str">
+        <f>VLOOKUP(A150,AbilBalance!D:M,9,FALSE)</f>
+        <v>43,55</v>
+      </c>
+      <c r="C150" s="19" t="str">
+        <f>VLOOKUP(A150,AbilBalance!D:M,10,FALSE)</f>
+        <v>150,0.25</v>
+      </c>
+      <c r="D150">
+        <f>ROUNDUP(VLOOKUP(A150,LevelBalance!L:M,2,FALSE)/(24*60),0)</f>
+        <v>815</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A151">
+        <v>149</v>
+      </c>
+      <c r="B151" s="18" t="str">
+        <f>VLOOKUP(A151,AbilBalance!D:M,9,FALSE)</f>
+        <v>60,61</v>
+      </c>
+      <c r="C151" s="19" t="str">
+        <f>VLOOKUP(A151,AbilBalance!D:M,10,FALSE)</f>
+        <v>0.7,0.3</v>
+      </c>
+      <c r="D151">
+        <f>ROUNDUP(VLOOKUP(A151,LevelBalance!L:M,2,FALSE)/(24*60),0)</f>
+        <v>823</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A2:B101">
+  <conditionalFormatting sqref="A2:B151">
     <cfRule type="expression" dxfId="1" priority="51">
       <formula>#REF!=5</formula>
     </cfRule>
@@ -3586,10 +4445,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B4C63F0-02E4-48AB-8F58-B57B021B5DE4}">
-  <dimension ref="A1:S106"/>
+  <dimension ref="A1:S155"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H69" sqref="H69"/>
+    <sheetView topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I65" sqref="I65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7752,6 +8611,804 @@
       <c r="H106" s="12"/>
       <c r="I106" s="12"/>
       <c r="J106" s="12"/>
+      <c r="L106" s="10">
+        <v>101</v>
+      </c>
+      <c r="M106" s="12">
+        <f t="shared" ref="M106:M155" si="14">ROUNDUP((M105+500)*N106,-2)</f>
+        <v>713700</v>
+      </c>
+      <c r="N106">
+        <v>1.01</v>
+      </c>
+      <c r="O106" s="12">
+        <f>SUM($M$5:M106)</f>
+        <v>21538700</v>
+      </c>
+    </row>
+    <row r="107" spans="7:18" x14ac:dyDescent="0.3">
+      <c r="L107" s="10">
+        <v>102</v>
+      </c>
+      <c r="M107" s="12">
+        <f t="shared" si="14"/>
+        <v>721400</v>
+      </c>
+      <c r="N107">
+        <v>1.01</v>
+      </c>
+      <c r="O107" s="12">
+        <f>SUM($M$5:M107)</f>
+        <v>22260100</v>
+      </c>
+    </row>
+    <row r="108" spans="7:18" x14ac:dyDescent="0.3">
+      <c r="L108" s="10">
+        <v>103</v>
+      </c>
+      <c r="M108" s="12">
+        <f t="shared" si="14"/>
+        <v>729200</v>
+      </c>
+      <c r="N108">
+        <v>1.01</v>
+      </c>
+      <c r="O108" s="12">
+        <f>SUM($M$5:M108)</f>
+        <v>22989300</v>
+      </c>
+    </row>
+    <row r="109" spans="7:18" x14ac:dyDescent="0.3">
+      <c r="L109" s="10">
+        <v>104</v>
+      </c>
+      <c r="M109" s="12">
+        <f t="shared" si="14"/>
+        <v>737000</v>
+      </c>
+      <c r="N109">
+        <v>1.01</v>
+      </c>
+      <c r="O109" s="12">
+        <f>SUM($M$5:M109)</f>
+        <v>23726300</v>
+      </c>
+    </row>
+    <row r="110" spans="7:18" x14ac:dyDescent="0.3">
+      <c r="L110" s="10">
+        <v>105</v>
+      </c>
+      <c r="M110" s="12">
+        <f t="shared" si="14"/>
+        <v>744900</v>
+      </c>
+      <c r="N110">
+        <v>1.01</v>
+      </c>
+      <c r="O110" s="12">
+        <f>SUM($M$5:M110)</f>
+        <v>24471200</v>
+      </c>
+    </row>
+    <row r="111" spans="7:18" x14ac:dyDescent="0.3">
+      <c r="L111" s="10">
+        <v>106</v>
+      </c>
+      <c r="M111" s="12">
+        <f t="shared" si="14"/>
+        <v>752900</v>
+      </c>
+      <c r="N111">
+        <v>1.01</v>
+      </c>
+      <c r="O111" s="12">
+        <f>SUM($M$5:M111)</f>
+        <v>25224100</v>
+      </c>
+    </row>
+    <row r="112" spans="7:18" x14ac:dyDescent="0.3">
+      <c r="L112" s="10">
+        <v>107</v>
+      </c>
+      <c r="M112" s="12">
+        <f t="shared" si="14"/>
+        <v>761000</v>
+      </c>
+      <c r="N112">
+        <v>1.01</v>
+      </c>
+      <c r="O112" s="12">
+        <f>SUM($M$5:M112)</f>
+        <v>25985100</v>
+      </c>
+    </row>
+    <row r="113" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L113" s="10">
+        <v>108</v>
+      </c>
+      <c r="M113" s="12">
+        <f t="shared" si="14"/>
+        <v>769200</v>
+      </c>
+      <c r="N113">
+        <v>1.01</v>
+      </c>
+      <c r="O113" s="12">
+        <f>SUM($M$5:M113)</f>
+        <v>26754300</v>
+      </c>
+    </row>
+    <row r="114" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L114" s="10">
+        <v>109</v>
+      </c>
+      <c r="M114" s="12">
+        <f t="shared" si="14"/>
+        <v>777400</v>
+      </c>
+      <c r="N114">
+        <v>1.01</v>
+      </c>
+      <c r="O114" s="12">
+        <f>SUM($M$5:M114)</f>
+        <v>27531700</v>
+      </c>
+    </row>
+    <row r="115" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L115" s="10">
+        <v>110</v>
+      </c>
+      <c r="M115" s="12">
+        <f t="shared" si="14"/>
+        <v>785700</v>
+      </c>
+      <c r="N115">
+        <v>1.01</v>
+      </c>
+      <c r="O115" s="12">
+        <f>SUM($M$5:M115)</f>
+        <v>28317400</v>
+      </c>
+    </row>
+    <row r="116" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L116" s="10">
+        <v>111</v>
+      </c>
+      <c r="M116" s="12">
+        <f t="shared" si="14"/>
+        <v>794100</v>
+      </c>
+      <c r="N116">
+        <v>1.01</v>
+      </c>
+      <c r="O116" s="12">
+        <f>SUM($M$5:M116)</f>
+        <v>29111500</v>
+      </c>
+    </row>
+    <row r="117" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L117" s="10">
+        <v>112</v>
+      </c>
+      <c r="M117" s="12">
+        <f t="shared" si="14"/>
+        <v>802600</v>
+      </c>
+      <c r="N117">
+        <v>1.01</v>
+      </c>
+      <c r="O117" s="12">
+        <f>SUM($M$5:M117)</f>
+        <v>29914100</v>
+      </c>
+    </row>
+    <row r="118" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L118" s="10">
+        <v>113</v>
+      </c>
+      <c r="M118" s="12">
+        <f t="shared" si="14"/>
+        <v>811200</v>
+      </c>
+      <c r="N118">
+        <v>1.01</v>
+      </c>
+      <c r="O118" s="12">
+        <f>SUM($M$5:M118)</f>
+        <v>30725300</v>
+      </c>
+    </row>
+    <row r="119" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L119" s="10">
+        <v>114</v>
+      </c>
+      <c r="M119" s="12">
+        <f t="shared" si="14"/>
+        <v>819900</v>
+      </c>
+      <c r="N119">
+        <v>1.01</v>
+      </c>
+      <c r="O119" s="12">
+        <f>SUM($M$5:M119)</f>
+        <v>31545200</v>
+      </c>
+    </row>
+    <row r="120" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L120" s="10">
+        <v>115</v>
+      </c>
+      <c r="M120" s="12">
+        <f t="shared" si="14"/>
+        <v>828700</v>
+      </c>
+      <c r="N120">
+        <v>1.01</v>
+      </c>
+      <c r="O120" s="12">
+        <f>SUM($M$5:M120)</f>
+        <v>32373900</v>
+      </c>
+    </row>
+    <row r="121" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L121" s="10">
+        <v>116</v>
+      </c>
+      <c r="M121" s="12">
+        <f t="shared" si="14"/>
+        <v>837500</v>
+      </c>
+      <c r="N121">
+        <v>1.01</v>
+      </c>
+      <c r="O121" s="12">
+        <f>SUM($M$5:M121)</f>
+        <v>33211400</v>
+      </c>
+    </row>
+    <row r="122" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L122" s="10">
+        <v>117</v>
+      </c>
+      <c r="M122" s="12">
+        <f t="shared" si="14"/>
+        <v>846400</v>
+      </c>
+      <c r="N122">
+        <v>1.01</v>
+      </c>
+      <c r="O122" s="12">
+        <f>SUM($M$5:M122)</f>
+        <v>34057800</v>
+      </c>
+    </row>
+    <row r="123" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L123" s="10">
+        <v>118</v>
+      </c>
+      <c r="M123" s="12">
+        <f t="shared" si="14"/>
+        <v>855400</v>
+      </c>
+      <c r="N123">
+        <v>1.01</v>
+      </c>
+      <c r="O123" s="12">
+        <f>SUM($M$5:M123)</f>
+        <v>34913200</v>
+      </c>
+    </row>
+    <row r="124" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L124" s="10">
+        <v>119</v>
+      </c>
+      <c r="M124" s="12">
+        <f t="shared" si="14"/>
+        <v>864500</v>
+      </c>
+      <c r="N124">
+        <v>1.01</v>
+      </c>
+      <c r="O124" s="12">
+        <f>SUM($M$5:M124)</f>
+        <v>35777700</v>
+      </c>
+    </row>
+    <row r="125" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L125" s="10">
+        <v>120</v>
+      </c>
+      <c r="M125" s="12">
+        <f t="shared" si="14"/>
+        <v>873700</v>
+      </c>
+      <c r="N125">
+        <v>1.01</v>
+      </c>
+      <c r="O125" s="12">
+        <f>SUM($M$5:M125)</f>
+        <v>36651400</v>
+      </c>
+    </row>
+    <row r="126" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L126" s="10">
+        <v>121</v>
+      </c>
+      <c r="M126" s="12">
+        <f t="shared" si="14"/>
+        <v>883000</v>
+      </c>
+      <c r="N126">
+        <v>1.01</v>
+      </c>
+      <c r="O126" s="12">
+        <f>SUM($M$5:M126)</f>
+        <v>37534400</v>
+      </c>
+    </row>
+    <row r="127" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L127" s="10">
+        <v>122</v>
+      </c>
+      <c r="M127" s="12">
+        <f t="shared" si="14"/>
+        <v>892400</v>
+      </c>
+      <c r="N127">
+        <v>1.01</v>
+      </c>
+      <c r="O127" s="12">
+        <f>SUM($M$5:M127)</f>
+        <v>38426800</v>
+      </c>
+    </row>
+    <row r="128" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L128" s="10">
+        <v>123</v>
+      </c>
+      <c r="M128" s="12">
+        <f t="shared" si="14"/>
+        <v>901900</v>
+      </c>
+      <c r="N128">
+        <v>1.01</v>
+      </c>
+      <c r="O128" s="12">
+        <f>SUM($M$5:M128)</f>
+        <v>39328700</v>
+      </c>
+    </row>
+    <row r="129" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L129" s="10">
+        <v>124</v>
+      </c>
+      <c r="M129" s="12">
+        <f t="shared" si="14"/>
+        <v>911500</v>
+      </c>
+      <c r="N129">
+        <v>1.01</v>
+      </c>
+      <c r="O129" s="12">
+        <f>SUM($M$5:M129)</f>
+        <v>40240200</v>
+      </c>
+    </row>
+    <row r="130" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L130" s="10">
+        <v>125</v>
+      </c>
+      <c r="M130" s="12">
+        <f t="shared" si="14"/>
+        <v>921200</v>
+      </c>
+      <c r="N130">
+        <v>1.01</v>
+      </c>
+      <c r="O130" s="12">
+        <f>SUM($M$5:M130)</f>
+        <v>41161400</v>
+      </c>
+    </row>
+    <row r="131" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L131" s="10">
+        <v>126</v>
+      </c>
+      <c r="M131" s="12">
+        <f t="shared" si="14"/>
+        <v>931000</v>
+      </c>
+      <c r="N131">
+        <v>1.01</v>
+      </c>
+      <c r="O131" s="12">
+        <f>SUM($M$5:M131)</f>
+        <v>42092400</v>
+      </c>
+    </row>
+    <row r="132" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L132" s="10">
+        <v>127</v>
+      </c>
+      <c r="M132" s="12">
+        <f t="shared" si="14"/>
+        <v>940900</v>
+      </c>
+      <c r="N132">
+        <v>1.01</v>
+      </c>
+      <c r="O132" s="12">
+        <f>SUM($M$5:M132)</f>
+        <v>43033300</v>
+      </c>
+    </row>
+    <row r="133" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L133" s="10">
+        <v>128</v>
+      </c>
+      <c r="M133" s="12">
+        <f t="shared" si="14"/>
+        <v>950900</v>
+      </c>
+      <c r="N133">
+        <v>1.01</v>
+      </c>
+      <c r="O133" s="12">
+        <f>SUM($M$5:M133)</f>
+        <v>43984200</v>
+      </c>
+    </row>
+    <row r="134" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L134" s="10">
+        <v>129</v>
+      </c>
+      <c r="M134" s="12">
+        <f t="shared" si="14"/>
+        <v>961000</v>
+      </c>
+      <c r="N134">
+        <v>1.01</v>
+      </c>
+      <c r="O134" s="12">
+        <f>SUM($M$5:M134)</f>
+        <v>44945200</v>
+      </c>
+    </row>
+    <row r="135" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L135" s="10">
+        <v>130</v>
+      </c>
+      <c r="M135" s="12">
+        <f t="shared" si="14"/>
+        <v>971200</v>
+      </c>
+      <c r="N135">
+        <v>1.01</v>
+      </c>
+      <c r="O135" s="12">
+        <f>SUM($M$5:M135)</f>
+        <v>45916400</v>
+      </c>
+    </row>
+    <row r="136" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L136" s="10">
+        <v>131</v>
+      </c>
+      <c r="M136" s="12">
+        <f t="shared" si="14"/>
+        <v>981500</v>
+      </c>
+      <c r="N136">
+        <v>1.01</v>
+      </c>
+      <c r="O136" s="12">
+        <f>SUM($M$5:M136)</f>
+        <v>46897900</v>
+      </c>
+    </row>
+    <row r="137" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L137" s="10">
+        <v>132</v>
+      </c>
+      <c r="M137" s="12">
+        <f t="shared" si="14"/>
+        <v>991900</v>
+      </c>
+      <c r="N137">
+        <v>1.01</v>
+      </c>
+      <c r="O137" s="12">
+        <f>SUM($M$5:M137)</f>
+        <v>47889800</v>
+      </c>
+    </row>
+    <row r="138" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L138" s="10">
+        <v>133</v>
+      </c>
+      <c r="M138" s="12">
+        <f t="shared" si="14"/>
+        <v>1002400</v>
+      </c>
+      <c r="N138">
+        <v>1.01</v>
+      </c>
+      <c r="O138" s="12">
+        <f>SUM($M$5:M138)</f>
+        <v>48892200</v>
+      </c>
+    </row>
+    <row r="139" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L139" s="10">
+        <v>134</v>
+      </c>
+      <c r="M139" s="12">
+        <f t="shared" si="14"/>
+        <v>1013000</v>
+      </c>
+      <c r="N139">
+        <v>1.01</v>
+      </c>
+      <c r="O139" s="12">
+        <f>SUM($M$5:M139)</f>
+        <v>49905200</v>
+      </c>
+    </row>
+    <row r="140" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L140" s="10">
+        <v>135</v>
+      </c>
+      <c r="M140" s="12">
+        <f t="shared" si="14"/>
+        <v>1023700</v>
+      </c>
+      <c r="N140">
+        <v>1.01</v>
+      </c>
+      <c r="O140" s="12">
+        <f>SUM($M$5:M140)</f>
+        <v>50928900</v>
+      </c>
+    </row>
+    <row r="141" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L141" s="10">
+        <v>136</v>
+      </c>
+      <c r="M141" s="12">
+        <f t="shared" si="14"/>
+        <v>1034500</v>
+      </c>
+      <c r="N141">
+        <v>1.01</v>
+      </c>
+      <c r="O141" s="12">
+        <f>SUM($M$5:M141)</f>
+        <v>51963400</v>
+      </c>
+    </row>
+    <row r="142" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L142" s="10">
+        <v>137</v>
+      </c>
+      <c r="M142" s="12">
+        <f t="shared" si="14"/>
+        <v>1045400</v>
+      </c>
+      <c r="N142">
+        <v>1.01</v>
+      </c>
+      <c r="O142" s="12">
+        <f>SUM($M$5:M142)</f>
+        <v>53008800</v>
+      </c>
+    </row>
+    <row r="143" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L143" s="10">
+        <v>138</v>
+      </c>
+      <c r="M143" s="12">
+        <f t="shared" si="14"/>
+        <v>1056400</v>
+      </c>
+      <c r="N143">
+        <v>1.01</v>
+      </c>
+      <c r="O143" s="12">
+        <f>SUM($M$5:M143)</f>
+        <v>54065200</v>
+      </c>
+    </row>
+    <row r="144" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L144" s="10">
+        <v>139</v>
+      </c>
+      <c r="M144" s="12">
+        <f t="shared" si="14"/>
+        <v>1067500</v>
+      </c>
+      <c r="N144">
+        <v>1.01</v>
+      </c>
+      <c r="O144" s="12">
+        <f>SUM($M$5:M144)</f>
+        <v>55132700</v>
+      </c>
+    </row>
+    <row r="145" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L145" s="10">
+        <v>140</v>
+      </c>
+      <c r="M145" s="12">
+        <f t="shared" si="14"/>
+        <v>1078700</v>
+      </c>
+      <c r="N145">
+        <v>1.01</v>
+      </c>
+      <c r="O145" s="12">
+        <f>SUM($M$5:M145)</f>
+        <v>56211400</v>
+      </c>
+    </row>
+    <row r="146" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L146" s="10">
+        <v>141</v>
+      </c>
+      <c r="M146" s="12">
+        <f t="shared" si="14"/>
+        <v>1090000</v>
+      </c>
+      <c r="N146">
+        <v>1.01</v>
+      </c>
+      <c r="O146" s="12">
+        <f>SUM($M$5:M146)</f>
+        <v>57301400</v>
+      </c>
+    </row>
+    <row r="147" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L147" s="10">
+        <v>142</v>
+      </c>
+      <c r="M147" s="12">
+        <f t="shared" si="14"/>
+        <v>1101500</v>
+      </c>
+      <c r="N147">
+        <v>1.01</v>
+      </c>
+      <c r="O147" s="12">
+        <f>SUM($M$5:M147)</f>
+        <v>58402900</v>
+      </c>
+    </row>
+    <row r="148" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L148" s="10">
+        <v>143</v>
+      </c>
+      <c r="M148" s="12">
+        <f t="shared" si="14"/>
+        <v>1113100</v>
+      </c>
+      <c r="N148">
+        <v>1.01</v>
+      </c>
+      <c r="O148" s="12">
+        <f>SUM($M$5:M148)</f>
+        <v>59516000</v>
+      </c>
+    </row>
+    <row r="149" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L149" s="10">
+        <v>144</v>
+      </c>
+      <c r="M149" s="12">
+        <f t="shared" si="14"/>
+        <v>1124800</v>
+      </c>
+      <c r="N149">
+        <v>1.01</v>
+      </c>
+      <c r="O149" s="12">
+        <f>SUM($M$5:M149)</f>
+        <v>60640800</v>
+      </c>
+    </row>
+    <row r="150" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L150" s="10">
+        <v>145</v>
+      </c>
+      <c r="M150" s="12">
+        <f t="shared" si="14"/>
+        <v>1136600</v>
+      </c>
+      <c r="N150">
+        <v>1.01</v>
+      </c>
+      <c r="O150" s="12">
+        <f>SUM($M$5:M150)</f>
+        <v>61777400</v>
+      </c>
+    </row>
+    <row r="151" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L151" s="10">
+        <v>146</v>
+      </c>
+      <c r="M151" s="12">
+        <f t="shared" si="14"/>
+        <v>1148500</v>
+      </c>
+      <c r="N151">
+        <v>1.01</v>
+      </c>
+      <c r="O151" s="12">
+        <f>SUM($M$5:M151)</f>
+        <v>62925900</v>
+      </c>
+    </row>
+    <row r="152" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L152" s="10">
+        <v>147</v>
+      </c>
+      <c r="M152" s="12">
+        <f t="shared" si="14"/>
+        <v>1160500</v>
+      </c>
+      <c r="N152">
+        <v>1.01</v>
+      </c>
+      <c r="O152" s="12">
+        <f>SUM($M$5:M152)</f>
+        <v>64086400</v>
+      </c>
+    </row>
+    <row r="153" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L153" s="10">
+        <v>148</v>
+      </c>
+      <c r="M153" s="12">
+        <f t="shared" si="14"/>
+        <v>1172700</v>
+      </c>
+      <c r="N153">
+        <v>1.01</v>
+      </c>
+      <c r="O153" s="12">
+        <f>SUM($M$5:M153)</f>
+        <v>65259100</v>
+      </c>
+    </row>
+    <row r="154" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L154" s="10">
+        <v>149</v>
+      </c>
+      <c r="M154" s="12">
+        <f t="shared" si="14"/>
+        <v>1185000</v>
+      </c>
+      <c r="N154">
+        <v>1.01</v>
+      </c>
+      <c r="O154" s="12">
+        <f>SUM($M$5:M154)</f>
+        <v>66444100</v>
+      </c>
+    </row>
+    <row r="155" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L155" s="10">
+        <v>150</v>
+      </c>
+      <c r="M155" s="12">
+        <f t="shared" si="14"/>
+        <v>1197400</v>
+      </c>
+      <c r="N155">
+        <v>1.01</v>
+      </c>
+      <c r="O155" s="12">
+        <f>SUM($M$5:M155)</f>
+        <v>67641500</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -7767,10 +9424,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B4BD32F-D36A-49D0-8344-521F56FEBBC4}">
-  <dimension ref="C2:AF103"/>
+  <dimension ref="C2:AF153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="P44" sqref="P44"/>
+    <sheetView topLeftCell="A135" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="D153" sqref="D153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7863,7 +9520,7 @@
         <v>83</v>
       </c>
       <c r="F4">
-        <f t="shared" ref="F4:F35" si="0">VLOOKUP(E4,$Q:$R,2,FALSE)</f>
+        <f>VLOOKUP(E4,$Q:$R,2,FALSE)</f>
         <v>35</v>
       </c>
       <c r="G4">
@@ -7893,7 +9550,7 @@
         <v>14</v>
       </c>
       <c r="T4" t="str">
-        <f t="shared" ref="T4:T14" si="1">VLOOKUP(S4,AC:AF,4,FALSE)</f>
+        <f>VLOOKUP(S4,AC:AF,4,FALSE)</f>
         <v>1E+40</v>
       </c>
       <c r="U4">
@@ -7901,14 +9558,14 @@
         <v>0</v>
       </c>
       <c r="V4">
-        <f t="shared" ref="V4:V14" si="2">IFERROR(VLOOKUP(Q4,E:K,7,FALSE),VLOOKUP(Q4,H:K,4,FALSE))</f>
+        <f>IFERROR(VLOOKUP(Q4,E:K,7,FALSE),VLOOKUP(Q4,H:K,4,FALSE))</f>
         <v>0</v>
       </c>
       <c r="W4" t="s">
         <v>20</v>
       </c>
       <c r="X4" t="str">
-        <f t="shared" ref="X4:X14" si="3">VLOOKUP(W4,AC:AF,4,FALSE)</f>
+        <f>VLOOKUP(W4,AC:AF,4,FALSE)</f>
         <v>1E+64</v>
       </c>
       <c r="Y4">
@@ -7916,8 +9573,8 @@
         <v>12</v>
       </c>
       <c r="Z4" s="12">
-        <f t="shared" ref="Z4:Z15" si="4">SUMIFS(G:G,E:E,Q4)+SUMIFS(J:J,H:H,Q4)</f>
-        <v>540610</v>
+        <f>SUMIFS(G:G,E:E,Q4)+SUMIFS(J:J,H:H,Q4)</f>
+        <v>1515610</v>
       </c>
       <c r="AC4" s="3" t="s">
         <v>4</v>
@@ -7942,7 +9599,7 @@
         <v>83</v>
       </c>
       <c r="F5">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(E5,$Q:$R,2,FALSE)</f>
         <v>35</v>
       </c>
       <c r="G5">
@@ -7952,11 +9609,11 @@
         <v>1</v>
       </c>
       <c r="L5" s="10" t="str">
-        <f t="shared" ref="L5:L68" si="5">IF(H5=0,F5&amp;",-1",F5&amp;","&amp;I5)</f>
+        <f t="shared" ref="L5:L68" si="0">IF(H5=0,F5&amp;",-1",F5&amp;","&amp;I5)</f>
         <v>35,-1</v>
       </c>
       <c r="M5" s="10" t="str">
-        <f t="shared" ref="M5:M68" si="6">IF(H5=0,G5/100&amp;","&amp;0,G5/100&amp;","&amp;J5/100)</f>
+        <f t="shared" ref="M5:M68" si="1">IF(H5=0,G5/100&amp;","&amp;0,G5/100&amp;","&amp;J5/100)</f>
         <v>0.2,0</v>
       </c>
       <c r="N5" s="10"/>
@@ -7972,7 +9629,7 @@
         <v>19</v>
       </c>
       <c r="T5" t="str">
-        <f t="shared" si="1"/>
+        <f>VLOOKUP(S5,AC:AF,4,FALSE)</f>
         <v>1E+60</v>
       </c>
       <c r="U5">
@@ -7980,14 +9637,14 @@
         <v>10</v>
       </c>
       <c r="V5">
-        <f t="shared" si="2"/>
+        <f>IFERROR(VLOOKUP(Q5,E:K,7,FALSE),VLOOKUP(Q5,H:K,4,FALSE))</f>
         <v>8</v>
       </c>
       <c r="W5" t="s">
         <v>23</v>
       </c>
       <c r="X5" t="str">
-        <f t="shared" si="3"/>
+        <f>VLOOKUP(W5,AC:AF,4,FALSE)</f>
         <v>1E+76</v>
       </c>
       <c r="Y5">
@@ -7995,8 +9652,8 @@
         <v>18</v>
       </c>
       <c r="Z5" s="12">
-        <f t="shared" si="4"/>
-        <v>338700</v>
+        <f>SUMIFS(G:G,E:E,Q5)+SUMIFS(J:J,H:H,Q5)</f>
+        <v>876200</v>
       </c>
       <c r="AC5" s="3" t="s">
         <v>6</v>
@@ -8005,7 +9662,7 @@
         <v>8</v>
       </c>
       <c r="AE5" s="4">
-        <f t="shared" ref="AE5:AE36" si="7">POWER(10,AD5)</f>
+        <f t="shared" ref="AE5:AE36" si="2">POWER(10,AD5)</f>
         <v>100000000</v>
       </c>
       <c r="AF5" s="4" t="str">
@@ -8021,7 +9678,7 @@
         <v>83</v>
       </c>
       <c r="F6">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(E6,$Q:$R,2,FALSE)</f>
         <v>35</v>
       </c>
       <c r="G6">
@@ -8031,11 +9688,11 @@
         <v>2</v>
       </c>
       <c r="L6" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>35,-1</v>
       </c>
       <c r="M6" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>0.3,0</v>
       </c>
       <c r="N6" s="10"/>
@@ -8051,7 +9708,7 @@
         <v>20</v>
       </c>
       <c r="T6" t="str">
-        <f t="shared" si="1"/>
+        <f>VLOOKUP(S6,AC:AF,4,FALSE)</f>
         <v>1E+64</v>
       </c>
       <c r="U6">
@@ -8059,14 +9716,14 @@
         <v>12</v>
       </c>
       <c r="V6">
-        <f t="shared" si="2"/>
+        <f>IFERROR(VLOOKUP(Q6,E:K,7,FALSE),VLOOKUP(Q6,H:K,4,FALSE))</f>
         <v>11</v>
       </c>
       <c r="W6" t="s">
         <v>25</v>
       </c>
       <c r="X6" t="str">
-        <f t="shared" si="3"/>
+        <f>VLOOKUP(W6,AC:AF,4,FALSE)</f>
         <v>1E+80</v>
       </c>
       <c r="Y6">
@@ -8074,8 +9731,8 @@
         <v>20</v>
       </c>
       <c r="Z6" s="12">
-        <f t="shared" si="4"/>
-        <v>208950</v>
+        <f>SUMIFS(G:G,E:E,Q6)+SUMIFS(J:J,H:H,Q6)</f>
+        <v>541450</v>
       </c>
       <c r="AC6" s="3" t="s">
         <v>7</v>
@@ -8084,7 +9741,7 @@
         <v>12</v>
       </c>
       <c r="AE6" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>1000000000000</v>
       </c>
       <c r="AF6" s="4" t="str">
@@ -8100,7 +9757,7 @@
         <v>83</v>
       </c>
       <c r="F7">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(E7,$Q:$R,2,FALSE)</f>
         <v>35</v>
       </c>
       <c r="G7">
@@ -8110,11 +9767,11 @@
         <v>3</v>
       </c>
       <c r="L7" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>35,-1</v>
       </c>
       <c r="M7" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>0.5,0</v>
       </c>
       <c r="N7" s="10"/>
@@ -8130,7 +9787,7 @@
         <v>21</v>
       </c>
       <c r="T7" t="str">
-        <f t="shared" si="1"/>
+        <f>VLOOKUP(S7,AC:AF,4,FALSE)</f>
         <v>1E+68</v>
       </c>
       <c r="U7">
@@ -8138,14 +9795,14 @@
         <v>14</v>
       </c>
       <c r="V7">
-        <f t="shared" si="2"/>
+        <f>IFERROR(VLOOKUP(Q7,E:K,7,FALSE),VLOOKUP(Q7,H:K,4,FALSE))</f>
         <v>14</v>
       </c>
       <c r="W7" t="s">
         <v>27</v>
       </c>
       <c r="X7" t="str">
-        <f t="shared" si="3"/>
+        <f>VLOOKUP(W7,AC:AF,4,FALSE)</f>
         <v>1E+92</v>
       </c>
       <c r="Y7">
@@ -8153,8 +9810,8 @@
         <v>26</v>
       </c>
       <c r="Z7" s="12">
-        <f t="shared" si="4"/>
-        <v>35550</v>
+        <f>SUMIFS(G:G,E:E,Q7)+SUMIFS(J:J,H:H,Q7)</f>
+        <v>61050</v>
       </c>
       <c r="AC7" s="3" t="s">
         <v>8</v>
@@ -8163,7 +9820,7 @@
         <v>16</v>
       </c>
       <c r="AE7" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>1E+16</v>
       </c>
       <c r="AF7" s="4" t="str">
@@ -8179,7 +9836,7 @@
         <v>83</v>
       </c>
       <c r="F8">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(E8,$Q:$R,2,FALSE)</f>
         <v>35</v>
       </c>
       <c r="G8">
@@ -8189,11 +9846,11 @@
         <v>4</v>
       </c>
       <c r="L8" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>35,-1</v>
       </c>
       <c r="M8" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>1,0</v>
       </c>
       <c r="N8" s="10"/>
@@ -8209,7 +9866,7 @@
         <v>23</v>
       </c>
       <c r="T8" t="str">
-        <f t="shared" si="1"/>
+        <f>VLOOKUP(S8,AC:AF,4,FALSE)</f>
         <v>1E+76</v>
       </c>
       <c r="U8">
@@ -8217,14 +9874,14 @@
         <v>18</v>
       </c>
       <c r="V8">
-        <f t="shared" si="2"/>
+        <f>IFERROR(VLOOKUP(Q8,E:K,7,FALSE),VLOOKUP(Q8,H:K,4,FALSE))</f>
         <v>24</v>
       </c>
       <c r="W8" t="s">
         <v>24</v>
       </c>
       <c r="X8" t="str">
-        <f t="shared" si="3"/>
+        <f>VLOOKUP(W8,AC:AF,4,FALSE)</f>
         <v>1E+96</v>
       </c>
       <c r="Y8">
@@ -8232,8 +9889,8 @@
         <v>28</v>
       </c>
       <c r="Z8" s="12">
-        <f t="shared" si="4"/>
-        <v>3500</v>
+        <f>SUMIFS(G:G,E:E,Q8)+SUMIFS(J:J,H:H,Q8)</f>
+        <v>6050</v>
       </c>
       <c r="AC8" s="3" t="s">
         <v>9</v>
@@ -8242,11 +9899,11 @@
         <v>20</v>
       </c>
       <c r="AE8" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>1E+20</v>
       </c>
       <c r="AF8" s="4" t="str">
-        <f t="shared" ref="AF8:AF36" si="8">RIGHT(AE8,AD8)</f>
+        <f t="shared" ref="AF8:AF36" si="3">RIGHT(AE8,AD8)</f>
         <v>1E+20</v>
       </c>
     </row>
@@ -8258,7 +9915,7 @@
         <v>83</v>
       </c>
       <c r="F9">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(E9,$Q:$R,2,FALSE)</f>
         <v>35</v>
       </c>
       <c r="G9">
@@ -8268,11 +9925,11 @@
         <v>5</v>
       </c>
       <c r="L9" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>35,-1</v>
       </c>
       <c r="M9" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>2,0</v>
       </c>
       <c r="N9" s="10"/>
@@ -8288,7 +9945,7 @@
         <v>5</v>
       </c>
       <c r="T9" t="str">
-        <f t="shared" si="1"/>
+        <f>VLOOKUP(S9,AC:AF,4,FALSE)</f>
         <v>1E+84</v>
       </c>
       <c r="U9">
@@ -8296,14 +9953,14 @@
         <v>22</v>
       </c>
       <c r="V9">
-        <f t="shared" si="2"/>
+        <f>IFERROR(VLOOKUP(Q9,E:K,7,FALSE),VLOOKUP(Q9,H:K,4,FALSE))</f>
         <v>21</v>
       </c>
       <c r="W9" t="s">
         <v>24</v>
       </c>
       <c r="X9" t="str">
-        <f t="shared" si="3"/>
+        <f>VLOOKUP(W9,AC:AF,4,FALSE)</f>
         <v>1E+96</v>
       </c>
       <c r="Y9">
@@ -8311,8 +9968,8 @@
         <v>28</v>
       </c>
       <c r="Z9" s="12">
-        <f t="shared" si="4"/>
-        <v>94850</v>
+        <f>SUMIFS(G:G,E:E,Q9)+SUMIFS(J:J,H:H,Q9)</f>
+        <v>222350</v>
       </c>
       <c r="AC9" s="3" t="s">
         <v>10</v>
@@ -8321,11 +9978,11 @@
         <v>24</v>
       </c>
       <c r="AE9" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>9.9999999999999998E+23</v>
       </c>
       <c r="AF9" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>1E+24</v>
       </c>
     </row>
@@ -8337,7 +9994,7 @@
         <v>83</v>
       </c>
       <c r="F10">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(E10,$Q:$R,2,FALSE)</f>
         <v>35</v>
       </c>
       <c r="G10">
@@ -8347,11 +10004,11 @@
         <v>6</v>
       </c>
       <c r="L10" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>35,-1</v>
       </c>
       <c r="M10" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>3,0</v>
       </c>
       <c r="N10" s="10"/>
@@ -8367,7 +10024,7 @@
         <v>27</v>
       </c>
       <c r="T10" t="str">
-        <f t="shared" si="1"/>
+        <f>VLOOKUP(S10,AC:AF,4,FALSE)</f>
         <v>1E+92</v>
       </c>
       <c r="U10">
@@ -8375,14 +10032,14 @@
         <v>26</v>
       </c>
       <c r="V10">
-        <f t="shared" si="2"/>
+        <f>IFERROR(VLOOKUP(Q10,E:K,7,FALSE),VLOOKUP(Q10,H:K,4,FALSE))</f>
         <v>25</v>
       </c>
       <c r="W10" t="s">
         <v>29</v>
       </c>
       <c r="X10" t="str">
-        <f t="shared" si="3"/>
+        <f>VLOOKUP(W10,AC:AF,4,FALSE)</f>
         <v>1E+100</v>
       </c>
       <c r="Y10">
@@ -8390,8 +10047,8 @@
         <v>30</v>
       </c>
       <c r="Z10" s="12">
-        <f t="shared" si="4"/>
-        <v>28350</v>
+        <f>SUMIFS(G:G,E:E,Q10)+SUMIFS(J:J,H:H,Q10)</f>
+        <v>77100</v>
       </c>
       <c r="AC10" s="3" t="s">
         <v>11</v>
@@ -8400,11 +10057,11 @@
         <v>28</v>
       </c>
       <c r="AE10" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>9.9999999999999996E+27</v>
       </c>
       <c r="AF10" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>1E+28</v>
       </c>
     </row>
@@ -8416,7 +10073,7 @@
         <v>83</v>
       </c>
       <c r="F11">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(E11,$Q:$R,2,FALSE)</f>
         <v>35</v>
       </c>
       <c r="G11">
@@ -8426,11 +10083,11 @@
         <v>7</v>
       </c>
       <c r="L11" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>35,-1</v>
       </c>
       <c r="M11" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>4,0</v>
       </c>
       <c r="N11" s="10"/>
@@ -8446,7 +10103,7 @@
         <v>24</v>
       </c>
       <c r="T11" t="str">
-        <f t="shared" si="1"/>
+        <f>VLOOKUP(S11,AC:AF,4,FALSE)</f>
         <v>1E+96</v>
       </c>
       <c r="U11">
@@ -8454,14 +10111,14 @@
         <v>28</v>
       </c>
       <c r="V11">
-        <f t="shared" si="2"/>
+        <f>IFERROR(VLOOKUP(Q11,E:K,7,FALSE),VLOOKUP(Q11,H:K,4,FALSE))</f>
         <v>29</v>
       </c>
       <c r="W11" t="s">
         <v>32</v>
       </c>
       <c r="X11" t="str">
-        <f t="shared" si="3"/>
+        <f>VLOOKUP(W11,AC:AF,4,FALSE)</f>
         <v>1E+112</v>
       </c>
       <c r="Y11">
@@ -8469,8 +10126,8 @@
         <v>36</v>
       </c>
       <c r="Z11" s="12">
-        <f t="shared" si="4"/>
-        <v>8025</v>
+        <f>SUMIFS(G:G,E:E,Q11)+SUMIFS(J:J,H:H,Q11)</f>
+        <v>22150</v>
       </c>
       <c r="AC11" s="3" t="s">
         <v>12</v>
@@ -8479,11 +10136,11 @@
         <v>32</v>
       </c>
       <c r="AE11" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>1.0000000000000001E+32</v>
       </c>
       <c r="AF11" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>1E+32</v>
       </c>
     </row>
@@ -8495,7 +10152,7 @@
         <v>84</v>
       </c>
       <c r="F12">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(E12,$Q:$R,2,FALSE)</f>
         <v>36</v>
       </c>
       <c r="G12">
@@ -8505,11 +10162,11 @@
         <v>8</v>
       </c>
       <c r="L12" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>36,-1</v>
       </c>
       <c r="M12" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>1,0</v>
       </c>
       <c r="N12" s="10"/>
@@ -8525,7 +10182,7 @@
         <v>24</v>
       </c>
       <c r="T12" t="str">
-        <f t="shared" si="1"/>
+        <f>VLOOKUP(S12,AC:AF,4,FALSE)</f>
         <v>1E+96</v>
       </c>
       <c r="U12">
@@ -8533,14 +10190,14 @@
         <v>28</v>
       </c>
       <c r="V12">
-        <f t="shared" si="2"/>
+        <f>IFERROR(VLOOKUP(Q12,E:K,7,FALSE),VLOOKUP(Q12,H:K,4,FALSE))</f>
         <v>35</v>
       </c>
       <c r="W12" t="s">
         <v>39</v>
       </c>
       <c r="X12" t="str">
-        <f t="shared" si="3"/>
+        <f>VLOOKUP(W12,AC:AF,4,FALSE)</f>
         <v>1E+132</v>
       </c>
       <c r="Y12">
@@ -8548,8 +10205,8 @@
         <v>46</v>
       </c>
       <c r="Z12" s="12">
-        <f t="shared" si="4"/>
-        <v>710</v>
+        <f>SUMIFS(G:G,E:E,Q12)+SUMIFS(J:J,H:H,Q12)</f>
+        <v>1365</v>
       </c>
       <c r="AC12" s="3" t="s">
         <v>13</v>
@@ -8558,11 +10215,11 @@
         <v>36</v>
       </c>
       <c r="AE12" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>1E+36</v>
       </c>
       <c r="AF12" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>1E+36</v>
       </c>
     </row>
@@ -8574,7 +10231,7 @@
         <v>83</v>
       </c>
       <c r="F13">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(E13,$Q:$R,2,FALSE)</f>
         <v>35</v>
       </c>
       <c r="G13" s="16">
@@ -8584,7 +10241,7 @@
         <v>84</v>
       </c>
       <c r="I13">
-        <f t="shared" ref="I13:I44" si="9">VLOOKUP(H13,$Q:$R,2,FALSE)</f>
+        <f>VLOOKUP(H13,$Q:$R,2,FALSE)</f>
         <v>36</v>
       </c>
       <c r="J13" s="16">
@@ -8594,11 +10251,11 @@
         <v>9</v>
       </c>
       <c r="L13" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>35,36</v>
       </c>
       <c r="M13" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>10,1</v>
       </c>
       <c r="N13" s="10"/>
@@ -8614,7 +10271,7 @@
         <v>31</v>
       </c>
       <c r="T13" t="str">
-        <f t="shared" si="1"/>
+        <f>VLOOKUP(S13,AC:AF,4,FALSE)</f>
         <v>1E+108</v>
       </c>
       <c r="U13">
@@ -8622,14 +10279,14 @@
         <v>34</v>
       </c>
       <c r="V13">
-        <f t="shared" si="2"/>
+        <f>IFERROR(VLOOKUP(Q13,E:K,7,FALSE),VLOOKUP(Q13,H:K,4,FALSE))</f>
         <v>34</v>
       </c>
       <c r="W13" t="s">
         <v>34</v>
       </c>
       <c r="X13" t="str">
-        <f t="shared" si="3"/>
+        <f>VLOOKUP(W13,AC:AF,4,FALSE)</f>
         <v>1E+120</v>
       </c>
       <c r="Y13">
@@ -8637,8 +10294,8 @@
         <v>40</v>
       </c>
       <c r="Z13" s="12">
-        <f t="shared" si="4"/>
-        <v>2400</v>
+        <f>SUMIFS(G:G,E:E,Q13)+SUMIFS(J:J,H:H,Q13)</f>
+        <v>4625</v>
       </c>
       <c r="AC13" s="3" t="s">
         <v>14</v>
@@ -8647,11 +10304,11 @@
         <v>40</v>
       </c>
       <c r="AE13" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>1E+40</v>
       </c>
       <c r="AF13" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>1E+40</v>
       </c>
     </row>
@@ -8663,7 +10320,7 @@
         <v>84</v>
       </c>
       <c r="F14">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(E14,$Q:$R,2,FALSE)</f>
         <v>36</v>
       </c>
       <c r="G14">
@@ -8673,7 +10330,7 @@
         <v>83</v>
       </c>
       <c r="I14">
-        <f t="shared" si="9"/>
+        <f>VLOOKUP(H14,$Q:$R,2,FALSE)</f>
         <v>35</v>
       </c>
       <c r="J14">
@@ -8683,11 +10340,11 @@
         <v>10</v>
       </c>
       <c r="L14" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>36,35</v>
       </c>
       <c r="M14" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>5,5</v>
       </c>
       <c r="N14" s="10"/>
@@ -8703,7 +10360,7 @@
         <v>31</v>
       </c>
       <c r="T14" t="str">
-        <f t="shared" si="1"/>
+        <f>VLOOKUP(S14,AC:AF,4,FALSE)</f>
         <v>1E+108</v>
       </c>
       <c r="U14">
@@ -8711,14 +10368,14 @@
         <v>34</v>
       </c>
       <c r="V14">
-        <f t="shared" si="2"/>
+        <f>IFERROR(VLOOKUP(Q14,E:K,7,FALSE),VLOOKUP(Q14,H:K,4,FALSE))</f>
         <v>44</v>
       </c>
       <c r="W14" t="s">
         <v>35</v>
       </c>
       <c r="X14" t="str">
-        <f t="shared" si="3"/>
+        <f>VLOOKUP(W14,AC:AF,4,FALSE)</f>
         <v>1E+124</v>
       </c>
       <c r="Y14">
@@ -8726,8 +10383,8 @@
         <v>42</v>
       </c>
       <c r="Z14" s="12">
-        <f t="shared" si="4"/>
-        <v>62.5</v>
+        <f>SUMIFS(G:G,E:E,Q14)+SUMIFS(J:J,H:H,Q14)</f>
+        <v>167.5</v>
       </c>
       <c r="AC14" s="3" t="s">
         <v>15</v>
@@ -8736,11 +10393,11 @@
         <v>44</v>
       </c>
       <c r="AE14" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>1.0000000000000001E+44</v>
       </c>
       <c r="AF14" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>1E+44</v>
       </c>
     </row>
@@ -8752,7 +10409,7 @@
         <v>85</v>
       </c>
       <c r="F15">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(E15,$Q:$R,2,FALSE)</f>
         <v>39</v>
       </c>
       <c r="G15">
@@ -8762,7 +10419,7 @@
         <v>83</v>
       </c>
       <c r="I15">
-        <f t="shared" si="9"/>
+        <f>VLOOKUP(H15,$Q:$R,2,FALSE)</f>
         <v>35</v>
       </c>
       <c r="J15">
@@ -8772,11 +10429,11 @@
         <v>11</v>
       </c>
       <c r="L15" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>39,35</v>
       </c>
       <c r="M15" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>0.5,10</v>
       </c>
       <c r="N15" s="10"/>
@@ -8789,8 +10446,8 @@
         <v>55</v>
       </c>
       <c r="Z15">
-        <f t="shared" si="4"/>
-        <v>110</v>
+        <f>SUMIFS(G:G,E:E,Q15)+SUMIFS(J:J,H:H,Q15)</f>
+        <v>315</v>
       </c>
       <c r="AC15" s="3" t="s">
         <v>16</v>
@@ -8799,11 +10456,11 @@
         <v>48</v>
       </c>
       <c r="AE15" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>1E+48</v>
       </c>
       <c r="AF15" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>1E+48</v>
       </c>
     </row>
@@ -8815,7 +10472,7 @@
         <v>85</v>
       </c>
       <c r="F16">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(E16,$Q:$R,2,FALSE)</f>
         <v>39</v>
       </c>
       <c r="G16">
@@ -8825,7 +10482,7 @@
         <v>83</v>
       </c>
       <c r="I16">
-        <f t="shared" si="9"/>
+        <f>VLOOKUP(H16,$Q:$R,2,FALSE)</f>
         <v>35</v>
       </c>
       <c r="J16">
@@ -8835,11 +10492,11 @@
         <v>12</v>
       </c>
       <c r="L16" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>39,35</v>
       </c>
       <c r="M16" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>1,20</v>
       </c>
       <c r="N16" s="10"/>
@@ -8852,11 +10509,11 @@
         <v>52</v>
       </c>
       <c r="AE16" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>9.9999999999999999E+51</v>
       </c>
       <c r="AF16" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>1E+52</v>
       </c>
     </row>
@@ -8868,7 +10525,7 @@
         <v>85</v>
       </c>
       <c r="F17">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(E17,$Q:$R,2,FALSE)</f>
         <v>39</v>
       </c>
       <c r="G17">
@@ -8878,7 +10535,7 @@
         <v>83</v>
       </c>
       <c r="I17">
-        <f t="shared" si="9"/>
+        <f>VLOOKUP(H17,$Q:$R,2,FALSE)</f>
         <v>35</v>
       </c>
       <c r="J17">
@@ -8888,11 +10545,11 @@
         <v>13</v>
       </c>
       <c r="L17" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>39,35</v>
       </c>
       <c r="M17" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>3,30</v>
       </c>
       <c r="N17" s="10"/>
@@ -8905,11 +10562,11 @@
         <v>56</v>
       </c>
       <c r="AE17" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>1.0000000000000001E+56</v>
       </c>
       <c r="AF17" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>1E+56</v>
       </c>
     </row>
@@ -8921,7 +10578,7 @@
         <v>86</v>
       </c>
       <c r="F18">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(E18,$Q:$R,2,FALSE)</f>
         <v>42</v>
       </c>
       <c r="G18" s="16">
@@ -8931,7 +10588,7 @@
         <v>83</v>
       </c>
       <c r="I18">
-        <f t="shared" si="9"/>
+        <f>VLOOKUP(H18,$Q:$R,2,FALSE)</f>
         <v>35</v>
       </c>
       <c r="J18" s="16">
@@ -8941,11 +10598,11 @@
         <v>14</v>
       </c>
       <c r="L18" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>42,35</v>
       </c>
       <c r="M18" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>0.5,50</v>
       </c>
       <c r="N18" s="10"/>
@@ -8958,11 +10615,11 @@
         <v>60</v>
       </c>
       <c r="AE18" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>9.9999999999999995E+59</v>
       </c>
       <c r="AF18" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>1E+60</v>
       </c>
     </row>
@@ -8974,7 +10631,7 @@
         <v>85</v>
       </c>
       <c r="F19">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(E19,$Q:$R,2,FALSE)</f>
         <v>39</v>
       </c>
       <c r="G19">
@@ -8984,7 +10641,7 @@
         <v>84</v>
       </c>
       <c r="I19">
-        <f t="shared" si="9"/>
+        <f>VLOOKUP(H19,$Q:$R,2,FALSE)</f>
         <v>36</v>
       </c>
       <c r="J19">
@@ -8994,11 +10651,11 @@
         <v>15</v>
       </c>
       <c r="L19" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>39,36</v>
       </c>
       <c r="M19" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>5,5</v>
       </c>
       <c r="N19" s="10"/>
@@ -9017,11 +10674,11 @@
         <v>64</v>
       </c>
       <c r="AE19" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>1E+64</v>
       </c>
       <c r="AF19" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>1E+64</v>
       </c>
     </row>
@@ -9033,7 +10690,7 @@
         <v>84</v>
       </c>
       <c r="F20">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(E20,$Q:$R,2,FALSE)</f>
         <v>36</v>
       </c>
       <c r="G20">
@@ -9043,7 +10700,7 @@
         <v>83</v>
       </c>
       <c r="I20">
-        <f t="shared" si="9"/>
+        <f>VLOOKUP(H20,$Q:$R,2,FALSE)</f>
         <v>35</v>
       </c>
       <c r="J20">
@@ -9053,11 +10710,11 @@
         <v>16</v>
       </c>
       <c r="L20" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>36,35</v>
       </c>
       <c r="M20" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>10,70</v>
       </c>
       <c r="N20" s="10"/>
@@ -9076,11 +10733,11 @@
         <v>68</v>
       </c>
       <c r="AE20" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>9.9999999999999995E+67</v>
       </c>
       <c r="AF20" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>1E+68</v>
       </c>
     </row>
@@ -9092,7 +10749,7 @@
         <v>84</v>
       </c>
       <c r="F21">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(E21,$Q:$R,2,FALSE)</f>
         <v>36</v>
       </c>
       <c r="G21">
@@ -9102,7 +10759,7 @@
         <v>83</v>
       </c>
       <c r="I21">
-        <f t="shared" si="9"/>
+        <f>VLOOKUP(H21,$Q:$R,2,FALSE)</f>
         <v>35</v>
       </c>
       <c r="J21">
@@ -9112,11 +10769,11 @@
         <v>17</v>
       </c>
       <c r="L21" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>36,35</v>
       </c>
       <c r="M21" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>20,100</v>
       </c>
       <c r="N21" s="10"/>
@@ -9135,11 +10792,11 @@
         <v>72</v>
       </c>
       <c r="AE21" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>9.9999999999999994E+71</v>
       </c>
       <c r="AF21" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>1E+72</v>
       </c>
     </row>
@@ -9151,7 +10808,7 @@
         <v>84</v>
       </c>
       <c r="F22">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(E22,$Q:$R,2,FALSE)</f>
         <v>36</v>
       </c>
       <c r="G22">
@@ -9161,7 +10818,7 @@
         <v>83</v>
       </c>
       <c r="I22">
-        <f t="shared" si="9"/>
+        <f>VLOOKUP(H22,$Q:$R,2,FALSE)</f>
         <v>35</v>
       </c>
       <c r="J22">
@@ -9171,11 +10828,11 @@
         <v>18</v>
       </c>
       <c r="L22" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>36,35</v>
       </c>
       <c r="M22" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>30,150</v>
       </c>
       <c r="N22" s="10"/>
@@ -9194,11 +10851,11 @@
         <v>76</v>
       </c>
       <c r="AE22" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>1E+76</v>
       </c>
       <c r="AF22" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>1E+76</v>
       </c>
     </row>
@@ -9210,7 +10867,7 @@
         <v>85</v>
       </c>
       <c r="F23">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(E23,$Q:$R,2,FALSE)</f>
         <v>39</v>
       </c>
       <c r="G23" s="16">
@@ -9220,7 +10877,7 @@
         <v>86</v>
       </c>
       <c r="I23">
-        <f t="shared" si="9"/>
+        <f>VLOOKUP(H23,$Q:$R,2,FALSE)</f>
         <v>42</v>
       </c>
       <c r="J23" s="16">
@@ -9230,11 +10887,11 @@
         <v>19</v>
       </c>
       <c r="L23" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>39,42</v>
       </c>
       <c r="M23" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>5,5</v>
       </c>
       <c r="N23" s="10"/>
@@ -9253,11 +10910,11 @@
         <v>80</v>
       </c>
       <c r="AE23" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>1E+80</v>
       </c>
       <c r="AF23" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>1E+80</v>
       </c>
     </row>
@@ -9269,7 +10926,7 @@
         <v>85</v>
       </c>
       <c r="F24">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(E24,$Q:$R,2,FALSE)</f>
         <v>39</v>
       </c>
       <c r="G24">
@@ -9279,7 +10936,7 @@
         <v>84</v>
       </c>
       <c r="I24">
-        <f t="shared" si="9"/>
+        <f>VLOOKUP(H24,$Q:$R,2,FALSE)</f>
         <v>36</v>
       </c>
       <c r="J24">
@@ -9289,11 +10946,11 @@
         <v>20</v>
       </c>
       <c r="L24" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>39,36</v>
       </c>
       <c r="M24" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>10,50</v>
       </c>
       <c r="N24" s="10"/>
@@ -9312,11 +10969,11 @@
         <v>84</v>
       </c>
       <c r="AE24" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>1.0000000000000001E+84</v>
       </c>
       <c r="AF24" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>1E+84</v>
       </c>
     </row>
@@ -9328,7 +10985,7 @@
         <v>88</v>
       </c>
       <c r="F25">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(E25,$Q:$R,2,FALSE)</f>
         <v>43</v>
       </c>
       <c r="G25">
@@ -9338,7 +10995,7 @@
         <v>84</v>
       </c>
       <c r="I25">
-        <f t="shared" si="9"/>
+        <f>VLOOKUP(H25,$Q:$R,2,FALSE)</f>
         <v>36</v>
       </c>
       <c r="J25">
@@ -9348,11 +11005,11 @@
         <v>21</v>
       </c>
       <c r="L25" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>43,36</v>
       </c>
       <c r="M25" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>0.5,60</v>
       </c>
       <c r="N25" s="10"/>
@@ -9371,11 +11028,11 @@
         <v>88</v>
       </c>
       <c r="AE25" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>9.9999999999999996E+87</v>
       </c>
       <c r="AF25" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>1E+88</v>
       </c>
     </row>
@@ -9387,7 +11044,7 @@
         <v>88</v>
       </c>
       <c r="F26">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(E26,$Q:$R,2,FALSE)</f>
         <v>43</v>
       </c>
       <c r="G26">
@@ -9397,7 +11054,7 @@
         <v>84</v>
       </c>
       <c r="I26">
-        <f t="shared" si="9"/>
+        <f>VLOOKUP(H26,$Q:$R,2,FALSE)</f>
         <v>36</v>
       </c>
       <c r="J26">
@@ -9407,11 +11064,11 @@
         <v>22</v>
       </c>
       <c r="L26" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>43,36</v>
       </c>
       <c r="M26" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>1,80</v>
       </c>
       <c r="N26" s="10"/>
@@ -9430,11 +11087,11 @@
         <v>92</v>
       </c>
       <c r="AE26" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>1E+92</v>
       </c>
       <c r="AF26" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>1E+92</v>
       </c>
     </row>
@@ -9446,7 +11103,7 @@
         <v>88</v>
       </c>
       <c r="F27">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(E27,$Q:$R,2,FALSE)</f>
         <v>43</v>
       </c>
       <c r="G27">
@@ -9456,7 +11113,7 @@
         <v>84</v>
       </c>
       <c r="I27">
-        <f t="shared" si="9"/>
+        <f>VLOOKUP(H27,$Q:$R,2,FALSE)</f>
         <v>36</v>
       </c>
       <c r="J27">
@@ -9466,11 +11123,11 @@
         <v>23</v>
       </c>
       <c r="L27" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>43,36</v>
       </c>
       <c r="M27" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>2,100</v>
       </c>
       <c r="N27" s="10"/>
@@ -9489,11 +11146,11 @@
         <v>96</v>
       </c>
       <c r="AE27" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>1E+96</v>
       </c>
       <c r="AF27" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>1E+96</v>
       </c>
     </row>
@@ -9505,7 +11162,7 @@
         <v>88</v>
       </c>
       <c r="F28">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(E28,$Q:$R,2,FALSE)</f>
         <v>43</v>
       </c>
       <c r="G28" s="16">
@@ -9515,7 +11172,7 @@
         <v>87</v>
       </c>
       <c r="I28">
-        <f t="shared" si="9"/>
+        <f>VLOOKUP(H28,$Q:$R,2,FALSE)</f>
         <v>46</v>
       </c>
       <c r="J28" s="16">
@@ -9525,11 +11182,11 @@
         <v>24</v>
       </c>
       <c r="L28" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>43,46</v>
       </c>
       <c r="M28" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>5,3</v>
       </c>
       <c r="N28" s="10"/>
@@ -9548,11 +11205,11 @@
         <v>100</v>
       </c>
       <c r="AE28" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>1E+100</v>
       </c>
       <c r="AF28" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>1E+100</v>
       </c>
     </row>
@@ -9564,7 +11221,7 @@
         <v>89</v>
       </c>
       <c r="F29">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(E29,$Q:$R,2,FALSE)</f>
         <v>47</v>
       </c>
       <c r="G29">
@@ -9574,7 +11231,7 @@
         <v>85</v>
       </c>
       <c r="I29">
-        <f t="shared" si="9"/>
+        <f>VLOOKUP(H29,$Q:$R,2,FALSE)</f>
         <v>39</v>
       </c>
       <c r="J29">
@@ -9584,11 +11241,11 @@
         <v>25</v>
       </c>
       <c r="L29" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>47,39</v>
       </c>
       <c r="M29" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>1,20</v>
       </c>
       <c r="N29" s="10"/>
@@ -9607,11 +11264,11 @@
         <v>104</v>
       </c>
       <c r="AE29" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>1E+104</v>
       </c>
       <c r="AF29" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>1E+104</v>
       </c>
     </row>
@@ -9623,7 +11280,7 @@
         <v>89</v>
       </c>
       <c r="F30">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(E30,$Q:$R,2,FALSE)</f>
         <v>47</v>
       </c>
       <c r="G30">
@@ -9633,7 +11290,7 @@
         <v>85</v>
       </c>
       <c r="I30">
-        <f t="shared" si="9"/>
+        <f>VLOOKUP(H30,$Q:$R,2,FALSE)</f>
         <v>39</v>
       </c>
       <c r="J30">
@@ -9643,11 +11300,11 @@
         <v>26</v>
       </c>
       <c r="L30" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>47,39</v>
       </c>
       <c r="M30" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>2,30</v>
       </c>
       <c r="N30" s="10"/>
@@ -9666,11 +11323,11 @@
         <v>108</v>
       </c>
       <c r="AE30" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>1E+108</v>
       </c>
       <c r="AF30" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>1E+108</v>
       </c>
     </row>
@@ -9682,7 +11339,7 @@
         <v>89</v>
       </c>
       <c r="F31">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(E31,$Q:$R,2,FALSE)</f>
         <v>47</v>
       </c>
       <c r="G31">
@@ -9692,7 +11349,7 @@
         <v>85</v>
       </c>
       <c r="I31">
-        <f t="shared" si="9"/>
+        <f>VLOOKUP(H31,$Q:$R,2,FALSE)</f>
         <v>39</v>
       </c>
       <c r="J31">
@@ -9702,11 +11359,11 @@
         <v>27</v>
       </c>
       <c r="L31" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>47,39</v>
       </c>
       <c r="M31" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>3,40</v>
       </c>
       <c r="N31" s="10"/>
@@ -9725,11 +11382,11 @@
         <v>112</v>
       </c>
       <c r="AE31" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>9.9999999999999993E+111</v>
       </c>
       <c r="AF31" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>1E+112</v>
       </c>
     </row>
@@ -9741,7 +11398,7 @@
         <v>89</v>
       </c>
       <c r="F32">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(E32,$Q:$R,2,FALSE)</f>
         <v>47</v>
       </c>
       <c r="G32">
@@ -9751,7 +11408,7 @@
         <v>85</v>
       </c>
       <c r="I32">
-        <f t="shared" si="9"/>
+        <f>VLOOKUP(H32,$Q:$R,2,FALSE)</f>
         <v>39</v>
       </c>
       <c r="J32">
@@ -9761,11 +11418,11 @@
         <v>28</v>
       </c>
       <c r="L32" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>47,39</v>
       </c>
       <c r="M32" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>4,50</v>
       </c>
       <c r="N32" s="10"/>
@@ -9778,11 +11435,11 @@
         <v>116</v>
       </c>
       <c r="AE32" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>1E+116</v>
       </c>
       <c r="AF32" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>1E+116</v>
       </c>
     </row>
@@ -9794,7 +11451,7 @@
         <v>90</v>
       </c>
       <c r="F33">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(E33,$Q:$R,2,FALSE)</f>
         <v>50</v>
       </c>
       <c r="G33" s="16">
@@ -9804,7 +11461,7 @@
         <v>86</v>
       </c>
       <c r="I33">
-        <f t="shared" si="9"/>
+        <f>VLOOKUP(H33,$Q:$R,2,FALSE)</f>
         <v>42</v>
       </c>
       <c r="J33" s="16">
@@ -9814,11 +11471,11 @@
         <v>29</v>
       </c>
       <c r="L33" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>50,42</v>
       </c>
       <c r="M33" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>0.5,30</v>
       </c>
       <c r="N33" s="10"/>
@@ -9831,11 +11488,11 @@
         <v>120</v>
       </c>
       <c r="AE33" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>9.9999999999999998E+119</v>
       </c>
       <c r="AF33" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>1E+120</v>
       </c>
     </row>
@@ -9847,7 +11504,7 @@
         <v>90</v>
       </c>
       <c r="F34">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(E34,$Q:$R,2,FALSE)</f>
         <v>50</v>
       </c>
       <c r="G34">
@@ -9857,7 +11514,7 @@
         <v>88</v>
       </c>
       <c r="I34">
-        <f t="shared" si="9"/>
+        <f>VLOOKUP(H34,$Q:$R,2,FALSE)</f>
         <v>43</v>
       </c>
       <c r="J34">
@@ -9867,11 +11524,11 @@
         <v>30</v>
       </c>
       <c r="L34" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>50,43</v>
       </c>
       <c r="M34" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>0.5,10</v>
       </c>
       <c r="N34" s="10"/>
@@ -9884,11 +11541,11 @@
         <v>124</v>
       </c>
       <c r="AE34" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>9.9999999999999995E+123</v>
       </c>
       <c r="AF34" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>1E+124</v>
       </c>
     </row>
@@ -9900,7 +11557,7 @@
         <v>90</v>
       </c>
       <c r="F35">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(E35,$Q:$R,2,FALSE)</f>
         <v>50</v>
       </c>
       <c r="G35">
@@ -9910,7 +11567,7 @@
         <v>88</v>
       </c>
       <c r="I35">
-        <f t="shared" si="9"/>
+        <f>VLOOKUP(H35,$Q:$R,2,FALSE)</f>
         <v>43</v>
       </c>
       <c r="J35">
@@ -9920,11 +11577,11 @@
         <v>31</v>
       </c>
       <c r="L35" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>50,43</v>
       </c>
       <c r="M35" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>0.75,20</v>
       </c>
       <c r="N35" s="10"/>
@@ -9937,11 +11594,11 @@
         <v>128</v>
       </c>
       <c r="AE35" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>1.0000000000000001E+128</v>
       </c>
       <c r="AF35" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>1E+128</v>
       </c>
     </row>
@@ -9953,7 +11610,7 @@
         <v>90</v>
       </c>
       <c r="F36">
-        <f t="shared" ref="F36:F67" si="10">VLOOKUP(E36,$Q:$R,2,FALSE)</f>
+        <f>VLOOKUP(E36,$Q:$R,2,FALSE)</f>
         <v>50</v>
       </c>
       <c r="G36">
@@ -9963,7 +11620,7 @@
         <v>88</v>
       </c>
       <c r="I36">
-        <f t="shared" si="9"/>
+        <f>VLOOKUP(H36,$Q:$R,2,FALSE)</f>
         <v>43</v>
       </c>
       <c r="J36">
@@ -9973,11 +11630,11 @@
         <v>32</v>
       </c>
       <c r="L36" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>50,43</v>
       </c>
       <c r="M36" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>1,35</v>
       </c>
       <c r="N36" s="10"/>
@@ -9990,11 +11647,11 @@
         <v>132</v>
       </c>
       <c r="AE36" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>9.9999999999999999E+131</v>
       </c>
       <c r="AF36" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>1E+132</v>
       </c>
     </row>
@@ -10006,7 +11663,7 @@
         <v>90</v>
       </c>
       <c r="F37">
-        <f t="shared" si="10"/>
+        <f>VLOOKUP(E37,$Q:$R,2,FALSE)</f>
         <v>50</v>
       </c>
       <c r="G37">
@@ -10016,7 +11673,7 @@
         <v>88</v>
       </c>
       <c r="I37">
-        <f t="shared" si="9"/>
+        <f>VLOOKUP(H37,$Q:$R,2,FALSE)</f>
         <v>43</v>
       </c>
       <c r="J37">
@@ -10026,20 +11683,30 @@
         <v>33</v>
       </c>
       <c r="L37" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>50,43</v>
       </c>
       <c r="M37" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>1.25,50</v>
       </c>
       <c r="N37" s="10"/>
       <c r="O37" s="11"/>
       <c r="P37" s="10"/>
-      <c r="AC37" s="2"/>
-      <c r="AD37" s="2"/>
-      <c r="AE37" s="2"/>
-      <c r="AF37" s="2"/>
+      <c r="AC37" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="AD37" s="3">
+        <v>136</v>
+      </c>
+      <c r="AE37" s="4">
+        <f t="shared" ref="AE37:AE38" si="4">POWER(10,AD37)</f>
+        <v>1.0000000000000001E+136</v>
+      </c>
+      <c r="AF37" s="4" t="str">
+        <f t="shared" ref="AF37:AF38" si="5">RIGHT(AE37,AD37)</f>
+        <v>1E+136</v>
+      </c>
     </row>
     <row r="38" spans="3:32" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
@@ -10052,7 +11719,7 @@
         <v>92</v>
       </c>
       <c r="F38">
-        <f t="shared" si="10"/>
+        <f>VLOOKUP(E38,$Q:$R,2,FALSE)</f>
         <v>54</v>
       </c>
       <c r="G38" s="16">
@@ -10062,7 +11729,7 @@
         <v>87</v>
       </c>
       <c r="I38">
-        <f t="shared" si="9"/>
+        <f>VLOOKUP(H38,$Q:$R,2,FALSE)</f>
         <v>46</v>
       </c>
       <c r="J38" s="16">
@@ -10072,16 +11739,30 @@
         <v>34</v>
       </c>
       <c r="L38" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>54,46</v>
       </c>
       <c r="M38" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>0.5,5</v>
       </c>
       <c r="N38" s="10"/>
       <c r="O38" s="11"/>
       <c r="P38" s="10"/>
+      <c r="AC38" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD38" s="3">
+        <v>140</v>
+      </c>
+      <c r="AE38" s="4">
+        <f t="shared" si="4"/>
+        <v>1.0000000000000001E+140</v>
+      </c>
+      <c r="AF38" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>1E+140</v>
+      </c>
     </row>
     <row r="39" spans="3:32" x14ac:dyDescent="0.3">
       <c r="D39" s="10">
@@ -10091,7 +11772,7 @@
         <v>91</v>
       </c>
       <c r="F39">
-        <f t="shared" si="10"/>
+        <f>VLOOKUP(E39,$Q:$R,2,FALSE)</f>
         <v>60</v>
       </c>
       <c r="G39">
@@ -10101,7 +11782,7 @@
         <v>89</v>
       </c>
       <c r="I39">
-        <f t="shared" si="9"/>
+        <f>VLOOKUP(H39,$Q:$R,2,FALSE)</f>
         <v>47</v>
       </c>
       <c r="J39">
@@ -10111,11 +11792,11 @@
         <v>35</v>
       </c>
       <c r="L39" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>60,47</v>
       </c>
       <c r="M39" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>0.15,5</v>
       </c>
       <c r="N39" s="10"/>
@@ -10130,7 +11811,7 @@
         <v>92</v>
       </c>
       <c r="F40">
-        <f t="shared" si="10"/>
+        <f>VLOOKUP(E40,$Q:$R,2,FALSE)</f>
         <v>54</v>
       </c>
       <c r="G40">
@@ -10140,7 +11821,7 @@
         <v>89</v>
       </c>
       <c r="I40">
-        <f t="shared" si="9"/>
+        <f>VLOOKUP(H40,$Q:$R,2,FALSE)</f>
         <v>47</v>
       </c>
       <c r="J40">
@@ -10150,11 +11831,11 @@
         <v>36</v>
       </c>
       <c r="L40" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>54,47</v>
       </c>
       <c r="M40" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>0.1,6</v>
       </c>
       <c r="N40" s="10"/>
@@ -10169,7 +11850,7 @@
         <v>92</v>
       </c>
       <c r="F41">
-        <f t="shared" si="10"/>
+        <f>VLOOKUP(E41,$Q:$R,2,FALSE)</f>
         <v>54</v>
       </c>
       <c r="G41">
@@ -10179,7 +11860,7 @@
         <v>89</v>
       </c>
       <c r="I41">
-        <f t="shared" si="9"/>
+        <f>VLOOKUP(H41,$Q:$R,2,FALSE)</f>
         <v>47</v>
       </c>
       <c r="J41">
@@ -10189,11 +11870,11 @@
         <v>37</v>
       </c>
       <c r="L41" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>54,47</v>
       </c>
       <c r="M41" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>0.15,7</v>
       </c>
       <c r="N41" s="10"/>
@@ -10208,7 +11889,7 @@
         <v>92</v>
       </c>
       <c r="F42">
-        <f t="shared" si="10"/>
+        <f>VLOOKUP(E42,$Q:$R,2,FALSE)</f>
         <v>54</v>
       </c>
       <c r="G42">
@@ -10218,7 +11899,7 @@
         <v>89</v>
       </c>
       <c r="I42">
-        <f t="shared" si="9"/>
+        <f>VLOOKUP(H42,$Q:$R,2,FALSE)</f>
         <v>47</v>
       </c>
       <c r="J42">
@@ -10228,11 +11909,11 @@
         <v>38</v>
       </c>
       <c r="L42" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>54,47</v>
       </c>
       <c r="M42" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>0.25,8</v>
       </c>
       <c r="N42" s="10"/>
@@ -10250,7 +11931,7 @@
         <v>92</v>
       </c>
       <c r="F43">
-        <f t="shared" si="10"/>
+        <f>VLOOKUP(E43,$Q:$R,2,FALSE)</f>
         <v>54</v>
       </c>
       <c r="G43" s="16">
@@ -10260,7 +11941,7 @@
         <v>86</v>
       </c>
       <c r="I43">
-        <f t="shared" si="9"/>
+        <f>VLOOKUP(H43,$Q:$R,2,FALSE)</f>
         <v>42</v>
       </c>
       <c r="J43" s="16">
@@ -10270,11 +11951,11 @@
         <v>39</v>
       </c>
       <c r="L43" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>54,42</v>
       </c>
       <c r="M43" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>0.5,50</v>
       </c>
       <c r="N43" s="10"/>
@@ -10289,7 +11970,7 @@
         <v>91</v>
       </c>
       <c r="F44">
-        <f t="shared" si="10"/>
+        <f>VLOOKUP(E44,$Q:$R,2,FALSE)</f>
         <v>60</v>
       </c>
       <c r="G44">
@@ -10299,7 +11980,7 @@
         <v>90</v>
       </c>
       <c r="I44">
-        <f t="shared" si="9"/>
+        <f>VLOOKUP(H44,$Q:$R,2,FALSE)</f>
         <v>50</v>
       </c>
       <c r="J44">
@@ -10309,11 +11990,11 @@
         <v>40</v>
       </c>
       <c r="L44" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>60,50</v>
       </c>
       <c r="M44" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>0.2,1.5</v>
       </c>
       <c r="N44" s="10"/>
@@ -10328,7 +12009,7 @@
         <v>91</v>
       </c>
       <c r="F45">
-        <f t="shared" si="10"/>
+        <f>VLOOKUP(E45,$Q:$R,2,FALSE)</f>
         <v>60</v>
       </c>
       <c r="G45">
@@ -10338,7 +12019,7 @@
         <v>90</v>
       </c>
       <c r="I45">
-        <f t="shared" ref="I45:I76" si="11">VLOOKUP(H45,$Q:$R,2,FALSE)</f>
+        <f>VLOOKUP(H45,$Q:$R,2,FALSE)</f>
         <v>50</v>
       </c>
       <c r="J45">
@@ -10348,11 +12029,11 @@
         <v>41</v>
       </c>
       <c r="L45" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>60,50</v>
       </c>
       <c r="M45" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>0.3,1.75</v>
       </c>
       <c r="N45" s="10"/>
@@ -10367,7 +12048,7 @@
         <v>91</v>
       </c>
       <c r="F46">
-        <f t="shared" si="10"/>
+        <f>VLOOKUP(E46,$Q:$R,2,FALSE)</f>
         <v>60</v>
       </c>
       <c r="G46">
@@ -10377,7 +12058,7 @@
         <v>90</v>
       </c>
       <c r="I46">
-        <f t="shared" si="11"/>
+        <f>VLOOKUP(H46,$Q:$R,2,FALSE)</f>
         <v>50</v>
       </c>
       <c r="J46">
@@ -10387,11 +12068,11 @@
         <v>42</v>
       </c>
       <c r="L46" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>60,50</v>
       </c>
       <c r="M46" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>0.4,2</v>
       </c>
       <c r="N46" s="10"/>
@@ -10406,7 +12087,7 @@
         <v>92</v>
       </c>
       <c r="F47">
-        <f t="shared" si="10"/>
+        <f>VLOOKUP(E47,$Q:$R,2,FALSE)</f>
         <v>54</v>
       </c>
       <c r="G47">
@@ -10416,7 +12097,7 @@
         <v>90</v>
       </c>
       <c r="I47">
-        <f t="shared" si="11"/>
+        <f>VLOOKUP(H47,$Q:$R,2,FALSE)</f>
         <v>50</v>
       </c>
       <c r="J47">
@@ -10426,11 +12107,11 @@
         <v>43</v>
       </c>
       <c r="L47" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>54,50</v>
       </c>
       <c r="M47" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>3,2.25</v>
       </c>
       <c r="N47" s="10"/>
@@ -10445,7 +12126,7 @@
         <v>92</v>
       </c>
       <c r="F48">
-        <f t="shared" si="10"/>
+        <f>VLOOKUP(E48,$Q:$R,2,FALSE)</f>
         <v>54</v>
       </c>
       <c r="G48" s="16">
@@ -10455,7 +12136,7 @@
         <v>93</v>
       </c>
       <c r="I48">
-        <f t="shared" si="11"/>
+        <f>VLOOKUP(H48,$Q:$R,2,FALSE)</f>
         <v>61</v>
       </c>
       <c r="J48" s="16">
@@ -10465,11 +12146,11 @@
         <v>44</v>
       </c>
       <c r="L48" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>54,61</v>
       </c>
       <c r="M48" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>1,0.1</v>
       </c>
       <c r="N48" s="10"/>
@@ -10484,7 +12165,7 @@
         <v>83</v>
       </c>
       <c r="F49">
-        <f t="shared" si="10"/>
+        <f>VLOOKUP(E49,$Q:$R,2,FALSE)</f>
         <v>35</v>
       </c>
       <c r="G49">
@@ -10494,7 +12175,7 @@
         <v>92</v>
       </c>
       <c r="I49">
-        <f t="shared" si="11"/>
+        <f>VLOOKUP(H49,$Q:$R,2,FALSE)</f>
         <v>54</v>
       </c>
       <c r="J49">
@@ -10504,11 +12185,11 @@
         <v>45</v>
       </c>
       <c r="L49" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>35,54</v>
       </c>
       <c r="M49" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>200,1.25</v>
       </c>
       <c r="N49" s="10"/>
@@ -10523,7 +12204,7 @@
         <v>84</v>
       </c>
       <c r="F50">
-        <f t="shared" si="10"/>
+        <f>VLOOKUP(E50,$Q:$R,2,FALSE)</f>
         <v>36</v>
       </c>
       <c r="G50">
@@ -10533,7 +12214,7 @@
         <v>90</v>
       </c>
       <c r="I50">
-        <f t="shared" si="11"/>
+        <f>VLOOKUP(H50,$Q:$R,2,FALSE)</f>
         <v>50</v>
       </c>
       <c r="J50">
@@ -10543,11 +12224,11 @@
         <v>46</v>
       </c>
       <c r="L50" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>36,50</v>
       </c>
       <c r="M50" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>150,2.5</v>
       </c>
       <c r="N50" s="10"/>
@@ -10562,7 +12243,7 @@
         <v>85</v>
       </c>
       <c r="F51">
-        <f t="shared" si="10"/>
+        <f>VLOOKUP(E51,$Q:$R,2,FALSE)</f>
         <v>39</v>
       </c>
       <c r="G51">
@@ -10572,7 +12253,7 @@
         <v>89</v>
       </c>
       <c r="I51">
-        <f t="shared" si="11"/>
+        <f>VLOOKUP(H51,$Q:$R,2,FALSE)</f>
         <v>47</v>
       </c>
       <c r="J51">
@@ -10582,11 +12263,11 @@
         <v>47</v>
       </c>
       <c r="L51" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>39,47</v>
       </c>
       <c r="M51" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>100,10</v>
       </c>
       <c r="N51" s="10"/>
@@ -10601,7 +12282,7 @@
         <v>88</v>
       </c>
       <c r="F52">
-        <f t="shared" si="10"/>
+        <f>VLOOKUP(E52,$Q:$R,2,FALSE)</f>
         <v>43</v>
       </c>
       <c r="G52">
@@ -10611,7 +12292,7 @@
         <v>96</v>
       </c>
       <c r="I52">
-        <f t="shared" si="11"/>
+        <f>VLOOKUP(H52,$Q:$R,2,FALSE)</f>
         <v>55</v>
       </c>
       <c r="J52">
@@ -10621,11 +12302,11 @@
         <v>48</v>
       </c>
       <c r="L52" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>43,55</v>
       </c>
       <c r="M52" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>50,0.05</v>
       </c>
       <c r="N52" s="10"/>
@@ -10640,7 +12321,7 @@
         <v>91</v>
       </c>
       <c r="F53">
-        <f t="shared" si="10"/>
+        <f>VLOOKUP(E53,$Q:$R,2,FALSE)</f>
         <v>60</v>
       </c>
       <c r="G53" s="16">
@@ -10650,7 +12331,7 @@
         <v>86</v>
       </c>
       <c r="I53">
-        <f t="shared" si="11"/>
+        <f>VLOOKUP(H53,$Q:$R,2,FALSE)</f>
         <v>42</v>
       </c>
       <c r="J53" s="16">
@@ -10660,11 +12341,11 @@
         <v>49</v>
       </c>
       <c r="L53" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>60,42</v>
       </c>
       <c r="M53" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>0.5,60</v>
       </c>
       <c r="N53" s="10"/>
@@ -10683,7 +12364,7 @@
         <v>지옥 베기</v>
       </c>
       <c r="F54">
-        <f t="shared" si="10"/>
+        <f>VLOOKUP(E54,$Q:$R,2,FALSE)</f>
         <v>35</v>
       </c>
       <c r="G54">
@@ -10694,7 +12375,7 @@
         <v>92</v>
       </c>
       <c r="I54">
-        <f t="shared" si="11"/>
+        <f>VLOOKUP(H54,$Q:$R,2,FALSE)</f>
         <v>54</v>
       </c>
       <c r="J54">
@@ -10704,11 +12385,11 @@
         <v>50</v>
       </c>
       <c r="L54" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>35,54</v>
       </c>
       <c r="M54" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>250,1.5</v>
       </c>
       <c r="N54" s="10"/>
@@ -10720,37 +12401,37 @@
         <v>51</v>
       </c>
       <c r="E55" t="str">
-        <f t="shared" ref="E55:E103" si="12">E50</f>
+        <f t="shared" ref="E55:E118" si="6">E50</f>
         <v>천상 베기</v>
       </c>
       <c r="F55">
-        <f t="shared" si="10"/>
+        <f>VLOOKUP(E55,$Q:$R,2,FALSE)</f>
         <v>36</v>
       </c>
       <c r="G55">
-        <f t="shared" ref="G55:G103" si="13">G50+VLOOKUP(E55,$Q$20:$R$31,2,FALSE)</f>
+        <f t="shared" ref="G55:G103" si="7">G50+VLOOKUP(E55,$Q$20:$R$31,2,FALSE)</f>
         <v>17500</v>
       </c>
       <c r="H55" t="s">
         <v>90</v>
       </c>
       <c r="I55">
-        <f t="shared" si="11"/>
+        <f>VLOOKUP(H55,$Q:$R,2,FALSE)</f>
         <v>50</v>
       </c>
       <c r="J55">
-        <f t="shared" ref="J55:J57" si="14">J50+VLOOKUP(H55,$Q$20:$R$31,2,FALSE)</f>
+        <f t="shared" ref="J55:J57" si="8">J50+VLOOKUP(H55,$Q$20:$R$31,2,FALSE)</f>
         <v>325</v>
       </c>
       <c r="K55" s="10">
         <v>51</v>
       </c>
       <c r="L55" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>36,50</v>
       </c>
       <c r="M55" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>175,3.25</v>
       </c>
       <c r="N55" s="10"/>
@@ -10762,37 +12443,37 @@
         <v>52</v>
       </c>
       <c r="E56" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>귀신 베기</v>
       </c>
       <c r="F56">
-        <f t="shared" si="10"/>
+        <f>VLOOKUP(E56,$Q:$R,2,FALSE)</f>
         <v>39</v>
       </c>
       <c r="G56">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>11500</v>
       </c>
       <c r="H56" t="s">
         <v>89</v>
       </c>
       <c r="I56">
-        <f t="shared" si="11"/>
+        <f>VLOOKUP(H56,$Q:$R,2,FALSE)</f>
         <v>47</v>
       </c>
       <c r="J56">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>1250</v>
       </c>
       <c r="K56" s="10">
         <v>52</v>
       </c>
       <c r="L56" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>39,47</v>
       </c>
       <c r="M56" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>115,12.5</v>
       </c>
       <c r="N56" s="10"/>
@@ -10804,37 +12485,37 @@
         <v>53</v>
       </c>
       <c r="E57" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>금강 베기</v>
       </c>
       <c r="F57">
-        <f t="shared" si="10"/>
+        <f>VLOOKUP(E57,$Q:$R,2,FALSE)</f>
         <v>43</v>
       </c>
       <c r="G57">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>5500</v>
       </c>
       <c r="H57" t="s">
         <v>96</v>
       </c>
       <c r="I57">
-        <f t="shared" si="11"/>
+        <f>VLOOKUP(H57,$Q:$R,2,FALSE)</f>
         <v>55</v>
       </c>
       <c r="J57">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="K57" s="10">
         <v>53</v>
       </c>
       <c r="L57" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>43,55</v>
       </c>
       <c r="M57" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>55,0.06</v>
       </c>
       <c r="N57" s="10"/>
@@ -10846,22 +12527,22 @@
         <v>54</v>
       </c>
       <c r="E58" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>귀살 베기</v>
       </c>
       <c r="F58">
-        <f t="shared" si="10"/>
+        <f>VLOOKUP(E58,$Q:$R,2,FALSE)</f>
         <v>60</v>
       </c>
       <c r="G58">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>51</v>
       </c>
       <c r="H58" s="16" t="s">
         <v>87</v>
       </c>
       <c r="I58">
-        <f t="shared" si="11"/>
+        <f>VLOOKUP(H58,$Q:$R,2,FALSE)</f>
         <v>46</v>
       </c>
       <c r="J58">
@@ -10871,11 +12552,11 @@
         <v>54</v>
       </c>
       <c r="L58" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>60,46</v>
       </c>
       <c r="M58" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>0.51,6</v>
       </c>
       <c r="N58" s="10"/>
@@ -10887,22 +12568,22 @@
         <v>55</v>
       </c>
       <c r="E59" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>지옥 베기</v>
       </c>
       <c r="F59">
-        <f t="shared" si="10"/>
+        <f>VLOOKUP(E59,$Q:$R,2,FALSE)</f>
         <v>35</v>
       </c>
       <c r="G59">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>30000</v>
       </c>
       <c r="H59" t="s">
         <v>92</v>
       </c>
       <c r="I59">
-        <f t="shared" si="11"/>
+        <f>VLOOKUP(H59,$Q:$R,2,FALSE)</f>
         <v>54</v>
       </c>
       <c r="J59">
@@ -10913,11 +12594,11 @@
         <v>55</v>
       </c>
       <c r="L59" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>35,54</v>
       </c>
       <c r="M59" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>300,1.55</v>
       </c>
       <c r="N59" s="10"/>
@@ -10929,37 +12610,37 @@
         <v>56</v>
       </c>
       <c r="E60" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>천상 베기</v>
       </c>
       <c r="F60">
-        <f t="shared" si="10"/>
+        <f>VLOOKUP(E60,$Q:$R,2,FALSE)</f>
         <v>36</v>
       </c>
       <c r="G60">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>20000</v>
       </c>
       <c r="H60" t="s">
         <v>90</v>
       </c>
       <c r="I60">
-        <f t="shared" si="11"/>
+        <f>VLOOKUP(H60,$Q:$R,2,FALSE)</f>
         <v>50</v>
       </c>
       <c r="J60">
-        <f t="shared" ref="J60:J62" si="15">J55+VLOOKUP(H60,$Q$20:$R$31,2,FALSE)</f>
+        <f t="shared" ref="J60:J62" si="9">J55+VLOOKUP(H60,$Q$20:$R$31,2,FALSE)</f>
         <v>400</v>
       </c>
       <c r="K60" s="10">
         <v>56</v>
       </c>
       <c r="L60" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>36,50</v>
       </c>
       <c r="M60" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>200,4</v>
       </c>
       <c r="N60" s="10"/>
@@ -10971,37 +12652,37 @@
         <v>57</v>
       </c>
       <c r="E61" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>귀신 베기</v>
       </c>
       <c r="F61">
-        <f t="shared" si="10"/>
+        <f>VLOOKUP(E61,$Q:$R,2,FALSE)</f>
         <v>39</v>
       </c>
       <c r="G61">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>13000</v>
       </c>
       <c r="H61" t="s">
         <v>89</v>
       </c>
       <c r="I61">
-        <f t="shared" si="11"/>
+        <f>VLOOKUP(H61,$Q:$R,2,FALSE)</f>
         <v>47</v>
       </c>
       <c r="J61">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>1500</v>
       </c>
       <c r="K61" s="10">
         <v>57</v>
       </c>
       <c r="L61" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>39,47</v>
       </c>
       <c r="M61" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>130,15</v>
       </c>
       <c r="N61" s="10"/>
@@ -11013,37 +12694,37 @@
         <v>58</v>
       </c>
       <c r="E62" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>금강 베기</v>
       </c>
       <c r="F62">
-        <f t="shared" si="10"/>
+        <f>VLOOKUP(E62,$Q:$R,2,FALSE)</f>
         <v>43</v>
       </c>
       <c r="G62">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>6000</v>
       </c>
       <c r="H62" t="s">
         <v>96</v>
       </c>
       <c r="I62">
-        <f t="shared" si="11"/>
+        <f>VLOOKUP(H62,$Q:$R,2,FALSE)</f>
         <v>55</v>
       </c>
       <c r="J62">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>7</v>
       </c>
       <c r="K62" s="10">
         <v>58</v>
       </c>
       <c r="L62" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>43,55</v>
       </c>
       <c r="M62" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>60,0.07</v>
       </c>
       <c r="N62" s="10"/>
@@ -11055,22 +12736,22 @@
         <v>59</v>
       </c>
       <c r="E63" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>귀살 베기</v>
       </c>
       <c r="F63">
-        <f t="shared" si="10"/>
+        <f>VLOOKUP(E63,$Q:$R,2,FALSE)</f>
         <v>60</v>
       </c>
       <c r="G63">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>52</v>
       </c>
       <c r="H63" s="16" t="s">
         <v>93</v>
       </c>
       <c r="I63">
-        <f t="shared" si="11"/>
+        <f>VLOOKUP(H63,$Q:$R,2,FALSE)</f>
         <v>61</v>
       </c>
       <c r="J63">
@@ -11080,11 +12761,11 @@
         <v>59</v>
       </c>
       <c r="L63" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>60,61</v>
       </c>
       <c r="M63" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>0.52,0.15</v>
       </c>
       <c r="N63" s="10"/>
@@ -11096,15 +12777,15 @@
         <v>60</v>
       </c>
       <c r="E64" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>지옥 베기</v>
       </c>
       <c r="F64">
-        <f t="shared" si="10"/>
+        <f>VLOOKUP(E64,$Q:$R,2,FALSE)</f>
         <v>35</v>
       </c>
       <c r="G64">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>35000</v>
       </c>
       <c r="H64" t="str">
@@ -11112,7 +12793,7 @@
         <v>신선 베기</v>
       </c>
       <c r="I64">
-        <f t="shared" si="11"/>
+        <f>VLOOKUP(H64,$Q:$R,2,FALSE)</f>
         <v>54</v>
       </c>
       <c r="J64">
@@ -11123,11 +12804,11 @@
         <v>60</v>
       </c>
       <c r="L64" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>35,54</v>
       </c>
       <c r="M64" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>350,1.6</v>
       </c>
       <c r="N64" s="10"/>
@@ -11139,38 +12820,38 @@
         <v>61</v>
       </c>
       <c r="E65" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>천상 베기</v>
       </c>
       <c r="F65">
-        <f t="shared" si="10"/>
+        <f>VLOOKUP(E65,$Q:$R,2,FALSE)</f>
         <v>36</v>
       </c>
       <c r="G65">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>22500</v>
       </c>
       <c r="H65" t="str">
-        <f t="shared" ref="H65:H103" si="16">H50</f>
+        <f t="shared" ref="H65:H128" si="10">H50</f>
         <v>심연 베기</v>
       </c>
       <c r="I65">
-        <f t="shared" si="11"/>
+        <f>VLOOKUP(H65,$Q:$R,2,FALSE)</f>
         <v>50</v>
       </c>
       <c r="J65">
-        <f t="shared" ref="J65:J67" si="17">J60+VLOOKUP(H65,$Q$20:$R$31,2,FALSE)</f>
+        <f t="shared" ref="J65:J67" si="11">J60+VLOOKUP(H65,$Q$20:$R$31,2,FALSE)</f>
         <v>475</v>
       </c>
       <c r="K65" s="10">
         <v>61</v>
       </c>
       <c r="L65" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>36,50</v>
       </c>
       <c r="M65" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>225,4.75</v>
       </c>
       <c r="N65" s="10"/>
@@ -11182,38 +12863,38 @@
         <v>62</v>
       </c>
       <c r="E66" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>귀신 베기</v>
       </c>
       <c r="F66">
+        <f>VLOOKUP(E66,$Q:$R,2,FALSE)</f>
+        <v>39</v>
+      </c>
+      <c r="G66">
+        <f t="shared" si="7"/>
+        <v>14500</v>
+      </c>
+      <c r="H66" t="str">
         <f t="shared" si="10"/>
-        <v>39</v>
-      </c>
-      <c r="G66">
-        <f t="shared" si="13"/>
-        <v>14500</v>
-      </c>
-      <c r="H66" t="str">
-        <f t="shared" si="16"/>
         <v>섬광 베기</v>
       </c>
       <c r="I66">
+        <f>VLOOKUP(H66,$Q:$R,2,FALSE)</f>
+        <v>47</v>
+      </c>
+      <c r="J66">
         <f t="shared" si="11"/>
-        <v>47</v>
-      </c>
-      <c r="J66">
-        <f t="shared" si="17"/>
         <v>1750</v>
       </c>
       <c r="K66" s="10">
         <v>62</v>
       </c>
       <c r="L66" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>39,47</v>
       </c>
       <c r="M66" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>145,17.5</v>
       </c>
       <c r="N66" s="10"/>
@@ -11225,38 +12906,38 @@
         <v>63</v>
       </c>
       <c r="E67" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>금강 베기</v>
       </c>
       <c r="F67">
+        <f>VLOOKUP(E67,$Q:$R,2,FALSE)</f>
+        <v>43</v>
+      </c>
+      <c r="G67">
+        <f t="shared" si="7"/>
+        <v>6500</v>
+      </c>
+      <c r="H67" t="str">
         <f t="shared" si="10"/>
-        <v>43</v>
-      </c>
-      <c r="G67">
-        <f t="shared" si="13"/>
-        <v>6500</v>
-      </c>
-      <c r="H67" t="str">
-        <f t="shared" si="16"/>
         <v>태극 베기</v>
       </c>
       <c r="I67">
+        <f>VLOOKUP(H67,$Q:$R,2,FALSE)</f>
+        <v>55</v>
+      </c>
+      <c r="J67">
         <f t="shared" si="11"/>
-        <v>55</v>
-      </c>
-      <c r="J67">
-        <f t="shared" si="17"/>
         <v>8</v>
       </c>
       <c r="K67" s="10">
         <v>63</v>
       </c>
       <c r="L67" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>43,55</v>
       </c>
       <c r="M67" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>65,0.08</v>
       </c>
       <c r="N67" s="10"/>
@@ -11268,23 +12949,23 @@
         <v>64</v>
       </c>
       <c r="E68" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>귀살 베기</v>
       </c>
       <c r="F68">
-        <f t="shared" ref="F68:F99" si="18">VLOOKUP(E68,$Q:$R,2,FALSE)</f>
+        <f>VLOOKUP(E68,$Q:$R,2,FALSE)</f>
         <v>60</v>
       </c>
       <c r="G68">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>53</v>
       </c>
       <c r="H68" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>신수 베기</v>
       </c>
       <c r="I68">
-        <f t="shared" si="11"/>
+        <f>VLOOKUP(H68,$Q:$R,2,FALSE)</f>
         <v>42</v>
       </c>
       <c r="J68">
@@ -11296,11 +12977,11 @@
         <v>0</v>
       </c>
       <c r="L68" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>60,42</v>
       </c>
       <c r="M68" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>0.53,65</v>
       </c>
       <c r="N68" s="10"/>
@@ -11312,38 +12993,38 @@
         <v>65</v>
       </c>
       <c r="E69" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>지옥 베기</v>
       </c>
       <c r="F69">
-        <f t="shared" si="18"/>
+        <f>VLOOKUP(E69,$Q:$R,2,FALSE)</f>
         <v>35</v>
       </c>
       <c r="G69">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>40000</v>
       </c>
       <c r="H69" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>신선 베기</v>
       </c>
       <c r="I69">
-        <f t="shared" si="11"/>
+        <f>VLOOKUP(H69,$Q:$R,2,FALSE)</f>
         <v>54</v>
       </c>
       <c r="J69">
-        <f t="shared" ref="J69:J103" si="19">IF(I69=42,J54+$R$23,IF(I69=46,J54+$R$24,IF(I69=61,J54+$R$30,J64+VLOOKUP(H69,$Q$20:$R$31,2,FALSE))))</f>
+        <f t="shared" ref="J69:J103" si="12">IF(I69=42,J54+$R$23,IF(I69=46,J54+$R$24,IF(I69=61,J54+$R$30,J64+VLOOKUP(H69,$Q$20:$R$31,2,FALSE))))</f>
         <v>165</v>
       </c>
       <c r="K69" s="10">
         <v>65</v>
       </c>
       <c r="L69" s="10" t="str">
-        <f t="shared" ref="L69:L103" si="20">IF(H69=0,F69&amp;",-1",F69&amp;","&amp;I69)</f>
+        <f t="shared" ref="L69:L103" si="13">IF(H69=0,F69&amp;",-1",F69&amp;","&amp;I69)</f>
         <v>35,54</v>
       </c>
       <c r="M69" s="10" t="str">
-        <f t="shared" ref="M69:M103" si="21">IF(H69=0,G69/100&amp;","&amp;0,G69/100&amp;","&amp;J69/100)</f>
+        <f t="shared" ref="M69:M103" si="14">IF(H69=0,G69/100&amp;","&amp;0,G69/100&amp;","&amp;J69/100)</f>
         <v>400,1.65</v>
       </c>
       <c r="N69" s="10"/>
@@ -11355,38 +13036,38 @@
         <v>66</v>
       </c>
       <c r="E70" t="str">
+        <f t="shared" si="6"/>
+        <v>천상 베기</v>
+      </c>
+      <c r="F70">
+        <f>VLOOKUP(E70,$Q:$R,2,FALSE)</f>
+        <v>36</v>
+      </c>
+      <c r="G70">
+        <f t="shared" si="7"/>
+        <v>25000</v>
+      </c>
+      <c r="H70" t="str">
+        <f t="shared" si="10"/>
+        <v>심연 베기</v>
+      </c>
+      <c r="I70">
+        <f>VLOOKUP(H70,$Q:$R,2,FALSE)</f>
+        <v>50</v>
+      </c>
+      <c r="J70">
         <f t="shared" si="12"/>
-        <v>천상 베기</v>
-      </c>
-      <c r="F70">
-        <f t="shared" si="18"/>
-        <v>36</v>
-      </c>
-      <c r="G70">
-        <f t="shared" si="13"/>
-        <v>25000</v>
-      </c>
-      <c r="H70" t="str">
-        <f t="shared" si="16"/>
-        <v>심연 베기</v>
-      </c>
-      <c r="I70">
-        <f t="shared" si="11"/>
-        <v>50</v>
-      </c>
-      <c r="J70">
-        <f t="shared" si="19"/>
         <v>550</v>
       </c>
       <c r="K70" s="10">
         <v>66</v>
       </c>
       <c r="L70" s="10" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="13"/>
         <v>36,50</v>
       </c>
       <c r="M70" s="10" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="14"/>
         <v>250,5.5</v>
       </c>
       <c r="N70" s="10"/>
@@ -11398,38 +13079,38 @@
         <v>67</v>
       </c>
       <c r="E71" t="str">
+        <f t="shared" si="6"/>
+        <v>귀신 베기</v>
+      </c>
+      <c r="F71">
+        <f>VLOOKUP(E71,$Q:$R,2,FALSE)</f>
+        <v>39</v>
+      </c>
+      <c r="G71">
+        <f t="shared" si="7"/>
+        <v>16000</v>
+      </c>
+      <c r="H71" t="str">
+        <f t="shared" si="10"/>
+        <v>섬광 베기</v>
+      </c>
+      <c r="I71">
+        <f>VLOOKUP(H71,$Q:$R,2,FALSE)</f>
+        <v>47</v>
+      </c>
+      <c r="J71">
         <f t="shared" si="12"/>
-        <v>귀신 베기</v>
-      </c>
-      <c r="F71">
-        <f t="shared" si="18"/>
-        <v>39</v>
-      </c>
-      <c r="G71">
-        <f t="shared" si="13"/>
-        <v>16000</v>
-      </c>
-      <c r="H71" t="str">
-        <f t="shared" si="16"/>
-        <v>섬광 베기</v>
-      </c>
-      <c r="I71">
-        <f t="shared" si="11"/>
-        <v>47</v>
-      </c>
-      <c r="J71">
-        <f t="shared" si="19"/>
         <v>2000</v>
       </c>
       <c r="K71" s="10">
         <v>67</v>
       </c>
       <c r="L71" s="10" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="13"/>
         <v>39,47</v>
       </c>
       <c r="M71" s="10" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="14"/>
         <v>160,20</v>
       </c>
       <c r="N71" s="10"/>
@@ -11441,38 +13122,38 @@
         <v>68</v>
       </c>
       <c r="E72" t="str">
+        <f t="shared" si="6"/>
+        <v>금강 베기</v>
+      </c>
+      <c r="F72">
+        <f>VLOOKUP(E72,$Q:$R,2,FALSE)</f>
+        <v>43</v>
+      </c>
+      <c r="G72">
+        <f t="shared" si="7"/>
+        <v>7000</v>
+      </c>
+      <c r="H72" t="str">
+        <f t="shared" si="10"/>
+        <v>태극 베기</v>
+      </c>
+      <c r="I72">
+        <f>VLOOKUP(H72,$Q:$R,2,FALSE)</f>
+        <v>55</v>
+      </c>
+      <c r="J72">
         <f t="shared" si="12"/>
-        <v>금강 베기</v>
-      </c>
-      <c r="F72">
-        <f t="shared" si="18"/>
-        <v>43</v>
-      </c>
-      <c r="G72">
-        <f t="shared" si="13"/>
-        <v>7000</v>
-      </c>
-      <c r="H72" t="str">
-        <f t="shared" si="16"/>
-        <v>태극 베기</v>
-      </c>
-      <c r="I72">
-        <f t="shared" si="11"/>
-        <v>55</v>
-      </c>
-      <c r="J72">
-        <f t="shared" si="19"/>
         <v>9</v>
       </c>
       <c r="K72" s="10">
         <v>68</v>
       </c>
       <c r="L72" s="10" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="13"/>
         <v>43,55</v>
       </c>
       <c r="M72" s="10" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="14"/>
         <v>70,0.09</v>
       </c>
       <c r="N72" s="10"/>
@@ -11484,38 +13165,38 @@
         <v>69</v>
       </c>
       <c r="E73" t="str">
+        <f t="shared" si="6"/>
+        <v>귀살 베기</v>
+      </c>
+      <c r="F73">
+        <f>VLOOKUP(E73,$Q:$R,2,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="G73">
+        <f t="shared" si="7"/>
+        <v>54</v>
+      </c>
+      <c r="H73" t="str">
+        <f t="shared" si="10"/>
+        <v>흉수 베기</v>
+      </c>
+      <c r="I73">
+        <f>VLOOKUP(H73,$Q:$R,2,FALSE)</f>
+        <v>46</v>
+      </c>
+      <c r="J73">
         <f t="shared" si="12"/>
-        <v>귀살 베기</v>
-      </c>
-      <c r="F73">
-        <f t="shared" si="18"/>
-        <v>60</v>
-      </c>
-      <c r="G73">
-        <f t="shared" si="13"/>
-        <v>54</v>
-      </c>
-      <c r="H73" t="str">
-        <f t="shared" si="16"/>
-        <v>흉수 베기</v>
-      </c>
-      <c r="I73">
-        <f t="shared" si="11"/>
-        <v>46</v>
-      </c>
-      <c r="J73">
-        <f t="shared" si="19"/>
         <v>650</v>
       </c>
       <c r="K73" s="10">
         <v>69</v>
       </c>
       <c r="L73" s="10" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="13"/>
         <v>60,46</v>
       </c>
       <c r="M73" s="10" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="14"/>
         <v>0.54,6.5</v>
       </c>
       <c r="N73" s="10"/>
@@ -11527,38 +13208,38 @@
         <v>70</v>
       </c>
       <c r="E74" t="str">
+        <f t="shared" si="6"/>
+        <v>지옥 베기</v>
+      </c>
+      <c r="F74">
+        <f>VLOOKUP(E74,$Q:$R,2,FALSE)</f>
+        <v>35</v>
+      </c>
+      <c r="G74">
+        <f t="shared" si="7"/>
+        <v>45000</v>
+      </c>
+      <c r="H74" t="str">
+        <f t="shared" si="10"/>
+        <v>신선 베기</v>
+      </c>
+      <c r="I74">
+        <f>VLOOKUP(H74,$Q:$R,2,FALSE)</f>
+        <v>54</v>
+      </c>
+      <c r="J74">
         <f t="shared" si="12"/>
-        <v>지옥 베기</v>
-      </c>
-      <c r="F74">
-        <f t="shared" si="18"/>
-        <v>35</v>
-      </c>
-      <c r="G74">
-        <f t="shared" si="13"/>
-        <v>45000</v>
-      </c>
-      <c r="H74" t="str">
-        <f t="shared" si="16"/>
-        <v>신선 베기</v>
-      </c>
-      <c r="I74">
-        <f t="shared" si="11"/>
-        <v>54</v>
-      </c>
-      <c r="J74">
-        <f t="shared" si="19"/>
         <v>170</v>
       </c>
       <c r="K74" s="10">
         <v>70</v>
       </c>
       <c r="L74" s="10" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="13"/>
         <v>35,54</v>
       </c>
       <c r="M74" s="10" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="14"/>
         <v>450,1.7</v>
       </c>
       <c r="N74" s="10"/>
@@ -11570,38 +13251,38 @@
         <v>71</v>
       </c>
       <c r="E75" t="str">
+        <f t="shared" si="6"/>
+        <v>천상 베기</v>
+      </c>
+      <c r="F75">
+        <f>VLOOKUP(E75,$Q:$R,2,FALSE)</f>
+        <v>36</v>
+      </c>
+      <c r="G75">
+        <f t="shared" si="7"/>
+        <v>27500</v>
+      </c>
+      <c r="H75" t="str">
+        <f t="shared" si="10"/>
+        <v>심연 베기</v>
+      </c>
+      <c r="I75">
+        <f>VLOOKUP(H75,$Q:$R,2,FALSE)</f>
+        <v>50</v>
+      </c>
+      <c r="J75">
         <f t="shared" si="12"/>
-        <v>천상 베기</v>
-      </c>
-      <c r="F75">
-        <f t="shared" si="18"/>
-        <v>36</v>
-      </c>
-      <c r="G75">
-        <f t="shared" si="13"/>
-        <v>27500</v>
-      </c>
-      <c r="H75" t="str">
-        <f t="shared" si="16"/>
-        <v>심연 베기</v>
-      </c>
-      <c r="I75">
-        <f t="shared" si="11"/>
-        <v>50</v>
-      </c>
-      <c r="J75">
-        <f t="shared" si="19"/>
         <v>625</v>
       </c>
       <c r="K75" s="10">
         <v>71</v>
       </c>
       <c r="L75" s="10" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="13"/>
         <v>36,50</v>
       </c>
       <c r="M75" s="10" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="14"/>
         <v>275,6.25</v>
       </c>
       <c r="N75" s="10"/>
@@ -11613,38 +13294,38 @@
         <v>72</v>
       </c>
       <c r="E76" t="str">
+        <f t="shared" si="6"/>
+        <v>귀신 베기</v>
+      </c>
+      <c r="F76">
+        <f>VLOOKUP(E76,$Q:$R,2,FALSE)</f>
+        <v>39</v>
+      </c>
+      <c r="G76">
+        <f t="shared" si="7"/>
+        <v>17500</v>
+      </c>
+      <c r="H76" t="str">
+        <f t="shared" si="10"/>
+        <v>섬광 베기</v>
+      </c>
+      <c r="I76">
+        <f>VLOOKUP(H76,$Q:$R,2,FALSE)</f>
+        <v>47</v>
+      </c>
+      <c r="J76">
         <f t="shared" si="12"/>
-        <v>귀신 베기</v>
-      </c>
-      <c r="F76">
-        <f t="shared" si="18"/>
-        <v>39</v>
-      </c>
-      <c r="G76">
-        <f t="shared" si="13"/>
-        <v>17500</v>
-      </c>
-      <c r="H76" t="str">
-        <f t="shared" si="16"/>
-        <v>섬광 베기</v>
-      </c>
-      <c r="I76">
-        <f t="shared" si="11"/>
-        <v>47</v>
-      </c>
-      <c r="J76">
-        <f t="shared" si="19"/>
         <v>2250</v>
       </c>
       <c r="K76" s="10">
         <v>72</v>
       </c>
       <c r="L76" s="10" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="13"/>
         <v>39,47</v>
       </c>
       <c r="M76" s="10" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="14"/>
         <v>175,22.5</v>
       </c>
       <c r="N76" s="10"/>
@@ -11656,38 +13337,38 @@
         <v>73</v>
       </c>
       <c r="E77" t="str">
+        <f t="shared" si="6"/>
+        <v>금강 베기</v>
+      </c>
+      <c r="F77">
+        <f>VLOOKUP(E77,$Q:$R,2,FALSE)</f>
+        <v>43</v>
+      </c>
+      <c r="G77">
+        <f t="shared" si="7"/>
+        <v>7500</v>
+      </c>
+      <c r="H77" t="str">
+        <f t="shared" si="10"/>
+        <v>태극 베기</v>
+      </c>
+      <c r="I77">
+        <f>VLOOKUP(H77,$Q:$R,2,FALSE)</f>
+        <v>55</v>
+      </c>
+      <c r="J77">
         <f t="shared" si="12"/>
-        <v>금강 베기</v>
-      </c>
-      <c r="F77">
-        <f t="shared" si="18"/>
-        <v>43</v>
-      </c>
-      <c r="G77">
-        <f t="shared" si="13"/>
-        <v>7500</v>
-      </c>
-      <c r="H77" t="str">
-        <f t="shared" si="16"/>
-        <v>태극 베기</v>
-      </c>
-      <c r="I77">
-        <f t="shared" ref="I77:I103" si="22">VLOOKUP(H77,$Q:$R,2,FALSE)</f>
-        <v>55</v>
-      </c>
-      <c r="J77">
-        <f t="shared" si="19"/>
         <v>10</v>
       </c>
       <c r="K77" s="10">
         <v>73</v>
       </c>
       <c r="L77" s="10" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="13"/>
         <v>43,55</v>
       </c>
       <c r="M77" s="10" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="14"/>
         <v>75,0.1</v>
       </c>
       <c r="N77" s="10"/>
@@ -11699,38 +13380,38 @@
         <v>74</v>
       </c>
       <c r="E78" t="str">
+        <f t="shared" si="6"/>
+        <v>귀살 베기</v>
+      </c>
+      <c r="F78">
+        <f>VLOOKUP(E78,$Q:$R,2,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="G78">
+        <f t="shared" si="7"/>
+        <v>55</v>
+      </c>
+      <c r="H78" t="str">
+        <f t="shared" si="10"/>
+        <v>천구 베기</v>
+      </c>
+      <c r="I78">
+        <f>VLOOKUP(H78,$Q:$R,2,FALSE)</f>
+        <v>61</v>
+      </c>
+      <c r="J78">
         <f t="shared" si="12"/>
-        <v>귀살 베기</v>
-      </c>
-      <c r="F78">
-        <f t="shared" si="18"/>
-        <v>60</v>
-      </c>
-      <c r="G78">
-        <f t="shared" si="13"/>
-        <v>55</v>
-      </c>
-      <c r="H78" t="str">
-        <f t="shared" si="16"/>
-        <v>천구 베기</v>
-      </c>
-      <c r="I78">
-        <f t="shared" si="22"/>
-        <v>61</v>
-      </c>
-      <c r="J78">
-        <f t="shared" si="19"/>
         <v>17.5</v>
       </c>
       <c r="K78" s="10">
         <v>74</v>
       </c>
       <c r="L78" s="10" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="13"/>
         <v>60,61</v>
       </c>
       <c r="M78" s="10" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="14"/>
         <v>0.55,0.175</v>
       </c>
       <c r="N78" s="10"/>
@@ -11742,38 +13423,38 @@
         <v>75</v>
       </c>
       <c r="E79" t="str">
+        <f t="shared" si="6"/>
+        <v>지옥 베기</v>
+      </c>
+      <c r="F79">
+        <f>VLOOKUP(E79,$Q:$R,2,FALSE)</f>
+        <v>35</v>
+      </c>
+      <c r="G79">
+        <f t="shared" si="7"/>
+        <v>50000</v>
+      </c>
+      <c r="H79" t="str">
+        <f t="shared" si="10"/>
+        <v>신선 베기</v>
+      </c>
+      <c r="I79">
+        <f>VLOOKUP(H79,$Q:$R,2,FALSE)</f>
+        <v>54</v>
+      </c>
+      <c r="J79">
         <f t="shared" si="12"/>
-        <v>지옥 베기</v>
-      </c>
-      <c r="F79">
-        <f t="shared" si="18"/>
-        <v>35</v>
-      </c>
-      <c r="G79">
-        <f t="shared" si="13"/>
-        <v>50000</v>
-      </c>
-      <c r="H79" t="str">
-        <f t="shared" si="16"/>
-        <v>신선 베기</v>
-      </c>
-      <c r="I79">
-        <f t="shared" si="22"/>
-        <v>54</v>
-      </c>
-      <c r="J79">
-        <f t="shared" si="19"/>
         <v>175</v>
       </c>
       <c r="K79" s="10">
         <v>75</v>
       </c>
       <c r="L79" s="10" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="13"/>
         <v>35,54</v>
       </c>
       <c r="M79" s="10" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="14"/>
         <v>500,1.75</v>
       </c>
       <c r="N79" s="10"/>
@@ -11785,38 +13466,38 @@
         <v>76</v>
       </c>
       <c r="E80" t="str">
+        <f t="shared" si="6"/>
+        <v>천상 베기</v>
+      </c>
+      <c r="F80">
+        <f>VLOOKUP(E80,$Q:$R,2,FALSE)</f>
+        <v>36</v>
+      </c>
+      <c r="G80">
+        <f t="shared" si="7"/>
+        <v>30000</v>
+      </c>
+      <c r="H80" t="str">
+        <f t="shared" si="10"/>
+        <v>심연 베기</v>
+      </c>
+      <c r="I80">
+        <f>VLOOKUP(H80,$Q:$R,2,FALSE)</f>
+        <v>50</v>
+      </c>
+      <c r="J80">
         <f t="shared" si="12"/>
-        <v>천상 베기</v>
-      </c>
-      <c r="F80">
-        <f t="shared" si="18"/>
-        <v>36</v>
-      </c>
-      <c r="G80">
-        <f t="shared" si="13"/>
-        <v>30000</v>
-      </c>
-      <c r="H80" t="str">
-        <f t="shared" si="16"/>
-        <v>심연 베기</v>
-      </c>
-      <c r="I80">
-        <f t="shared" si="22"/>
-        <v>50</v>
-      </c>
-      <c r="J80">
-        <f t="shared" si="19"/>
         <v>700</v>
       </c>
       <c r="K80" s="10">
         <v>76</v>
       </c>
       <c r="L80" s="10" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="13"/>
         <v>36,50</v>
       </c>
       <c r="M80" s="10" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="14"/>
         <v>300,7</v>
       </c>
       <c r="N80" s="10"/>
@@ -11832,34 +13513,34 @@
         <v>귀신 베기</v>
       </c>
       <c r="F81">
-        <f t="shared" si="18"/>
+        <f>VLOOKUP(E81,$Q:$R,2,FALSE)</f>
         <v>39</v>
       </c>
       <c r="G81">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>19000</v>
       </c>
       <c r="H81" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>섬광 베기</v>
       </c>
       <c r="I81">
-        <f t="shared" si="22"/>
+        <f>VLOOKUP(H81,$Q:$R,2,FALSE)</f>
         <v>47</v>
       </c>
       <c r="J81">
-        <f t="shared" si="19"/>
+        <f t="shared" si="12"/>
         <v>2500</v>
       </c>
       <c r="K81" s="10">
         <v>77</v>
       </c>
       <c r="L81" s="10" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="13"/>
         <v>39,47</v>
       </c>
       <c r="M81" s="10" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="14"/>
         <v>190,25</v>
       </c>
       <c r="N81" s="10"/>
@@ -11871,38 +13552,38 @@
         <v>78</v>
       </c>
       <c r="E82" t="str">
+        <f t="shared" si="6"/>
+        <v>금강 베기</v>
+      </c>
+      <c r="F82">
+        <f>VLOOKUP(E82,$Q:$R,2,FALSE)</f>
+        <v>43</v>
+      </c>
+      <c r="G82">
+        <f t="shared" si="7"/>
+        <v>8000</v>
+      </c>
+      <c r="H82" t="str">
+        <f t="shared" si="10"/>
+        <v>태극 베기</v>
+      </c>
+      <c r="I82">
+        <f>VLOOKUP(H82,$Q:$R,2,FALSE)</f>
+        <v>55</v>
+      </c>
+      <c r="J82">
         <f t="shared" si="12"/>
-        <v>금강 베기</v>
-      </c>
-      <c r="F82">
-        <f t="shared" si="18"/>
-        <v>43</v>
-      </c>
-      <c r="G82">
-        <f t="shared" si="13"/>
-        <v>8000</v>
-      </c>
-      <c r="H82" t="str">
-        <f t="shared" si="16"/>
-        <v>태극 베기</v>
-      </c>
-      <c r="I82">
-        <f t="shared" si="22"/>
-        <v>55</v>
-      </c>
-      <c r="J82">
-        <f t="shared" si="19"/>
         <v>11</v>
       </c>
       <c r="K82" s="10">
         <v>78</v>
       </c>
       <c r="L82" s="10" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="13"/>
         <v>43,55</v>
       </c>
       <c r="M82" s="10" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="14"/>
         <v>80,0.11</v>
       </c>
       <c r="N82" s="10"/>
@@ -11914,38 +13595,38 @@
         <v>79</v>
       </c>
       <c r="E83" t="str">
+        <f t="shared" si="6"/>
+        <v>귀살 베기</v>
+      </c>
+      <c r="F83">
+        <f>VLOOKUP(E83,$Q:$R,2,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="G83">
+        <f t="shared" si="7"/>
+        <v>56</v>
+      </c>
+      <c r="H83" t="str">
+        <f t="shared" si="10"/>
+        <v>신수 베기</v>
+      </c>
+      <c r="I83">
+        <f>VLOOKUP(H83,$Q:$R,2,FALSE)</f>
+        <v>42</v>
+      </c>
+      <c r="J83">
         <f t="shared" si="12"/>
-        <v>귀살 베기</v>
-      </c>
-      <c r="F83">
-        <f t="shared" si="18"/>
-        <v>60</v>
-      </c>
-      <c r="G83">
-        <f t="shared" si="13"/>
-        <v>56</v>
-      </c>
-      <c r="H83" t="str">
-        <f t="shared" si="16"/>
-        <v>신수 베기</v>
-      </c>
-      <c r="I83">
-        <f t="shared" si="22"/>
-        <v>42</v>
-      </c>
-      <c r="J83">
-        <f t="shared" si="19"/>
         <v>7000</v>
       </c>
       <c r="K83" s="10">
         <v>79</v>
       </c>
       <c r="L83" s="10" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="13"/>
         <v>60,42</v>
       </c>
       <c r="M83" s="10" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="14"/>
         <v>0.56,70</v>
       </c>
       <c r="N83" s="10"/>
@@ -11957,38 +13638,38 @@
         <v>80</v>
       </c>
       <c r="E84" t="str">
+        <f t="shared" si="6"/>
+        <v>지옥 베기</v>
+      </c>
+      <c r="F84">
+        <f>VLOOKUP(E84,$Q:$R,2,FALSE)</f>
+        <v>35</v>
+      </c>
+      <c r="G84">
+        <f t="shared" si="7"/>
+        <v>55000</v>
+      </c>
+      <c r="H84" t="str">
+        <f t="shared" si="10"/>
+        <v>신선 베기</v>
+      </c>
+      <c r="I84">
+        <f>VLOOKUP(H84,$Q:$R,2,FALSE)</f>
+        <v>54</v>
+      </c>
+      <c r="J84">
         <f t="shared" si="12"/>
-        <v>지옥 베기</v>
-      </c>
-      <c r="F84">
-        <f t="shared" si="18"/>
-        <v>35</v>
-      </c>
-      <c r="G84">
-        <f t="shared" si="13"/>
-        <v>55000</v>
-      </c>
-      <c r="H84" t="str">
-        <f t="shared" si="16"/>
-        <v>신선 베기</v>
-      </c>
-      <c r="I84">
-        <f t="shared" si="22"/>
-        <v>54</v>
-      </c>
-      <c r="J84">
-        <f t="shared" si="19"/>
         <v>180</v>
       </c>
       <c r="K84" s="10">
         <v>80</v>
       </c>
       <c r="L84" s="10" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="13"/>
         <v>35,54</v>
       </c>
       <c r="M84" s="10" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="14"/>
         <v>550,1.8</v>
       </c>
       <c r="N84" s="10"/>
@@ -12000,38 +13681,38 @@
         <v>81</v>
       </c>
       <c r="E85" t="str">
+        <f t="shared" si="6"/>
+        <v>천상 베기</v>
+      </c>
+      <c r="F85">
+        <f>VLOOKUP(E85,$Q:$R,2,FALSE)</f>
+        <v>36</v>
+      </c>
+      <c r="G85">
+        <f t="shared" si="7"/>
+        <v>32500</v>
+      </c>
+      <c r="H85" t="str">
+        <f t="shared" si="10"/>
+        <v>심연 베기</v>
+      </c>
+      <c r="I85">
+        <f>VLOOKUP(H85,$Q:$R,2,FALSE)</f>
+        <v>50</v>
+      </c>
+      <c r="J85">
         <f t="shared" si="12"/>
-        <v>천상 베기</v>
-      </c>
-      <c r="F85">
-        <f t="shared" si="18"/>
-        <v>36</v>
-      </c>
-      <c r="G85">
-        <f t="shared" si="13"/>
-        <v>32500</v>
-      </c>
-      <c r="H85" t="str">
-        <f t="shared" si="16"/>
-        <v>심연 베기</v>
-      </c>
-      <c r="I85">
-        <f t="shared" si="22"/>
-        <v>50</v>
-      </c>
-      <c r="J85">
-        <f t="shared" si="19"/>
         <v>775</v>
       </c>
       <c r="K85" s="10">
         <v>81</v>
       </c>
       <c r="L85" s="10" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="13"/>
         <v>36,50</v>
       </c>
       <c r="M85" s="10" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="14"/>
         <v>325,7.75</v>
       </c>
       <c r="N85" s="10"/>
@@ -12043,38 +13724,38 @@
         <v>82</v>
       </c>
       <c r="E86" t="str">
+        <f t="shared" si="6"/>
+        <v>귀신 베기</v>
+      </c>
+      <c r="F86">
+        <f>VLOOKUP(E86,$Q:$R,2,FALSE)</f>
+        <v>39</v>
+      </c>
+      <c r="G86">
+        <f t="shared" si="7"/>
+        <v>20500</v>
+      </c>
+      <c r="H86" t="str">
+        <f t="shared" si="10"/>
+        <v>섬광 베기</v>
+      </c>
+      <c r="I86">
+        <f>VLOOKUP(H86,$Q:$R,2,FALSE)</f>
+        <v>47</v>
+      </c>
+      <c r="J86">
         <f t="shared" si="12"/>
-        <v>귀신 베기</v>
-      </c>
-      <c r="F86">
-        <f t="shared" si="18"/>
-        <v>39</v>
-      </c>
-      <c r="G86">
-        <f t="shared" si="13"/>
-        <v>20500</v>
-      </c>
-      <c r="H86" t="str">
-        <f t="shared" si="16"/>
-        <v>섬광 베기</v>
-      </c>
-      <c r="I86">
-        <f t="shared" si="22"/>
-        <v>47</v>
-      </c>
-      <c r="J86">
-        <f t="shared" si="19"/>
         <v>2750</v>
       </c>
       <c r="K86" s="10">
         <v>82</v>
       </c>
       <c r="L86" s="10" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="13"/>
         <v>39,47</v>
       </c>
       <c r="M86" s="10" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="14"/>
         <v>205,27.5</v>
       </c>
       <c r="N86" s="10"/>
@@ -12086,38 +13767,38 @@
         <v>83</v>
       </c>
       <c r="E87" t="str">
+        <f t="shared" si="6"/>
+        <v>금강 베기</v>
+      </c>
+      <c r="F87">
+        <f>VLOOKUP(E87,$Q:$R,2,FALSE)</f>
+        <v>43</v>
+      </c>
+      <c r="G87">
+        <f t="shared" si="7"/>
+        <v>8500</v>
+      </c>
+      <c r="H87" t="str">
+        <f t="shared" si="10"/>
+        <v>태극 베기</v>
+      </c>
+      <c r="I87">
+        <f>VLOOKUP(H87,$Q:$R,2,FALSE)</f>
+        <v>55</v>
+      </c>
+      <c r="J87">
         <f t="shared" si="12"/>
-        <v>금강 베기</v>
-      </c>
-      <c r="F87">
-        <f t="shared" si="18"/>
-        <v>43</v>
-      </c>
-      <c r="G87">
-        <f t="shared" si="13"/>
-        <v>8500</v>
-      </c>
-      <c r="H87" t="str">
-        <f t="shared" si="16"/>
-        <v>태극 베기</v>
-      </c>
-      <c r="I87">
-        <f t="shared" si="22"/>
-        <v>55</v>
-      </c>
-      <c r="J87">
-        <f t="shared" si="19"/>
         <v>12</v>
       </c>
       <c r="K87" s="10">
         <v>83</v>
       </c>
       <c r="L87" s="10" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="13"/>
         <v>43,55</v>
       </c>
       <c r="M87" s="10" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="14"/>
         <v>85,0.12</v>
       </c>
       <c r="N87" s="10"/>
@@ -12129,38 +13810,38 @@
         <v>84</v>
       </c>
       <c r="E88" t="str">
+        <f t="shared" si="6"/>
+        <v>귀살 베기</v>
+      </c>
+      <c r="F88">
+        <f>VLOOKUP(E88,$Q:$R,2,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="G88">
+        <f t="shared" si="7"/>
+        <v>57</v>
+      </c>
+      <c r="H88" t="str">
+        <f t="shared" si="10"/>
+        <v>흉수 베기</v>
+      </c>
+      <c r="I88">
+        <f>VLOOKUP(H88,$Q:$R,2,FALSE)</f>
+        <v>46</v>
+      </c>
+      <c r="J88">
         <f t="shared" si="12"/>
-        <v>귀살 베기</v>
-      </c>
-      <c r="F88">
-        <f t="shared" si="18"/>
-        <v>60</v>
-      </c>
-      <c r="G88">
-        <f t="shared" si="13"/>
-        <v>57</v>
-      </c>
-      <c r="H88" t="str">
-        <f t="shared" si="16"/>
-        <v>흉수 베기</v>
-      </c>
-      <c r="I88">
-        <f t="shared" si="22"/>
-        <v>46</v>
-      </c>
-      <c r="J88">
-        <f t="shared" si="19"/>
         <v>700</v>
       </c>
       <c r="K88" s="10">
         <v>84</v>
       </c>
       <c r="L88" s="10" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="13"/>
         <v>60,46</v>
       </c>
       <c r="M88" s="10" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="14"/>
         <v>0.57,7</v>
       </c>
       <c r="N88" s="10"/>
@@ -12172,38 +13853,38 @@
         <v>85</v>
       </c>
       <c r="E89" t="str">
+        <f t="shared" si="6"/>
+        <v>지옥 베기</v>
+      </c>
+      <c r="F89">
+        <f>VLOOKUP(E89,$Q:$R,2,FALSE)</f>
+        <v>35</v>
+      </c>
+      <c r="G89">
+        <f t="shared" si="7"/>
+        <v>60000</v>
+      </c>
+      <c r="H89" t="str">
+        <f t="shared" si="10"/>
+        <v>신선 베기</v>
+      </c>
+      <c r="I89">
+        <f>VLOOKUP(H89,$Q:$R,2,FALSE)</f>
+        <v>54</v>
+      </c>
+      <c r="J89">
         <f t="shared" si="12"/>
-        <v>지옥 베기</v>
-      </c>
-      <c r="F89">
-        <f t="shared" si="18"/>
-        <v>35</v>
-      </c>
-      <c r="G89">
-        <f t="shared" si="13"/>
-        <v>60000</v>
-      </c>
-      <c r="H89" t="str">
-        <f t="shared" si="16"/>
-        <v>신선 베기</v>
-      </c>
-      <c r="I89">
-        <f t="shared" si="22"/>
-        <v>54</v>
-      </c>
-      <c r="J89">
-        <f t="shared" si="19"/>
         <v>185</v>
       </c>
       <c r="K89" s="10">
         <v>85</v>
       </c>
       <c r="L89" s="10" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="13"/>
         <v>35,54</v>
       </c>
       <c r="M89" s="10" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="14"/>
         <v>600,1.85</v>
       </c>
       <c r="N89" s="10"/>
@@ -12215,38 +13896,38 @@
         <v>86</v>
       </c>
       <c r="E90" t="str">
+        <f t="shared" si="6"/>
+        <v>천상 베기</v>
+      </c>
+      <c r="F90">
+        <f>VLOOKUP(E90,$Q:$R,2,FALSE)</f>
+        <v>36</v>
+      </c>
+      <c r="G90">
+        <f t="shared" si="7"/>
+        <v>35000</v>
+      </c>
+      <c r="H90" t="str">
+        <f t="shared" si="10"/>
+        <v>심연 베기</v>
+      </c>
+      <c r="I90">
+        <f>VLOOKUP(H90,$Q:$R,2,FALSE)</f>
+        <v>50</v>
+      </c>
+      <c r="J90">
         <f t="shared" si="12"/>
-        <v>천상 베기</v>
-      </c>
-      <c r="F90">
-        <f t="shared" si="18"/>
-        <v>36</v>
-      </c>
-      <c r="G90">
-        <f t="shared" si="13"/>
-        <v>35000</v>
-      </c>
-      <c r="H90" t="str">
-        <f t="shared" si="16"/>
-        <v>심연 베기</v>
-      </c>
-      <c r="I90">
-        <f t="shared" si="22"/>
-        <v>50</v>
-      </c>
-      <c r="J90">
-        <f t="shared" si="19"/>
         <v>850</v>
       </c>
       <c r="K90" s="10">
         <v>86</v>
       </c>
       <c r="L90" s="10" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="13"/>
         <v>36,50</v>
       </c>
       <c r="M90" s="10" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="14"/>
         <v>350,8.5</v>
       </c>
       <c r="N90" s="10"/>
@@ -12258,38 +13939,38 @@
         <v>87</v>
       </c>
       <c r="E91" t="str">
+        <f t="shared" si="6"/>
+        <v>귀신 베기</v>
+      </c>
+      <c r="F91">
+        <f>VLOOKUP(E91,$Q:$R,2,FALSE)</f>
+        <v>39</v>
+      </c>
+      <c r="G91">
+        <f t="shared" si="7"/>
+        <v>22000</v>
+      </c>
+      <c r="H91" t="str">
+        <f t="shared" si="10"/>
+        <v>섬광 베기</v>
+      </c>
+      <c r="I91">
+        <f>VLOOKUP(H91,$Q:$R,2,FALSE)</f>
+        <v>47</v>
+      </c>
+      <c r="J91">
         <f t="shared" si="12"/>
-        <v>귀신 베기</v>
-      </c>
-      <c r="F91">
-        <f t="shared" si="18"/>
-        <v>39</v>
-      </c>
-      <c r="G91">
-        <f t="shared" si="13"/>
-        <v>22000</v>
-      </c>
-      <c r="H91" t="str">
-        <f t="shared" si="16"/>
-        <v>섬광 베기</v>
-      </c>
-      <c r="I91">
-        <f t="shared" si="22"/>
-        <v>47</v>
-      </c>
-      <c r="J91">
-        <f t="shared" si="19"/>
         <v>3000</v>
       </c>
       <c r="K91" s="10">
         <v>87</v>
       </c>
       <c r="L91" s="10" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="13"/>
         <v>39,47</v>
       </c>
       <c r="M91" s="10" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="14"/>
         <v>220,30</v>
       </c>
       <c r="N91" s="10"/>
@@ -12301,38 +13982,38 @@
         <v>88</v>
       </c>
       <c r="E92" t="str">
+        <f t="shared" si="6"/>
+        <v>금강 베기</v>
+      </c>
+      <c r="F92">
+        <f>VLOOKUP(E92,$Q:$R,2,FALSE)</f>
+        <v>43</v>
+      </c>
+      <c r="G92">
+        <f t="shared" si="7"/>
+        <v>9000</v>
+      </c>
+      <c r="H92" t="str">
+        <f t="shared" si="10"/>
+        <v>태극 베기</v>
+      </c>
+      <c r="I92">
+        <f>VLOOKUP(H92,$Q:$R,2,FALSE)</f>
+        <v>55</v>
+      </c>
+      <c r="J92">
         <f t="shared" si="12"/>
-        <v>금강 베기</v>
-      </c>
-      <c r="F92">
-        <f t="shared" si="18"/>
-        <v>43</v>
-      </c>
-      <c r="G92">
-        <f t="shared" si="13"/>
-        <v>9000</v>
-      </c>
-      <c r="H92" t="str">
-        <f t="shared" si="16"/>
-        <v>태극 베기</v>
-      </c>
-      <c r="I92">
-        <f t="shared" si="22"/>
-        <v>55</v>
-      </c>
-      <c r="J92">
-        <f t="shared" si="19"/>
         <v>13</v>
       </c>
       <c r="K92" s="10">
         <v>88</v>
       </c>
       <c r="L92" s="10" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="13"/>
         <v>43,55</v>
       </c>
       <c r="M92" s="10" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="14"/>
         <v>90,0.13</v>
       </c>
       <c r="N92" s="10"/>
@@ -12344,38 +14025,38 @@
         <v>89</v>
       </c>
       <c r="E93" t="str">
+        <f t="shared" si="6"/>
+        <v>귀살 베기</v>
+      </c>
+      <c r="F93">
+        <f>VLOOKUP(E93,$Q:$R,2,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="G93">
+        <f t="shared" si="7"/>
+        <v>58</v>
+      </c>
+      <c r="H93" t="str">
+        <f t="shared" si="10"/>
+        <v>천구 베기</v>
+      </c>
+      <c r="I93">
+        <f>VLOOKUP(H93,$Q:$R,2,FALSE)</f>
+        <v>61</v>
+      </c>
+      <c r="J93">
         <f t="shared" si="12"/>
-        <v>귀살 베기</v>
-      </c>
-      <c r="F93">
-        <f t="shared" si="18"/>
-        <v>60</v>
-      </c>
-      <c r="G93">
-        <f t="shared" si="13"/>
-        <v>58</v>
-      </c>
-      <c r="H93" t="str">
-        <f t="shared" si="16"/>
-        <v>천구 베기</v>
-      </c>
-      <c r="I93">
-        <f t="shared" si="22"/>
-        <v>61</v>
-      </c>
-      <c r="J93">
-        <f t="shared" si="19"/>
         <v>20</v>
       </c>
       <c r="K93" s="10">
         <v>89</v>
       </c>
       <c r="L93" s="10" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="13"/>
         <v>60,61</v>
       </c>
       <c r="M93" s="10" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="14"/>
         <v>0.58,0.2</v>
       </c>
       <c r="N93" s="10"/>
@@ -12387,38 +14068,38 @@
         <v>90</v>
       </c>
       <c r="E94" t="str">
+        <f t="shared" si="6"/>
+        <v>지옥 베기</v>
+      </c>
+      <c r="F94">
+        <f>VLOOKUP(E94,$Q:$R,2,FALSE)</f>
+        <v>35</v>
+      </c>
+      <c r="G94">
+        <f t="shared" si="7"/>
+        <v>65000</v>
+      </c>
+      <c r="H94" t="str">
+        <f t="shared" si="10"/>
+        <v>신선 베기</v>
+      </c>
+      <c r="I94">
+        <f>VLOOKUP(H94,$Q:$R,2,FALSE)</f>
+        <v>54</v>
+      </c>
+      <c r="J94">
         <f t="shared" si="12"/>
-        <v>지옥 베기</v>
-      </c>
-      <c r="F94">
-        <f t="shared" si="18"/>
-        <v>35</v>
-      </c>
-      <c r="G94">
-        <f t="shared" si="13"/>
-        <v>65000</v>
-      </c>
-      <c r="H94" t="str">
-        <f t="shared" si="16"/>
-        <v>신선 베기</v>
-      </c>
-      <c r="I94">
-        <f t="shared" si="22"/>
-        <v>54</v>
-      </c>
-      <c r="J94">
-        <f t="shared" si="19"/>
         <v>190</v>
       </c>
       <c r="K94" s="10">
         <v>90</v>
       </c>
       <c r="L94" s="10" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="13"/>
         <v>35,54</v>
       </c>
       <c r="M94" s="10" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="14"/>
         <v>650,1.9</v>
       </c>
       <c r="N94" s="10"/>
@@ -12430,38 +14111,38 @@
         <v>91</v>
       </c>
       <c r="E95" t="str">
+        <f t="shared" si="6"/>
+        <v>천상 베기</v>
+      </c>
+      <c r="F95">
+        <f>VLOOKUP(E95,$Q:$R,2,FALSE)</f>
+        <v>36</v>
+      </c>
+      <c r="G95">
+        <f t="shared" si="7"/>
+        <v>37500</v>
+      </c>
+      <c r="H95" t="str">
+        <f t="shared" si="10"/>
+        <v>심연 베기</v>
+      </c>
+      <c r="I95">
+        <f>VLOOKUP(H95,$Q:$R,2,FALSE)</f>
+        <v>50</v>
+      </c>
+      <c r="J95">
         <f t="shared" si="12"/>
-        <v>천상 베기</v>
-      </c>
-      <c r="F95">
-        <f t="shared" si="18"/>
-        <v>36</v>
-      </c>
-      <c r="G95">
-        <f t="shared" si="13"/>
-        <v>37500</v>
-      </c>
-      <c r="H95" t="str">
-        <f t="shared" si="16"/>
-        <v>심연 베기</v>
-      </c>
-      <c r="I95">
-        <f t="shared" si="22"/>
-        <v>50</v>
-      </c>
-      <c r="J95">
-        <f t="shared" si="19"/>
         <v>925</v>
       </c>
       <c r="K95" s="10">
         <v>91</v>
       </c>
       <c r="L95" s="10" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="13"/>
         <v>36,50</v>
       </c>
       <c r="M95" s="10" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="14"/>
         <v>375,9.25</v>
       </c>
       <c r="N95" s="10"/>
@@ -12473,38 +14154,38 @@
         <v>92</v>
       </c>
       <c r="E96" t="str">
+        <f t="shared" si="6"/>
+        <v>귀신 베기</v>
+      </c>
+      <c r="F96">
+        <f>VLOOKUP(E96,$Q:$R,2,FALSE)</f>
+        <v>39</v>
+      </c>
+      <c r="G96">
+        <f t="shared" si="7"/>
+        <v>23500</v>
+      </c>
+      <c r="H96" t="str">
+        <f t="shared" si="10"/>
+        <v>섬광 베기</v>
+      </c>
+      <c r="I96">
+        <f>VLOOKUP(H96,$Q:$R,2,FALSE)</f>
+        <v>47</v>
+      </c>
+      <c r="J96">
         <f t="shared" si="12"/>
-        <v>귀신 베기</v>
-      </c>
-      <c r="F96">
-        <f t="shared" si="18"/>
-        <v>39</v>
-      </c>
-      <c r="G96">
-        <f t="shared" si="13"/>
-        <v>23500</v>
-      </c>
-      <c r="H96" t="str">
-        <f t="shared" si="16"/>
-        <v>섬광 베기</v>
-      </c>
-      <c r="I96">
-        <f t="shared" si="22"/>
-        <v>47</v>
-      </c>
-      <c r="J96">
-        <f t="shared" si="19"/>
         <v>3250</v>
       </c>
       <c r="K96" s="10">
         <v>92</v>
       </c>
       <c r="L96" s="10" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="13"/>
         <v>39,47</v>
       </c>
       <c r="M96" s="10" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="14"/>
         <v>235,32.5</v>
       </c>
       <c r="N96" s="10"/>
@@ -12516,38 +14197,38 @@
         <v>93</v>
       </c>
       <c r="E97" t="str">
+        <f t="shared" si="6"/>
+        <v>금강 베기</v>
+      </c>
+      <c r="F97">
+        <f>VLOOKUP(E97,$Q:$R,2,FALSE)</f>
+        <v>43</v>
+      </c>
+      <c r="G97">
+        <f t="shared" si="7"/>
+        <v>9500</v>
+      </c>
+      <c r="H97" t="str">
+        <f t="shared" si="10"/>
+        <v>태극 베기</v>
+      </c>
+      <c r="I97">
+        <f>VLOOKUP(H97,$Q:$R,2,FALSE)</f>
+        <v>55</v>
+      </c>
+      <c r="J97">
         <f t="shared" si="12"/>
-        <v>금강 베기</v>
-      </c>
-      <c r="F97">
-        <f t="shared" si="18"/>
-        <v>43</v>
-      </c>
-      <c r="G97">
-        <f t="shared" si="13"/>
-        <v>9500</v>
-      </c>
-      <c r="H97" t="str">
-        <f t="shared" si="16"/>
-        <v>태극 베기</v>
-      </c>
-      <c r="I97">
-        <f t="shared" si="22"/>
-        <v>55</v>
-      </c>
-      <c r="J97">
-        <f t="shared" si="19"/>
         <v>14</v>
       </c>
       <c r="K97" s="10">
         <v>93</v>
       </c>
       <c r="L97" s="10" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="13"/>
         <v>43,55</v>
       </c>
       <c r="M97" s="10" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="14"/>
         <v>95,0.14</v>
       </c>
       <c r="N97" s="10"/>
@@ -12559,38 +14240,38 @@
         <v>94</v>
       </c>
       <c r="E98" t="str">
+        <f t="shared" si="6"/>
+        <v>귀살 베기</v>
+      </c>
+      <c r="F98">
+        <f>VLOOKUP(E98,$Q:$R,2,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="G98">
+        <f t="shared" si="7"/>
+        <v>59</v>
+      </c>
+      <c r="H98" t="str">
+        <f t="shared" si="10"/>
+        <v>신수 베기</v>
+      </c>
+      <c r="I98">
+        <f>VLOOKUP(H98,$Q:$R,2,FALSE)</f>
+        <v>42</v>
+      </c>
+      <c r="J98">
         <f t="shared" si="12"/>
-        <v>귀살 베기</v>
-      </c>
-      <c r="F98">
-        <f t="shared" si="18"/>
-        <v>60</v>
-      </c>
-      <c r="G98">
-        <f t="shared" si="13"/>
-        <v>59</v>
-      </c>
-      <c r="H98" t="str">
-        <f t="shared" si="16"/>
-        <v>신수 베기</v>
-      </c>
-      <c r="I98">
-        <f t="shared" si="22"/>
-        <v>42</v>
-      </c>
-      <c r="J98">
-        <f t="shared" si="19"/>
         <v>7500</v>
       </c>
       <c r="K98" s="10">
         <v>94</v>
       </c>
       <c r="L98" s="10" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="13"/>
         <v>60,42</v>
       </c>
       <c r="M98" s="10" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="14"/>
         <v>0.59,75</v>
       </c>
       <c r="N98" s="10"/>
@@ -12602,38 +14283,38 @@
         <v>95</v>
       </c>
       <c r="E99" t="str">
+        <f t="shared" si="6"/>
+        <v>지옥 베기</v>
+      </c>
+      <c r="F99">
+        <f>VLOOKUP(E99,$Q:$R,2,FALSE)</f>
+        <v>35</v>
+      </c>
+      <c r="G99">
+        <f t="shared" si="7"/>
+        <v>70000</v>
+      </c>
+      <c r="H99" t="str">
+        <f t="shared" si="10"/>
+        <v>신선 베기</v>
+      </c>
+      <c r="I99">
+        <f>VLOOKUP(H99,$Q:$R,2,FALSE)</f>
+        <v>54</v>
+      </c>
+      <c r="J99">
         <f t="shared" si="12"/>
-        <v>지옥 베기</v>
-      </c>
-      <c r="F99">
-        <f t="shared" si="18"/>
-        <v>35</v>
-      </c>
-      <c r="G99">
-        <f t="shared" si="13"/>
-        <v>70000</v>
-      </c>
-      <c r="H99" t="str">
-        <f t="shared" si="16"/>
-        <v>신선 베기</v>
-      </c>
-      <c r="I99">
-        <f t="shared" si="22"/>
-        <v>54</v>
-      </c>
-      <c r="J99">
-        <f t="shared" si="19"/>
         <v>195</v>
       </c>
       <c r="K99" s="10">
         <v>95</v>
       </c>
       <c r="L99" s="10" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="13"/>
         <v>35,54</v>
       </c>
       <c r="M99" s="10" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="14"/>
         <v>700,1.95</v>
       </c>
       <c r="N99" s="10"/>
@@ -12645,38 +14326,38 @@
         <v>96</v>
       </c>
       <c r="E100" t="str">
+        <f t="shared" si="6"/>
+        <v>천상 베기</v>
+      </c>
+      <c r="F100">
+        <f>VLOOKUP(E100,$Q:$R,2,FALSE)</f>
+        <v>36</v>
+      </c>
+      <c r="G100">
+        <f t="shared" si="7"/>
+        <v>40000</v>
+      </c>
+      <c r="H100" t="str">
+        <f t="shared" si="10"/>
+        <v>심연 베기</v>
+      </c>
+      <c r="I100">
+        <f>VLOOKUP(H100,$Q:$R,2,FALSE)</f>
+        <v>50</v>
+      </c>
+      <c r="J100">
         <f t="shared" si="12"/>
-        <v>천상 베기</v>
-      </c>
-      <c r="F100">
-        <f t="shared" ref="F100:F103" si="23">VLOOKUP(E100,$Q:$R,2,FALSE)</f>
-        <v>36</v>
-      </c>
-      <c r="G100">
-        <f t="shared" si="13"/>
-        <v>40000</v>
-      </c>
-      <c r="H100" t="str">
-        <f t="shared" si="16"/>
-        <v>심연 베기</v>
-      </c>
-      <c r="I100">
-        <f t="shared" si="22"/>
-        <v>50</v>
-      </c>
-      <c r="J100">
-        <f t="shared" si="19"/>
         <v>1000</v>
       </c>
       <c r="K100" s="10">
         <v>96</v>
       </c>
       <c r="L100" s="10" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="13"/>
         <v>36,50</v>
       </c>
       <c r="M100" s="10" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="14"/>
         <v>400,10</v>
       </c>
       <c r="N100" s="10"/>
@@ -12688,38 +14369,38 @@
         <v>97</v>
       </c>
       <c r="E101" t="str">
+        <f t="shared" si="6"/>
+        <v>귀신 베기</v>
+      </c>
+      <c r="F101">
+        <f>VLOOKUP(E101,$Q:$R,2,FALSE)</f>
+        <v>39</v>
+      </c>
+      <c r="G101">
+        <f t="shared" si="7"/>
+        <v>25000</v>
+      </c>
+      <c r="H101" t="str">
+        <f t="shared" si="10"/>
+        <v>섬광 베기</v>
+      </c>
+      <c r="I101">
+        <f>VLOOKUP(H101,$Q:$R,2,FALSE)</f>
+        <v>47</v>
+      </c>
+      <c r="J101">
         <f t="shared" si="12"/>
-        <v>귀신 베기</v>
-      </c>
-      <c r="F101">
-        <f t="shared" si="23"/>
-        <v>39</v>
-      </c>
-      <c r="G101">
-        <f t="shared" si="13"/>
-        <v>25000</v>
-      </c>
-      <c r="H101" t="str">
-        <f t="shared" si="16"/>
-        <v>섬광 베기</v>
-      </c>
-      <c r="I101">
-        <f t="shared" si="22"/>
-        <v>47</v>
-      </c>
-      <c r="J101">
-        <f t="shared" si="19"/>
         <v>3500</v>
       </c>
       <c r="K101" s="10">
         <v>97</v>
       </c>
       <c r="L101" s="10" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="13"/>
         <v>39,47</v>
       </c>
       <c r="M101" s="10" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="14"/>
         <v>250,35</v>
       </c>
       <c r="N101" s="10"/>
@@ -12731,38 +14412,38 @@
         <v>98</v>
       </c>
       <c r="E102" t="str">
+        <f t="shared" si="6"/>
+        <v>금강 베기</v>
+      </c>
+      <c r="F102">
+        <f>VLOOKUP(E102,$Q:$R,2,FALSE)</f>
+        <v>43</v>
+      </c>
+      <c r="G102">
+        <f t="shared" si="7"/>
+        <v>10000</v>
+      </c>
+      <c r="H102" t="str">
+        <f t="shared" si="10"/>
+        <v>태극 베기</v>
+      </c>
+      <c r="I102">
+        <f>VLOOKUP(H102,$Q:$R,2,FALSE)</f>
+        <v>55</v>
+      </c>
+      <c r="J102">
         <f t="shared" si="12"/>
-        <v>금강 베기</v>
-      </c>
-      <c r="F102">
-        <f t="shared" si="23"/>
-        <v>43</v>
-      </c>
-      <c r="G102">
-        <f t="shared" si="13"/>
-        <v>10000</v>
-      </c>
-      <c r="H102" t="str">
-        <f t="shared" si="16"/>
-        <v>태극 베기</v>
-      </c>
-      <c r="I102">
-        <f t="shared" si="22"/>
-        <v>55</v>
-      </c>
-      <c r="J102">
-        <f t="shared" si="19"/>
         <v>15</v>
       </c>
       <c r="K102" s="10">
         <v>98</v>
       </c>
       <c r="L102" s="10" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="13"/>
         <v>43,55</v>
       </c>
       <c r="M102" s="10" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="14"/>
         <v>100,0.15</v>
       </c>
       <c r="N102" s="10"/>
@@ -12774,43 +14455,2043 @@
         <v>99</v>
       </c>
       <c r="E103" t="str">
+        <f t="shared" si="6"/>
+        <v>귀살 베기</v>
+      </c>
+      <c r="F103">
+        <f>VLOOKUP(E103,$Q:$R,2,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="G103">
+        <f t="shared" si="7"/>
+        <v>60</v>
+      </c>
+      <c r="H103" t="str">
+        <f t="shared" si="10"/>
+        <v>흉수 베기</v>
+      </c>
+      <c r="I103">
+        <f>VLOOKUP(H103,$Q:$R,2,FALSE)</f>
+        <v>46</v>
+      </c>
+      <c r="J103">
         <f t="shared" si="12"/>
-        <v>귀살 베기</v>
-      </c>
-      <c r="F103">
-        <f t="shared" si="23"/>
-        <v>60</v>
-      </c>
-      <c r="G103">
-        <f t="shared" si="13"/>
-        <v>60</v>
-      </c>
-      <c r="H103" t="str">
-        <f t="shared" si="16"/>
-        <v>흉수 베기</v>
-      </c>
-      <c r="I103">
-        <f t="shared" si="22"/>
-        <v>46</v>
-      </c>
-      <c r="J103">
-        <f t="shared" si="19"/>
         <v>750</v>
       </c>
       <c r="K103" s="10">
         <v>99</v>
       </c>
       <c r="L103" s="10" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="13"/>
         <v>60,46</v>
       </c>
       <c r="M103" s="10" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="14"/>
         <v>0.6,7.5</v>
       </c>
       <c r="N103" s="10"/>
       <c r="O103" s="11"/>
       <c r="P103" s="10"/>
+    </row>
+    <row r="104" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="D104" s="10">
+        <v>100</v>
+      </c>
+      <c r="E104" t="str">
+        <f t="shared" si="6"/>
+        <v>지옥 베기</v>
+      </c>
+      <c r="F104">
+        <f>VLOOKUP(E104,$Q:$R,2,FALSE)</f>
+        <v>35</v>
+      </c>
+      <c r="G104">
+        <f t="shared" ref="G104:G116" si="15">G99+VLOOKUP(E104,$Q$20:$R$31,2,FALSE)</f>
+        <v>75000</v>
+      </c>
+      <c r="H104" t="str">
+        <f t="shared" si="10"/>
+        <v>신선 베기</v>
+      </c>
+      <c r="I104">
+        <f>VLOOKUP(H104,$Q:$R,2,FALSE)</f>
+        <v>54</v>
+      </c>
+      <c r="J104">
+        <f t="shared" ref="J104:J116" si="16">IF(I104=42,J89+$R$23,IF(I104=46,J89+$R$24,IF(I104=61,J89+$R$30,J99+VLOOKUP(H104,$Q$20:$R$31,2,FALSE))))</f>
+        <v>200</v>
+      </c>
+      <c r="K104" s="10">
+        <v>100</v>
+      </c>
+      <c r="L104" s="10" t="str">
+        <f t="shared" ref="L104:L116" si="17">IF(H104=0,F104&amp;",-1",F104&amp;","&amp;I104)</f>
+        <v>35,54</v>
+      </c>
+      <c r="M104" s="10" t="str">
+        <f t="shared" ref="M104:M116" si="18">IF(H104=0,G104/100&amp;","&amp;0,G104/100&amp;","&amp;J104/100)</f>
+        <v>750,2</v>
+      </c>
+    </row>
+    <row r="105" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="D105" s="10">
+        <v>101</v>
+      </c>
+      <c r="E105" t="str">
+        <f t="shared" si="6"/>
+        <v>천상 베기</v>
+      </c>
+      <c r="F105">
+        <f>VLOOKUP(E105,$Q:$R,2,FALSE)</f>
+        <v>36</v>
+      </c>
+      <c r="G105">
+        <f t="shared" si="15"/>
+        <v>42500</v>
+      </c>
+      <c r="H105" t="str">
+        <f t="shared" si="10"/>
+        <v>심연 베기</v>
+      </c>
+      <c r="I105">
+        <f>VLOOKUP(H105,$Q:$R,2,FALSE)</f>
+        <v>50</v>
+      </c>
+      <c r="J105">
+        <f t="shared" si="16"/>
+        <v>1075</v>
+      </c>
+      <c r="K105" s="10">
+        <v>101</v>
+      </c>
+      <c r="L105" s="10" t="str">
+        <f t="shared" si="17"/>
+        <v>36,50</v>
+      </c>
+      <c r="M105" s="10" t="str">
+        <f t="shared" si="18"/>
+        <v>425,10.75</v>
+      </c>
+    </row>
+    <row r="106" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="D106" s="10">
+        <v>102</v>
+      </c>
+      <c r="E106" t="str">
+        <f t="shared" si="6"/>
+        <v>귀신 베기</v>
+      </c>
+      <c r="F106">
+        <f>VLOOKUP(E106,$Q:$R,2,FALSE)</f>
+        <v>39</v>
+      </c>
+      <c r="G106">
+        <f t="shared" si="15"/>
+        <v>26500</v>
+      </c>
+      <c r="H106" t="str">
+        <f t="shared" si="10"/>
+        <v>섬광 베기</v>
+      </c>
+      <c r="I106">
+        <f>VLOOKUP(H106,$Q:$R,2,FALSE)</f>
+        <v>47</v>
+      </c>
+      <c r="J106">
+        <f t="shared" si="16"/>
+        <v>3750</v>
+      </c>
+      <c r="K106" s="10">
+        <v>102</v>
+      </c>
+      <c r="L106" s="10" t="str">
+        <f t="shared" si="17"/>
+        <v>39,47</v>
+      </c>
+      <c r="M106" s="10" t="str">
+        <f t="shared" si="18"/>
+        <v>265,37.5</v>
+      </c>
+    </row>
+    <row r="107" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="D107" s="10">
+        <v>103</v>
+      </c>
+      <c r="E107" t="str">
+        <f t="shared" si="6"/>
+        <v>금강 베기</v>
+      </c>
+      <c r="F107">
+        <f>VLOOKUP(E107,$Q:$R,2,FALSE)</f>
+        <v>43</v>
+      </c>
+      <c r="G107">
+        <f t="shared" si="15"/>
+        <v>10500</v>
+      </c>
+      <c r="H107" t="str">
+        <f t="shared" si="10"/>
+        <v>태극 베기</v>
+      </c>
+      <c r="I107">
+        <f>VLOOKUP(H107,$Q:$R,2,FALSE)</f>
+        <v>55</v>
+      </c>
+      <c r="J107">
+        <f t="shared" si="16"/>
+        <v>16</v>
+      </c>
+      <c r="K107" s="10">
+        <v>103</v>
+      </c>
+      <c r="L107" s="10" t="str">
+        <f t="shared" si="17"/>
+        <v>43,55</v>
+      </c>
+      <c r="M107" s="10" t="str">
+        <f t="shared" si="18"/>
+        <v>105,0.16</v>
+      </c>
+    </row>
+    <row r="108" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="D108" s="9">
+        <v>104</v>
+      </c>
+      <c r="E108" t="str">
+        <f t="shared" si="6"/>
+        <v>귀살 베기</v>
+      </c>
+      <c r="F108">
+        <f>VLOOKUP(E108,$Q:$R,2,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="G108">
+        <f t="shared" si="15"/>
+        <v>61</v>
+      </c>
+      <c r="H108" t="str">
+        <f t="shared" si="10"/>
+        <v>천구 베기</v>
+      </c>
+      <c r="I108">
+        <f>VLOOKUP(H108,$Q:$R,2,FALSE)</f>
+        <v>61</v>
+      </c>
+      <c r="J108">
+        <f t="shared" si="16"/>
+        <v>22.5</v>
+      </c>
+      <c r="K108" s="10">
+        <v>104</v>
+      </c>
+      <c r="L108" s="10" t="str">
+        <f t="shared" si="17"/>
+        <v>60,61</v>
+      </c>
+      <c r="M108" s="10" t="str">
+        <f t="shared" si="18"/>
+        <v>0.61,0.225</v>
+      </c>
+    </row>
+    <row r="109" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="D109" s="10">
+        <v>105</v>
+      </c>
+      <c r="E109" t="str">
+        <f t="shared" si="6"/>
+        <v>지옥 베기</v>
+      </c>
+      <c r="F109">
+        <f>VLOOKUP(E109,$Q:$R,2,FALSE)</f>
+        <v>35</v>
+      </c>
+      <c r="G109">
+        <f t="shared" si="15"/>
+        <v>80000</v>
+      </c>
+      <c r="H109" t="str">
+        <f t="shared" si="10"/>
+        <v>신선 베기</v>
+      </c>
+      <c r="I109">
+        <f>VLOOKUP(H109,$Q:$R,2,FALSE)</f>
+        <v>54</v>
+      </c>
+      <c r="J109">
+        <f t="shared" si="16"/>
+        <v>205</v>
+      </c>
+      <c r="K109" s="10">
+        <v>105</v>
+      </c>
+      <c r="L109" s="10" t="str">
+        <f t="shared" si="17"/>
+        <v>35,54</v>
+      </c>
+      <c r="M109" s="10" t="str">
+        <f t="shared" si="18"/>
+        <v>800,2.05</v>
+      </c>
+    </row>
+    <row r="110" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="D110" s="10">
+        <v>106</v>
+      </c>
+      <c r="E110" t="str">
+        <f t="shared" si="6"/>
+        <v>천상 베기</v>
+      </c>
+      <c r="F110">
+        <f>VLOOKUP(E110,$Q:$R,2,FALSE)</f>
+        <v>36</v>
+      </c>
+      <c r="G110">
+        <f t="shared" si="15"/>
+        <v>45000</v>
+      </c>
+      <c r="H110" t="str">
+        <f t="shared" si="10"/>
+        <v>심연 베기</v>
+      </c>
+      <c r="I110">
+        <f>VLOOKUP(H110,$Q:$R,2,FALSE)</f>
+        <v>50</v>
+      </c>
+      <c r="J110">
+        <f t="shared" si="16"/>
+        <v>1150</v>
+      </c>
+      <c r="K110" s="10">
+        <v>106</v>
+      </c>
+      <c r="L110" s="10" t="str">
+        <f t="shared" si="17"/>
+        <v>36,50</v>
+      </c>
+      <c r="M110" s="10" t="str">
+        <f t="shared" si="18"/>
+        <v>450,11.5</v>
+      </c>
+    </row>
+    <row r="111" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="D111" s="10">
+        <v>107</v>
+      </c>
+      <c r="E111" t="str">
+        <f t="shared" si="6"/>
+        <v>귀신 베기</v>
+      </c>
+      <c r="F111">
+        <f>VLOOKUP(E111,$Q:$R,2,FALSE)</f>
+        <v>39</v>
+      </c>
+      <c r="G111">
+        <f t="shared" si="15"/>
+        <v>28000</v>
+      </c>
+      <c r="H111" t="str">
+        <f t="shared" si="10"/>
+        <v>섬광 베기</v>
+      </c>
+      <c r="I111">
+        <f>VLOOKUP(H111,$Q:$R,2,FALSE)</f>
+        <v>47</v>
+      </c>
+      <c r="J111">
+        <f t="shared" si="16"/>
+        <v>4000</v>
+      </c>
+      <c r="K111" s="10">
+        <v>107</v>
+      </c>
+      <c r="L111" s="10" t="str">
+        <f t="shared" si="17"/>
+        <v>39,47</v>
+      </c>
+      <c r="M111" s="10" t="str">
+        <f t="shared" si="18"/>
+        <v>280,40</v>
+      </c>
+    </row>
+    <row r="112" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="D112" s="10">
+        <v>108</v>
+      </c>
+      <c r="E112" t="str">
+        <f t="shared" si="6"/>
+        <v>금강 베기</v>
+      </c>
+      <c r="F112">
+        <f>VLOOKUP(E112,$Q:$R,2,FALSE)</f>
+        <v>43</v>
+      </c>
+      <c r="G112">
+        <f t="shared" si="15"/>
+        <v>11000</v>
+      </c>
+      <c r="H112" t="str">
+        <f t="shared" si="10"/>
+        <v>태극 베기</v>
+      </c>
+      <c r="I112">
+        <f>VLOOKUP(H112,$Q:$R,2,FALSE)</f>
+        <v>55</v>
+      </c>
+      <c r="J112">
+        <f t="shared" si="16"/>
+        <v>17</v>
+      </c>
+      <c r="K112" s="10">
+        <v>108</v>
+      </c>
+      <c r="L112" s="10" t="str">
+        <f t="shared" si="17"/>
+        <v>43,55</v>
+      </c>
+      <c r="M112" s="10" t="str">
+        <f t="shared" si="18"/>
+        <v>110,0.17</v>
+      </c>
+    </row>
+    <row r="113" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D113" s="10">
+        <v>109</v>
+      </c>
+      <c r="E113" t="str">
+        <f t="shared" si="6"/>
+        <v>귀살 베기</v>
+      </c>
+      <c r="F113">
+        <f>VLOOKUP(E113,$Q:$R,2,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="G113">
+        <f t="shared" si="15"/>
+        <v>62</v>
+      </c>
+      <c r="H113" t="str">
+        <f t="shared" si="10"/>
+        <v>신수 베기</v>
+      </c>
+      <c r="I113">
+        <f>VLOOKUP(H113,$Q:$R,2,FALSE)</f>
+        <v>42</v>
+      </c>
+      <c r="J113">
+        <f t="shared" si="16"/>
+        <v>8000</v>
+      </c>
+      <c r="K113" s="10">
+        <v>109</v>
+      </c>
+      <c r="L113" s="10" t="str">
+        <f t="shared" si="17"/>
+        <v>60,42</v>
+      </c>
+      <c r="M113" s="10" t="str">
+        <f t="shared" si="18"/>
+        <v>0.62,80</v>
+      </c>
+    </row>
+    <row r="114" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D114" s="10">
+        <v>110</v>
+      </c>
+      <c r="E114" t="str">
+        <f t="shared" si="6"/>
+        <v>지옥 베기</v>
+      </c>
+      <c r="F114">
+        <f>VLOOKUP(E114,$Q:$R,2,FALSE)</f>
+        <v>35</v>
+      </c>
+      <c r="G114">
+        <f t="shared" si="15"/>
+        <v>85000</v>
+      </c>
+      <c r="H114" t="str">
+        <f t="shared" si="10"/>
+        <v>신선 베기</v>
+      </c>
+      <c r="I114">
+        <f>VLOOKUP(H114,$Q:$R,2,FALSE)</f>
+        <v>54</v>
+      </c>
+      <c r="J114">
+        <f t="shared" si="16"/>
+        <v>210</v>
+      </c>
+      <c r="K114" s="10">
+        <v>110</v>
+      </c>
+      <c r="L114" s="10" t="str">
+        <f t="shared" si="17"/>
+        <v>35,54</v>
+      </c>
+      <c r="M114" s="10" t="str">
+        <f t="shared" si="18"/>
+        <v>850,2.1</v>
+      </c>
+    </row>
+    <row r="115" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D115" s="10">
+        <v>111</v>
+      </c>
+      <c r="E115" t="str">
+        <f t="shared" si="6"/>
+        <v>천상 베기</v>
+      </c>
+      <c r="F115">
+        <f>VLOOKUP(E115,$Q:$R,2,FALSE)</f>
+        <v>36</v>
+      </c>
+      <c r="G115">
+        <f t="shared" si="15"/>
+        <v>47500</v>
+      </c>
+      <c r="H115" t="str">
+        <f t="shared" si="10"/>
+        <v>심연 베기</v>
+      </c>
+      <c r="I115">
+        <f>VLOOKUP(H115,$Q:$R,2,FALSE)</f>
+        <v>50</v>
+      </c>
+      <c r="J115">
+        <f t="shared" si="16"/>
+        <v>1225</v>
+      </c>
+      <c r="K115" s="10">
+        <v>111</v>
+      </c>
+      <c r="L115" s="10" t="str">
+        <f t="shared" si="17"/>
+        <v>36,50</v>
+      </c>
+      <c r="M115" s="10" t="str">
+        <f t="shared" si="18"/>
+        <v>475,12.25</v>
+      </c>
+    </row>
+    <row r="116" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D116" s="9">
+        <v>112</v>
+      </c>
+      <c r="E116" t="str">
+        <f t="shared" si="6"/>
+        <v>귀신 베기</v>
+      </c>
+      <c r="F116">
+        <f>VLOOKUP(E116,$Q:$R,2,FALSE)</f>
+        <v>39</v>
+      </c>
+      <c r="G116">
+        <f t="shared" si="15"/>
+        <v>29500</v>
+      </c>
+      <c r="H116" t="str">
+        <f t="shared" si="10"/>
+        <v>섬광 베기</v>
+      </c>
+      <c r="I116">
+        <f>VLOOKUP(H116,$Q:$R,2,FALSE)</f>
+        <v>47</v>
+      </c>
+      <c r="J116">
+        <f t="shared" si="16"/>
+        <v>4250</v>
+      </c>
+      <c r="K116" s="10">
+        <v>112</v>
+      </c>
+      <c r="L116" s="10" t="str">
+        <f t="shared" si="17"/>
+        <v>39,47</v>
+      </c>
+      <c r="M116" s="10" t="str">
+        <f t="shared" si="18"/>
+        <v>295,42.5</v>
+      </c>
+    </row>
+    <row r="117" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D117" s="10">
+        <v>113</v>
+      </c>
+      <c r="E117" t="str">
+        <f t="shared" si="6"/>
+        <v>금강 베기</v>
+      </c>
+      <c r="F117">
+        <f>VLOOKUP(E117,$Q:$R,2,FALSE)</f>
+        <v>43</v>
+      </c>
+      <c r="G117">
+        <f t="shared" ref="G117:G153" si="19">G112+VLOOKUP(E117,$Q$20:$R$31,2,FALSE)</f>
+        <v>11500</v>
+      </c>
+      <c r="H117" t="str">
+        <f t="shared" si="10"/>
+        <v>태극 베기</v>
+      </c>
+      <c r="I117">
+        <f>VLOOKUP(H117,$Q:$R,2,FALSE)</f>
+        <v>55</v>
+      </c>
+      <c r="J117">
+        <f t="shared" ref="J117:J153" si="20">IF(I117=42,J102+$R$23,IF(I117=46,J102+$R$24,IF(I117=61,J102+$R$30,J112+VLOOKUP(H117,$Q$20:$R$31,2,FALSE))))</f>
+        <v>18</v>
+      </c>
+      <c r="K117" s="10">
+        <v>113</v>
+      </c>
+      <c r="L117" s="10" t="str">
+        <f t="shared" ref="L117:L153" si="21">IF(H117=0,F117&amp;",-1",F117&amp;","&amp;I117)</f>
+        <v>43,55</v>
+      </c>
+      <c r="M117" s="10" t="str">
+        <f t="shared" ref="M117:M153" si="22">IF(H117=0,G117/100&amp;","&amp;0,G117/100&amp;","&amp;J117/100)</f>
+        <v>115,0.18</v>
+      </c>
+    </row>
+    <row r="118" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D118" s="10">
+        <v>114</v>
+      </c>
+      <c r="E118" t="str">
+        <f t="shared" si="6"/>
+        <v>귀살 베기</v>
+      </c>
+      <c r="F118">
+        <f>VLOOKUP(E118,$Q:$R,2,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="G118">
+        <f t="shared" si="19"/>
+        <v>63</v>
+      </c>
+      <c r="H118" t="str">
+        <f t="shared" si="10"/>
+        <v>흉수 베기</v>
+      </c>
+      <c r="I118">
+        <f>VLOOKUP(H118,$Q:$R,2,FALSE)</f>
+        <v>46</v>
+      </c>
+      <c r="J118">
+        <f t="shared" si="20"/>
+        <v>800</v>
+      </c>
+      <c r="K118" s="10">
+        <v>114</v>
+      </c>
+      <c r="L118" s="10" t="str">
+        <f t="shared" si="21"/>
+        <v>60,46</v>
+      </c>
+      <c r="M118" s="10" t="str">
+        <f t="shared" si="22"/>
+        <v>0.63,8</v>
+      </c>
+    </row>
+    <row r="119" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D119" s="10">
+        <v>115</v>
+      </c>
+      <c r="E119" t="str">
+        <f t="shared" ref="E119:E153" si="23">E114</f>
+        <v>지옥 베기</v>
+      </c>
+      <c r="F119">
+        <f>VLOOKUP(E119,$Q:$R,2,FALSE)</f>
+        <v>35</v>
+      </c>
+      <c r="G119">
+        <f t="shared" si="19"/>
+        <v>90000</v>
+      </c>
+      <c r="H119" t="str">
+        <f t="shared" si="10"/>
+        <v>신선 베기</v>
+      </c>
+      <c r="I119">
+        <f>VLOOKUP(H119,$Q:$R,2,FALSE)</f>
+        <v>54</v>
+      </c>
+      <c r="J119">
+        <f t="shared" si="20"/>
+        <v>215</v>
+      </c>
+      <c r="K119" s="10">
+        <v>115</v>
+      </c>
+      <c r="L119" s="10" t="str">
+        <f t="shared" si="21"/>
+        <v>35,54</v>
+      </c>
+      <c r="M119" s="10" t="str">
+        <f t="shared" si="22"/>
+        <v>900,2.15</v>
+      </c>
+    </row>
+    <row r="120" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D120" s="10">
+        <v>116</v>
+      </c>
+      <c r="E120" t="str">
+        <f t="shared" si="23"/>
+        <v>천상 베기</v>
+      </c>
+      <c r="F120">
+        <f>VLOOKUP(E120,$Q:$R,2,FALSE)</f>
+        <v>36</v>
+      </c>
+      <c r="G120">
+        <f t="shared" si="19"/>
+        <v>50000</v>
+      </c>
+      <c r="H120" t="str">
+        <f t="shared" si="10"/>
+        <v>심연 베기</v>
+      </c>
+      <c r="I120">
+        <f>VLOOKUP(H120,$Q:$R,2,FALSE)</f>
+        <v>50</v>
+      </c>
+      <c r="J120">
+        <f t="shared" si="20"/>
+        <v>1300</v>
+      </c>
+      <c r="K120" s="10">
+        <v>116</v>
+      </c>
+      <c r="L120" s="10" t="str">
+        <f t="shared" si="21"/>
+        <v>36,50</v>
+      </c>
+      <c r="M120" s="10" t="str">
+        <f t="shared" si="22"/>
+        <v>500,13</v>
+      </c>
+    </row>
+    <row r="121" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D121" s="9">
+        <v>117</v>
+      </c>
+      <c r="E121" t="str">
+        <f t="shared" si="23"/>
+        <v>귀신 베기</v>
+      </c>
+      <c r="F121">
+        <f>VLOOKUP(E121,$Q:$R,2,FALSE)</f>
+        <v>39</v>
+      </c>
+      <c r="G121">
+        <f t="shared" si="19"/>
+        <v>31000</v>
+      </c>
+      <c r="H121" t="str">
+        <f t="shared" si="10"/>
+        <v>섬광 베기</v>
+      </c>
+      <c r="I121">
+        <f>VLOOKUP(H121,$Q:$R,2,FALSE)</f>
+        <v>47</v>
+      </c>
+      <c r="J121">
+        <f t="shared" si="20"/>
+        <v>4500</v>
+      </c>
+      <c r="K121" s="10">
+        <v>117</v>
+      </c>
+      <c r="L121" s="10" t="str">
+        <f t="shared" si="21"/>
+        <v>39,47</v>
+      </c>
+      <c r="M121" s="10" t="str">
+        <f t="shared" si="22"/>
+        <v>310,45</v>
+      </c>
+    </row>
+    <row r="122" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D122" s="10">
+        <v>118</v>
+      </c>
+      <c r="E122" t="str">
+        <f t="shared" si="23"/>
+        <v>금강 베기</v>
+      </c>
+      <c r="F122">
+        <f>VLOOKUP(E122,$Q:$R,2,FALSE)</f>
+        <v>43</v>
+      </c>
+      <c r="G122">
+        <f t="shared" si="19"/>
+        <v>12000</v>
+      </c>
+      <c r="H122" t="str">
+        <f t="shared" si="10"/>
+        <v>태극 베기</v>
+      </c>
+      <c r="I122">
+        <f>VLOOKUP(H122,$Q:$R,2,FALSE)</f>
+        <v>55</v>
+      </c>
+      <c r="J122">
+        <f t="shared" si="20"/>
+        <v>19</v>
+      </c>
+      <c r="K122" s="10">
+        <v>118</v>
+      </c>
+      <c r="L122" s="10" t="str">
+        <f t="shared" si="21"/>
+        <v>43,55</v>
+      </c>
+      <c r="M122" s="10" t="str">
+        <f t="shared" si="22"/>
+        <v>120,0.19</v>
+      </c>
+    </row>
+    <row r="123" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D123" s="10">
+        <v>119</v>
+      </c>
+      <c r="E123" t="str">
+        <f t="shared" si="23"/>
+        <v>귀살 베기</v>
+      </c>
+      <c r="F123">
+        <f>VLOOKUP(E123,$Q:$R,2,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="G123">
+        <f t="shared" si="19"/>
+        <v>64</v>
+      </c>
+      <c r="H123" t="str">
+        <f t="shared" si="10"/>
+        <v>천구 베기</v>
+      </c>
+      <c r="I123">
+        <f>VLOOKUP(H123,$Q:$R,2,FALSE)</f>
+        <v>61</v>
+      </c>
+      <c r="J123">
+        <f t="shared" si="20"/>
+        <v>25</v>
+      </c>
+      <c r="K123" s="10">
+        <v>119</v>
+      </c>
+      <c r="L123" s="10" t="str">
+        <f t="shared" si="21"/>
+        <v>60,61</v>
+      </c>
+      <c r="M123" s="10" t="str">
+        <f t="shared" si="22"/>
+        <v>0.64,0.25</v>
+      </c>
+    </row>
+    <row r="124" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D124" s="10">
+        <v>120</v>
+      </c>
+      <c r="E124" t="str">
+        <f t="shared" si="23"/>
+        <v>지옥 베기</v>
+      </c>
+      <c r="F124">
+        <f>VLOOKUP(E124,$Q:$R,2,FALSE)</f>
+        <v>35</v>
+      </c>
+      <c r="G124">
+        <f t="shared" si="19"/>
+        <v>95000</v>
+      </c>
+      <c r="H124" t="str">
+        <f t="shared" si="10"/>
+        <v>신선 베기</v>
+      </c>
+      <c r="I124">
+        <f>VLOOKUP(H124,$Q:$R,2,FALSE)</f>
+        <v>54</v>
+      </c>
+      <c r="J124">
+        <f t="shared" si="20"/>
+        <v>220</v>
+      </c>
+      <c r="K124" s="10">
+        <v>120</v>
+      </c>
+      <c r="L124" s="10" t="str">
+        <f t="shared" si="21"/>
+        <v>35,54</v>
+      </c>
+      <c r="M124" s="10" t="str">
+        <f t="shared" si="22"/>
+        <v>950,2.2</v>
+      </c>
+    </row>
+    <row r="125" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D125" s="10">
+        <v>121</v>
+      </c>
+      <c r="E125" t="str">
+        <f t="shared" si="23"/>
+        <v>천상 베기</v>
+      </c>
+      <c r="F125">
+        <f>VLOOKUP(E125,$Q:$R,2,FALSE)</f>
+        <v>36</v>
+      </c>
+      <c r="G125">
+        <f t="shared" si="19"/>
+        <v>52500</v>
+      </c>
+      <c r="H125" t="str">
+        <f t="shared" si="10"/>
+        <v>심연 베기</v>
+      </c>
+      <c r="I125">
+        <f>VLOOKUP(H125,$Q:$R,2,FALSE)</f>
+        <v>50</v>
+      </c>
+      <c r="J125">
+        <f t="shared" si="20"/>
+        <v>1375</v>
+      </c>
+      <c r="K125" s="10">
+        <v>121</v>
+      </c>
+      <c r="L125" s="10" t="str">
+        <f t="shared" si="21"/>
+        <v>36,50</v>
+      </c>
+      <c r="M125" s="10" t="str">
+        <f t="shared" si="22"/>
+        <v>525,13.75</v>
+      </c>
+    </row>
+    <row r="126" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D126" s="10">
+        <v>122</v>
+      </c>
+      <c r="E126" t="str">
+        <f t="shared" si="23"/>
+        <v>귀신 베기</v>
+      </c>
+      <c r="F126">
+        <f>VLOOKUP(E126,$Q:$R,2,FALSE)</f>
+        <v>39</v>
+      </c>
+      <c r="G126">
+        <f t="shared" si="19"/>
+        <v>32500</v>
+      </c>
+      <c r="H126" t="str">
+        <f t="shared" si="10"/>
+        <v>섬광 베기</v>
+      </c>
+      <c r="I126">
+        <f>VLOOKUP(H126,$Q:$R,2,FALSE)</f>
+        <v>47</v>
+      </c>
+      <c r="J126">
+        <f t="shared" si="20"/>
+        <v>4750</v>
+      </c>
+      <c r="K126" s="10">
+        <v>122</v>
+      </c>
+      <c r="L126" s="10" t="str">
+        <f t="shared" si="21"/>
+        <v>39,47</v>
+      </c>
+      <c r="M126" s="10" t="str">
+        <f t="shared" si="22"/>
+        <v>325,47.5</v>
+      </c>
+    </row>
+    <row r="127" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D127" s="10">
+        <v>123</v>
+      </c>
+      <c r="E127" t="str">
+        <f t="shared" si="23"/>
+        <v>금강 베기</v>
+      </c>
+      <c r="F127">
+        <f>VLOOKUP(E127,$Q:$R,2,FALSE)</f>
+        <v>43</v>
+      </c>
+      <c r="G127">
+        <f t="shared" si="19"/>
+        <v>12500</v>
+      </c>
+      <c r="H127" t="str">
+        <f t="shared" si="10"/>
+        <v>태극 베기</v>
+      </c>
+      <c r="I127">
+        <f>VLOOKUP(H127,$Q:$R,2,FALSE)</f>
+        <v>55</v>
+      </c>
+      <c r="J127">
+        <f t="shared" si="20"/>
+        <v>20</v>
+      </c>
+      <c r="K127" s="10">
+        <v>123</v>
+      </c>
+      <c r="L127" s="10" t="str">
+        <f t="shared" si="21"/>
+        <v>43,55</v>
+      </c>
+      <c r="M127" s="10" t="str">
+        <f t="shared" si="22"/>
+        <v>125,0.2</v>
+      </c>
+    </row>
+    <row r="128" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D128" s="10">
+        <v>124</v>
+      </c>
+      <c r="E128" t="str">
+        <f t="shared" si="23"/>
+        <v>귀살 베기</v>
+      </c>
+      <c r="F128">
+        <f>VLOOKUP(E128,$Q:$R,2,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="G128">
+        <f t="shared" si="19"/>
+        <v>65</v>
+      </c>
+      <c r="H128" t="str">
+        <f t="shared" si="10"/>
+        <v>신수 베기</v>
+      </c>
+      <c r="I128">
+        <f>VLOOKUP(H128,$Q:$R,2,FALSE)</f>
+        <v>42</v>
+      </c>
+      <c r="J128">
+        <f t="shared" si="20"/>
+        <v>8500</v>
+      </c>
+      <c r="K128" s="10">
+        <v>124</v>
+      </c>
+      <c r="L128" s="10" t="str">
+        <f t="shared" si="21"/>
+        <v>60,42</v>
+      </c>
+      <c r="M128" s="10" t="str">
+        <f t="shared" si="22"/>
+        <v>0.65,85</v>
+      </c>
+    </row>
+    <row r="129" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D129" s="9">
+        <v>125</v>
+      </c>
+      <c r="E129" t="str">
+        <f t="shared" si="23"/>
+        <v>지옥 베기</v>
+      </c>
+      <c r="F129">
+        <f>VLOOKUP(E129,$Q:$R,2,FALSE)</f>
+        <v>35</v>
+      </c>
+      <c r="G129">
+        <f t="shared" si="19"/>
+        <v>100000</v>
+      </c>
+      <c r="H129" t="str">
+        <f t="shared" ref="H129:H153" si="24">H114</f>
+        <v>신선 베기</v>
+      </c>
+      <c r="I129">
+        <f>VLOOKUP(H129,$Q:$R,2,FALSE)</f>
+        <v>54</v>
+      </c>
+      <c r="J129">
+        <f t="shared" si="20"/>
+        <v>225</v>
+      </c>
+      <c r="K129" s="10">
+        <v>125</v>
+      </c>
+      <c r="L129" s="10" t="str">
+        <f t="shared" si="21"/>
+        <v>35,54</v>
+      </c>
+      <c r="M129" s="10" t="str">
+        <f t="shared" si="22"/>
+        <v>1000,2.25</v>
+      </c>
+    </row>
+    <row r="130" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D130" s="10">
+        <v>126</v>
+      </c>
+      <c r="E130" t="str">
+        <f t="shared" si="23"/>
+        <v>천상 베기</v>
+      </c>
+      <c r="F130">
+        <f>VLOOKUP(E130,$Q:$R,2,FALSE)</f>
+        <v>36</v>
+      </c>
+      <c r="G130">
+        <f t="shared" si="19"/>
+        <v>55000</v>
+      </c>
+      <c r="H130" t="str">
+        <f t="shared" si="24"/>
+        <v>심연 베기</v>
+      </c>
+      <c r="I130">
+        <f>VLOOKUP(H130,$Q:$R,2,FALSE)</f>
+        <v>50</v>
+      </c>
+      <c r="J130">
+        <f t="shared" si="20"/>
+        <v>1450</v>
+      </c>
+      <c r="K130" s="10">
+        <v>126</v>
+      </c>
+      <c r="L130" s="10" t="str">
+        <f t="shared" si="21"/>
+        <v>36,50</v>
+      </c>
+      <c r="M130" s="10" t="str">
+        <f t="shared" si="22"/>
+        <v>550,14.5</v>
+      </c>
+    </row>
+    <row r="131" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D131" s="10">
+        <v>127</v>
+      </c>
+      <c r="E131" t="str">
+        <f t="shared" si="23"/>
+        <v>귀신 베기</v>
+      </c>
+      <c r="F131">
+        <f>VLOOKUP(E131,$Q:$R,2,FALSE)</f>
+        <v>39</v>
+      </c>
+      <c r="G131">
+        <f t="shared" si="19"/>
+        <v>34000</v>
+      </c>
+      <c r="H131" t="str">
+        <f t="shared" si="24"/>
+        <v>섬광 베기</v>
+      </c>
+      <c r="I131">
+        <f>VLOOKUP(H131,$Q:$R,2,FALSE)</f>
+        <v>47</v>
+      </c>
+      <c r="J131">
+        <f t="shared" si="20"/>
+        <v>5000</v>
+      </c>
+      <c r="K131" s="10">
+        <v>127</v>
+      </c>
+      <c r="L131" s="10" t="str">
+        <f t="shared" si="21"/>
+        <v>39,47</v>
+      </c>
+      <c r="M131" s="10" t="str">
+        <f t="shared" si="22"/>
+        <v>340,50</v>
+      </c>
+    </row>
+    <row r="132" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D132" s="10">
+        <v>128</v>
+      </c>
+      <c r="E132" t="str">
+        <f t="shared" si="23"/>
+        <v>금강 베기</v>
+      </c>
+      <c r="F132">
+        <f>VLOOKUP(E132,$Q:$R,2,FALSE)</f>
+        <v>43</v>
+      </c>
+      <c r="G132">
+        <f t="shared" si="19"/>
+        <v>13000</v>
+      </c>
+      <c r="H132" t="str">
+        <f t="shared" si="24"/>
+        <v>태극 베기</v>
+      </c>
+      <c r="I132">
+        <f>VLOOKUP(H132,$Q:$R,2,FALSE)</f>
+        <v>55</v>
+      </c>
+      <c r="J132">
+        <f t="shared" si="20"/>
+        <v>21</v>
+      </c>
+      <c r="K132" s="10">
+        <v>128</v>
+      </c>
+      <c r="L132" s="10" t="str">
+        <f t="shared" si="21"/>
+        <v>43,55</v>
+      </c>
+      <c r="M132" s="10" t="str">
+        <f t="shared" si="22"/>
+        <v>130,0.21</v>
+      </c>
+    </row>
+    <row r="133" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D133" s="10">
+        <v>129</v>
+      </c>
+      <c r="E133" t="str">
+        <f t="shared" si="23"/>
+        <v>귀살 베기</v>
+      </c>
+      <c r="F133">
+        <f>VLOOKUP(E133,$Q:$R,2,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="G133">
+        <f t="shared" si="19"/>
+        <v>66</v>
+      </c>
+      <c r="H133" t="str">
+        <f t="shared" si="24"/>
+        <v>흉수 베기</v>
+      </c>
+      <c r="I133">
+        <f>VLOOKUP(H133,$Q:$R,2,FALSE)</f>
+        <v>46</v>
+      </c>
+      <c r="J133">
+        <f t="shared" si="20"/>
+        <v>850</v>
+      </c>
+      <c r="K133" s="10">
+        <v>129</v>
+      </c>
+      <c r="L133" s="10" t="str">
+        <f t="shared" si="21"/>
+        <v>60,46</v>
+      </c>
+      <c r="M133" s="10" t="str">
+        <f t="shared" si="22"/>
+        <v>0.66,8.5</v>
+      </c>
+    </row>
+    <row r="134" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D134" s="10">
+        <v>130</v>
+      </c>
+      <c r="E134" t="str">
+        <f t="shared" si="23"/>
+        <v>지옥 베기</v>
+      </c>
+      <c r="F134">
+        <f>VLOOKUP(E134,$Q:$R,2,FALSE)</f>
+        <v>35</v>
+      </c>
+      <c r="G134">
+        <f t="shared" si="19"/>
+        <v>105000</v>
+      </c>
+      <c r="H134" t="str">
+        <f t="shared" si="24"/>
+        <v>신선 베기</v>
+      </c>
+      <c r="I134">
+        <f>VLOOKUP(H134,$Q:$R,2,FALSE)</f>
+        <v>54</v>
+      </c>
+      <c r="J134">
+        <f t="shared" si="20"/>
+        <v>230</v>
+      </c>
+      <c r="K134" s="10">
+        <v>130</v>
+      </c>
+      <c r="L134" s="10" t="str">
+        <f t="shared" si="21"/>
+        <v>35,54</v>
+      </c>
+      <c r="M134" s="10" t="str">
+        <f t="shared" si="22"/>
+        <v>1050,2.3</v>
+      </c>
+    </row>
+    <row r="135" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D135" s="10">
+        <v>131</v>
+      </c>
+      <c r="E135" t="str">
+        <f t="shared" si="23"/>
+        <v>천상 베기</v>
+      </c>
+      <c r="F135">
+        <f>VLOOKUP(E135,$Q:$R,2,FALSE)</f>
+        <v>36</v>
+      </c>
+      <c r="G135">
+        <f t="shared" si="19"/>
+        <v>57500</v>
+      </c>
+      <c r="H135" t="str">
+        <f t="shared" si="24"/>
+        <v>심연 베기</v>
+      </c>
+      <c r="I135">
+        <f>VLOOKUP(H135,$Q:$R,2,FALSE)</f>
+        <v>50</v>
+      </c>
+      <c r="J135">
+        <f t="shared" si="20"/>
+        <v>1525</v>
+      </c>
+      <c r="K135" s="10">
+        <v>131</v>
+      </c>
+      <c r="L135" s="10" t="str">
+        <f t="shared" si="21"/>
+        <v>36,50</v>
+      </c>
+      <c r="M135" s="10" t="str">
+        <f t="shared" si="22"/>
+        <v>575,15.25</v>
+      </c>
+    </row>
+    <row r="136" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D136" s="10">
+        <v>132</v>
+      </c>
+      <c r="E136" t="str">
+        <f t="shared" si="23"/>
+        <v>귀신 베기</v>
+      </c>
+      <c r="F136">
+        <f>VLOOKUP(E136,$Q:$R,2,FALSE)</f>
+        <v>39</v>
+      </c>
+      <c r="G136">
+        <f t="shared" si="19"/>
+        <v>35500</v>
+      </c>
+      <c r="H136" t="str">
+        <f t="shared" si="24"/>
+        <v>섬광 베기</v>
+      </c>
+      <c r="I136">
+        <f>VLOOKUP(H136,$Q:$R,2,FALSE)</f>
+        <v>47</v>
+      </c>
+      <c r="J136">
+        <f t="shared" si="20"/>
+        <v>5250</v>
+      </c>
+      <c r="K136" s="10">
+        <v>132</v>
+      </c>
+      <c r="L136" s="10" t="str">
+        <f t="shared" si="21"/>
+        <v>39,47</v>
+      </c>
+      <c r="M136" s="10" t="str">
+        <f t="shared" si="22"/>
+        <v>355,52.5</v>
+      </c>
+    </row>
+    <row r="137" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D137" s="9">
+        <v>133</v>
+      </c>
+      <c r="E137" t="str">
+        <f t="shared" si="23"/>
+        <v>금강 베기</v>
+      </c>
+      <c r="F137">
+        <f>VLOOKUP(E137,$Q:$R,2,FALSE)</f>
+        <v>43</v>
+      </c>
+      <c r="G137">
+        <f t="shared" si="19"/>
+        <v>13500</v>
+      </c>
+      <c r="H137" t="str">
+        <f t="shared" si="24"/>
+        <v>태극 베기</v>
+      </c>
+      <c r="I137">
+        <f>VLOOKUP(H137,$Q:$R,2,FALSE)</f>
+        <v>55</v>
+      </c>
+      <c r="J137">
+        <f t="shared" si="20"/>
+        <v>22</v>
+      </c>
+      <c r="K137" s="10">
+        <v>133</v>
+      </c>
+      <c r="L137" s="10" t="str">
+        <f t="shared" si="21"/>
+        <v>43,55</v>
+      </c>
+      <c r="M137" s="10" t="str">
+        <f t="shared" si="22"/>
+        <v>135,0.22</v>
+      </c>
+    </row>
+    <row r="138" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D138" s="10">
+        <v>134</v>
+      </c>
+      <c r="E138" t="str">
+        <f t="shared" si="23"/>
+        <v>귀살 베기</v>
+      </c>
+      <c r="F138">
+        <f>VLOOKUP(E138,$Q:$R,2,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="G138">
+        <f t="shared" si="19"/>
+        <v>67</v>
+      </c>
+      <c r="H138" t="str">
+        <f t="shared" si="24"/>
+        <v>천구 베기</v>
+      </c>
+      <c r="I138">
+        <f>VLOOKUP(H138,$Q:$R,2,FALSE)</f>
+        <v>61</v>
+      </c>
+      <c r="J138">
+        <f t="shared" si="20"/>
+        <v>27.5</v>
+      </c>
+      <c r="K138" s="10">
+        <v>134</v>
+      </c>
+      <c r="L138" s="10" t="str">
+        <f t="shared" si="21"/>
+        <v>60,61</v>
+      </c>
+      <c r="M138" s="10" t="str">
+        <f t="shared" si="22"/>
+        <v>0.67,0.275</v>
+      </c>
+    </row>
+    <row r="139" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D139" s="10">
+        <v>135</v>
+      </c>
+      <c r="E139" t="str">
+        <f t="shared" si="23"/>
+        <v>지옥 베기</v>
+      </c>
+      <c r="F139">
+        <f>VLOOKUP(E139,$Q:$R,2,FALSE)</f>
+        <v>35</v>
+      </c>
+      <c r="G139">
+        <f t="shared" si="19"/>
+        <v>110000</v>
+      </c>
+      <c r="H139" t="str">
+        <f t="shared" si="24"/>
+        <v>신선 베기</v>
+      </c>
+      <c r="I139">
+        <f>VLOOKUP(H139,$Q:$R,2,FALSE)</f>
+        <v>54</v>
+      </c>
+      <c r="J139">
+        <f t="shared" si="20"/>
+        <v>235</v>
+      </c>
+      <c r="K139" s="10">
+        <v>135</v>
+      </c>
+      <c r="L139" s="10" t="str">
+        <f t="shared" si="21"/>
+        <v>35,54</v>
+      </c>
+      <c r="M139" s="10" t="str">
+        <f t="shared" si="22"/>
+        <v>1100,2.35</v>
+      </c>
+    </row>
+    <row r="140" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D140" s="10">
+        <v>136</v>
+      </c>
+      <c r="E140" t="str">
+        <f t="shared" si="23"/>
+        <v>천상 베기</v>
+      </c>
+      <c r="F140">
+        <f>VLOOKUP(E140,$Q:$R,2,FALSE)</f>
+        <v>36</v>
+      </c>
+      <c r="G140">
+        <f t="shared" si="19"/>
+        <v>60000</v>
+      </c>
+      <c r="H140" t="str">
+        <f t="shared" si="24"/>
+        <v>심연 베기</v>
+      </c>
+      <c r="I140">
+        <f>VLOOKUP(H140,$Q:$R,2,FALSE)</f>
+        <v>50</v>
+      </c>
+      <c r="J140">
+        <f t="shared" si="20"/>
+        <v>1600</v>
+      </c>
+      <c r="K140" s="10">
+        <v>136</v>
+      </c>
+      <c r="L140" s="10" t="str">
+        <f t="shared" si="21"/>
+        <v>36,50</v>
+      </c>
+      <c r="M140" s="10" t="str">
+        <f t="shared" si="22"/>
+        <v>600,16</v>
+      </c>
+    </row>
+    <row r="141" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D141" s="10">
+        <v>137</v>
+      </c>
+      <c r="E141" t="str">
+        <f t="shared" si="23"/>
+        <v>귀신 베기</v>
+      </c>
+      <c r="F141">
+        <f>VLOOKUP(E141,$Q:$R,2,FALSE)</f>
+        <v>39</v>
+      </c>
+      <c r="G141">
+        <f t="shared" si="19"/>
+        <v>37000</v>
+      </c>
+      <c r="H141" t="str">
+        <f t="shared" si="24"/>
+        <v>섬광 베기</v>
+      </c>
+      <c r="I141">
+        <f>VLOOKUP(H141,$Q:$R,2,FALSE)</f>
+        <v>47</v>
+      </c>
+      <c r="J141">
+        <f t="shared" si="20"/>
+        <v>5500</v>
+      </c>
+      <c r="K141" s="10">
+        <v>137</v>
+      </c>
+      <c r="L141" s="10" t="str">
+        <f t="shared" si="21"/>
+        <v>39,47</v>
+      </c>
+      <c r="M141" s="10" t="str">
+        <f t="shared" si="22"/>
+        <v>370,55</v>
+      </c>
+    </row>
+    <row r="142" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D142" s="9">
+        <v>138</v>
+      </c>
+      <c r="E142" t="str">
+        <f t="shared" si="23"/>
+        <v>금강 베기</v>
+      </c>
+      <c r="F142">
+        <f>VLOOKUP(E142,$Q:$R,2,FALSE)</f>
+        <v>43</v>
+      </c>
+      <c r="G142">
+        <f t="shared" si="19"/>
+        <v>14000</v>
+      </c>
+      <c r="H142" t="str">
+        <f t="shared" si="24"/>
+        <v>태극 베기</v>
+      </c>
+      <c r="I142">
+        <f>VLOOKUP(H142,$Q:$R,2,FALSE)</f>
+        <v>55</v>
+      </c>
+      <c r="J142">
+        <f t="shared" si="20"/>
+        <v>23</v>
+      </c>
+      <c r="K142" s="10">
+        <v>138</v>
+      </c>
+      <c r="L142" s="10" t="str">
+        <f t="shared" si="21"/>
+        <v>43,55</v>
+      </c>
+      <c r="M142" s="10" t="str">
+        <f t="shared" si="22"/>
+        <v>140,0.23</v>
+      </c>
+    </row>
+    <row r="143" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D143" s="10">
+        <v>139</v>
+      </c>
+      <c r="E143" t="str">
+        <f t="shared" si="23"/>
+        <v>귀살 베기</v>
+      </c>
+      <c r="F143">
+        <f>VLOOKUP(E143,$Q:$R,2,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="G143">
+        <f t="shared" si="19"/>
+        <v>68</v>
+      </c>
+      <c r="H143" t="str">
+        <f t="shared" si="24"/>
+        <v>신수 베기</v>
+      </c>
+      <c r="I143">
+        <f>VLOOKUP(H143,$Q:$R,2,FALSE)</f>
+        <v>42</v>
+      </c>
+      <c r="J143">
+        <f t="shared" si="20"/>
+        <v>9000</v>
+      </c>
+      <c r="K143" s="10">
+        <v>139</v>
+      </c>
+      <c r="L143" s="10" t="str">
+        <f t="shared" si="21"/>
+        <v>60,42</v>
+      </c>
+      <c r="M143" s="10" t="str">
+        <f t="shared" si="22"/>
+        <v>0.68,90</v>
+      </c>
+    </row>
+    <row r="144" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D144" s="10">
+        <v>140</v>
+      </c>
+      <c r="E144" t="str">
+        <f t="shared" si="23"/>
+        <v>지옥 베기</v>
+      </c>
+      <c r="F144">
+        <f>VLOOKUP(E144,$Q:$R,2,FALSE)</f>
+        <v>35</v>
+      </c>
+      <c r="G144">
+        <f t="shared" si="19"/>
+        <v>115000</v>
+      </c>
+      <c r="H144" t="str">
+        <f t="shared" si="24"/>
+        <v>신선 베기</v>
+      </c>
+      <c r="I144">
+        <f>VLOOKUP(H144,$Q:$R,2,FALSE)</f>
+        <v>54</v>
+      </c>
+      <c r="J144">
+        <f t="shared" si="20"/>
+        <v>240</v>
+      </c>
+      <c r="K144" s="10">
+        <v>140</v>
+      </c>
+      <c r="L144" s="10" t="str">
+        <f t="shared" si="21"/>
+        <v>35,54</v>
+      </c>
+      <c r="M144" s="10" t="str">
+        <f t="shared" si="22"/>
+        <v>1150,2.4</v>
+      </c>
+    </row>
+    <row r="145" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D145" s="10">
+        <v>141</v>
+      </c>
+      <c r="E145" t="str">
+        <f t="shared" si="23"/>
+        <v>천상 베기</v>
+      </c>
+      <c r="F145">
+        <f>VLOOKUP(E145,$Q:$R,2,FALSE)</f>
+        <v>36</v>
+      </c>
+      <c r="G145">
+        <f t="shared" si="19"/>
+        <v>62500</v>
+      </c>
+      <c r="H145" t="str">
+        <f t="shared" si="24"/>
+        <v>심연 베기</v>
+      </c>
+      <c r="I145">
+        <f>VLOOKUP(H145,$Q:$R,2,FALSE)</f>
+        <v>50</v>
+      </c>
+      <c r="J145">
+        <f t="shared" si="20"/>
+        <v>1675</v>
+      </c>
+      <c r="K145" s="10">
+        <v>141</v>
+      </c>
+      <c r="L145" s="10" t="str">
+        <f t="shared" si="21"/>
+        <v>36,50</v>
+      </c>
+      <c r="M145" s="10" t="str">
+        <f t="shared" si="22"/>
+        <v>625,16.75</v>
+      </c>
+    </row>
+    <row r="146" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D146" s="10">
+        <v>142</v>
+      </c>
+      <c r="E146" t="str">
+        <f t="shared" si="23"/>
+        <v>귀신 베기</v>
+      </c>
+      <c r="F146">
+        <f>VLOOKUP(E146,$Q:$R,2,FALSE)</f>
+        <v>39</v>
+      </c>
+      <c r="G146">
+        <f t="shared" si="19"/>
+        <v>38500</v>
+      </c>
+      <c r="H146" t="str">
+        <f t="shared" si="24"/>
+        <v>섬광 베기</v>
+      </c>
+      <c r="I146">
+        <f>VLOOKUP(H146,$Q:$R,2,FALSE)</f>
+        <v>47</v>
+      </c>
+      <c r="J146">
+        <f t="shared" si="20"/>
+        <v>5750</v>
+      </c>
+      <c r="K146" s="10">
+        <v>142</v>
+      </c>
+      <c r="L146" s="10" t="str">
+        <f t="shared" si="21"/>
+        <v>39,47</v>
+      </c>
+      <c r="M146" s="10" t="str">
+        <f t="shared" si="22"/>
+        <v>385,57.5</v>
+      </c>
+    </row>
+    <row r="147" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D147" s="10">
+        <v>143</v>
+      </c>
+      <c r="E147" t="str">
+        <f t="shared" si="23"/>
+        <v>금강 베기</v>
+      </c>
+      <c r="F147">
+        <f>VLOOKUP(E147,$Q:$R,2,FALSE)</f>
+        <v>43</v>
+      </c>
+      <c r="G147">
+        <f t="shared" si="19"/>
+        <v>14500</v>
+      </c>
+      <c r="H147" t="str">
+        <f t="shared" si="24"/>
+        <v>태극 베기</v>
+      </c>
+      <c r="I147">
+        <f>VLOOKUP(H147,$Q:$R,2,FALSE)</f>
+        <v>55</v>
+      </c>
+      <c r="J147">
+        <f t="shared" si="20"/>
+        <v>24</v>
+      </c>
+      <c r="K147" s="10">
+        <v>143</v>
+      </c>
+      <c r="L147" s="10" t="str">
+        <f t="shared" si="21"/>
+        <v>43,55</v>
+      </c>
+      <c r="M147" s="10" t="str">
+        <f t="shared" si="22"/>
+        <v>145,0.24</v>
+      </c>
+    </row>
+    <row r="148" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D148" s="10">
+        <v>144</v>
+      </c>
+      <c r="E148" t="str">
+        <f t="shared" si="23"/>
+        <v>귀살 베기</v>
+      </c>
+      <c r="F148">
+        <f>VLOOKUP(E148,$Q:$R,2,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="G148">
+        <f t="shared" si="19"/>
+        <v>69</v>
+      </c>
+      <c r="H148" t="str">
+        <f t="shared" si="24"/>
+        <v>흉수 베기</v>
+      </c>
+      <c r="I148">
+        <f>VLOOKUP(H148,$Q:$R,2,FALSE)</f>
+        <v>46</v>
+      </c>
+      <c r="J148">
+        <f t="shared" si="20"/>
+        <v>900</v>
+      </c>
+      <c r="K148" s="10">
+        <v>144</v>
+      </c>
+      <c r="L148" s="10" t="str">
+        <f t="shared" si="21"/>
+        <v>60,46</v>
+      </c>
+      <c r="M148" s="10" t="str">
+        <f t="shared" si="22"/>
+        <v>0.69,9</v>
+      </c>
+    </row>
+    <row r="149" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D149" s="10">
+        <v>145</v>
+      </c>
+      <c r="E149" t="str">
+        <f t="shared" si="23"/>
+        <v>지옥 베기</v>
+      </c>
+      <c r="F149">
+        <f>VLOOKUP(E149,$Q:$R,2,FALSE)</f>
+        <v>35</v>
+      </c>
+      <c r="G149">
+        <f t="shared" si="19"/>
+        <v>120000</v>
+      </c>
+      <c r="H149" t="str">
+        <f t="shared" si="24"/>
+        <v>신선 베기</v>
+      </c>
+      <c r="I149">
+        <f>VLOOKUP(H149,$Q:$R,2,FALSE)</f>
+        <v>54</v>
+      </c>
+      <c r="J149">
+        <f t="shared" si="20"/>
+        <v>245</v>
+      </c>
+      <c r="K149" s="10">
+        <v>145</v>
+      </c>
+      <c r="L149" s="10" t="str">
+        <f t="shared" si="21"/>
+        <v>35,54</v>
+      </c>
+      <c r="M149" s="10" t="str">
+        <f t="shared" si="22"/>
+        <v>1200,2.45</v>
+      </c>
+    </row>
+    <row r="150" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D150" s="9">
+        <v>146</v>
+      </c>
+      <c r="E150" t="str">
+        <f t="shared" si="23"/>
+        <v>천상 베기</v>
+      </c>
+      <c r="F150">
+        <f>VLOOKUP(E150,$Q:$R,2,FALSE)</f>
+        <v>36</v>
+      </c>
+      <c r="G150">
+        <f t="shared" si="19"/>
+        <v>65000</v>
+      </c>
+      <c r="H150" t="str">
+        <f t="shared" si="24"/>
+        <v>심연 베기</v>
+      </c>
+      <c r="I150">
+        <f>VLOOKUP(H150,$Q:$R,2,FALSE)</f>
+        <v>50</v>
+      </c>
+      <c r="J150">
+        <f t="shared" si="20"/>
+        <v>1750</v>
+      </c>
+      <c r="K150" s="10">
+        <v>146</v>
+      </c>
+      <c r="L150" s="10" t="str">
+        <f t="shared" si="21"/>
+        <v>36,50</v>
+      </c>
+      <c r="M150" s="10" t="str">
+        <f t="shared" si="22"/>
+        <v>650,17.5</v>
+      </c>
+    </row>
+    <row r="151" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D151" s="10">
+        <v>147</v>
+      </c>
+      <c r="E151" t="str">
+        <f t="shared" si="23"/>
+        <v>귀신 베기</v>
+      </c>
+      <c r="F151">
+        <f>VLOOKUP(E151,$Q:$R,2,FALSE)</f>
+        <v>39</v>
+      </c>
+      <c r="G151">
+        <f t="shared" si="19"/>
+        <v>40000</v>
+      </c>
+      <c r="H151" t="str">
+        <f t="shared" si="24"/>
+        <v>섬광 베기</v>
+      </c>
+      <c r="I151">
+        <f>VLOOKUP(H151,$Q:$R,2,FALSE)</f>
+        <v>47</v>
+      </c>
+      <c r="J151">
+        <f t="shared" si="20"/>
+        <v>6000</v>
+      </c>
+      <c r="K151" s="10">
+        <v>147</v>
+      </c>
+      <c r="L151" s="10" t="str">
+        <f t="shared" si="21"/>
+        <v>39,47</v>
+      </c>
+      <c r="M151" s="10" t="str">
+        <f t="shared" si="22"/>
+        <v>400,60</v>
+      </c>
+    </row>
+    <row r="152" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D152" s="10">
+        <v>148</v>
+      </c>
+      <c r="E152" t="str">
+        <f t="shared" si="23"/>
+        <v>금강 베기</v>
+      </c>
+      <c r="F152">
+        <f>VLOOKUP(E152,$Q:$R,2,FALSE)</f>
+        <v>43</v>
+      </c>
+      <c r="G152">
+        <f t="shared" si="19"/>
+        <v>15000</v>
+      </c>
+      <c r="H152" t="str">
+        <f t="shared" si="24"/>
+        <v>태극 베기</v>
+      </c>
+      <c r="I152">
+        <f>VLOOKUP(H152,$Q:$R,2,FALSE)</f>
+        <v>55</v>
+      </c>
+      <c r="J152">
+        <f t="shared" si="20"/>
+        <v>25</v>
+      </c>
+      <c r="K152" s="10">
+        <v>148</v>
+      </c>
+      <c r="L152" s="10" t="str">
+        <f t="shared" si="21"/>
+        <v>43,55</v>
+      </c>
+      <c r="M152" s="10" t="str">
+        <f t="shared" si="22"/>
+        <v>150,0.25</v>
+      </c>
+    </row>
+    <row r="153" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D153" s="10">
+        <v>149</v>
+      </c>
+      <c r="E153" t="str">
+        <f t="shared" si="23"/>
+        <v>귀살 베기</v>
+      </c>
+      <c r="F153">
+        <f>VLOOKUP(E153,$Q:$R,2,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="G153">
+        <f t="shared" si="19"/>
+        <v>70</v>
+      </c>
+      <c r="H153" t="str">
+        <f t="shared" si="24"/>
+        <v>천구 베기</v>
+      </c>
+      <c r="I153">
+        <f>VLOOKUP(H153,$Q:$R,2,FALSE)</f>
+        <v>61</v>
+      </c>
+      <c r="J153">
+        <f t="shared" si="20"/>
+        <v>30</v>
+      </c>
+      <c r="K153" s="10">
+        <v>149</v>
+      </c>
+      <c r="L153" s="10" t="str">
+        <f t="shared" si="21"/>
+        <v>60,61</v>
+      </c>
+      <c r="M153" s="10" t="str">
+        <f t="shared" si="22"/>
+        <v>0.7,0.3</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Assets/06.Table/Meditation.xlsx
+++ b/Assets/06.Table/Meditation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9E6C536-BE14-4844-B9CE-2A9FBB9D975D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E876B14E-7B25-4BE3-A63D-1E89DF92D66A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Meditation" sheetId="1" r:id="rId1"/>
@@ -1852,11 +1852,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:D302"/>
+  <dimension ref="A1:D352"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A277" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C286" sqref="C286"/>
+      <pane ySplit="1" topLeftCell="A328" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C341" sqref="C341"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6998,9 +6998,859 @@
         <v>3832</v>
       </c>
     </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A303">
+        <v>301</v>
+      </c>
+      <c r="B303" s="18" t="str">
+        <f>VLOOKUP(A303,AbilBalance!D:M,9,FALSE)</f>
+        <v>36,50</v>
+      </c>
+      <c r="C303" s="19" t="str">
+        <f>VLOOKUP(A303,AbilBalance!D:M,10,FALSE)</f>
+        <v>1425,40.75</v>
+      </c>
+      <c r="D303">
+        <f>ROUNDUP(VLOOKUP(A303,LevelBalance!L:M,2,FALSE)/(24*60),0)</f>
+        <v>3871</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A304">
+        <v>302</v>
+      </c>
+      <c r="B304" s="18" t="str">
+        <f>VLOOKUP(A304,AbilBalance!D:M,9,FALSE)</f>
+        <v>39,47</v>
+      </c>
+      <c r="C304" s="19" t="str">
+        <f>VLOOKUP(A304,AbilBalance!D:M,10,FALSE)</f>
+        <v>865,137.5</v>
+      </c>
+      <c r="D304">
+        <f>ROUNDUP(VLOOKUP(A304,LevelBalance!L:M,2,FALSE)/(24*60),0)</f>
+        <v>3910</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A305">
+        <v>303</v>
+      </c>
+      <c r="B305" s="18" t="str">
+        <f>VLOOKUP(A305,AbilBalance!D:M,9,FALSE)</f>
+        <v>43,55</v>
+      </c>
+      <c r="C305" s="19" t="str">
+        <f>VLOOKUP(A305,AbilBalance!D:M,10,FALSE)</f>
+        <v>305,0.56</v>
+      </c>
+      <c r="D305">
+        <f>ROUNDUP(VLOOKUP(A305,LevelBalance!L:M,2,FALSE)/(24*60),0)</f>
+        <v>3950</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A306">
+        <v>304</v>
+      </c>
+      <c r="B306" s="18" t="str">
+        <f>VLOOKUP(A306,AbilBalance!D:M,9,FALSE)</f>
+        <v>60,42</v>
+      </c>
+      <c r="C306" s="19" t="str">
+        <f>VLOOKUP(A306,AbilBalance!D:M,10,FALSE)</f>
+        <v>1.01,145</v>
+      </c>
+      <c r="D306">
+        <f>ROUNDUP(VLOOKUP(A306,LevelBalance!L:M,2,FALSE)/(24*60),0)</f>
+        <v>3989</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A307">
+        <v>305</v>
+      </c>
+      <c r="B307" s="18" t="str">
+        <f>VLOOKUP(A307,AbilBalance!D:M,9,FALSE)</f>
+        <v>35,54</v>
+      </c>
+      <c r="C307" s="19" t="str">
+        <f>VLOOKUP(A307,AbilBalance!D:M,10,FALSE)</f>
+        <v>2800,4.05</v>
+      </c>
+      <c r="D307">
+        <f>ROUNDUP(VLOOKUP(A307,LevelBalance!L:M,2,FALSE)/(24*60),0)</f>
+        <v>4030</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A308">
+        <v>306</v>
+      </c>
+      <c r="B308" s="18" t="str">
+        <f>VLOOKUP(A308,AbilBalance!D:M,9,FALSE)</f>
+        <v>36,50</v>
+      </c>
+      <c r="C308" s="19" t="str">
+        <f>VLOOKUP(A308,AbilBalance!D:M,10,FALSE)</f>
+        <v>1450,41.5</v>
+      </c>
+      <c r="D308">
+        <f>ROUNDUP(VLOOKUP(A308,LevelBalance!L:M,2,FALSE)/(24*60),0)</f>
+        <v>4070</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A309">
+        <v>307</v>
+      </c>
+      <c r="B309" s="18" t="str">
+        <f>VLOOKUP(A309,AbilBalance!D:M,9,FALSE)</f>
+        <v>39,47</v>
+      </c>
+      <c r="C309" s="19" t="str">
+        <f>VLOOKUP(A309,AbilBalance!D:M,10,FALSE)</f>
+        <v>880,140</v>
+      </c>
+      <c r="D309">
+        <f>ROUNDUP(VLOOKUP(A309,LevelBalance!L:M,2,FALSE)/(24*60),0)</f>
+        <v>4111</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A310">
+        <v>308</v>
+      </c>
+      <c r="B310" s="18" t="str">
+        <f>VLOOKUP(A310,AbilBalance!D:M,9,FALSE)</f>
+        <v>43,55</v>
+      </c>
+      <c r="C310" s="19" t="str">
+        <f>VLOOKUP(A310,AbilBalance!D:M,10,FALSE)</f>
+        <v>310,0.57</v>
+      </c>
+      <c r="D310">
+        <f>ROUNDUP(VLOOKUP(A310,LevelBalance!L:M,2,FALSE)/(24*60),0)</f>
+        <v>4153</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A311">
+        <v>309</v>
+      </c>
+      <c r="B311" s="18" t="str">
+        <f>VLOOKUP(A311,AbilBalance!D:M,9,FALSE)</f>
+        <v>60,46</v>
+      </c>
+      <c r="C311" s="19" t="str">
+        <f>VLOOKUP(A311,AbilBalance!D:M,10,FALSE)</f>
+        <v>1.02,14.5</v>
+      </c>
+      <c r="D311">
+        <f>ROUNDUP(VLOOKUP(A311,LevelBalance!L:M,2,FALSE)/(24*60),0)</f>
+        <v>4195</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A312">
+        <v>310</v>
+      </c>
+      <c r="B312" s="18" t="str">
+        <f>VLOOKUP(A312,AbilBalance!D:M,9,FALSE)</f>
+        <v>35,54</v>
+      </c>
+      <c r="C312" s="19" t="str">
+        <f>VLOOKUP(A312,AbilBalance!D:M,10,FALSE)</f>
+        <v>2850,4.1</v>
+      </c>
+      <c r="D312">
+        <f>ROUNDUP(VLOOKUP(A312,LevelBalance!L:M,2,FALSE)/(24*60),0)</f>
+        <v>4237</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A313">
+        <v>311</v>
+      </c>
+      <c r="B313" s="18" t="str">
+        <f>VLOOKUP(A313,AbilBalance!D:M,9,FALSE)</f>
+        <v>36,50</v>
+      </c>
+      <c r="C313" s="19" t="str">
+        <f>VLOOKUP(A313,AbilBalance!D:M,10,FALSE)</f>
+        <v>1475,42.25</v>
+      </c>
+      <c r="D313">
+        <f>ROUNDUP(VLOOKUP(A313,LevelBalance!L:M,2,FALSE)/(24*60),0)</f>
+        <v>4280</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A314">
+        <v>312</v>
+      </c>
+      <c r="B314" s="18" t="str">
+        <f>VLOOKUP(A314,AbilBalance!D:M,9,FALSE)</f>
+        <v>39,47</v>
+      </c>
+      <c r="C314" s="19" t="str">
+        <f>VLOOKUP(A314,AbilBalance!D:M,10,FALSE)</f>
+        <v>895,142.5</v>
+      </c>
+      <c r="D314">
+        <f>ROUNDUP(VLOOKUP(A314,LevelBalance!L:M,2,FALSE)/(24*60),0)</f>
+        <v>4323</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A315">
+        <v>313</v>
+      </c>
+      <c r="B315" s="18" t="str">
+        <f>VLOOKUP(A315,AbilBalance!D:M,9,FALSE)</f>
+        <v>43,55</v>
+      </c>
+      <c r="C315" s="19" t="str">
+        <f>VLOOKUP(A315,AbilBalance!D:M,10,FALSE)</f>
+        <v>315,0.58</v>
+      </c>
+      <c r="D315">
+        <f>ROUNDUP(VLOOKUP(A315,LevelBalance!L:M,2,FALSE)/(24*60),0)</f>
+        <v>4367</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A316">
+        <v>314</v>
+      </c>
+      <c r="B316" s="18" t="str">
+        <f>VLOOKUP(A316,AbilBalance!D:M,9,FALSE)</f>
+        <v>60,61</v>
+      </c>
+      <c r="C316" s="19" t="str">
+        <f>VLOOKUP(A316,AbilBalance!D:M,10,FALSE)</f>
+        <v>1.03,0.575</v>
+      </c>
+      <c r="D316">
+        <f>ROUNDUP(VLOOKUP(A316,LevelBalance!L:M,2,FALSE)/(24*60),0)</f>
+        <v>4411</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A317">
+        <v>315</v>
+      </c>
+      <c r="B317" s="18" t="str">
+        <f>VLOOKUP(A317,AbilBalance!D:M,9,FALSE)</f>
+        <v>35,54</v>
+      </c>
+      <c r="C317" s="19" t="str">
+        <f>VLOOKUP(A317,AbilBalance!D:M,10,FALSE)</f>
+        <v>2900,4.15</v>
+      </c>
+      <c r="D317">
+        <f>ROUNDUP(VLOOKUP(A317,LevelBalance!L:M,2,FALSE)/(24*60),0)</f>
+        <v>4455</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A318">
+        <v>316</v>
+      </c>
+      <c r="B318" s="18" t="str">
+        <f>VLOOKUP(A318,AbilBalance!D:M,9,FALSE)</f>
+        <v>36,50</v>
+      </c>
+      <c r="C318" s="19" t="str">
+        <f>VLOOKUP(A318,AbilBalance!D:M,10,FALSE)</f>
+        <v>1500,43</v>
+      </c>
+      <c r="D318">
+        <f>ROUNDUP(VLOOKUP(A318,LevelBalance!L:M,2,FALSE)/(24*60),0)</f>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A319">
+        <v>317</v>
+      </c>
+      <c r="B319" s="18" t="str">
+        <f>VLOOKUP(A319,AbilBalance!D:M,9,FALSE)</f>
+        <v>39,47</v>
+      </c>
+      <c r="C319" s="19" t="str">
+        <f>VLOOKUP(A319,AbilBalance!D:M,10,FALSE)</f>
+        <v>910,145</v>
+      </c>
+      <c r="D319">
+        <f>ROUNDUP(VLOOKUP(A319,LevelBalance!L:M,2,FALSE)/(24*60),0)</f>
+        <v>4546</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A320">
+        <v>318</v>
+      </c>
+      <c r="B320" s="18" t="str">
+        <f>VLOOKUP(A320,AbilBalance!D:M,9,FALSE)</f>
+        <v>43,55</v>
+      </c>
+      <c r="C320" s="19" t="str">
+        <f>VLOOKUP(A320,AbilBalance!D:M,10,FALSE)</f>
+        <v>320,0.59</v>
+      </c>
+      <c r="D320">
+        <f>ROUNDUP(VLOOKUP(A320,LevelBalance!L:M,2,FALSE)/(24*60),0)</f>
+        <v>4592</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A321">
+        <v>319</v>
+      </c>
+      <c r="B321" s="18" t="str">
+        <f>VLOOKUP(A321,AbilBalance!D:M,9,FALSE)</f>
+        <v>60,42</v>
+      </c>
+      <c r="C321" s="19" t="str">
+        <f>VLOOKUP(A321,AbilBalance!D:M,10,FALSE)</f>
+        <v>1.04,150</v>
+      </c>
+      <c r="D321">
+        <f>ROUNDUP(VLOOKUP(A321,LevelBalance!L:M,2,FALSE)/(24*60),0)</f>
+        <v>4638</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A322">
+        <v>320</v>
+      </c>
+      <c r="B322" s="18" t="str">
+        <f>VLOOKUP(A322,AbilBalance!D:M,9,FALSE)</f>
+        <v>35,54</v>
+      </c>
+      <c r="C322" s="19" t="str">
+        <f>VLOOKUP(A322,AbilBalance!D:M,10,FALSE)</f>
+        <v>2950,4.2</v>
+      </c>
+      <c r="D322">
+        <f>ROUNDUP(VLOOKUP(A322,LevelBalance!L:M,2,FALSE)/(24*60),0)</f>
+        <v>4685</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A323">
+        <v>321</v>
+      </c>
+      <c r="B323" s="18" t="str">
+        <f>VLOOKUP(A323,AbilBalance!D:M,9,FALSE)</f>
+        <v>36,50</v>
+      </c>
+      <c r="C323" s="19" t="str">
+        <f>VLOOKUP(A323,AbilBalance!D:M,10,FALSE)</f>
+        <v>1525,43.75</v>
+      </c>
+      <c r="D323">
+        <f>ROUNDUP(VLOOKUP(A323,LevelBalance!L:M,2,FALSE)/(24*60),0)</f>
+        <v>4732</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A324">
+        <v>322</v>
+      </c>
+      <c r="B324" s="18" t="str">
+        <f>VLOOKUP(A324,AbilBalance!D:M,9,FALSE)</f>
+        <v>39,47</v>
+      </c>
+      <c r="C324" s="19" t="str">
+        <f>VLOOKUP(A324,AbilBalance!D:M,10,FALSE)</f>
+        <v>925,147.5</v>
+      </c>
+      <c r="D324">
+        <f>ROUNDUP(VLOOKUP(A324,LevelBalance!L:M,2,FALSE)/(24*60),0)</f>
+        <v>4780</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A325">
+        <v>323</v>
+      </c>
+      <c r="B325" s="18" t="str">
+        <f>VLOOKUP(A325,AbilBalance!D:M,9,FALSE)</f>
+        <v>43,55</v>
+      </c>
+      <c r="C325" s="19" t="str">
+        <f>VLOOKUP(A325,AbilBalance!D:M,10,FALSE)</f>
+        <v>325,0.6</v>
+      </c>
+      <c r="D325">
+        <f>ROUNDUP(VLOOKUP(A325,LevelBalance!L:M,2,FALSE)/(24*60),0)</f>
+        <v>4828</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A326">
+        <v>324</v>
+      </c>
+      <c r="B326" s="18" t="str">
+        <f>VLOOKUP(A326,AbilBalance!D:M,9,FALSE)</f>
+        <v>60,46</v>
+      </c>
+      <c r="C326" s="19" t="str">
+        <f>VLOOKUP(A326,AbilBalance!D:M,10,FALSE)</f>
+        <v>1.05,15</v>
+      </c>
+      <c r="D326">
+        <f>ROUNDUP(VLOOKUP(A326,LevelBalance!L:M,2,FALSE)/(24*60),0)</f>
+        <v>4876</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A327">
+        <v>325</v>
+      </c>
+      <c r="B327" s="18" t="str">
+        <f>VLOOKUP(A327,AbilBalance!D:M,9,FALSE)</f>
+        <v>35,54</v>
+      </c>
+      <c r="C327" s="19" t="str">
+        <f>VLOOKUP(A327,AbilBalance!D:M,10,FALSE)</f>
+        <v>3000,4.25</v>
+      </c>
+      <c r="D327">
+        <f>ROUNDUP(VLOOKUP(A327,LevelBalance!L:M,2,FALSE)/(24*60),0)</f>
+        <v>4926</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A328">
+        <v>326</v>
+      </c>
+      <c r="B328" s="18" t="str">
+        <f>VLOOKUP(A328,AbilBalance!D:M,9,FALSE)</f>
+        <v>36,50</v>
+      </c>
+      <c r="C328" s="19" t="str">
+        <f>VLOOKUP(A328,AbilBalance!D:M,10,FALSE)</f>
+        <v>1550,44.5</v>
+      </c>
+      <c r="D328">
+        <f>ROUNDUP(VLOOKUP(A328,LevelBalance!L:M,2,FALSE)/(24*60),0)</f>
+        <v>4975</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A329">
+        <v>327</v>
+      </c>
+      <c r="B329" s="18" t="str">
+        <f>VLOOKUP(A329,AbilBalance!D:M,9,FALSE)</f>
+        <v>39,47</v>
+      </c>
+      <c r="C329" s="19" t="str">
+        <f>VLOOKUP(A329,AbilBalance!D:M,10,FALSE)</f>
+        <v>940,150</v>
+      </c>
+      <c r="D329">
+        <f>ROUNDUP(VLOOKUP(A329,LevelBalance!L:M,2,FALSE)/(24*60),0)</f>
+        <v>5025</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A330">
+        <v>328</v>
+      </c>
+      <c r="B330" s="18" t="str">
+        <f>VLOOKUP(A330,AbilBalance!D:M,9,FALSE)</f>
+        <v>43,55</v>
+      </c>
+      <c r="C330" s="19" t="str">
+        <f>VLOOKUP(A330,AbilBalance!D:M,10,FALSE)</f>
+        <v>330,0.61</v>
+      </c>
+      <c r="D330">
+        <f>ROUNDUP(VLOOKUP(A330,LevelBalance!L:M,2,FALSE)/(24*60),0)</f>
+        <v>5076</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A331">
+        <v>329</v>
+      </c>
+      <c r="B331" s="18" t="str">
+        <f>VLOOKUP(A331,AbilBalance!D:M,9,FALSE)</f>
+        <v>60,61</v>
+      </c>
+      <c r="C331" s="19" t="str">
+        <f>VLOOKUP(A331,AbilBalance!D:M,10,FALSE)</f>
+        <v>1.06,0.6</v>
+      </c>
+      <c r="D331">
+        <f>ROUNDUP(VLOOKUP(A331,LevelBalance!L:M,2,FALSE)/(24*60),0)</f>
+        <v>5127</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A332">
+        <v>330</v>
+      </c>
+      <c r="B332" s="18" t="str">
+        <f>VLOOKUP(A332,AbilBalance!D:M,9,FALSE)</f>
+        <v>35,54</v>
+      </c>
+      <c r="C332" s="19" t="str">
+        <f>VLOOKUP(A332,AbilBalance!D:M,10,FALSE)</f>
+        <v>3050,4.3</v>
+      </c>
+      <c r="D332">
+        <f>ROUNDUP(VLOOKUP(A332,LevelBalance!L:M,2,FALSE)/(24*60),0)</f>
+        <v>5179</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A333">
+        <v>331</v>
+      </c>
+      <c r="B333" s="18" t="str">
+        <f>VLOOKUP(A333,AbilBalance!D:M,9,FALSE)</f>
+        <v>36,50</v>
+      </c>
+      <c r="C333" s="19" t="str">
+        <f>VLOOKUP(A333,AbilBalance!D:M,10,FALSE)</f>
+        <v>1575,45.25</v>
+      </c>
+      <c r="D333">
+        <f>ROUNDUP(VLOOKUP(A333,LevelBalance!L:M,2,FALSE)/(24*60),0)</f>
+        <v>5231</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A334">
+        <v>332</v>
+      </c>
+      <c r="B334" s="18" t="str">
+        <f>VLOOKUP(A334,AbilBalance!D:M,9,FALSE)</f>
+        <v>39,47</v>
+      </c>
+      <c r="C334" s="19" t="str">
+        <f>VLOOKUP(A334,AbilBalance!D:M,10,FALSE)</f>
+        <v>955,152.5</v>
+      </c>
+      <c r="D334">
+        <f>ROUNDUP(VLOOKUP(A334,LevelBalance!L:M,2,FALSE)/(24*60),0)</f>
+        <v>5284</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A335">
+        <v>333</v>
+      </c>
+      <c r="B335" s="18" t="str">
+        <f>VLOOKUP(A335,AbilBalance!D:M,9,FALSE)</f>
+        <v>43,55</v>
+      </c>
+      <c r="C335" s="19" t="str">
+        <f>VLOOKUP(A335,AbilBalance!D:M,10,FALSE)</f>
+        <v>335,0.62</v>
+      </c>
+      <c r="D335">
+        <f>ROUNDUP(VLOOKUP(A335,LevelBalance!L:M,2,FALSE)/(24*60),0)</f>
+        <v>5337</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A336">
+        <v>334</v>
+      </c>
+      <c r="B336" s="18" t="str">
+        <f>VLOOKUP(A336,AbilBalance!D:M,9,FALSE)</f>
+        <v>60,42</v>
+      </c>
+      <c r="C336" s="19" t="str">
+        <f>VLOOKUP(A336,AbilBalance!D:M,10,FALSE)</f>
+        <v>1.07,155</v>
+      </c>
+      <c r="D336">
+        <f>ROUNDUP(VLOOKUP(A336,LevelBalance!L:M,2,FALSE)/(24*60),0)</f>
+        <v>5391</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A337">
+        <v>335</v>
+      </c>
+      <c r="B337" s="18" t="str">
+        <f>VLOOKUP(A337,AbilBalance!D:M,9,FALSE)</f>
+        <v>35,54</v>
+      </c>
+      <c r="C337" s="19" t="str">
+        <f>VLOOKUP(A337,AbilBalance!D:M,10,FALSE)</f>
+        <v>3100,4.35</v>
+      </c>
+      <c r="D337">
+        <f>ROUNDUP(VLOOKUP(A337,LevelBalance!L:M,2,FALSE)/(24*60),0)</f>
+        <v>5445</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A338">
+        <v>336</v>
+      </c>
+      <c r="B338" s="18" t="str">
+        <f>VLOOKUP(A338,AbilBalance!D:M,9,FALSE)</f>
+        <v>36,50</v>
+      </c>
+      <c r="C338" s="19" t="str">
+        <f>VLOOKUP(A338,AbilBalance!D:M,10,FALSE)</f>
+        <v>1600,46</v>
+      </c>
+      <c r="D338">
+        <f>ROUNDUP(VLOOKUP(A338,LevelBalance!L:M,2,FALSE)/(24*60),0)</f>
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A339">
+        <v>337</v>
+      </c>
+      <c r="B339" s="18" t="str">
+        <f>VLOOKUP(A339,AbilBalance!D:M,9,FALSE)</f>
+        <v>39,47</v>
+      </c>
+      <c r="C339" s="19" t="str">
+        <f>VLOOKUP(A339,AbilBalance!D:M,10,FALSE)</f>
+        <v>970,155</v>
+      </c>
+      <c r="D339">
+        <f>ROUNDUP(VLOOKUP(A339,LevelBalance!L:M,2,FALSE)/(24*60),0)</f>
+        <v>5555</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A340">
+        <v>338</v>
+      </c>
+      <c r="B340" s="18" t="str">
+        <f>VLOOKUP(A340,AbilBalance!D:M,9,FALSE)</f>
+        <v>43,55</v>
+      </c>
+      <c r="C340" s="19" t="str">
+        <f>VLOOKUP(A340,AbilBalance!D:M,10,FALSE)</f>
+        <v>340,0.63</v>
+      </c>
+      <c r="D340">
+        <f>ROUNDUP(VLOOKUP(A340,LevelBalance!L:M,2,FALSE)/(24*60),0)</f>
+        <v>5611</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A341">
+        <v>339</v>
+      </c>
+      <c r="B341" s="18" t="str">
+        <f>VLOOKUP(A341,AbilBalance!D:M,9,FALSE)</f>
+        <v>60,46</v>
+      </c>
+      <c r="C341" s="19" t="str">
+        <f>VLOOKUP(A341,AbilBalance!D:M,10,FALSE)</f>
+        <v>1.08,15.5</v>
+      </c>
+      <c r="D341">
+        <f>ROUNDUP(VLOOKUP(A341,LevelBalance!L:M,2,FALSE)/(24*60),0)</f>
+        <v>5668</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A342">
+        <v>340</v>
+      </c>
+      <c r="B342" s="18" t="str">
+        <f>VLOOKUP(A342,AbilBalance!D:M,9,FALSE)</f>
+        <v>35,54</v>
+      </c>
+      <c r="C342" s="19" t="str">
+        <f>VLOOKUP(A342,AbilBalance!D:M,10,FALSE)</f>
+        <v>3150,4.4</v>
+      </c>
+      <c r="D342">
+        <f>ROUNDUP(VLOOKUP(A342,LevelBalance!L:M,2,FALSE)/(24*60),0)</f>
+        <v>5725</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A343">
+        <v>341</v>
+      </c>
+      <c r="B343" s="18" t="str">
+        <f>VLOOKUP(A343,AbilBalance!D:M,9,FALSE)</f>
+        <v>36,50</v>
+      </c>
+      <c r="C343" s="19" t="str">
+        <f>VLOOKUP(A343,AbilBalance!D:M,10,FALSE)</f>
+        <v>1625,46.75</v>
+      </c>
+      <c r="D343">
+        <f>ROUNDUP(VLOOKUP(A343,LevelBalance!L:M,2,FALSE)/(24*60),0)</f>
+        <v>5782</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A344">
+        <v>342</v>
+      </c>
+      <c r="B344" s="18" t="str">
+        <f>VLOOKUP(A344,AbilBalance!D:M,9,FALSE)</f>
+        <v>39,47</v>
+      </c>
+      <c r="C344" s="19" t="str">
+        <f>VLOOKUP(A344,AbilBalance!D:M,10,FALSE)</f>
+        <v>985,157.5</v>
+      </c>
+      <c r="D344">
+        <f>ROUNDUP(VLOOKUP(A344,LevelBalance!L:M,2,FALSE)/(24*60),0)</f>
+        <v>5840</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A345">
+        <v>343</v>
+      </c>
+      <c r="B345" s="18" t="str">
+        <f>VLOOKUP(A345,AbilBalance!D:M,9,FALSE)</f>
+        <v>43,55</v>
+      </c>
+      <c r="C345" s="19" t="str">
+        <f>VLOOKUP(A345,AbilBalance!D:M,10,FALSE)</f>
+        <v>345,0.64</v>
+      </c>
+      <c r="D345">
+        <f>ROUNDUP(VLOOKUP(A345,LevelBalance!L:M,2,FALSE)/(24*60),0)</f>
+        <v>5899</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A346">
+        <v>344</v>
+      </c>
+      <c r="B346" s="18" t="str">
+        <f>VLOOKUP(A346,AbilBalance!D:M,9,FALSE)</f>
+        <v>60,61</v>
+      </c>
+      <c r="C346" s="19" t="str">
+        <f>VLOOKUP(A346,AbilBalance!D:M,10,FALSE)</f>
+        <v>1.09,0.625</v>
+      </c>
+      <c r="D346">
+        <f>ROUNDUP(VLOOKUP(A346,LevelBalance!L:M,2,FALSE)/(24*60),0)</f>
+        <v>5959</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A347">
+        <v>345</v>
+      </c>
+      <c r="B347" s="18" t="str">
+        <f>VLOOKUP(A347,AbilBalance!D:M,9,FALSE)</f>
+        <v>35,54</v>
+      </c>
+      <c r="C347" s="19" t="str">
+        <f>VLOOKUP(A347,AbilBalance!D:M,10,FALSE)</f>
+        <v>3200,4.45</v>
+      </c>
+      <c r="D347">
+        <f>ROUNDUP(VLOOKUP(A347,LevelBalance!L:M,2,FALSE)/(24*60),0)</f>
+        <v>6019</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A348">
+        <v>346</v>
+      </c>
+      <c r="B348" s="18" t="str">
+        <f>VLOOKUP(A348,AbilBalance!D:M,9,FALSE)</f>
+        <v>36,50</v>
+      </c>
+      <c r="C348" s="19" t="str">
+        <f>VLOOKUP(A348,AbilBalance!D:M,10,FALSE)</f>
+        <v>1650,47.5</v>
+      </c>
+      <c r="D348">
+        <f>ROUNDUP(VLOOKUP(A348,LevelBalance!L:M,2,FALSE)/(24*60),0)</f>
+        <v>6079</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A349">
+        <v>347</v>
+      </c>
+      <c r="B349" s="18" t="str">
+        <f>VLOOKUP(A349,AbilBalance!D:M,9,FALSE)</f>
+        <v>39,47</v>
+      </c>
+      <c r="C349" s="19" t="str">
+        <f>VLOOKUP(A349,AbilBalance!D:M,10,FALSE)</f>
+        <v>1000,160</v>
+      </c>
+      <c r="D349">
+        <f>ROUNDUP(VLOOKUP(A349,LevelBalance!L:M,2,FALSE)/(24*60),0)</f>
+        <v>6140</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A350">
+        <v>348</v>
+      </c>
+      <c r="B350" s="18" t="str">
+        <f>VLOOKUP(A350,AbilBalance!D:M,9,FALSE)</f>
+        <v>43,55</v>
+      </c>
+      <c r="C350" s="19" t="str">
+        <f>VLOOKUP(A350,AbilBalance!D:M,10,FALSE)</f>
+        <v>350,0.65</v>
+      </c>
+      <c r="D350">
+        <f>ROUNDUP(VLOOKUP(A350,LevelBalance!L:M,2,FALSE)/(24*60),0)</f>
+        <v>6202</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A351">
+        <v>349</v>
+      </c>
+      <c r="B351" s="18" t="str">
+        <f>VLOOKUP(A351,AbilBalance!D:M,9,FALSE)</f>
+        <v>60,42</v>
+      </c>
+      <c r="C351" s="19" t="str">
+        <f>VLOOKUP(A351,AbilBalance!D:M,10,FALSE)</f>
+        <v>1.1,160</v>
+      </c>
+      <c r="D351">
+        <f>ROUNDUP(VLOOKUP(A351,LevelBalance!L:M,2,FALSE)/(24*60),0)</f>
+        <v>6265</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A352">
+        <v>350</v>
+      </c>
+      <c r="B352" s="18" t="str">
+        <f>VLOOKUP(A352,AbilBalance!D:M,9,FALSE)</f>
+        <v>35,54</v>
+      </c>
+      <c r="C352" s="19" t="str">
+        <f>VLOOKUP(A352,AbilBalance!D:M,10,FALSE)</f>
+        <v>3250,4.5</v>
+      </c>
+      <c r="D352">
+        <f>ROUNDUP(VLOOKUP(A352,LevelBalance!L:M,2,FALSE)/(24*60),0)</f>
+        <v>6328</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A2:B302">
+  <conditionalFormatting sqref="A2:B352">
     <cfRule type="expression" dxfId="1" priority="51">
       <formula>#REF!=5</formula>
     </cfRule>
@@ -7012,10 +7862,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B4C63F0-02E4-48AB-8F58-B57B021B5DE4}">
-  <dimension ref="A1:S305"/>
+  <dimension ref="A1:S355"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G64" sqref="G64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -14377,6 +15227,806 @@
         <v>495653600</v>
       </c>
     </row>
+    <row r="306" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L306" s="10">
+        <v>301</v>
+      </c>
+      <c r="M306" s="12">
+        <f t="shared" ref="M306:M325" si="18">ROUNDUP((M305+500)*N306,-2)</f>
+        <v>5573400</v>
+      </c>
+      <c r="N306">
+        <v>1.01</v>
+      </c>
+      <c r="O306" s="12">
+        <f>SUM($M$5:M306)</f>
+        <v>501227000</v>
+      </c>
+    </row>
+    <row r="307" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L307" s="10">
+        <v>302</v>
+      </c>
+      <c r="M307" s="12">
+        <f t="shared" si="18"/>
+        <v>5629700</v>
+      </c>
+      <c r="N307">
+        <v>1.01</v>
+      </c>
+      <c r="O307" s="12">
+        <f>SUM($M$5:M307)</f>
+        <v>506856700</v>
+      </c>
+    </row>
+    <row r="308" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L308" s="10">
+        <v>303</v>
+      </c>
+      <c r="M308" s="12">
+        <f t="shared" si="18"/>
+        <v>5686600</v>
+      </c>
+      <c r="N308">
+        <v>1.01</v>
+      </c>
+      <c r="O308" s="12">
+        <f>SUM($M$5:M308)</f>
+        <v>512543300</v>
+      </c>
+    </row>
+    <row r="309" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L309" s="10">
+        <v>304</v>
+      </c>
+      <c r="M309" s="12">
+        <f t="shared" si="18"/>
+        <v>5744000</v>
+      </c>
+      <c r="N309">
+        <v>1.01</v>
+      </c>
+      <c r="O309" s="12">
+        <f>SUM($M$5:M309)</f>
+        <v>518287300</v>
+      </c>
+    </row>
+    <row r="310" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L310" s="10">
+        <v>305</v>
+      </c>
+      <c r="M310" s="12">
+        <f t="shared" si="18"/>
+        <v>5802000</v>
+      </c>
+      <c r="N310">
+        <v>1.01</v>
+      </c>
+      <c r="O310" s="12">
+        <f>SUM($M$5:M310)</f>
+        <v>524089300</v>
+      </c>
+    </row>
+    <row r="311" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L311" s="10">
+        <v>306</v>
+      </c>
+      <c r="M311" s="12">
+        <f t="shared" si="18"/>
+        <v>5860600</v>
+      </c>
+      <c r="N311">
+        <v>1.01</v>
+      </c>
+      <c r="O311" s="12">
+        <f>SUM($M$5:M311)</f>
+        <v>529949900</v>
+      </c>
+    </row>
+    <row r="312" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L312" s="10">
+        <v>307</v>
+      </c>
+      <c r="M312" s="12">
+        <f t="shared" si="18"/>
+        <v>5919800</v>
+      </c>
+      <c r="N312">
+        <v>1.01</v>
+      </c>
+      <c r="O312" s="12">
+        <f>SUM($M$5:M312)</f>
+        <v>535869700</v>
+      </c>
+    </row>
+    <row r="313" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L313" s="10">
+        <v>308</v>
+      </c>
+      <c r="M313" s="12">
+        <f t="shared" si="18"/>
+        <v>5979600</v>
+      </c>
+      <c r="N313">
+        <v>1.01</v>
+      </c>
+      <c r="O313" s="12">
+        <f>SUM($M$5:M313)</f>
+        <v>541849300</v>
+      </c>
+    </row>
+    <row r="314" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L314" s="10">
+        <v>309</v>
+      </c>
+      <c r="M314" s="12">
+        <f t="shared" si="18"/>
+        <v>6040000</v>
+      </c>
+      <c r="N314">
+        <v>1.01</v>
+      </c>
+      <c r="O314" s="12">
+        <f>SUM($M$5:M314)</f>
+        <v>547889300</v>
+      </c>
+    </row>
+    <row r="315" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L315" s="10">
+        <v>310</v>
+      </c>
+      <c r="M315" s="12">
+        <f t="shared" si="18"/>
+        <v>6101000</v>
+      </c>
+      <c r="N315">
+        <v>1.01</v>
+      </c>
+      <c r="O315" s="12">
+        <f>SUM($M$5:M315)</f>
+        <v>553990300</v>
+      </c>
+    </row>
+    <row r="316" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L316" s="10">
+        <v>311</v>
+      </c>
+      <c r="M316" s="12">
+        <f t="shared" si="18"/>
+        <v>6162600</v>
+      </c>
+      <c r="N316">
+        <v>1.01</v>
+      </c>
+      <c r="O316" s="12">
+        <f>SUM($M$5:M316)</f>
+        <v>560152900</v>
+      </c>
+    </row>
+    <row r="317" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L317" s="10">
+        <v>312</v>
+      </c>
+      <c r="M317" s="12">
+        <f t="shared" si="18"/>
+        <v>6224800</v>
+      </c>
+      <c r="N317">
+        <v>1.01</v>
+      </c>
+      <c r="O317" s="12">
+        <f>SUM($M$5:M317)</f>
+        <v>566377700</v>
+      </c>
+    </row>
+    <row r="318" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L318" s="10">
+        <v>313</v>
+      </c>
+      <c r="M318" s="12">
+        <f t="shared" si="18"/>
+        <v>6287600</v>
+      </c>
+      <c r="N318">
+        <v>1.01</v>
+      </c>
+      <c r="O318" s="12">
+        <f>SUM($M$5:M318)</f>
+        <v>572665300</v>
+      </c>
+    </row>
+    <row r="319" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L319" s="10">
+        <v>314</v>
+      </c>
+      <c r="M319" s="12">
+        <f t="shared" si="18"/>
+        <v>6351000</v>
+      </c>
+      <c r="N319">
+        <v>1.01</v>
+      </c>
+      <c r="O319" s="12">
+        <f>SUM($M$5:M319)</f>
+        <v>579016300</v>
+      </c>
+    </row>
+    <row r="320" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L320" s="10">
+        <v>315</v>
+      </c>
+      <c r="M320" s="12">
+        <f t="shared" si="18"/>
+        <v>6415100</v>
+      </c>
+      <c r="N320">
+        <v>1.01</v>
+      </c>
+      <c r="O320" s="12">
+        <f>SUM($M$5:M320)</f>
+        <v>585431400</v>
+      </c>
+    </row>
+    <row r="321" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L321" s="10">
+        <v>316</v>
+      </c>
+      <c r="M321" s="12">
+        <f t="shared" si="18"/>
+        <v>6479800</v>
+      </c>
+      <c r="N321">
+        <v>1.01</v>
+      </c>
+      <c r="O321" s="12">
+        <f>SUM($M$5:M321)</f>
+        <v>591911200</v>
+      </c>
+    </row>
+    <row r="322" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L322" s="10">
+        <v>317</v>
+      </c>
+      <c r="M322" s="12">
+        <f t="shared" si="18"/>
+        <v>6545200</v>
+      </c>
+      <c r="N322">
+        <v>1.01</v>
+      </c>
+      <c r="O322" s="12">
+        <f>SUM($M$5:M322)</f>
+        <v>598456400</v>
+      </c>
+    </row>
+    <row r="323" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L323" s="10">
+        <v>318</v>
+      </c>
+      <c r="M323" s="12">
+        <f t="shared" si="18"/>
+        <v>6611200</v>
+      </c>
+      <c r="N323">
+        <v>1.01</v>
+      </c>
+      <c r="O323" s="12">
+        <f>SUM($M$5:M323)</f>
+        <v>605067600</v>
+      </c>
+    </row>
+    <row r="324" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L324" s="10">
+        <v>319</v>
+      </c>
+      <c r="M324" s="12">
+        <f t="shared" si="18"/>
+        <v>6677900</v>
+      </c>
+      <c r="N324">
+        <v>1.01</v>
+      </c>
+      <c r="O324" s="12">
+        <f>SUM($M$5:M324)</f>
+        <v>611745500</v>
+      </c>
+    </row>
+    <row r="325" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L325" s="10">
+        <v>320</v>
+      </c>
+      <c r="M325" s="12">
+        <f t="shared" si="18"/>
+        <v>6745200</v>
+      </c>
+      <c r="N325">
+        <v>1.01</v>
+      </c>
+      <c r="O325" s="12">
+        <f>SUM($M$5:M325)</f>
+        <v>618490700</v>
+      </c>
+    </row>
+    <row r="326" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L326" s="10">
+        <v>321</v>
+      </c>
+      <c r="M326" s="12">
+        <f t="shared" ref="M326:M355" si="19">ROUNDUP((M325+500)*N326,-2)</f>
+        <v>6813200</v>
+      </c>
+      <c r="N326">
+        <v>1.01</v>
+      </c>
+      <c r="O326" s="12">
+        <f>SUM($M$5:M326)</f>
+        <v>625303900</v>
+      </c>
+    </row>
+    <row r="327" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L327" s="10">
+        <v>322</v>
+      </c>
+      <c r="M327" s="12">
+        <f t="shared" si="19"/>
+        <v>6881900</v>
+      </c>
+      <c r="N327">
+        <v>1.01</v>
+      </c>
+      <c r="O327" s="12">
+        <f>SUM($M$5:M327)</f>
+        <v>632185800</v>
+      </c>
+    </row>
+    <row r="328" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L328" s="10">
+        <v>323</v>
+      </c>
+      <c r="M328" s="12">
+        <f t="shared" si="19"/>
+        <v>6951300</v>
+      </c>
+      <c r="N328">
+        <v>1.01</v>
+      </c>
+      <c r="O328" s="12">
+        <f>SUM($M$5:M328)</f>
+        <v>639137100</v>
+      </c>
+    </row>
+    <row r="329" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L329" s="10">
+        <v>324</v>
+      </c>
+      <c r="M329" s="12">
+        <f t="shared" si="19"/>
+        <v>7021400</v>
+      </c>
+      <c r="N329">
+        <v>1.01</v>
+      </c>
+      <c r="O329" s="12">
+        <f>SUM($M$5:M329)</f>
+        <v>646158500</v>
+      </c>
+    </row>
+    <row r="330" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L330" s="10">
+        <v>325</v>
+      </c>
+      <c r="M330" s="12">
+        <f t="shared" si="19"/>
+        <v>7092200</v>
+      </c>
+      <c r="N330">
+        <v>1.01</v>
+      </c>
+      <c r="O330" s="12">
+        <f>SUM($M$5:M330)</f>
+        <v>653250700</v>
+      </c>
+    </row>
+    <row r="331" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L331" s="10">
+        <v>326</v>
+      </c>
+      <c r="M331" s="12">
+        <f t="shared" si="19"/>
+        <v>7163700</v>
+      </c>
+      <c r="N331">
+        <v>1.01</v>
+      </c>
+      <c r="O331" s="12">
+        <f>SUM($M$5:M331)</f>
+        <v>660414400</v>
+      </c>
+    </row>
+    <row r="332" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L332" s="10">
+        <v>327</v>
+      </c>
+      <c r="M332" s="12">
+        <f t="shared" si="19"/>
+        <v>7235900</v>
+      </c>
+      <c r="N332">
+        <v>1.01</v>
+      </c>
+      <c r="O332" s="12">
+        <f>SUM($M$5:M332)</f>
+        <v>667650300</v>
+      </c>
+    </row>
+    <row r="333" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L333" s="10">
+        <v>328</v>
+      </c>
+      <c r="M333" s="12">
+        <f t="shared" si="19"/>
+        <v>7308800</v>
+      </c>
+      <c r="N333">
+        <v>1.01</v>
+      </c>
+      <c r="O333" s="12">
+        <f>SUM($M$5:M333)</f>
+        <v>674959100</v>
+      </c>
+    </row>
+    <row r="334" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L334" s="10">
+        <v>329</v>
+      </c>
+      <c r="M334" s="12">
+        <f t="shared" si="19"/>
+        <v>7382400</v>
+      </c>
+      <c r="N334">
+        <v>1.01</v>
+      </c>
+      <c r="O334" s="12">
+        <f>SUM($M$5:M334)</f>
+        <v>682341500</v>
+      </c>
+    </row>
+    <row r="335" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L335" s="10">
+        <v>330</v>
+      </c>
+      <c r="M335" s="12">
+        <f t="shared" si="19"/>
+        <v>7456800</v>
+      </c>
+      <c r="N335">
+        <v>1.01</v>
+      </c>
+      <c r="O335" s="12">
+        <f>SUM($M$5:M335)</f>
+        <v>689798300</v>
+      </c>
+    </row>
+    <row r="336" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L336" s="10">
+        <v>331</v>
+      </c>
+      <c r="M336" s="12">
+        <f t="shared" si="19"/>
+        <v>7531900</v>
+      </c>
+      <c r="N336">
+        <v>1.01</v>
+      </c>
+      <c r="O336" s="12">
+        <f>SUM($M$5:M336)</f>
+        <v>697330200</v>
+      </c>
+    </row>
+    <row r="337" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L337" s="10">
+        <v>332</v>
+      </c>
+      <c r="M337" s="12">
+        <f t="shared" si="19"/>
+        <v>7607800</v>
+      </c>
+      <c r="N337">
+        <v>1.01</v>
+      </c>
+      <c r="O337" s="12">
+        <f>SUM($M$5:M337)</f>
+        <v>704938000</v>
+      </c>
+    </row>
+    <row r="338" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L338" s="10">
+        <v>333</v>
+      </c>
+      <c r="M338" s="12">
+        <f t="shared" si="19"/>
+        <v>7684400</v>
+      </c>
+      <c r="N338">
+        <v>1.01</v>
+      </c>
+      <c r="O338" s="12">
+        <f>SUM($M$5:M338)</f>
+        <v>712622400</v>
+      </c>
+    </row>
+    <row r="339" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L339" s="10">
+        <v>334</v>
+      </c>
+      <c r="M339" s="12">
+        <f t="shared" si="19"/>
+        <v>7761800</v>
+      </c>
+      <c r="N339">
+        <v>1.01</v>
+      </c>
+      <c r="O339" s="12">
+        <f>SUM($M$5:M339)</f>
+        <v>720384200</v>
+      </c>
+    </row>
+    <row r="340" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L340" s="10">
+        <v>335</v>
+      </c>
+      <c r="M340" s="12">
+        <f t="shared" si="19"/>
+        <v>7840000</v>
+      </c>
+      <c r="N340">
+        <v>1.01</v>
+      </c>
+      <c r="O340" s="12">
+        <f>SUM($M$5:M340)</f>
+        <v>728224200</v>
+      </c>
+    </row>
+    <row r="341" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L341" s="10">
+        <v>336</v>
+      </c>
+      <c r="M341" s="12">
+        <f t="shared" si="19"/>
+        <v>7919000</v>
+      </c>
+      <c r="N341">
+        <v>1.01</v>
+      </c>
+      <c r="O341" s="12">
+        <f>SUM($M$5:M341)</f>
+        <v>736143200</v>
+      </c>
+    </row>
+    <row r="342" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L342" s="10">
+        <v>337</v>
+      </c>
+      <c r="M342" s="12">
+        <f t="shared" si="19"/>
+        <v>7998700</v>
+      </c>
+      <c r="N342">
+        <v>1.01</v>
+      </c>
+      <c r="O342" s="12">
+        <f>SUM($M$5:M342)</f>
+        <v>744141900</v>
+      </c>
+    </row>
+    <row r="343" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L343" s="10">
+        <v>338</v>
+      </c>
+      <c r="M343" s="12">
+        <f t="shared" si="19"/>
+        <v>8079200</v>
+      </c>
+      <c r="N343">
+        <v>1.01</v>
+      </c>
+      <c r="O343" s="12">
+        <f>SUM($M$5:M343)</f>
+        <v>752221100</v>
+      </c>
+    </row>
+    <row r="344" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L344" s="10">
+        <v>339</v>
+      </c>
+      <c r="M344" s="12">
+        <f t="shared" si="19"/>
+        <v>8160500</v>
+      </c>
+      <c r="N344">
+        <v>1.01</v>
+      </c>
+      <c r="O344" s="12">
+        <f>SUM($M$5:M344)</f>
+        <v>760381600</v>
+      </c>
+    </row>
+    <row r="345" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L345" s="10">
+        <v>340</v>
+      </c>
+      <c r="M345" s="12">
+        <f t="shared" si="19"/>
+        <v>8242700</v>
+      </c>
+      <c r="N345">
+        <v>1.01</v>
+      </c>
+      <c r="O345" s="12">
+        <f>SUM($M$5:M345)</f>
+        <v>768624300</v>
+      </c>
+    </row>
+    <row r="346" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L346" s="10">
+        <v>341</v>
+      </c>
+      <c r="M346" s="12">
+        <f t="shared" si="19"/>
+        <v>8325700</v>
+      </c>
+      <c r="N346">
+        <v>1.01</v>
+      </c>
+      <c r="O346" s="12">
+        <f>SUM($M$5:M346)</f>
+        <v>776950000</v>
+      </c>
+    </row>
+    <row r="347" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L347" s="10">
+        <v>342</v>
+      </c>
+      <c r="M347" s="12">
+        <f t="shared" si="19"/>
+        <v>8409500</v>
+      </c>
+      <c r="N347">
+        <v>1.01</v>
+      </c>
+      <c r="O347" s="12">
+        <f>SUM($M$5:M347)</f>
+        <v>785359500</v>
+      </c>
+    </row>
+    <row r="348" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L348" s="10">
+        <v>343</v>
+      </c>
+      <c r="M348" s="12">
+        <f t="shared" si="19"/>
+        <v>8494100</v>
+      </c>
+      <c r="N348">
+        <v>1.01</v>
+      </c>
+      <c r="O348" s="12">
+        <f>SUM($M$5:M348)</f>
+        <v>793853600</v>
+      </c>
+    </row>
+    <row r="349" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L349" s="10">
+        <v>344</v>
+      </c>
+      <c r="M349" s="12">
+        <f t="shared" si="19"/>
+        <v>8579600</v>
+      </c>
+      <c r="N349">
+        <v>1.01</v>
+      </c>
+      <c r="O349" s="12">
+        <f>SUM($M$5:M349)</f>
+        <v>802433200</v>
+      </c>
+    </row>
+    <row r="350" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L350" s="10">
+        <v>345</v>
+      </c>
+      <c r="M350" s="12">
+        <f t="shared" si="19"/>
+        <v>8666000</v>
+      </c>
+      <c r="N350">
+        <v>1.01</v>
+      </c>
+      <c r="O350" s="12">
+        <f>SUM($M$5:M350)</f>
+        <v>811099200</v>
+      </c>
+    </row>
+    <row r="351" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L351" s="10">
+        <v>346</v>
+      </c>
+      <c r="M351" s="12">
+        <f t="shared" si="19"/>
+        <v>8753200</v>
+      </c>
+      <c r="N351">
+        <v>1.01</v>
+      </c>
+      <c r="O351" s="12">
+        <f>SUM($M$5:M351)</f>
+        <v>819852400</v>
+      </c>
+    </row>
+    <row r="352" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L352" s="10">
+        <v>347</v>
+      </c>
+      <c r="M352" s="12">
+        <f t="shared" si="19"/>
+        <v>8841300</v>
+      </c>
+      <c r="N352">
+        <v>1.01</v>
+      </c>
+      <c r="O352" s="12">
+        <f>SUM($M$5:M352)</f>
+        <v>828693700</v>
+      </c>
+    </row>
+    <row r="353" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L353" s="10">
+        <v>348</v>
+      </c>
+      <c r="M353" s="12">
+        <f t="shared" si="19"/>
+        <v>8930300</v>
+      </c>
+      <c r="N353">
+        <v>1.01</v>
+      </c>
+      <c r="O353" s="12">
+        <f>SUM($M$5:M353)</f>
+        <v>837624000</v>
+      </c>
+    </row>
+    <row r="354" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L354" s="10">
+        <v>349</v>
+      </c>
+      <c r="M354" s="12">
+        <f t="shared" si="19"/>
+        <v>9020200</v>
+      </c>
+      <c r="N354">
+        <v>1.01</v>
+      </c>
+      <c r="O354" s="12">
+        <f>SUM($M$5:M354)</f>
+        <v>846644200</v>
+      </c>
+    </row>
+    <row r="355" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L355" s="10">
+        <v>350</v>
+      </c>
+      <c r="M355" s="12">
+        <f t="shared" si="19"/>
+        <v>9111000</v>
+      </c>
+      <c r="N355">
+        <v>1.01</v>
+      </c>
+      <c r="O355" s="12">
+        <f>SUM($M$5:M355)</f>
+        <v>855755200</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:B2"/>
@@ -14391,10 +16041,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B4BD32F-D36A-49D0-8344-521F56FEBBC4}">
-  <dimension ref="C2:AF304"/>
+  <dimension ref="C2:AF354"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="G300" sqref="G300"/>
+    <sheetView topLeftCell="A338" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="D285" sqref="D285:M354"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -14541,7 +16191,7 @@
       </c>
       <c r="Z4" s="12">
         <f t="shared" ref="Z4:Z15" si="4">SUMIFS(G:G,E:E,Q4)+SUMIFS(J:J,H:H,Q4)</f>
-        <v>7715610</v>
+        <v>10740610</v>
       </c>
       <c r="AC4" s="3" t="s">
         <v>4</v>
@@ -14620,7 +16270,7 @@
       </c>
       <c r="Z5" s="12">
         <f t="shared" si="4"/>
-        <v>3988700</v>
+        <v>5526200</v>
       </c>
       <c r="AC5" s="3" t="s">
         <v>6</v>
@@ -14699,7 +16349,7 @@
       </c>
       <c r="Z6" s="12">
         <f t="shared" si="4"/>
-        <v>2438950</v>
+        <v>3371450</v>
       </c>
       <c r="AC6" s="3" t="s">
         <v>7</v>
@@ -14778,7 +16428,7 @@
       </c>
       <c r="Z7" s="12">
         <f t="shared" si="4"/>
-        <v>178550</v>
+        <v>239550</v>
       </c>
       <c r="AC7" s="3" t="s">
         <v>8</v>
@@ -14857,7 +16507,7 @@
       </c>
       <c r="Z8" s="12">
         <f t="shared" si="4"/>
-        <v>17800</v>
+        <v>22300</v>
       </c>
       <c r="AC8" s="3" t="s">
         <v>9</v>
@@ -14936,7 +16586,7 @@
       </c>
       <c r="Z9" s="12">
         <f t="shared" si="4"/>
-        <v>904850</v>
+        <v>1232350</v>
       </c>
       <c r="AC9" s="3" t="s">
         <v>10</v>
@@ -15015,7 +16665,7 @@
       </c>
       <c r="Z10" s="12">
         <f t="shared" si="4"/>
-        <v>373350</v>
+        <v>522100</v>
       </c>
       <c r="AC10" s="3" t="s">
         <v>11</v>
@@ -15094,7 +16744,7 @@
       </c>
       <c r="Z11" s="12">
         <f t="shared" si="4"/>
-        <v>109525</v>
+        <v>153650</v>
       </c>
       <c r="AC11" s="3" t="s">
         <v>12</v>
@@ -15173,7 +16823,7 @@
       </c>
       <c r="Z12" s="12">
         <f t="shared" si="4"/>
-        <v>3930</v>
+        <v>4985</v>
       </c>
       <c r="AC12" s="3" t="s">
         <v>13</v>
@@ -15262,7 +16912,7 @@
       </c>
       <c r="Z13" s="12">
         <f t="shared" si="4"/>
-        <v>14700</v>
+        <v>18975</v>
       </c>
       <c r="AC13" s="3" t="s">
         <v>14</v>
@@ -15351,7 +17001,7 @@
       </c>
       <c r="Z14" s="12">
         <f t="shared" si="4"/>
-        <v>605</v>
+        <v>785</v>
       </c>
       <c r="AC14" s="3" t="s">
         <v>15</v>
@@ -15414,7 +17064,7 @@
       </c>
       <c r="Z15">
         <f t="shared" si="4"/>
-        <v>1530</v>
+        <v>2135</v>
       </c>
       <c r="AC15" s="3" t="s">
         <v>16</v>
@@ -25185,7 +26835,7 @@
         <v>243</v>
       </c>
       <c r="E247" t="str">
-        <f t="shared" ref="E247:E304" si="52">E242</f>
+        <f t="shared" ref="E247:E310" si="52">E242</f>
         <v>금강 베기</v>
       </c>
       <c r="F247">
@@ -25597,7 +27247,7 @@
         <v>25500</v>
       </c>
       <c r="H257" t="str">
-        <f t="shared" ref="H257:H304" si="53">H242</f>
+        <f t="shared" ref="H257:H320" si="53">H242</f>
         <v>태극 베기</v>
       </c>
       <c r="I257">
@@ -27498,6 +29148,2006 @@
       <c r="M304" s="10" t="str">
         <f t="shared" si="58"/>
         <v>2750,4</v>
+      </c>
+    </row>
+    <row r="305" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D305" s="10">
+        <v>301</v>
+      </c>
+      <c r="E305" t="str">
+        <f t="shared" si="52"/>
+        <v>천상 베기</v>
+      </c>
+      <c r="F305">
+        <f t="shared" ref="F305:F351" si="60">VLOOKUP(E305,$Q:$R,2,FALSE)</f>
+        <v>36</v>
+      </c>
+      <c r="G305">
+        <f t="shared" ref="G305:G351" si="61">G300+VLOOKUP(E305,$Q$20:$R$31,2,FALSE)</f>
+        <v>142500</v>
+      </c>
+      <c r="H305" t="str">
+        <f t="shared" si="53"/>
+        <v>심연 베기</v>
+      </c>
+      <c r="I305">
+        <f t="shared" ref="I305:I351" si="62">VLOOKUP(H305,$Q:$R,2,FALSE)</f>
+        <v>50</v>
+      </c>
+      <c r="J305">
+        <f t="shared" ref="J305:J351" si="63">IF(I305=42,J290+$R$23,IF(I305=46,J290+$R$24,IF(I305=61,J290+$R$30,J300+VLOOKUP(H305,$Q$20:$R$31,2,FALSE))))</f>
+        <v>4075</v>
+      </c>
+      <c r="K305" s="10">
+        <v>301</v>
+      </c>
+      <c r="L305" s="10" t="str">
+        <f t="shared" ref="L305:L351" si="64">IF(H305=0,F305&amp;",-1",F305&amp;","&amp;I305)</f>
+        <v>36,50</v>
+      </c>
+      <c r="M305" s="10" t="str">
+        <f t="shared" ref="M305:M351" si="65">IF(H305=0,G305/100&amp;","&amp;0,G305/100&amp;","&amp;J305/100)</f>
+        <v>1425,40.75</v>
+      </c>
+    </row>
+    <row r="306" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D306" s="10">
+        <v>302</v>
+      </c>
+      <c r="E306" t="str">
+        <f t="shared" si="52"/>
+        <v>귀신 베기</v>
+      </c>
+      <c r="F306">
+        <f t="shared" si="60"/>
+        <v>39</v>
+      </c>
+      <c r="G306">
+        <f t="shared" si="61"/>
+        <v>86500</v>
+      </c>
+      <c r="H306" t="str">
+        <f t="shared" si="53"/>
+        <v>섬광 베기</v>
+      </c>
+      <c r="I306">
+        <f t="shared" si="62"/>
+        <v>47</v>
+      </c>
+      <c r="J306">
+        <f t="shared" si="63"/>
+        <v>13750</v>
+      </c>
+      <c r="K306" s="10">
+        <v>302</v>
+      </c>
+      <c r="L306" s="10" t="str">
+        <f t="shared" si="64"/>
+        <v>39,47</v>
+      </c>
+      <c r="M306" s="10" t="str">
+        <f t="shared" si="65"/>
+        <v>865,137.5</v>
+      </c>
+    </row>
+    <row r="307" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D307" s="10">
+        <v>303</v>
+      </c>
+      <c r="E307" t="str">
+        <f t="shared" si="52"/>
+        <v>금강 베기</v>
+      </c>
+      <c r="F307">
+        <f t="shared" si="60"/>
+        <v>43</v>
+      </c>
+      <c r="G307">
+        <f t="shared" si="61"/>
+        <v>30500</v>
+      </c>
+      <c r="H307" t="str">
+        <f t="shared" si="53"/>
+        <v>태극 베기</v>
+      </c>
+      <c r="I307">
+        <f t="shared" si="62"/>
+        <v>55</v>
+      </c>
+      <c r="J307">
+        <f t="shared" si="63"/>
+        <v>56</v>
+      </c>
+      <c r="K307" s="10">
+        <v>303</v>
+      </c>
+      <c r="L307" s="10" t="str">
+        <f t="shared" si="64"/>
+        <v>43,55</v>
+      </c>
+      <c r="M307" s="10" t="str">
+        <f t="shared" si="65"/>
+        <v>305,0.56</v>
+      </c>
+    </row>
+    <row r="308" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D308" s="10">
+        <v>304</v>
+      </c>
+      <c r="E308" t="str">
+        <f t="shared" si="52"/>
+        <v>귀살 베기</v>
+      </c>
+      <c r="F308">
+        <f t="shared" si="60"/>
+        <v>60</v>
+      </c>
+      <c r="G308">
+        <f t="shared" si="61"/>
+        <v>101</v>
+      </c>
+      <c r="H308" t="str">
+        <f t="shared" si="53"/>
+        <v>신수 베기</v>
+      </c>
+      <c r="I308">
+        <f t="shared" si="62"/>
+        <v>42</v>
+      </c>
+      <c r="J308">
+        <f t="shared" si="63"/>
+        <v>14500</v>
+      </c>
+      <c r="K308" s="10">
+        <v>304</v>
+      </c>
+      <c r="L308" s="10" t="str">
+        <f t="shared" si="64"/>
+        <v>60,42</v>
+      </c>
+      <c r="M308" s="10" t="str">
+        <f t="shared" si="65"/>
+        <v>1.01,145</v>
+      </c>
+    </row>
+    <row r="309" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D309" s="10">
+        <v>305</v>
+      </c>
+      <c r="E309" t="str">
+        <f t="shared" si="52"/>
+        <v>지옥 베기</v>
+      </c>
+      <c r="F309">
+        <f t="shared" si="60"/>
+        <v>35</v>
+      </c>
+      <c r="G309">
+        <f t="shared" si="61"/>
+        <v>280000</v>
+      </c>
+      <c r="H309" t="str">
+        <f t="shared" si="53"/>
+        <v>신선 베기</v>
+      </c>
+      <c r="I309">
+        <f t="shared" si="62"/>
+        <v>54</v>
+      </c>
+      <c r="J309">
+        <f t="shared" si="63"/>
+        <v>405</v>
+      </c>
+      <c r="K309" s="10">
+        <v>305</v>
+      </c>
+      <c r="L309" s="10" t="str">
+        <f t="shared" si="64"/>
+        <v>35,54</v>
+      </c>
+      <c r="M309" s="10" t="str">
+        <f t="shared" si="65"/>
+        <v>2800,4.05</v>
+      </c>
+    </row>
+    <row r="310" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D310" s="9">
+        <v>306</v>
+      </c>
+      <c r="E310" t="str">
+        <f t="shared" si="52"/>
+        <v>천상 베기</v>
+      </c>
+      <c r="F310">
+        <f t="shared" si="60"/>
+        <v>36</v>
+      </c>
+      <c r="G310">
+        <f t="shared" si="61"/>
+        <v>145000</v>
+      </c>
+      <c r="H310" t="str">
+        <f t="shared" si="53"/>
+        <v>심연 베기</v>
+      </c>
+      <c r="I310">
+        <f t="shared" si="62"/>
+        <v>50</v>
+      </c>
+      <c r="J310">
+        <f t="shared" si="63"/>
+        <v>4150</v>
+      </c>
+      <c r="K310" s="10">
+        <v>306</v>
+      </c>
+      <c r="L310" s="10" t="str">
+        <f t="shared" si="64"/>
+        <v>36,50</v>
+      </c>
+      <c r="M310" s="10" t="str">
+        <f t="shared" si="65"/>
+        <v>1450,41.5</v>
+      </c>
+    </row>
+    <row r="311" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D311" s="10">
+        <v>307</v>
+      </c>
+      <c r="E311" t="str">
+        <f t="shared" ref="E311:E354" si="66">E306</f>
+        <v>귀신 베기</v>
+      </c>
+      <c r="F311">
+        <f t="shared" si="60"/>
+        <v>39</v>
+      </c>
+      <c r="G311">
+        <f t="shared" si="61"/>
+        <v>88000</v>
+      </c>
+      <c r="H311" t="str">
+        <f t="shared" si="53"/>
+        <v>섬광 베기</v>
+      </c>
+      <c r="I311">
+        <f t="shared" si="62"/>
+        <v>47</v>
+      </c>
+      <c r="J311">
+        <f t="shared" si="63"/>
+        <v>14000</v>
+      </c>
+      <c r="K311" s="10">
+        <v>307</v>
+      </c>
+      <c r="L311" s="10" t="str">
+        <f t="shared" si="64"/>
+        <v>39,47</v>
+      </c>
+      <c r="M311" s="10" t="str">
+        <f t="shared" si="65"/>
+        <v>880,140</v>
+      </c>
+    </row>
+    <row r="312" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D312" s="10">
+        <v>308</v>
+      </c>
+      <c r="E312" t="str">
+        <f t="shared" si="66"/>
+        <v>금강 베기</v>
+      </c>
+      <c r="F312">
+        <f t="shared" si="60"/>
+        <v>43</v>
+      </c>
+      <c r="G312">
+        <f t="shared" si="61"/>
+        <v>31000</v>
+      </c>
+      <c r="H312" t="str">
+        <f t="shared" si="53"/>
+        <v>태극 베기</v>
+      </c>
+      <c r="I312">
+        <f t="shared" si="62"/>
+        <v>55</v>
+      </c>
+      <c r="J312">
+        <f t="shared" si="63"/>
+        <v>57</v>
+      </c>
+      <c r="K312" s="10">
+        <v>308</v>
+      </c>
+      <c r="L312" s="10" t="str">
+        <f t="shared" si="64"/>
+        <v>43,55</v>
+      </c>
+      <c r="M312" s="10" t="str">
+        <f t="shared" si="65"/>
+        <v>310,0.57</v>
+      </c>
+    </row>
+    <row r="313" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D313" s="10">
+        <v>309</v>
+      </c>
+      <c r="E313" t="str">
+        <f t="shared" si="66"/>
+        <v>귀살 베기</v>
+      </c>
+      <c r="F313">
+        <f t="shared" si="60"/>
+        <v>60</v>
+      </c>
+      <c r="G313">
+        <f t="shared" si="61"/>
+        <v>102</v>
+      </c>
+      <c r="H313" t="str">
+        <f t="shared" si="53"/>
+        <v>흉수 베기</v>
+      </c>
+      <c r="I313">
+        <f t="shared" si="62"/>
+        <v>46</v>
+      </c>
+      <c r="J313">
+        <f t="shared" si="63"/>
+        <v>1450</v>
+      </c>
+      <c r="K313" s="10">
+        <v>309</v>
+      </c>
+      <c r="L313" s="10" t="str">
+        <f t="shared" si="64"/>
+        <v>60,46</v>
+      </c>
+      <c r="M313" s="10" t="str">
+        <f t="shared" si="65"/>
+        <v>1.02,14.5</v>
+      </c>
+    </row>
+    <row r="314" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D314" s="10">
+        <v>310</v>
+      </c>
+      <c r="E314" t="str">
+        <f t="shared" si="66"/>
+        <v>지옥 베기</v>
+      </c>
+      <c r="F314">
+        <f t="shared" si="60"/>
+        <v>35</v>
+      </c>
+      <c r="G314">
+        <f t="shared" si="61"/>
+        <v>285000</v>
+      </c>
+      <c r="H314" t="str">
+        <f t="shared" si="53"/>
+        <v>신선 베기</v>
+      </c>
+      <c r="I314">
+        <f t="shared" si="62"/>
+        <v>54</v>
+      </c>
+      <c r="J314">
+        <f t="shared" si="63"/>
+        <v>410</v>
+      </c>
+      <c r="K314" s="10">
+        <v>310</v>
+      </c>
+      <c r="L314" s="10" t="str">
+        <f t="shared" si="64"/>
+        <v>35,54</v>
+      </c>
+      <c r="M314" s="10" t="str">
+        <f t="shared" si="65"/>
+        <v>2850,4.1</v>
+      </c>
+    </row>
+    <row r="315" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D315" s="10">
+        <v>311</v>
+      </c>
+      <c r="E315" t="str">
+        <f t="shared" si="66"/>
+        <v>천상 베기</v>
+      </c>
+      <c r="F315">
+        <f t="shared" si="60"/>
+        <v>36</v>
+      </c>
+      <c r="G315">
+        <f t="shared" si="61"/>
+        <v>147500</v>
+      </c>
+      <c r="H315" t="str">
+        <f t="shared" si="53"/>
+        <v>심연 베기</v>
+      </c>
+      <c r="I315">
+        <f t="shared" si="62"/>
+        <v>50</v>
+      </c>
+      <c r="J315">
+        <f t="shared" si="63"/>
+        <v>4225</v>
+      </c>
+      <c r="K315" s="10">
+        <v>311</v>
+      </c>
+      <c r="L315" s="10" t="str">
+        <f t="shared" si="64"/>
+        <v>36,50</v>
+      </c>
+      <c r="M315" s="10" t="str">
+        <f t="shared" si="65"/>
+        <v>1475,42.25</v>
+      </c>
+    </row>
+    <row r="316" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D316" s="10">
+        <v>312</v>
+      </c>
+      <c r="E316" t="str">
+        <f t="shared" si="66"/>
+        <v>귀신 베기</v>
+      </c>
+      <c r="F316">
+        <f t="shared" si="60"/>
+        <v>39</v>
+      </c>
+      <c r="G316">
+        <f t="shared" si="61"/>
+        <v>89500</v>
+      </c>
+      <c r="H316" t="str">
+        <f t="shared" si="53"/>
+        <v>섬광 베기</v>
+      </c>
+      <c r="I316">
+        <f t="shared" si="62"/>
+        <v>47</v>
+      </c>
+      <c r="J316">
+        <f t="shared" si="63"/>
+        <v>14250</v>
+      </c>
+      <c r="K316" s="10">
+        <v>312</v>
+      </c>
+      <c r="L316" s="10" t="str">
+        <f t="shared" si="64"/>
+        <v>39,47</v>
+      </c>
+      <c r="M316" s="10" t="str">
+        <f t="shared" si="65"/>
+        <v>895,142.5</v>
+      </c>
+    </row>
+    <row r="317" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D317" s="10">
+        <v>313</v>
+      </c>
+      <c r="E317" t="str">
+        <f t="shared" si="66"/>
+        <v>금강 베기</v>
+      </c>
+      <c r="F317">
+        <f t="shared" si="60"/>
+        <v>43</v>
+      </c>
+      <c r="G317">
+        <f t="shared" si="61"/>
+        <v>31500</v>
+      </c>
+      <c r="H317" t="str">
+        <f t="shared" si="53"/>
+        <v>태극 베기</v>
+      </c>
+      <c r="I317">
+        <f t="shared" si="62"/>
+        <v>55</v>
+      </c>
+      <c r="J317">
+        <f t="shared" si="63"/>
+        <v>58</v>
+      </c>
+      <c r="K317" s="10">
+        <v>313</v>
+      </c>
+      <c r="L317" s="10" t="str">
+        <f t="shared" si="64"/>
+        <v>43,55</v>
+      </c>
+      <c r="M317" s="10" t="str">
+        <f t="shared" si="65"/>
+        <v>315,0.58</v>
+      </c>
+    </row>
+    <row r="318" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D318" s="10">
+        <v>314</v>
+      </c>
+      <c r="E318" t="str">
+        <f t="shared" si="66"/>
+        <v>귀살 베기</v>
+      </c>
+      <c r="F318">
+        <f t="shared" si="60"/>
+        <v>60</v>
+      </c>
+      <c r="G318">
+        <f t="shared" si="61"/>
+        <v>103</v>
+      </c>
+      <c r="H318" t="str">
+        <f t="shared" si="53"/>
+        <v>천구 베기</v>
+      </c>
+      <c r="I318">
+        <f t="shared" si="62"/>
+        <v>61</v>
+      </c>
+      <c r="J318">
+        <f t="shared" si="63"/>
+        <v>57.5</v>
+      </c>
+      <c r="K318" s="10">
+        <v>314</v>
+      </c>
+      <c r="L318" s="10" t="str">
+        <f t="shared" si="64"/>
+        <v>60,61</v>
+      </c>
+      <c r="M318" s="10" t="str">
+        <f t="shared" si="65"/>
+        <v>1.03,0.575</v>
+      </c>
+    </row>
+    <row r="319" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D319" s="10">
+        <v>315</v>
+      </c>
+      <c r="E319" t="str">
+        <f t="shared" si="66"/>
+        <v>지옥 베기</v>
+      </c>
+      <c r="F319">
+        <f t="shared" si="60"/>
+        <v>35</v>
+      </c>
+      <c r="G319">
+        <f t="shared" si="61"/>
+        <v>290000</v>
+      </c>
+      <c r="H319" t="str">
+        <f t="shared" si="53"/>
+        <v>신선 베기</v>
+      </c>
+      <c r="I319">
+        <f t="shared" si="62"/>
+        <v>54</v>
+      </c>
+      <c r="J319">
+        <f t="shared" si="63"/>
+        <v>415</v>
+      </c>
+      <c r="K319" s="10">
+        <v>315</v>
+      </c>
+      <c r="L319" s="10" t="str">
+        <f t="shared" si="64"/>
+        <v>35,54</v>
+      </c>
+      <c r="M319" s="10" t="str">
+        <f t="shared" si="65"/>
+        <v>2900,4.15</v>
+      </c>
+    </row>
+    <row r="320" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D320" s="10">
+        <v>316</v>
+      </c>
+      <c r="E320" t="str">
+        <f t="shared" si="66"/>
+        <v>천상 베기</v>
+      </c>
+      <c r="F320">
+        <f t="shared" si="60"/>
+        <v>36</v>
+      </c>
+      <c r="G320">
+        <f t="shared" si="61"/>
+        <v>150000</v>
+      </c>
+      <c r="H320" t="str">
+        <f t="shared" si="53"/>
+        <v>심연 베기</v>
+      </c>
+      <c r="I320">
+        <f t="shared" si="62"/>
+        <v>50</v>
+      </c>
+      <c r="J320">
+        <f t="shared" si="63"/>
+        <v>4300</v>
+      </c>
+      <c r="K320" s="10">
+        <v>316</v>
+      </c>
+      <c r="L320" s="10" t="str">
+        <f t="shared" si="64"/>
+        <v>36,50</v>
+      </c>
+      <c r="M320" s="10" t="str">
+        <f t="shared" si="65"/>
+        <v>1500,43</v>
+      </c>
+    </row>
+    <row r="321" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D321" s="10">
+        <v>317</v>
+      </c>
+      <c r="E321" t="str">
+        <f t="shared" si="66"/>
+        <v>귀신 베기</v>
+      </c>
+      <c r="F321">
+        <f t="shared" si="60"/>
+        <v>39</v>
+      </c>
+      <c r="G321">
+        <f t="shared" si="61"/>
+        <v>91000</v>
+      </c>
+      <c r="H321" t="str">
+        <f t="shared" ref="H321:H354" si="67">H306</f>
+        <v>섬광 베기</v>
+      </c>
+      <c r="I321">
+        <f t="shared" si="62"/>
+        <v>47</v>
+      </c>
+      <c r="J321">
+        <f t="shared" si="63"/>
+        <v>14500</v>
+      </c>
+      <c r="K321" s="10">
+        <v>317</v>
+      </c>
+      <c r="L321" s="10" t="str">
+        <f t="shared" si="64"/>
+        <v>39,47</v>
+      </c>
+      <c r="M321" s="10" t="str">
+        <f t="shared" si="65"/>
+        <v>910,145</v>
+      </c>
+    </row>
+    <row r="322" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D322" s="10">
+        <v>318</v>
+      </c>
+      <c r="E322" t="str">
+        <f t="shared" si="66"/>
+        <v>금강 베기</v>
+      </c>
+      <c r="F322">
+        <f t="shared" si="60"/>
+        <v>43</v>
+      </c>
+      <c r="G322">
+        <f t="shared" si="61"/>
+        <v>32000</v>
+      </c>
+      <c r="H322" t="str">
+        <f t="shared" si="67"/>
+        <v>태극 베기</v>
+      </c>
+      <c r="I322">
+        <f t="shared" si="62"/>
+        <v>55</v>
+      </c>
+      <c r="J322">
+        <f t="shared" si="63"/>
+        <v>59</v>
+      </c>
+      <c r="K322" s="10">
+        <v>318</v>
+      </c>
+      <c r="L322" s="10" t="str">
+        <f t="shared" si="64"/>
+        <v>43,55</v>
+      </c>
+      <c r="M322" s="10" t="str">
+        <f t="shared" si="65"/>
+        <v>320,0.59</v>
+      </c>
+    </row>
+    <row r="323" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D323" s="9">
+        <v>319</v>
+      </c>
+      <c r="E323" t="str">
+        <f t="shared" si="66"/>
+        <v>귀살 베기</v>
+      </c>
+      <c r="F323">
+        <f t="shared" si="60"/>
+        <v>60</v>
+      </c>
+      <c r="G323">
+        <f t="shared" si="61"/>
+        <v>104</v>
+      </c>
+      <c r="H323" t="str">
+        <f t="shared" si="67"/>
+        <v>신수 베기</v>
+      </c>
+      <c r="I323">
+        <f t="shared" si="62"/>
+        <v>42</v>
+      </c>
+      <c r="J323">
+        <f t="shared" si="63"/>
+        <v>15000</v>
+      </c>
+      <c r="K323" s="10">
+        <v>319</v>
+      </c>
+      <c r="L323" s="10" t="str">
+        <f t="shared" si="64"/>
+        <v>60,42</v>
+      </c>
+      <c r="M323" s="10" t="str">
+        <f t="shared" si="65"/>
+        <v>1.04,150</v>
+      </c>
+    </row>
+    <row r="324" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D324" s="10">
+        <v>320</v>
+      </c>
+      <c r="E324" t="str">
+        <f t="shared" si="66"/>
+        <v>지옥 베기</v>
+      </c>
+      <c r="F324">
+        <f t="shared" si="60"/>
+        <v>35</v>
+      </c>
+      <c r="G324">
+        <f t="shared" si="61"/>
+        <v>295000</v>
+      </c>
+      <c r="H324" t="str">
+        <f t="shared" si="67"/>
+        <v>신선 베기</v>
+      </c>
+      <c r="I324">
+        <f t="shared" si="62"/>
+        <v>54</v>
+      </c>
+      <c r="J324">
+        <f t="shared" si="63"/>
+        <v>420</v>
+      </c>
+      <c r="K324" s="10">
+        <v>320</v>
+      </c>
+      <c r="L324" s="10" t="str">
+        <f t="shared" si="64"/>
+        <v>35,54</v>
+      </c>
+      <c r="M324" s="10" t="str">
+        <f t="shared" si="65"/>
+        <v>2950,4.2</v>
+      </c>
+    </row>
+    <row r="325" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D325" s="10">
+        <v>321</v>
+      </c>
+      <c r="E325" t="str">
+        <f t="shared" si="66"/>
+        <v>천상 베기</v>
+      </c>
+      <c r="F325">
+        <f t="shared" si="60"/>
+        <v>36</v>
+      </c>
+      <c r="G325">
+        <f t="shared" si="61"/>
+        <v>152500</v>
+      </c>
+      <c r="H325" t="str">
+        <f t="shared" si="67"/>
+        <v>심연 베기</v>
+      </c>
+      <c r="I325">
+        <f t="shared" si="62"/>
+        <v>50</v>
+      </c>
+      <c r="J325">
+        <f t="shared" si="63"/>
+        <v>4375</v>
+      </c>
+      <c r="K325" s="10">
+        <v>321</v>
+      </c>
+      <c r="L325" s="10" t="str">
+        <f t="shared" si="64"/>
+        <v>36,50</v>
+      </c>
+      <c r="M325" s="10" t="str">
+        <f t="shared" si="65"/>
+        <v>1525,43.75</v>
+      </c>
+    </row>
+    <row r="326" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D326" s="10">
+        <v>322</v>
+      </c>
+      <c r="E326" t="str">
+        <f t="shared" si="66"/>
+        <v>귀신 베기</v>
+      </c>
+      <c r="F326">
+        <f t="shared" si="60"/>
+        <v>39</v>
+      </c>
+      <c r="G326">
+        <f t="shared" si="61"/>
+        <v>92500</v>
+      </c>
+      <c r="H326" t="str">
+        <f t="shared" si="67"/>
+        <v>섬광 베기</v>
+      </c>
+      <c r="I326">
+        <f t="shared" si="62"/>
+        <v>47</v>
+      </c>
+      <c r="J326">
+        <f t="shared" si="63"/>
+        <v>14750</v>
+      </c>
+      <c r="K326" s="10">
+        <v>322</v>
+      </c>
+      <c r="L326" s="10" t="str">
+        <f t="shared" si="64"/>
+        <v>39,47</v>
+      </c>
+      <c r="M326" s="10" t="str">
+        <f t="shared" si="65"/>
+        <v>925,147.5</v>
+      </c>
+    </row>
+    <row r="327" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D327" s="10">
+        <v>323</v>
+      </c>
+      <c r="E327" t="str">
+        <f t="shared" si="66"/>
+        <v>금강 베기</v>
+      </c>
+      <c r="F327">
+        <f t="shared" si="60"/>
+        <v>43</v>
+      </c>
+      <c r="G327">
+        <f t="shared" si="61"/>
+        <v>32500</v>
+      </c>
+      <c r="H327" t="str">
+        <f t="shared" si="67"/>
+        <v>태극 베기</v>
+      </c>
+      <c r="I327">
+        <f t="shared" si="62"/>
+        <v>55</v>
+      </c>
+      <c r="J327">
+        <f t="shared" si="63"/>
+        <v>60</v>
+      </c>
+      <c r="K327" s="10">
+        <v>323</v>
+      </c>
+      <c r="L327" s="10" t="str">
+        <f t="shared" si="64"/>
+        <v>43,55</v>
+      </c>
+      <c r="M327" s="10" t="str">
+        <f t="shared" si="65"/>
+        <v>325,0.6</v>
+      </c>
+    </row>
+    <row r="328" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D328" s="10">
+        <v>324</v>
+      </c>
+      <c r="E328" t="str">
+        <f t="shared" si="66"/>
+        <v>귀살 베기</v>
+      </c>
+      <c r="F328">
+        <f t="shared" si="60"/>
+        <v>60</v>
+      </c>
+      <c r="G328">
+        <f t="shared" si="61"/>
+        <v>105</v>
+      </c>
+      <c r="H328" t="str">
+        <f t="shared" si="67"/>
+        <v>흉수 베기</v>
+      </c>
+      <c r="I328">
+        <f t="shared" si="62"/>
+        <v>46</v>
+      </c>
+      <c r="J328">
+        <f t="shared" si="63"/>
+        <v>1500</v>
+      </c>
+      <c r="K328" s="10">
+        <v>324</v>
+      </c>
+      <c r="L328" s="10" t="str">
+        <f t="shared" si="64"/>
+        <v>60,46</v>
+      </c>
+      <c r="M328" s="10" t="str">
+        <f t="shared" si="65"/>
+        <v>1.05,15</v>
+      </c>
+    </row>
+    <row r="329" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D329" s="10">
+        <v>325</v>
+      </c>
+      <c r="E329" t="str">
+        <f t="shared" si="66"/>
+        <v>지옥 베기</v>
+      </c>
+      <c r="F329">
+        <f t="shared" si="60"/>
+        <v>35</v>
+      </c>
+      <c r="G329">
+        <f t="shared" si="61"/>
+        <v>300000</v>
+      </c>
+      <c r="H329" t="str">
+        <f t="shared" si="67"/>
+        <v>신선 베기</v>
+      </c>
+      <c r="I329">
+        <f t="shared" si="62"/>
+        <v>54</v>
+      </c>
+      <c r="J329">
+        <f t="shared" si="63"/>
+        <v>425</v>
+      </c>
+      <c r="K329" s="10">
+        <v>325</v>
+      </c>
+      <c r="L329" s="10" t="str">
+        <f t="shared" si="64"/>
+        <v>35,54</v>
+      </c>
+      <c r="M329" s="10" t="str">
+        <f t="shared" si="65"/>
+        <v>3000,4.25</v>
+      </c>
+    </row>
+    <row r="330" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D330" s="10">
+        <v>326</v>
+      </c>
+      <c r="E330" t="str">
+        <f t="shared" si="66"/>
+        <v>천상 베기</v>
+      </c>
+      <c r="F330">
+        <f t="shared" si="60"/>
+        <v>36</v>
+      </c>
+      <c r="G330">
+        <f t="shared" si="61"/>
+        <v>155000</v>
+      </c>
+      <c r="H330" t="str">
+        <f t="shared" si="67"/>
+        <v>심연 베기</v>
+      </c>
+      <c r="I330">
+        <f t="shared" si="62"/>
+        <v>50</v>
+      </c>
+      <c r="J330">
+        <f t="shared" si="63"/>
+        <v>4450</v>
+      </c>
+      <c r="K330" s="10">
+        <v>326</v>
+      </c>
+      <c r="L330" s="10" t="str">
+        <f t="shared" si="64"/>
+        <v>36,50</v>
+      </c>
+      <c r="M330" s="10" t="str">
+        <f t="shared" si="65"/>
+        <v>1550,44.5</v>
+      </c>
+    </row>
+    <row r="331" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D331" s="10">
+        <v>327</v>
+      </c>
+      <c r="E331" t="str">
+        <f t="shared" si="66"/>
+        <v>귀신 베기</v>
+      </c>
+      <c r="F331">
+        <f t="shared" si="60"/>
+        <v>39</v>
+      </c>
+      <c r="G331">
+        <f t="shared" si="61"/>
+        <v>94000</v>
+      </c>
+      <c r="H331" t="str">
+        <f t="shared" si="67"/>
+        <v>섬광 베기</v>
+      </c>
+      <c r="I331">
+        <f t="shared" si="62"/>
+        <v>47</v>
+      </c>
+      <c r="J331">
+        <f t="shared" si="63"/>
+        <v>15000</v>
+      </c>
+      <c r="K331" s="10">
+        <v>327</v>
+      </c>
+      <c r="L331" s="10" t="str">
+        <f t="shared" si="64"/>
+        <v>39,47</v>
+      </c>
+      <c r="M331" s="10" t="str">
+        <f t="shared" si="65"/>
+        <v>940,150</v>
+      </c>
+    </row>
+    <row r="332" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D332" s="10">
+        <v>328</v>
+      </c>
+      <c r="E332" t="str">
+        <f t="shared" si="66"/>
+        <v>금강 베기</v>
+      </c>
+      <c r="F332">
+        <f t="shared" si="60"/>
+        <v>43</v>
+      </c>
+      <c r="G332">
+        <f t="shared" si="61"/>
+        <v>33000</v>
+      </c>
+      <c r="H332" t="str">
+        <f t="shared" si="67"/>
+        <v>태극 베기</v>
+      </c>
+      <c r="I332">
+        <f t="shared" si="62"/>
+        <v>55</v>
+      </c>
+      <c r="J332">
+        <f t="shared" si="63"/>
+        <v>61</v>
+      </c>
+      <c r="K332" s="10">
+        <v>328</v>
+      </c>
+      <c r="L332" s="10" t="str">
+        <f t="shared" si="64"/>
+        <v>43,55</v>
+      </c>
+      <c r="M332" s="10" t="str">
+        <f t="shared" si="65"/>
+        <v>330,0.61</v>
+      </c>
+    </row>
+    <row r="333" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D333" s="10">
+        <v>329</v>
+      </c>
+      <c r="E333" t="str">
+        <f t="shared" si="66"/>
+        <v>귀살 베기</v>
+      </c>
+      <c r="F333">
+        <f t="shared" si="60"/>
+        <v>60</v>
+      </c>
+      <c r="G333">
+        <f t="shared" si="61"/>
+        <v>106</v>
+      </c>
+      <c r="H333" t="str">
+        <f t="shared" si="67"/>
+        <v>천구 베기</v>
+      </c>
+      <c r="I333">
+        <f t="shared" si="62"/>
+        <v>61</v>
+      </c>
+      <c r="J333">
+        <f t="shared" si="63"/>
+        <v>60</v>
+      </c>
+      <c r="K333" s="10">
+        <v>329</v>
+      </c>
+      <c r="L333" s="10" t="str">
+        <f t="shared" si="64"/>
+        <v>60,61</v>
+      </c>
+      <c r="M333" s="10" t="str">
+        <f t="shared" si="65"/>
+        <v>1.06,0.6</v>
+      </c>
+    </row>
+    <row r="334" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D334" s="10">
+        <v>330</v>
+      </c>
+      <c r="E334" t="str">
+        <f t="shared" si="66"/>
+        <v>지옥 베기</v>
+      </c>
+      <c r="F334">
+        <f t="shared" si="60"/>
+        <v>35</v>
+      </c>
+      <c r="G334">
+        <f t="shared" si="61"/>
+        <v>305000</v>
+      </c>
+      <c r="H334" t="str">
+        <f t="shared" si="67"/>
+        <v>신선 베기</v>
+      </c>
+      <c r="I334">
+        <f t="shared" si="62"/>
+        <v>54</v>
+      </c>
+      <c r="J334">
+        <f t="shared" si="63"/>
+        <v>430</v>
+      </c>
+      <c r="K334" s="10">
+        <v>330</v>
+      </c>
+      <c r="L334" s="10" t="str">
+        <f t="shared" si="64"/>
+        <v>35,54</v>
+      </c>
+      <c r="M334" s="10" t="str">
+        <f t="shared" si="65"/>
+        <v>3050,4.3</v>
+      </c>
+    </row>
+    <row r="335" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D335" s="10">
+        <v>331</v>
+      </c>
+      <c r="E335" t="str">
+        <f t="shared" si="66"/>
+        <v>천상 베기</v>
+      </c>
+      <c r="F335">
+        <f t="shared" si="60"/>
+        <v>36</v>
+      </c>
+      <c r="G335">
+        <f t="shared" si="61"/>
+        <v>157500</v>
+      </c>
+      <c r="H335" t="str">
+        <f t="shared" si="67"/>
+        <v>심연 베기</v>
+      </c>
+      <c r="I335">
+        <f t="shared" si="62"/>
+        <v>50</v>
+      </c>
+      <c r="J335">
+        <f t="shared" si="63"/>
+        <v>4525</v>
+      </c>
+      <c r="K335" s="10">
+        <v>331</v>
+      </c>
+      <c r="L335" s="10" t="str">
+        <f t="shared" si="64"/>
+        <v>36,50</v>
+      </c>
+      <c r="M335" s="10" t="str">
+        <f t="shared" si="65"/>
+        <v>1575,45.25</v>
+      </c>
+    </row>
+    <row r="336" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D336" s="10">
+        <v>332</v>
+      </c>
+      <c r="E336" t="str">
+        <f t="shared" si="66"/>
+        <v>귀신 베기</v>
+      </c>
+      <c r="F336">
+        <f t="shared" si="60"/>
+        <v>39</v>
+      </c>
+      <c r="G336">
+        <f t="shared" si="61"/>
+        <v>95500</v>
+      </c>
+      <c r="H336" t="str">
+        <f t="shared" si="67"/>
+        <v>섬광 베기</v>
+      </c>
+      <c r="I336">
+        <f t="shared" si="62"/>
+        <v>47</v>
+      </c>
+      <c r="J336">
+        <f t="shared" si="63"/>
+        <v>15250</v>
+      </c>
+      <c r="K336" s="10">
+        <v>332</v>
+      </c>
+      <c r="L336" s="10" t="str">
+        <f t="shared" si="64"/>
+        <v>39,47</v>
+      </c>
+      <c r="M336" s="10" t="str">
+        <f t="shared" si="65"/>
+        <v>955,152.5</v>
+      </c>
+    </row>
+    <row r="337" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D337" s="9">
+        <v>333</v>
+      </c>
+      <c r="E337" t="str">
+        <f t="shared" si="66"/>
+        <v>금강 베기</v>
+      </c>
+      <c r="F337">
+        <f t="shared" si="60"/>
+        <v>43</v>
+      </c>
+      <c r="G337">
+        <f t="shared" si="61"/>
+        <v>33500</v>
+      </c>
+      <c r="H337" t="str">
+        <f t="shared" si="67"/>
+        <v>태극 베기</v>
+      </c>
+      <c r="I337">
+        <f t="shared" si="62"/>
+        <v>55</v>
+      </c>
+      <c r="J337">
+        <f t="shared" si="63"/>
+        <v>62</v>
+      </c>
+      <c r="K337" s="10">
+        <v>333</v>
+      </c>
+      <c r="L337" s="10" t="str">
+        <f t="shared" si="64"/>
+        <v>43,55</v>
+      </c>
+      <c r="M337" s="10" t="str">
+        <f t="shared" si="65"/>
+        <v>335,0.62</v>
+      </c>
+    </row>
+    <row r="338" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D338" s="10">
+        <v>334</v>
+      </c>
+      <c r="E338" t="str">
+        <f t="shared" si="66"/>
+        <v>귀살 베기</v>
+      </c>
+      <c r="F338">
+        <f t="shared" si="60"/>
+        <v>60</v>
+      </c>
+      <c r="G338">
+        <f t="shared" si="61"/>
+        <v>107</v>
+      </c>
+      <c r="H338" t="str">
+        <f t="shared" si="67"/>
+        <v>신수 베기</v>
+      </c>
+      <c r="I338">
+        <f t="shared" si="62"/>
+        <v>42</v>
+      </c>
+      <c r="J338">
+        <f t="shared" si="63"/>
+        <v>15500</v>
+      </c>
+      <c r="K338" s="10">
+        <v>334</v>
+      </c>
+      <c r="L338" s="10" t="str">
+        <f t="shared" si="64"/>
+        <v>60,42</v>
+      </c>
+      <c r="M338" s="10" t="str">
+        <f t="shared" si="65"/>
+        <v>1.07,155</v>
+      </c>
+    </row>
+    <row r="339" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D339" s="10">
+        <v>335</v>
+      </c>
+      <c r="E339" t="str">
+        <f t="shared" si="66"/>
+        <v>지옥 베기</v>
+      </c>
+      <c r="F339">
+        <f t="shared" si="60"/>
+        <v>35</v>
+      </c>
+      <c r="G339">
+        <f t="shared" si="61"/>
+        <v>310000</v>
+      </c>
+      <c r="H339" t="str">
+        <f t="shared" si="67"/>
+        <v>신선 베기</v>
+      </c>
+      <c r="I339">
+        <f t="shared" si="62"/>
+        <v>54</v>
+      </c>
+      <c r="J339">
+        <f t="shared" si="63"/>
+        <v>435</v>
+      </c>
+      <c r="K339" s="10">
+        <v>335</v>
+      </c>
+      <c r="L339" s="10" t="str">
+        <f t="shared" si="64"/>
+        <v>35,54</v>
+      </c>
+      <c r="M339" s="10" t="str">
+        <f t="shared" si="65"/>
+        <v>3100,4.35</v>
+      </c>
+    </row>
+    <row r="340" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D340" s="10">
+        <v>336</v>
+      </c>
+      <c r="E340" t="str">
+        <f t="shared" si="66"/>
+        <v>천상 베기</v>
+      </c>
+      <c r="F340">
+        <f t="shared" si="60"/>
+        <v>36</v>
+      </c>
+      <c r="G340">
+        <f t="shared" si="61"/>
+        <v>160000</v>
+      </c>
+      <c r="H340" t="str">
+        <f t="shared" si="67"/>
+        <v>심연 베기</v>
+      </c>
+      <c r="I340">
+        <f t="shared" si="62"/>
+        <v>50</v>
+      </c>
+      <c r="J340">
+        <f t="shared" si="63"/>
+        <v>4600</v>
+      </c>
+      <c r="K340" s="10">
+        <v>336</v>
+      </c>
+      <c r="L340" s="10" t="str">
+        <f t="shared" si="64"/>
+        <v>36,50</v>
+      </c>
+      <c r="M340" s="10" t="str">
+        <f t="shared" si="65"/>
+        <v>1600,46</v>
+      </c>
+    </row>
+    <row r="341" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D341" s="10">
+        <v>337</v>
+      </c>
+      <c r="E341" t="str">
+        <f t="shared" si="66"/>
+        <v>귀신 베기</v>
+      </c>
+      <c r="F341">
+        <f t="shared" si="60"/>
+        <v>39</v>
+      </c>
+      <c r="G341">
+        <f t="shared" si="61"/>
+        <v>97000</v>
+      </c>
+      <c r="H341" t="str">
+        <f t="shared" si="67"/>
+        <v>섬광 베기</v>
+      </c>
+      <c r="I341">
+        <f t="shared" si="62"/>
+        <v>47</v>
+      </c>
+      <c r="J341">
+        <f t="shared" si="63"/>
+        <v>15500</v>
+      </c>
+      <c r="K341" s="10">
+        <v>337</v>
+      </c>
+      <c r="L341" s="10" t="str">
+        <f t="shared" si="64"/>
+        <v>39,47</v>
+      </c>
+      <c r="M341" s="10" t="str">
+        <f t="shared" si="65"/>
+        <v>970,155</v>
+      </c>
+    </row>
+    <row r="342" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D342" s="10">
+        <v>338</v>
+      </c>
+      <c r="E342" t="str">
+        <f t="shared" si="66"/>
+        <v>금강 베기</v>
+      </c>
+      <c r="F342">
+        <f t="shared" si="60"/>
+        <v>43</v>
+      </c>
+      <c r="G342">
+        <f t="shared" si="61"/>
+        <v>34000</v>
+      </c>
+      <c r="H342" t="str">
+        <f t="shared" si="67"/>
+        <v>태극 베기</v>
+      </c>
+      <c r="I342">
+        <f t="shared" si="62"/>
+        <v>55</v>
+      </c>
+      <c r="J342">
+        <f t="shared" si="63"/>
+        <v>63</v>
+      </c>
+      <c r="K342" s="10">
+        <v>338</v>
+      </c>
+      <c r="L342" s="10" t="str">
+        <f t="shared" si="64"/>
+        <v>43,55</v>
+      </c>
+      <c r="M342" s="10" t="str">
+        <f t="shared" si="65"/>
+        <v>340,0.63</v>
+      </c>
+    </row>
+    <row r="343" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D343" s="10">
+        <v>339</v>
+      </c>
+      <c r="E343" t="str">
+        <f t="shared" si="66"/>
+        <v>귀살 베기</v>
+      </c>
+      <c r="F343">
+        <f t="shared" si="60"/>
+        <v>60</v>
+      </c>
+      <c r="G343">
+        <f t="shared" si="61"/>
+        <v>108</v>
+      </c>
+      <c r="H343" t="str">
+        <f t="shared" si="67"/>
+        <v>흉수 베기</v>
+      </c>
+      <c r="I343">
+        <f t="shared" si="62"/>
+        <v>46</v>
+      </c>
+      <c r="J343">
+        <f t="shared" si="63"/>
+        <v>1550</v>
+      </c>
+      <c r="K343" s="10">
+        <v>339</v>
+      </c>
+      <c r="L343" s="10" t="str">
+        <f t="shared" si="64"/>
+        <v>60,46</v>
+      </c>
+      <c r="M343" s="10" t="str">
+        <f t="shared" si="65"/>
+        <v>1.08,15.5</v>
+      </c>
+    </row>
+    <row r="344" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D344" s="10">
+        <v>340</v>
+      </c>
+      <c r="E344" t="str">
+        <f t="shared" si="66"/>
+        <v>지옥 베기</v>
+      </c>
+      <c r="F344">
+        <f t="shared" si="60"/>
+        <v>35</v>
+      </c>
+      <c r="G344">
+        <f t="shared" si="61"/>
+        <v>315000</v>
+      </c>
+      <c r="H344" t="str">
+        <f t="shared" si="67"/>
+        <v>신선 베기</v>
+      </c>
+      <c r="I344">
+        <f t="shared" si="62"/>
+        <v>54</v>
+      </c>
+      <c r="J344">
+        <f t="shared" si="63"/>
+        <v>440</v>
+      </c>
+      <c r="K344" s="10">
+        <v>340</v>
+      </c>
+      <c r="L344" s="10" t="str">
+        <f t="shared" si="64"/>
+        <v>35,54</v>
+      </c>
+      <c r="M344" s="10" t="str">
+        <f t="shared" si="65"/>
+        <v>3150,4.4</v>
+      </c>
+    </row>
+    <row r="345" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D345" s="10">
+        <v>341</v>
+      </c>
+      <c r="E345" t="str">
+        <f t="shared" si="66"/>
+        <v>천상 베기</v>
+      </c>
+      <c r="F345">
+        <f t="shared" si="60"/>
+        <v>36</v>
+      </c>
+      <c r="G345">
+        <f t="shared" si="61"/>
+        <v>162500</v>
+      </c>
+      <c r="H345" t="str">
+        <f t="shared" si="67"/>
+        <v>심연 베기</v>
+      </c>
+      <c r="I345">
+        <f t="shared" si="62"/>
+        <v>50</v>
+      </c>
+      <c r="J345">
+        <f t="shared" si="63"/>
+        <v>4675</v>
+      </c>
+      <c r="K345" s="10">
+        <v>341</v>
+      </c>
+      <c r="L345" s="10" t="str">
+        <f t="shared" si="64"/>
+        <v>36,50</v>
+      </c>
+      <c r="M345" s="10" t="str">
+        <f t="shared" si="65"/>
+        <v>1625,46.75</v>
+      </c>
+    </row>
+    <row r="346" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D346" s="10">
+        <v>342</v>
+      </c>
+      <c r="E346" t="str">
+        <f t="shared" si="66"/>
+        <v>귀신 베기</v>
+      </c>
+      <c r="F346">
+        <f t="shared" si="60"/>
+        <v>39</v>
+      </c>
+      <c r="G346">
+        <f t="shared" si="61"/>
+        <v>98500</v>
+      </c>
+      <c r="H346" t="str">
+        <f t="shared" si="67"/>
+        <v>섬광 베기</v>
+      </c>
+      <c r="I346">
+        <f t="shared" si="62"/>
+        <v>47</v>
+      </c>
+      <c r="J346">
+        <f t="shared" si="63"/>
+        <v>15750</v>
+      </c>
+      <c r="K346" s="10">
+        <v>342</v>
+      </c>
+      <c r="L346" s="10" t="str">
+        <f t="shared" si="64"/>
+        <v>39,47</v>
+      </c>
+      <c r="M346" s="10" t="str">
+        <f t="shared" si="65"/>
+        <v>985,157.5</v>
+      </c>
+    </row>
+    <row r="347" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D347" s="10">
+        <v>343</v>
+      </c>
+      <c r="E347" t="str">
+        <f t="shared" si="66"/>
+        <v>금강 베기</v>
+      </c>
+      <c r="F347">
+        <f t="shared" si="60"/>
+        <v>43</v>
+      </c>
+      <c r="G347">
+        <f t="shared" si="61"/>
+        <v>34500</v>
+      </c>
+      <c r="H347" t="str">
+        <f t="shared" si="67"/>
+        <v>태극 베기</v>
+      </c>
+      <c r="I347">
+        <f t="shared" si="62"/>
+        <v>55</v>
+      </c>
+      <c r="J347">
+        <f t="shared" si="63"/>
+        <v>64</v>
+      </c>
+      <c r="K347" s="10">
+        <v>343</v>
+      </c>
+      <c r="L347" s="10" t="str">
+        <f t="shared" si="64"/>
+        <v>43,55</v>
+      </c>
+      <c r="M347" s="10" t="str">
+        <f t="shared" si="65"/>
+        <v>345,0.64</v>
+      </c>
+    </row>
+    <row r="348" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D348" s="10">
+        <v>344</v>
+      </c>
+      <c r="E348" t="str">
+        <f t="shared" si="66"/>
+        <v>귀살 베기</v>
+      </c>
+      <c r="F348">
+        <f t="shared" si="60"/>
+        <v>60</v>
+      </c>
+      <c r="G348">
+        <f t="shared" si="61"/>
+        <v>109</v>
+      </c>
+      <c r="H348" t="str">
+        <f t="shared" si="67"/>
+        <v>천구 베기</v>
+      </c>
+      <c r="I348">
+        <f t="shared" si="62"/>
+        <v>61</v>
+      </c>
+      <c r="J348">
+        <f t="shared" si="63"/>
+        <v>62.5</v>
+      </c>
+      <c r="K348" s="10">
+        <v>344</v>
+      </c>
+      <c r="L348" s="10" t="str">
+        <f t="shared" si="64"/>
+        <v>60,61</v>
+      </c>
+      <c r="M348" s="10" t="str">
+        <f t="shared" si="65"/>
+        <v>1.09,0.625</v>
+      </c>
+    </row>
+    <row r="349" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D349" s="9">
+        <v>345</v>
+      </c>
+      <c r="E349" t="str">
+        <f t="shared" si="66"/>
+        <v>지옥 베기</v>
+      </c>
+      <c r="F349">
+        <f t="shared" si="60"/>
+        <v>35</v>
+      </c>
+      <c r="G349">
+        <f t="shared" si="61"/>
+        <v>320000</v>
+      </c>
+      <c r="H349" t="str">
+        <f t="shared" si="67"/>
+        <v>신선 베기</v>
+      </c>
+      <c r="I349">
+        <f t="shared" si="62"/>
+        <v>54</v>
+      </c>
+      <c r="J349">
+        <f t="shared" si="63"/>
+        <v>445</v>
+      </c>
+      <c r="K349" s="10">
+        <v>345</v>
+      </c>
+      <c r="L349" s="10" t="str">
+        <f t="shared" si="64"/>
+        <v>35,54</v>
+      </c>
+      <c r="M349" s="10" t="str">
+        <f t="shared" si="65"/>
+        <v>3200,4.45</v>
+      </c>
+    </row>
+    <row r="350" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D350" s="10">
+        <v>346</v>
+      </c>
+      <c r="E350" t="str">
+        <f t="shared" si="66"/>
+        <v>천상 베기</v>
+      </c>
+      <c r="F350">
+        <f t="shared" si="60"/>
+        <v>36</v>
+      </c>
+      <c r="G350">
+        <f t="shared" si="61"/>
+        <v>165000</v>
+      </c>
+      <c r="H350" t="str">
+        <f t="shared" si="67"/>
+        <v>심연 베기</v>
+      </c>
+      <c r="I350">
+        <f t="shared" si="62"/>
+        <v>50</v>
+      </c>
+      <c r="J350">
+        <f t="shared" si="63"/>
+        <v>4750</v>
+      </c>
+      <c r="K350" s="10">
+        <v>346</v>
+      </c>
+      <c r="L350" s="10" t="str">
+        <f t="shared" si="64"/>
+        <v>36,50</v>
+      </c>
+      <c r="M350" s="10" t="str">
+        <f t="shared" si="65"/>
+        <v>1650,47.5</v>
+      </c>
+    </row>
+    <row r="351" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D351" s="10">
+        <v>347</v>
+      </c>
+      <c r="E351" t="str">
+        <f t="shared" si="66"/>
+        <v>귀신 베기</v>
+      </c>
+      <c r="F351">
+        <f t="shared" si="60"/>
+        <v>39</v>
+      </c>
+      <c r="G351">
+        <f t="shared" si="61"/>
+        <v>100000</v>
+      </c>
+      <c r="H351" t="str">
+        <f t="shared" si="67"/>
+        <v>섬광 베기</v>
+      </c>
+      <c r="I351">
+        <f t="shared" si="62"/>
+        <v>47</v>
+      </c>
+      <c r="J351">
+        <f t="shared" si="63"/>
+        <v>16000</v>
+      </c>
+      <c r="K351" s="10">
+        <v>347</v>
+      </c>
+      <c r="L351" s="10" t="str">
+        <f t="shared" si="64"/>
+        <v>39,47</v>
+      </c>
+      <c r="M351" s="10" t="str">
+        <f t="shared" si="65"/>
+        <v>1000,160</v>
+      </c>
+    </row>
+    <row r="352" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D352" s="10">
+        <v>348</v>
+      </c>
+      <c r="E352" t="str">
+        <f t="shared" si="66"/>
+        <v>금강 베기</v>
+      </c>
+      <c r="F352">
+        <f t="shared" ref="F352:F354" si="68">VLOOKUP(E352,$Q:$R,2,FALSE)</f>
+        <v>43</v>
+      </c>
+      <c r="G352">
+        <f t="shared" ref="G352:G354" si="69">G347+VLOOKUP(E352,$Q$20:$R$31,2,FALSE)</f>
+        <v>35000</v>
+      </c>
+      <c r="H352" t="str">
+        <f t="shared" si="67"/>
+        <v>태극 베기</v>
+      </c>
+      <c r="I352">
+        <f t="shared" ref="I352:I354" si="70">VLOOKUP(H352,$Q:$R,2,FALSE)</f>
+        <v>55</v>
+      </c>
+      <c r="J352">
+        <f t="shared" ref="J352:J354" si="71">IF(I352=42,J337+$R$23,IF(I352=46,J337+$R$24,IF(I352=61,J337+$R$30,J347+VLOOKUP(H352,$Q$20:$R$31,2,FALSE))))</f>
+        <v>65</v>
+      </c>
+      <c r="K352" s="10">
+        <v>348</v>
+      </c>
+      <c r="L352" s="10" t="str">
+        <f t="shared" ref="L352:L354" si="72">IF(H352=0,F352&amp;",-1",F352&amp;","&amp;I352)</f>
+        <v>43,55</v>
+      </c>
+      <c r="M352" s="10" t="str">
+        <f t="shared" ref="M352:M354" si="73">IF(H352=0,G352/100&amp;","&amp;0,G352/100&amp;","&amp;J352/100)</f>
+        <v>350,0.65</v>
+      </c>
+    </row>
+    <row r="353" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D353" s="10">
+        <v>349</v>
+      </c>
+      <c r="E353" t="str">
+        <f t="shared" si="66"/>
+        <v>귀살 베기</v>
+      </c>
+      <c r="F353">
+        <f t="shared" si="68"/>
+        <v>60</v>
+      </c>
+      <c r="G353">
+        <f t="shared" si="69"/>
+        <v>110</v>
+      </c>
+      <c r="H353" t="str">
+        <f t="shared" si="67"/>
+        <v>신수 베기</v>
+      </c>
+      <c r="I353">
+        <f t="shared" si="70"/>
+        <v>42</v>
+      </c>
+      <c r="J353">
+        <f t="shared" si="71"/>
+        <v>16000</v>
+      </c>
+      <c r="K353" s="10">
+        <v>349</v>
+      </c>
+      <c r="L353" s="10" t="str">
+        <f t="shared" si="72"/>
+        <v>60,42</v>
+      </c>
+      <c r="M353" s="10" t="str">
+        <f t="shared" si="73"/>
+        <v>1.1,160</v>
+      </c>
+    </row>
+    <row r="354" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D354" s="10">
+        <v>350</v>
+      </c>
+      <c r="E354" t="str">
+        <f t="shared" si="66"/>
+        <v>지옥 베기</v>
+      </c>
+      <c r="F354">
+        <f t="shared" si="68"/>
+        <v>35</v>
+      </c>
+      <c r="G354">
+        <f t="shared" si="69"/>
+        <v>325000</v>
+      </c>
+      <c r="H354" t="str">
+        <f t="shared" si="67"/>
+        <v>신선 베기</v>
+      </c>
+      <c r="I354">
+        <f t="shared" si="70"/>
+        <v>54</v>
+      </c>
+      <c r="J354">
+        <f t="shared" si="71"/>
+        <v>450</v>
+      </c>
+      <c r="K354" s="10">
+        <v>350</v>
+      </c>
+      <c r="L354" s="10" t="str">
+        <f t="shared" si="72"/>
+        <v>35,54</v>
+      </c>
+      <c r="M354" s="10" t="str">
+        <f t="shared" si="73"/>
+        <v>3250,4.5</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/Meditation.xlsx
+++ b/Assets/06.Table/Meditation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E876B14E-7B25-4BE3-A63D-1E89DF92D66A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31007FEA-4EA9-45EB-A848-90B4CFDEE707}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -1852,11 +1852,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:D352"/>
+  <dimension ref="A1:D401"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A328" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C341" sqref="C341"/>
+      <pane ySplit="1" topLeftCell="A376" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C396" sqref="C396"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7848,9 +7848,842 @@
         <v>6328</v>
       </c>
     </row>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A353">
+        <v>351</v>
+      </c>
+      <c r="B353" s="18" t="str">
+        <f>VLOOKUP(A353,AbilBalance!D:M,9,FALSE)</f>
+        <v>36,50</v>
+      </c>
+      <c r="C353" s="19" t="str">
+        <f>VLOOKUP(A353,AbilBalance!D:M,10,FALSE)</f>
+        <v>1675,48.25</v>
+      </c>
+      <c r="D353">
+        <f>ROUNDUP(VLOOKUP(A353,LevelBalance!L:M,2,FALSE)/(24*60),0)</f>
+        <v>6391</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A354">
+        <v>352</v>
+      </c>
+      <c r="B354" s="18" t="str">
+        <f>VLOOKUP(A354,AbilBalance!D:M,9,FALSE)</f>
+        <v>39,47</v>
+      </c>
+      <c r="C354" s="19" t="str">
+        <f>VLOOKUP(A354,AbilBalance!D:M,10,FALSE)</f>
+        <v>1015,162.5</v>
+      </c>
+      <c r="D354">
+        <f>ROUNDUP(VLOOKUP(A354,LevelBalance!L:M,2,FALSE)/(24*60),0)</f>
+        <v>6456</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A355">
+        <v>353</v>
+      </c>
+      <c r="B355" s="18" t="str">
+        <f>VLOOKUP(A355,AbilBalance!D:M,9,FALSE)</f>
+        <v>43,55</v>
+      </c>
+      <c r="C355" s="19" t="str">
+        <f>VLOOKUP(A355,AbilBalance!D:M,10,FALSE)</f>
+        <v>355,0.66</v>
+      </c>
+      <c r="D355">
+        <f>ROUNDUP(VLOOKUP(A355,LevelBalance!L:M,2,FALSE)/(24*60),0)</f>
+        <v>6520</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A356">
+        <v>354</v>
+      </c>
+      <c r="B356" s="18" t="str">
+        <f>VLOOKUP(A356,AbilBalance!D:M,9,FALSE)</f>
+        <v>60,46</v>
+      </c>
+      <c r="C356" s="19" t="str">
+        <f>VLOOKUP(A356,AbilBalance!D:M,10,FALSE)</f>
+        <v>1.11,16</v>
+      </c>
+      <c r="D356">
+        <f>ROUNDUP(VLOOKUP(A356,LevelBalance!L:M,2,FALSE)/(24*60),0)</f>
+        <v>6586</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A357">
+        <v>355</v>
+      </c>
+      <c r="B357" s="18" t="str">
+        <f>VLOOKUP(A357,AbilBalance!D:M,9,FALSE)</f>
+        <v>35,54</v>
+      </c>
+      <c r="C357" s="19" t="str">
+        <f>VLOOKUP(A357,AbilBalance!D:M,10,FALSE)</f>
+        <v>3300,4.55</v>
+      </c>
+      <c r="D357">
+        <f>ROUNDUP(VLOOKUP(A357,LevelBalance!L:M,2,FALSE)/(24*60),0)</f>
+        <v>6652</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A358">
+        <v>356</v>
+      </c>
+      <c r="B358" s="18" t="str">
+        <f>VLOOKUP(A358,AbilBalance!D:M,9,FALSE)</f>
+        <v>36,50</v>
+      </c>
+      <c r="C358" s="19" t="str">
+        <f>VLOOKUP(A358,AbilBalance!D:M,10,FALSE)</f>
+        <v>1700,49</v>
+      </c>
+      <c r="D358">
+        <f>ROUNDUP(VLOOKUP(A358,LevelBalance!L:M,2,FALSE)/(24*60),0)</f>
+        <v>6719</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A359">
+        <v>357</v>
+      </c>
+      <c r="B359" s="18" t="str">
+        <f>VLOOKUP(A359,AbilBalance!D:M,9,FALSE)</f>
+        <v>39,47</v>
+      </c>
+      <c r="C359" s="19" t="str">
+        <f>VLOOKUP(A359,AbilBalance!D:M,10,FALSE)</f>
+        <v>1030,165</v>
+      </c>
+      <c r="D359">
+        <f>ROUNDUP(VLOOKUP(A359,LevelBalance!L:M,2,FALSE)/(24*60),0)</f>
+        <v>6787</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A360">
+        <v>358</v>
+      </c>
+      <c r="B360" s="18" t="str">
+        <f>VLOOKUP(A360,AbilBalance!D:M,9,FALSE)</f>
+        <v>43,55</v>
+      </c>
+      <c r="C360" s="19" t="str">
+        <f>VLOOKUP(A360,AbilBalance!D:M,10,FALSE)</f>
+        <v>360,0.67</v>
+      </c>
+      <c r="D360">
+        <f>ROUNDUP(VLOOKUP(A360,LevelBalance!L:M,2,FALSE)/(24*60),0)</f>
+        <v>6855</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A361">
+        <v>359</v>
+      </c>
+      <c r="B361" s="18" t="str">
+        <f>VLOOKUP(A361,AbilBalance!D:M,9,FALSE)</f>
+        <v>60,61</v>
+      </c>
+      <c r="C361" s="19" t="str">
+        <f>VLOOKUP(A361,AbilBalance!D:M,10,FALSE)</f>
+        <v>1.12,0.65</v>
+      </c>
+      <c r="D361">
+        <f>ROUNDUP(VLOOKUP(A361,LevelBalance!L:M,2,FALSE)/(24*60),0)</f>
+        <v>6924</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A362">
+        <v>360</v>
+      </c>
+      <c r="B362" s="18" t="str">
+        <f>VLOOKUP(A362,AbilBalance!D:M,9,FALSE)</f>
+        <v>35,54</v>
+      </c>
+      <c r="C362" s="19" t="str">
+        <f>VLOOKUP(A362,AbilBalance!D:M,10,FALSE)</f>
+        <v>3350,4.6</v>
+      </c>
+      <c r="D362">
+        <f>ROUNDUP(VLOOKUP(A362,LevelBalance!L:M,2,FALSE)/(24*60),0)</f>
+        <v>6994</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A363">
+        <v>361</v>
+      </c>
+      <c r="B363" s="18" t="str">
+        <f>VLOOKUP(A363,AbilBalance!D:M,9,FALSE)</f>
+        <v>36,50</v>
+      </c>
+      <c r="C363" s="19" t="str">
+        <f>VLOOKUP(A363,AbilBalance!D:M,10,FALSE)</f>
+        <v>1725,49.75</v>
+      </c>
+      <c r="D363">
+        <f>ROUNDUP(VLOOKUP(A363,LevelBalance!L:M,2,FALSE)/(24*60),0)</f>
+        <v>7064</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A364">
+        <v>362</v>
+      </c>
+      <c r="B364" s="18" t="str">
+        <f>VLOOKUP(A364,AbilBalance!D:M,9,FALSE)</f>
+        <v>39,47</v>
+      </c>
+      <c r="C364" s="19" t="str">
+        <f>VLOOKUP(A364,AbilBalance!D:M,10,FALSE)</f>
+        <v>1045,167.5</v>
+      </c>
+      <c r="D364">
+        <f>ROUNDUP(VLOOKUP(A364,LevelBalance!L:M,2,FALSE)/(24*60),0)</f>
+        <v>7135</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A365">
+        <v>363</v>
+      </c>
+      <c r="B365" s="18" t="str">
+        <f>VLOOKUP(A365,AbilBalance!D:M,9,FALSE)</f>
+        <v>43,55</v>
+      </c>
+      <c r="C365" s="19" t="str">
+        <f>VLOOKUP(A365,AbilBalance!D:M,10,FALSE)</f>
+        <v>365,0.68</v>
+      </c>
+      <c r="D365">
+        <f>ROUNDUP(VLOOKUP(A365,LevelBalance!L:M,2,FALSE)/(24*60),0)</f>
+        <v>7207</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A366">
+        <v>364</v>
+      </c>
+      <c r="B366" s="18" t="str">
+        <f>VLOOKUP(A366,AbilBalance!D:M,9,FALSE)</f>
+        <v>60,42</v>
+      </c>
+      <c r="C366" s="19" t="str">
+        <f>VLOOKUP(A366,AbilBalance!D:M,10,FALSE)</f>
+        <v>1.13,165</v>
+      </c>
+      <c r="D366">
+        <f>ROUNDUP(VLOOKUP(A366,LevelBalance!L:M,2,FALSE)/(24*60),0)</f>
+        <v>7279</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A367">
+        <v>365</v>
+      </c>
+      <c r="B367" s="18" t="str">
+        <f>VLOOKUP(A367,AbilBalance!D:M,9,FALSE)</f>
+        <v>35,54</v>
+      </c>
+      <c r="C367" s="19" t="str">
+        <f>VLOOKUP(A367,AbilBalance!D:M,10,FALSE)</f>
+        <v>3400,4.65</v>
+      </c>
+      <c r="D367">
+        <f>ROUNDUP(VLOOKUP(A367,LevelBalance!L:M,2,FALSE)/(24*60),0)</f>
+        <v>7352</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A368">
+        <v>366</v>
+      </c>
+      <c r="B368" s="18" t="str">
+        <f>VLOOKUP(A368,AbilBalance!D:M,9,FALSE)</f>
+        <v>36,50</v>
+      </c>
+      <c r="C368" s="19" t="str">
+        <f>VLOOKUP(A368,AbilBalance!D:M,10,FALSE)</f>
+        <v>1750,50.5</v>
+      </c>
+      <c r="D368">
+        <f>ROUNDUP(VLOOKUP(A368,LevelBalance!L:M,2,FALSE)/(24*60),0)</f>
+        <v>7426</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A369">
+        <v>367</v>
+      </c>
+      <c r="B369" s="18" t="str">
+        <f>VLOOKUP(A369,AbilBalance!D:M,9,FALSE)</f>
+        <v>39,47</v>
+      </c>
+      <c r="C369" s="19" t="str">
+        <f>VLOOKUP(A369,AbilBalance!D:M,10,FALSE)</f>
+        <v>1060,170</v>
+      </c>
+      <c r="D369">
+        <f>ROUNDUP(VLOOKUP(A369,LevelBalance!L:M,2,FALSE)/(24*60),0)</f>
+        <v>7501</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A370">
+        <v>368</v>
+      </c>
+      <c r="B370" s="18" t="str">
+        <f>VLOOKUP(A370,AbilBalance!D:M,9,FALSE)</f>
+        <v>43,55</v>
+      </c>
+      <c r="C370" s="19" t="str">
+        <f>VLOOKUP(A370,AbilBalance!D:M,10,FALSE)</f>
+        <v>370,0.69</v>
+      </c>
+      <c r="D370">
+        <f>ROUNDUP(VLOOKUP(A370,LevelBalance!L:M,2,FALSE)/(24*60),0)</f>
+        <v>7576</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A371">
+        <v>369</v>
+      </c>
+      <c r="B371" s="18" t="str">
+        <f>VLOOKUP(A371,AbilBalance!D:M,9,FALSE)</f>
+        <v>60,46</v>
+      </c>
+      <c r="C371" s="19" t="str">
+        <f>VLOOKUP(A371,AbilBalance!D:M,10,FALSE)</f>
+        <v>1.14,16.5</v>
+      </c>
+      <c r="D371">
+        <f>ROUNDUP(VLOOKUP(A371,LevelBalance!L:M,2,FALSE)/(24*60),0)</f>
+        <v>7652</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A372">
+        <v>370</v>
+      </c>
+      <c r="B372" s="18" t="str">
+        <f>VLOOKUP(A372,AbilBalance!D:M,9,FALSE)</f>
+        <v>35,54</v>
+      </c>
+      <c r="C372" s="19" t="str">
+        <f>VLOOKUP(A372,AbilBalance!D:M,10,FALSE)</f>
+        <v>3450,4.7</v>
+      </c>
+      <c r="D372">
+        <f>ROUNDUP(VLOOKUP(A372,LevelBalance!L:M,2,FALSE)/(24*60),0)</f>
+        <v>7729</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A373">
+        <v>371</v>
+      </c>
+      <c r="B373" s="18" t="str">
+        <f>VLOOKUP(A373,AbilBalance!D:M,9,FALSE)</f>
+        <v>36,50</v>
+      </c>
+      <c r="C373" s="19" t="str">
+        <f>VLOOKUP(A373,AbilBalance!D:M,10,FALSE)</f>
+        <v>1775,51.25</v>
+      </c>
+      <c r="D373">
+        <f>ROUNDUP(VLOOKUP(A373,LevelBalance!L:M,2,FALSE)/(24*60),0)</f>
+        <v>7807</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A374">
+        <v>372</v>
+      </c>
+      <c r="B374" s="18" t="str">
+        <f>VLOOKUP(A374,AbilBalance!D:M,9,FALSE)</f>
+        <v>39,47</v>
+      </c>
+      <c r="C374" s="19" t="str">
+        <f>VLOOKUP(A374,AbilBalance!D:M,10,FALSE)</f>
+        <v>1075,172.5</v>
+      </c>
+      <c r="D374">
+        <f>ROUNDUP(VLOOKUP(A374,LevelBalance!L:M,2,FALSE)/(24*60),0)</f>
+        <v>7885</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A375">
+        <v>373</v>
+      </c>
+      <c r="B375" s="18" t="str">
+        <f>VLOOKUP(A375,AbilBalance!D:M,9,FALSE)</f>
+        <v>43,55</v>
+      </c>
+      <c r="C375" s="19" t="str">
+        <f>VLOOKUP(A375,AbilBalance!D:M,10,FALSE)</f>
+        <v>375,0.7</v>
+      </c>
+      <c r="D375">
+        <f>ROUNDUP(VLOOKUP(A375,LevelBalance!L:M,2,FALSE)/(24*60),0)</f>
+        <v>7965</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A376">
+        <v>374</v>
+      </c>
+      <c r="B376" s="18" t="str">
+        <f>VLOOKUP(A376,AbilBalance!D:M,9,FALSE)</f>
+        <v>60,61</v>
+      </c>
+      <c r="C376" s="19" t="str">
+        <f>VLOOKUP(A376,AbilBalance!D:M,10,FALSE)</f>
+        <v>1.15,0.675</v>
+      </c>
+      <c r="D376">
+        <f>ROUNDUP(VLOOKUP(A376,LevelBalance!L:M,2,FALSE)/(24*60),0)</f>
+        <v>8045</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A377">
+        <v>375</v>
+      </c>
+      <c r="B377" s="18" t="str">
+        <f>VLOOKUP(A377,AbilBalance!D:M,9,FALSE)</f>
+        <v>35,54</v>
+      </c>
+      <c r="C377" s="19" t="str">
+        <f>VLOOKUP(A377,AbilBalance!D:M,10,FALSE)</f>
+        <v>3500,4.75</v>
+      </c>
+      <c r="D377">
+        <f>ROUNDUP(VLOOKUP(A377,LevelBalance!L:M,2,FALSE)/(24*60),0)</f>
+        <v>8125</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A378">
+        <v>376</v>
+      </c>
+      <c r="B378" s="18" t="str">
+        <f>VLOOKUP(A378,AbilBalance!D:M,9,FALSE)</f>
+        <v>36,50</v>
+      </c>
+      <c r="C378" s="19" t="str">
+        <f>VLOOKUP(A378,AbilBalance!D:M,10,FALSE)</f>
+        <v>1800,52</v>
+      </c>
+      <c r="D378">
+        <f>ROUNDUP(VLOOKUP(A378,LevelBalance!L:M,2,FALSE)/(24*60),0)</f>
+        <v>8207</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A379">
+        <v>377</v>
+      </c>
+      <c r="B379" s="18" t="str">
+        <f>VLOOKUP(A379,AbilBalance!D:M,9,FALSE)</f>
+        <v>39,47</v>
+      </c>
+      <c r="C379" s="19" t="str">
+        <f>VLOOKUP(A379,AbilBalance!D:M,10,FALSE)</f>
+        <v>1090,175</v>
+      </c>
+      <c r="D379">
+        <f>ROUNDUP(VLOOKUP(A379,LevelBalance!L:M,2,FALSE)/(24*60),0)</f>
+        <v>8290</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A380">
+        <v>378</v>
+      </c>
+      <c r="B380" s="18" t="str">
+        <f>VLOOKUP(A380,AbilBalance!D:M,9,FALSE)</f>
+        <v>43,55</v>
+      </c>
+      <c r="C380" s="19" t="str">
+        <f>VLOOKUP(A380,AbilBalance!D:M,10,FALSE)</f>
+        <v>380,0.71</v>
+      </c>
+      <c r="D380">
+        <f>ROUNDUP(VLOOKUP(A380,LevelBalance!L:M,2,FALSE)/(24*60),0)</f>
+        <v>8373</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A381">
+        <v>379</v>
+      </c>
+      <c r="B381" s="18" t="str">
+        <f>VLOOKUP(A381,AbilBalance!D:M,9,FALSE)</f>
+        <v>60,42</v>
+      </c>
+      <c r="C381" s="19" t="str">
+        <f>VLOOKUP(A381,AbilBalance!D:M,10,FALSE)</f>
+        <v>1.16,170</v>
+      </c>
+      <c r="D381">
+        <f>ROUNDUP(VLOOKUP(A381,LevelBalance!L:M,2,FALSE)/(24*60),0)</f>
+        <v>8457</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A382">
+        <v>380</v>
+      </c>
+      <c r="B382" s="18" t="str">
+        <f>VLOOKUP(A382,AbilBalance!D:M,9,FALSE)</f>
+        <v>35,54</v>
+      </c>
+      <c r="C382" s="19" t="str">
+        <f>VLOOKUP(A382,AbilBalance!D:M,10,FALSE)</f>
+        <v>3550,4.8</v>
+      </c>
+      <c r="D382">
+        <f>ROUNDUP(VLOOKUP(A382,LevelBalance!L:M,2,FALSE)/(24*60),0)</f>
+        <v>8542</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A383">
+        <v>381</v>
+      </c>
+      <c r="B383" s="18" t="str">
+        <f>VLOOKUP(A383,AbilBalance!D:M,9,FALSE)</f>
+        <v>36,50</v>
+      </c>
+      <c r="C383" s="19" t="str">
+        <f>VLOOKUP(A383,AbilBalance!D:M,10,FALSE)</f>
+        <v>1825,52.75</v>
+      </c>
+      <c r="D383">
+        <f>ROUNDUP(VLOOKUP(A383,LevelBalance!L:M,2,FALSE)/(24*60),0)</f>
+        <v>8628</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A384">
+        <v>382</v>
+      </c>
+      <c r="B384" s="18" t="str">
+        <f>VLOOKUP(A384,AbilBalance!D:M,9,FALSE)</f>
+        <v>39,47</v>
+      </c>
+      <c r="C384" s="19" t="str">
+        <f>VLOOKUP(A384,AbilBalance!D:M,10,FALSE)</f>
+        <v>1105,177.5</v>
+      </c>
+      <c r="D384">
+        <f>ROUNDUP(VLOOKUP(A384,LevelBalance!L:M,2,FALSE)/(24*60),0)</f>
+        <v>8714</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A385">
+        <v>383</v>
+      </c>
+      <c r="B385" s="18" t="str">
+        <f>VLOOKUP(A385,AbilBalance!D:M,9,FALSE)</f>
+        <v>43,55</v>
+      </c>
+      <c r="C385" s="19" t="str">
+        <f>VLOOKUP(A385,AbilBalance!D:M,10,FALSE)</f>
+        <v>385,0.72</v>
+      </c>
+      <c r="D385">
+        <f>ROUNDUP(VLOOKUP(A385,LevelBalance!L:M,2,FALSE)/(24*60),0)</f>
+        <v>8802</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A386">
+        <v>384</v>
+      </c>
+      <c r="B386" s="18" t="str">
+        <f>VLOOKUP(A386,AbilBalance!D:M,9,FALSE)</f>
+        <v>60,46</v>
+      </c>
+      <c r="C386" s="19" t="str">
+        <f>VLOOKUP(A386,AbilBalance!D:M,10,FALSE)</f>
+        <v>1.17,17</v>
+      </c>
+      <c r="D386">
+        <f>ROUNDUP(VLOOKUP(A386,LevelBalance!L:M,2,FALSE)/(24*60),0)</f>
+        <v>8890</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A387">
+        <v>385</v>
+      </c>
+      <c r="B387" s="18" t="str">
+        <f>VLOOKUP(A387,AbilBalance!D:M,9,FALSE)</f>
+        <v>35,54</v>
+      </c>
+      <c r="C387" s="19" t="str">
+        <f>VLOOKUP(A387,AbilBalance!D:M,10,FALSE)</f>
+        <v>3600,4.85</v>
+      </c>
+      <c r="D387">
+        <f>ROUNDUP(VLOOKUP(A387,LevelBalance!L:M,2,FALSE)/(24*60),0)</f>
+        <v>8980</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A388">
+        <v>386</v>
+      </c>
+      <c r="B388" s="18" t="str">
+        <f>VLOOKUP(A388,AbilBalance!D:M,9,FALSE)</f>
+        <v>36,50</v>
+      </c>
+      <c r="C388" s="19" t="str">
+        <f>VLOOKUP(A388,AbilBalance!D:M,10,FALSE)</f>
+        <v>1850,53.5</v>
+      </c>
+      <c r="D388">
+        <f>ROUNDUP(VLOOKUP(A388,LevelBalance!L:M,2,FALSE)/(24*60),0)</f>
+        <v>9070</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A389">
+        <v>387</v>
+      </c>
+      <c r="B389" s="18" t="str">
+        <f>VLOOKUP(A389,AbilBalance!D:M,9,FALSE)</f>
+        <v>39,47</v>
+      </c>
+      <c r="C389" s="19" t="str">
+        <f>VLOOKUP(A389,AbilBalance!D:M,10,FALSE)</f>
+        <v>1120,180</v>
+      </c>
+      <c r="D389">
+        <f>ROUNDUP(VLOOKUP(A389,LevelBalance!L:M,2,FALSE)/(24*60),0)</f>
+        <v>9161</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A390">
+        <v>388</v>
+      </c>
+      <c r="B390" s="18" t="str">
+        <f>VLOOKUP(A390,AbilBalance!D:M,9,FALSE)</f>
+        <v>43,55</v>
+      </c>
+      <c r="C390" s="19" t="str">
+        <f>VLOOKUP(A390,AbilBalance!D:M,10,FALSE)</f>
+        <v>390,0.73</v>
+      </c>
+      <c r="D390">
+        <f>ROUNDUP(VLOOKUP(A390,LevelBalance!L:M,2,FALSE)/(24*60),0)</f>
+        <v>9253</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A391">
+        <v>389</v>
+      </c>
+      <c r="B391" s="18" t="str">
+        <f>VLOOKUP(A391,AbilBalance!D:M,9,FALSE)</f>
+        <v>60,61</v>
+      </c>
+      <c r="C391" s="19" t="str">
+        <f>VLOOKUP(A391,AbilBalance!D:M,10,FALSE)</f>
+        <v>1.18,0.7</v>
+      </c>
+      <c r="D391">
+        <f>ROUNDUP(VLOOKUP(A391,LevelBalance!L:M,2,FALSE)/(24*60),0)</f>
+        <v>9346</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A392">
+        <v>390</v>
+      </c>
+      <c r="B392" s="18" t="str">
+        <f>VLOOKUP(A392,AbilBalance!D:M,9,FALSE)</f>
+        <v>35,54</v>
+      </c>
+      <c r="C392" s="19" t="str">
+        <f>VLOOKUP(A392,AbilBalance!D:M,10,FALSE)</f>
+        <v>3650,4.9</v>
+      </c>
+      <c r="D392">
+        <f>ROUNDUP(VLOOKUP(A392,LevelBalance!L:M,2,FALSE)/(24*60),0)</f>
+        <v>9440</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A393">
+        <v>391</v>
+      </c>
+      <c r="B393" s="18" t="str">
+        <f>VLOOKUP(A393,AbilBalance!D:M,9,FALSE)</f>
+        <v>36,50</v>
+      </c>
+      <c r="C393" s="19" t="str">
+        <f>VLOOKUP(A393,AbilBalance!D:M,10,FALSE)</f>
+        <v>1875,54.25</v>
+      </c>
+      <c r="D393">
+        <f>ROUNDUP(VLOOKUP(A393,LevelBalance!L:M,2,FALSE)/(24*60),0)</f>
+        <v>9534</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A394">
+        <v>392</v>
+      </c>
+      <c r="B394" s="18" t="str">
+        <f>VLOOKUP(A394,AbilBalance!D:M,9,FALSE)</f>
+        <v>39,47</v>
+      </c>
+      <c r="C394" s="19" t="str">
+        <f>VLOOKUP(A394,AbilBalance!D:M,10,FALSE)</f>
+        <v>1135,182.5</v>
+      </c>
+      <c r="D394">
+        <f>ROUNDUP(VLOOKUP(A394,LevelBalance!L:M,2,FALSE)/(24*60),0)</f>
+        <v>9630</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A395">
+        <v>393</v>
+      </c>
+      <c r="B395" s="18" t="str">
+        <f>VLOOKUP(A395,AbilBalance!D:M,9,FALSE)</f>
+        <v>43,55</v>
+      </c>
+      <c r="C395" s="19" t="str">
+        <f>VLOOKUP(A395,AbilBalance!D:M,10,FALSE)</f>
+        <v>395,0.74</v>
+      </c>
+      <c r="D395">
+        <f>ROUNDUP(VLOOKUP(A395,LevelBalance!L:M,2,FALSE)/(24*60),0)</f>
+        <v>9727</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A396">
+        <v>394</v>
+      </c>
+      <c r="B396" s="18" t="str">
+        <f>VLOOKUP(A396,AbilBalance!D:M,9,FALSE)</f>
+        <v>60,42</v>
+      </c>
+      <c r="C396" s="19" t="str">
+        <f>VLOOKUP(A396,AbilBalance!D:M,10,FALSE)</f>
+        <v>1.19,175</v>
+      </c>
+      <c r="D396">
+        <f>ROUNDUP(VLOOKUP(A396,LevelBalance!L:M,2,FALSE)/(24*60),0)</f>
+        <v>9824</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A397">
+        <v>395</v>
+      </c>
+      <c r="B397" s="18" t="str">
+        <f>VLOOKUP(A397,AbilBalance!D:M,9,FALSE)</f>
+        <v>35,54</v>
+      </c>
+      <c r="C397" s="19" t="str">
+        <f>VLOOKUP(A397,AbilBalance!D:M,10,FALSE)</f>
+        <v>3700,4.95</v>
+      </c>
+      <c r="D397">
+        <f>ROUNDUP(VLOOKUP(A397,LevelBalance!L:M,2,FALSE)/(24*60),0)</f>
+        <v>9923</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A398">
+        <v>396</v>
+      </c>
+      <c r="B398" s="18" t="str">
+        <f>VLOOKUP(A398,AbilBalance!D:M,9,FALSE)</f>
+        <v>36,50</v>
+      </c>
+      <c r="C398" s="19" t="str">
+        <f>VLOOKUP(A398,AbilBalance!D:M,10,FALSE)</f>
+        <v>1900,55</v>
+      </c>
+      <c r="D398">
+        <f>ROUNDUP(VLOOKUP(A398,LevelBalance!L:M,2,FALSE)/(24*60),0)</f>
+        <v>10023</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A399">
+        <v>397</v>
+      </c>
+      <c r="B399" s="18" t="str">
+        <f>VLOOKUP(A399,AbilBalance!D:M,9,FALSE)</f>
+        <v>39,47</v>
+      </c>
+      <c r="C399" s="19" t="str">
+        <f>VLOOKUP(A399,AbilBalance!D:M,10,FALSE)</f>
+        <v>1150,185</v>
+      </c>
+      <c r="D399">
+        <f>ROUNDUP(VLOOKUP(A399,LevelBalance!L:M,2,FALSE)/(24*60),0)</f>
+        <v>10123</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A400">
+        <v>398</v>
+      </c>
+      <c r="B400" s="18" t="str">
+        <f>VLOOKUP(A400,AbilBalance!D:M,9,FALSE)</f>
+        <v>43,55</v>
+      </c>
+      <c r="C400" s="19" t="str">
+        <f>VLOOKUP(A400,AbilBalance!D:M,10,FALSE)</f>
+        <v>400,0.75</v>
+      </c>
+      <c r="D400">
+        <f>ROUNDUP(VLOOKUP(A400,LevelBalance!L:M,2,FALSE)/(24*60),0)</f>
+        <v>10225</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A401">
+        <v>399</v>
+      </c>
+      <c r="B401" s="18" t="str">
+        <f>VLOOKUP(A401,AbilBalance!D:M,9,FALSE)</f>
+        <v>60,46</v>
+      </c>
+      <c r="C401" s="19" t="str">
+        <f>VLOOKUP(A401,AbilBalance!D:M,10,FALSE)</f>
+        <v>1.2,17.5</v>
+      </c>
+      <c r="D401">
+        <f>ROUNDUP(VLOOKUP(A401,LevelBalance!L:M,2,FALSE)/(24*60),0)</f>
+        <v>10328</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A2:B352">
+  <conditionalFormatting sqref="A2:B401">
     <cfRule type="expression" dxfId="1" priority="51">
       <formula>#REF!=5</formula>
     </cfRule>
@@ -7862,10 +8695,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B4C63F0-02E4-48AB-8F58-B57B021B5DE4}">
-  <dimension ref="A1:S355"/>
+  <dimension ref="A1:S406"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G64" sqref="G64"/>
+    <sheetView topLeftCell="A374" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L404" sqref="L404"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -16027,6 +16860,810 @@
         <v>855755200</v>
       </c>
     </row>
+    <row r="356" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L356" s="10">
+        <v>351</v>
+      </c>
+      <c r="M356" s="12">
+        <f t="shared" ref="M356:M387" si="20">ROUNDUP((M355+500)*N356,-2)</f>
+        <v>9202700</v>
+      </c>
+      <c r="N356">
+        <v>1.01</v>
+      </c>
+      <c r="O356" s="12">
+        <f>SUM($M$5:M356)</f>
+        <v>864957900</v>
+      </c>
+    </row>
+    <row r="357" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L357" s="10">
+        <v>352</v>
+      </c>
+      <c r="M357" s="12">
+        <f t="shared" si="20"/>
+        <v>9295300</v>
+      </c>
+      <c r="N357">
+        <v>1.01</v>
+      </c>
+      <c r="O357" s="12">
+        <f>SUM($M$5:M357)</f>
+        <v>874253200</v>
+      </c>
+    </row>
+    <row r="358" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L358" s="10">
+        <v>353</v>
+      </c>
+      <c r="M358" s="12">
+        <f t="shared" si="20"/>
+        <v>9388800</v>
+      </c>
+      <c r="N358">
+        <v>1.01</v>
+      </c>
+      <c r="O358" s="12">
+        <f>SUM($M$5:M358)</f>
+        <v>883642000</v>
+      </c>
+    </row>
+    <row r="359" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L359" s="10">
+        <v>354</v>
+      </c>
+      <c r="M359" s="12">
+        <f t="shared" si="20"/>
+        <v>9483200</v>
+      </c>
+      <c r="N359">
+        <v>1.01</v>
+      </c>
+      <c r="O359" s="12">
+        <f>SUM($M$5:M359)</f>
+        <v>893125200</v>
+      </c>
+    </row>
+    <row r="360" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L360" s="10">
+        <v>355</v>
+      </c>
+      <c r="M360" s="12">
+        <f t="shared" si="20"/>
+        <v>9578600</v>
+      </c>
+      <c r="N360">
+        <v>1.01</v>
+      </c>
+      <c r="O360" s="12">
+        <f>SUM($M$5:M360)</f>
+        <v>902703800</v>
+      </c>
+    </row>
+    <row r="361" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L361" s="10">
+        <v>356</v>
+      </c>
+      <c r="M361" s="12">
+        <f t="shared" si="20"/>
+        <v>9674900</v>
+      </c>
+      <c r="N361">
+        <v>1.01</v>
+      </c>
+      <c r="O361" s="12">
+        <f>SUM($M$5:M361)</f>
+        <v>912378700</v>
+      </c>
+    </row>
+    <row r="362" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L362" s="10">
+        <v>357</v>
+      </c>
+      <c r="M362" s="12">
+        <f t="shared" si="20"/>
+        <v>9772200</v>
+      </c>
+      <c r="N362">
+        <v>1.01</v>
+      </c>
+      <c r="O362" s="12">
+        <f>SUM($M$5:M362)</f>
+        <v>922150900</v>
+      </c>
+    </row>
+    <row r="363" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L363" s="10">
+        <v>358</v>
+      </c>
+      <c r="M363" s="12">
+        <f t="shared" si="20"/>
+        <v>9870500</v>
+      </c>
+      <c r="N363">
+        <v>1.01</v>
+      </c>
+      <c r="O363" s="12">
+        <f>SUM($M$5:M363)</f>
+        <v>932021400</v>
+      </c>
+    </row>
+    <row r="364" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L364" s="10">
+        <v>359</v>
+      </c>
+      <c r="M364" s="12">
+        <f t="shared" si="20"/>
+        <v>9969800</v>
+      </c>
+      <c r="N364">
+        <v>1.01</v>
+      </c>
+      <c r="O364" s="12">
+        <f>SUM($M$5:M364)</f>
+        <v>941991200</v>
+      </c>
+    </row>
+    <row r="365" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L365" s="10">
+        <v>360</v>
+      </c>
+      <c r="M365" s="12">
+        <f t="shared" si="20"/>
+        <v>10070100</v>
+      </c>
+      <c r="N365">
+        <v>1.01</v>
+      </c>
+      <c r="O365" s="12">
+        <f>SUM($M$5:M365)</f>
+        <v>952061300</v>
+      </c>
+    </row>
+    <row r="366" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L366" s="10">
+        <v>361</v>
+      </c>
+      <c r="M366" s="12">
+        <f t="shared" si="20"/>
+        <v>10171400</v>
+      </c>
+      <c r="N366">
+        <v>1.01</v>
+      </c>
+      <c r="O366" s="12">
+        <f>SUM($M$5:M366)</f>
+        <v>962232700</v>
+      </c>
+    </row>
+    <row r="367" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L367" s="10">
+        <v>362</v>
+      </c>
+      <c r="M367" s="12">
+        <f t="shared" si="20"/>
+        <v>10273700</v>
+      </c>
+      <c r="N367">
+        <v>1.01</v>
+      </c>
+      <c r="O367" s="12">
+        <f>SUM($M$5:M367)</f>
+        <v>972506400</v>
+      </c>
+    </row>
+    <row r="368" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L368" s="10">
+        <v>363</v>
+      </c>
+      <c r="M368" s="12">
+        <f t="shared" si="20"/>
+        <v>10377000</v>
+      </c>
+      <c r="N368">
+        <v>1.01</v>
+      </c>
+      <c r="O368" s="12">
+        <f>SUM($M$5:M368)</f>
+        <v>982883400</v>
+      </c>
+    </row>
+    <row r="369" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L369" s="10">
+        <v>364</v>
+      </c>
+      <c r="M369" s="12">
+        <f t="shared" si="20"/>
+        <v>10481300</v>
+      </c>
+      <c r="N369">
+        <v>1.01</v>
+      </c>
+      <c r="O369" s="12">
+        <f>SUM($M$5:M369)</f>
+        <v>993364700</v>
+      </c>
+    </row>
+    <row r="370" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L370" s="10">
+        <v>365</v>
+      </c>
+      <c r="M370" s="12">
+        <f t="shared" si="20"/>
+        <v>10586700</v>
+      </c>
+      <c r="N370">
+        <v>1.01</v>
+      </c>
+      <c r="O370" s="12">
+        <f>SUM($M$5:M370)</f>
+        <v>1003951400</v>
+      </c>
+    </row>
+    <row r="371" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L371" s="10">
+        <v>366</v>
+      </c>
+      <c r="M371" s="12">
+        <f t="shared" si="20"/>
+        <v>10693100</v>
+      </c>
+      <c r="N371">
+        <v>1.01</v>
+      </c>
+      <c r="O371" s="12">
+        <f>SUM($M$5:M371)</f>
+        <v>1014644500</v>
+      </c>
+    </row>
+    <row r="372" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L372" s="10">
+        <v>367</v>
+      </c>
+      <c r="M372" s="12">
+        <f t="shared" si="20"/>
+        <v>10800600</v>
+      </c>
+      <c r="N372">
+        <v>1.01</v>
+      </c>
+      <c r="O372" s="12">
+        <f>SUM($M$5:M372)</f>
+        <v>1025445100</v>
+      </c>
+    </row>
+    <row r="373" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L373" s="10">
+        <v>368</v>
+      </c>
+      <c r="M373" s="12">
+        <f t="shared" si="20"/>
+        <v>10909200</v>
+      </c>
+      <c r="N373">
+        <v>1.01</v>
+      </c>
+      <c r="O373" s="12">
+        <f>SUM($M$5:M373)</f>
+        <v>1036354300</v>
+      </c>
+    </row>
+    <row r="374" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L374" s="10">
+        <v>369</v>
+      </c>
+      <c r="M374" s="12">
+        <f t="shared" si="20"/>
+        <v>11018800</v>
+      </c>
+      <c r="N374">
+        <v>1.01</v>
+      </c>
+      <c r="O374" s="12">
+        <f>SUM($M$5:M374)</f>
+        <v>1047373100</v>
+      </c>
+    </row>
+    <row r="375" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L375" s="10">
+        <v>370</v>
+      </c>
+      <c r="M375" s="12">
+        <f t="shared" si="20"/>
+        <v>11129500</v>
+      </c>
+      <c r="N375">
+        <v>1.01</v>
+      </c>
+      <c r="O375" s="12">
+        <f>SUM($M$5:M375)</f>
+        <v>1058502600</v>
+      </c>
+    </row>
+    <row r="376" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L376" s="10">
+        <v>371</v>
+      </c>
+      <c r="M376" s="12">
+        <f t="shared" si="20"/>
+        <v>11241300</v>
+      </c>
+      <c r="N376">
+        <v>1.01</v>
+      </c>
+      <c r="O376" s="12">
+        <f>SUM($M$5:M376)</f>
+        <v>1069743900</v>
+      </c>
+    </row>
+    <row r="377" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L377" s="10">
+        <v>372</v>
+      </c>
+      <c r="M377" s="12">
+        <f t="shared" si="20"/>
+        <v>11354300</v>
+      </c>
+      <c r="N377">
+        <v>1.01</v>
+      </c>
+      <c r="O377" s="12">
+        <f>SUM($M$5:M377)</f>
+        <v>1081098200</v>
+      </c>
+    </row>
+    <row r="378" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L378" s="10">
+        <v>373</v>
+      </c>
+      <c r="M378" s="12">
+        <f t="shared" si="20"/>
+        <v>11468400</v>
+      </c>
+      <c r="N378">
+        <v>1.01</v>
+      </c>
+      <c r="O378" s="12">
+        <f>SUM($M$5:M378)</f>
+        <v>1092566600</v>
+      </c>
+    </row>
+    <row r="379" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L379" s="10">
+        <v>374</v>
+      </c>
+      <c r="M379" s="12">
+        <f t="shared" si="20"/>
+        <v>11583600</v>
+      </c>
+      <c r="N379">
+        <v>1.01</v>
+      </c>
+      <c r="O379" s="12">
+        <f>SUM($M$5:M379)</f>
+        <v>1104150200</v>
+      </c>
+    </row>
+    <row r="380" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L380" s="10">
+        <v>375</v>
+      </c>
+      <c r="M380" s="12">
+        <f t="shared" si="20"/>
+        <v>11700000</v>
+      </c>
+      <c r="N380">
+        <v>1.01</v>
+      </c>
+      <c r="O380" s="12">
+        <f>SUM($M$5:M380)</f>
+        <v>1115850200</v>
+      </c>
+    </row>
+    <row r="381" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L381" s="10">
+        <v>376</v>
+      </c>
+      <c r="M381" s="12">
+        <f t="shared" si="20"/>
+        <v>11817600</v>
+      </c>
+      <c r="N381">
+        <v>1.01</v>
+      </c>
+      <c r="O381" s="12">
+        <f>SUM($M$5:M381)</f>
+        <v>1127667800</v>
+      </c>
+    </row>
+    <row r="382" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L382" s="10">
+        <v>377</v>
+      </c>
+      <c r="M382" s="12">
+        <f t="shared" si="20"/>
+        <v>11936300</v>
+      </c>
+      <c r="N382">
+        <v>1.01</v>
+      </c>
+      <c r="O382" s="12">
+        <f>SUM($M$5:M382)</f>
+        <v>1139604100</v>
+      </c>
+    </row>
+    <row r="383" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L383" s="10">
+        <v>378</v>
+      </c>
+      <c r="M383" s="12">
+        <f t="shared" si="20"/>
+        <v>12056200</v>
+      </c>
+      <c r="N383">
+        <v>1.01</v>
+      </c>
+      <c r="O383" s="12">
+        <f>SUM($M$5:M383)</f>
+        <v>1151660300</v>
+      </c>
+    </row>
+    <row r="384" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L384" s="10">
+        <v>379</v>
+      </c>
+      <c r="M384" s="12">
+        <f t="shared" si="20"/>
+        <v>12177300</v>
+      </c>
+      <c r="N384">
+        <v>1.01</v>
+      </c>
+      <c r="O384" s="12">
+        <f>SUM($M$5:M384)</f>
+        <v>1163837600</v>
+      </c>
+    </row>
+    <row r="385" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L385" s="10">
+        <v>380</v>
+      </c>
+      <c r="M385" s="12">
+        <f t="shared" si="20"/>
+        <v>12299600</v>
+      </c>
+      <c r="N385">
+        <v>1.01</v>
+      </c>
+      <c r="O385" s="12">
+        <f>SUM($M$5:M385)</f>
+        <v>1176137200</v>
+      </c>
+    </row>
+    <row r="386" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L386" s="10">
+        <v>381</v>
+      </c>
+      <c r="M386" s="12">
+        <f t="shared" si="20"/>
+        <v>12423200</v>
+      </c>
+      <c r="N386">
+        <v>1.01</v>
+      </c>
+      <c r="O386" s="12">
+        <f>SUM($M$5:M386)</f>
+        <v>1188560400</v>
+      </c>
+    </row>
+    <row r="387" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L387" s="10">
+        <v>382</v>
+      </c>
+      <c r="M387" s="12">
+        <f t="shared" si="20"/>
+        <v>12548000</v>
+      </c>
+      <c r="N387">
+        <v>1.01</v>
+      </c>
+      <c r="O387" s="12">
+        <f>SUM($M$5:M387)</f>
+        <v>1201108400</v>
+      </c>
+    </row>
+    <row r="388" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L388" s="10">
+        <v>383</v>
+      </c>
+      <c r="M388" s="12">
+        <f t="shared" ref="M388:M406" si="21">ROUNDUP((M387+500)*N388,-2)</f>
+        <v>12674000</v>
+      </c>
+      <c r="N388">
+        <v>1.01</v>
+      </c>
+      <c r="O388" s="12">
+        <f>SUM($M$5:M388)</f>
+        <v>1213782400</v>
+      </c>
+    </row>
+    <row r="389" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L389" s="10">
+        <v>384</v>
+      </c>
+      <c r="M389" s="12">
+        <f t="shared" si="21"/>
+        <v>12801300</v>
+      </c>
+      <c r="N389">
+        <v>1.01</v>
+      </c>
+      <c r="O389" s="12">
+        <f>SUM($M$5:M389)</f>
+        <v>1226583700</v>
+      </c>
+    </row>
+    <row r="390" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L390" s="10">
+        <v>385</v>
+      </c>
+      <c r="M390" s="12">
+        <f t="shared" si="21"/>
+        <v>12929900</v>
+      </c>
+      <c r="N390">
+        <v>1.01</v>
+      </c>
+      <c r="O390" s="12">
+        <f>SUM($M$5:M390)</f>
+        <v>1239513600</v>
+      </c>
+    </row>
+    <row r="391" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L391" s="10">
+        <v>386</v>
+      </c>
+      <c r="M391" s="12">
+        <f t="shared" si="21"/>
+        <v>13059800</v>
+      </c>
+      <c r="N391">
+        <v>1.01</v>
+      </c>
+      <c r="O391" s="12">
+        <f>SUM($M$5:M391)</f>
+        <v>1252573400</v>
+      </c>
+    </row>
+    <row r="392" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L392" s="10">
+        <v>387</v>
+      </c>
+      <c r="M392" s="12">
+        <f t="shared" si="21"/>
+        <v>13191000</v>
+      </c>
+      <c r="N392">
+        <v>1.01</v>
+      </c>
+      <c r="O392" s="12">
+        <f>SUM($M$5:M392)</f>
+        <v>1265764400</v>
+      </c>
+    </row>
+    <row r="393" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L393" s="10">
+        <v>388</v>
+      </c>
+      <c r="M393" s="12">
+        <f t="shared" si="21"/>
+        <v>13323500</v>
+      </c>
+      <c r="N393">
+        <v>1.01</v>
+      </c>
+      <c r="O393" s="12">
+        <f>SUM($M$5:M393)</f>
+        <v>1279087900</v>
+      </c>
+    </row>
+    <row r="394" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L394" s="10">
+        <v>389</v>
+      </c>
+      <c r="M394" s="12">
+        <f t="shared" si="21"/>
+        <v>13457300</v>
+      </c>
+      <c r="N394">
+        <v>1.01</v>
+      </c>
+      <c r="O394" s="12">
+        <f>SUM($M$5:M394)</f>
+        <v>1292545200</v>
+      </c>
+    </row>
+    <row r="395" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L395" s="10">
+        <v>390</v>
+      </c>
+      <c r="M395" s="12">
+        <f t="shared" si="21"/>
+        <v>13592400</v>
+      </c>
+      <c r="N395">
+        <v>1.01</v>
+      </c>
+      <c r="O395" s="12">
+        <f>SUM($M$5:M395)</f>
+        <v>1306137600</v>
+      </c>
+    </row>
+    <row r="396" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L396" s="10">
+        <v>391</v>
+      </c>
+      <c r="M396" s="12">
+        <f t="shared" si="21"/>
+        <v>13728900</v>
+      </c>
+      <c r="N396">
+        <v>1.01</v>
+      </c>
+      <c r="O396" s="12">
+        <f>SUM($M$5:M396)</f>
+        <v>1319866500</v>
+      </c>
+    </row>
+    <row r="397" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L397" s="10">
+        <v>392</v>
+      </c>
+      <c r="M397" s="12">
+        <f t="shared" si="21"/>
+        <v>13866700</v>
+      </c>
+      <c r="N397">
+        <v>1.01</v>
+      </c>
+      <c r="O397" s="12">
+        <f>SUM($M$5:M397)</f>
+        <v>1333733200</v>
+      </c>
+    </row>
+    <row r="398" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L398" s="10">
+        <v>393</v>
+      </c>
+      <c r="M398" s="12">
+        <f t="shared" si="21"/>
+        <v>14005900</v>
+      </c>
+      <c r="N398">
+        <v>1.01</v>
+      </c>
+      <c r="O398" s="12">
+        <f>SUM($M$5:M398)</f>
+        <v>1347739100</v>
+      </c>
+    </row>
+    <row r="399" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L399" s="10">
+        <v>394</v>
+      </c>
+      <c r="M399" s="12">
+        <f t="shared" si="21"/>
+        <v>14146500</v>
+      </c>
+      <c r="N399">
+        <v>1.01</v>
+      </c>
+      <c r="O399" s="12">
+        <f>SUM($M$5:M399)</f>
+        <v>1361885600</v>
+      </c>
+    </row>
+    <row r="400" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L400" s="10">
+        <v>395</v>
+      </c>
+      <c r="M400" s="12">
+        <f t="shared" si="21"/>
+        <v>14288500</v>
+      </c>
+      <c r="N400">
+        <v>1.01</v>
+      </c>
+      <c r="O400" s="12">
+        <f>SUM($M$5:M400)</f>
+        <v>1376174100</v>
+      </c>
+    </row>
+    <row r="401" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L401" s="10">
+        <v>396</v>
+      </c>
+      <c r="M401" s="12">
+        <f t="shared" si="21"/>
+        <v>14431900</v>
+      </c>
+      <c r="N401">
+        <v>1.01</v>
+      </c>
+      <c r="O401" s="12">
+        <f>SUM($M$5:M401)</f>
+        <v>1390606000</v>
+      </c>
+    </row>
+    <row r="402" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L402" s="10">
+        <v>397</v>
+      </c>
+      <c r="M402" s="12">
+        <f t="shared" si="21"/>
+        <v>14576800</v>
+      </c>
+      <c r="N402">
+        <v>1.01</v>
+      </c>
+      <c r="O402" s="12">
+        <f>SUM($M$5:M402)</f>
+        <v>1405182800</v>
+      </c>
+    </row>
+    <row r="403" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L403" s="10">
+        <v>398</v>
+      </c>
+      <c r="M403" s="12">
+        <f t="shared" si="21"/>
+        <v>14723100</v>
+      </c>
+      <c r="N403">
+        <v>1.01</v>
+      </c>
+      <c r="O403" s="12">
+        <f>SUM($M$5:M403)</f>
+        <v>1419905900</v>
+      </c>
+    </row>
+    <row r="404" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L404" s="10">
+        <v>399</v>
+      </c>
+      <c r="M404" s="12">
+        <f t="shared" si="21"/>
+        <v>14870900</v>
+      </c>
+      <c r="N404">
+        <v>1.01</v>
+      </c>
+      <c r="O404" s="12">
+        <f>SUM($M$5:M404)</f>
+        <v>1434776800</v>
+      </c>
+    </row>
+    <row r="405" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L405" s="10">
+        <v>400</v>
+      </c>
+      <c r="M405" s="12">
+        <f t="shared" si="21"/>
+        <v>15020200</v>
+      </c>
+      <c r="N405">
+        <v>1.01</v>
+      </c>
+      <c r="O405" s="12">
+        <f>SUM($M$5:M405)</f>
+        <v>1449797000</v>
+      </c>
+    </row>
+    <row r="406" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="M406" s="12"/>
+      <c r="O406" s="12"/>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:B2"/>
@@ -16041,10 +17678,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B4BD32F-D36A-49D0-8344-521F56FEBBC4}">
-  <dimension ref="C2:AF354"/>
+  <dimension ref="C2:AF403"/>
   <sheetViews>
-    <sheetView topLeftCell="A338" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="D285" sqref="D285:M354"/>
+    <sheetView topLeftCell="A374" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="L403" sqref="L403"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -16191,7 +17828,7 @@
       </c>
       <c r="Z4" s="12">
         <f t="shared" ref="Z4:Z15" si="4">SUMIFS(G:G,E:E,Q4)+SUMIFS(J:J,H:H,Q4)</f>
-        <v>10740610</v>
+        <v>13890610</v>
       </c>
       <c r="AC4" s="3" t="s">
         <v>4</v>
@@ -16270,7 +17907,7 @@
       </c>
       <c r="Z5" s="12">
         <f t="shared" si="4"/>
-        <v>5526200</v>
+        <v>7313700</v>
       </c>
       <c r="AC5" s="3" t="s">
         <v>6</v>
@@ -16349,7 +17986,7 @@
       </c>
       <c r="Z6" s="12">
         <f t="shared" si="4"/>
-        <v>3371450</v>
+        <v>4453950</v>
       </c>
       <c r="AC6" s="3" t="s">
         <v>7</v>
@@ -16428,7 +18065,7 @@
       </c>
       <c r="Z7" s="12">
         <f t="shared" si="4"/>
-        <v>239550</v>
+        <v>290550</v>
       </c>
       <c r="AC7" s="3" t="s">
         <v>8</v>
@@ -16507,7 +18144,7 @@
       </c>
       <c r="Z8" s="12">
         <f t="shared" si="4"/>
-        <v>22300</v>
+        <v>29000</v>
       </c>
       <c r="AC8" s="3" t="s">
         <v>9</v>
@@ -16586,7 +18223,7 @@
       </c>
       <c r="Z9" s="12">
         <f t="shared" si="4"/>
-        <v>1232350</v>
+        <v>1609850</v>
       </c>
       <c r="AC9" s="3" t="s">
         <v>10</v>
@@ -16665,7 +18302,7 @@
       </c>
       <c r="Z10" s="12">
         <f t="shared" si="4"/>
-        <v>522100</v>
+        <v>695850</v>
       </c>
       <c r="AC10" s="3" t="s">
         <v>11</v>
@@ -16744,7 +18381,7 @@
       </c>
       <c r="Z11" s="12">
         <f t="shared" si="4"/>
-        <v>153650</v>
+        <v>205275</v>
       </c>
       <c r="AC11" s="3" t="s">
         <v>12</v>
@@ -16823,7 +18460,7 @@
       </c>
       <c r="Z12" s="12">
         <f t="shared" si="4"/>
-        <v>4985</v>
+        <v>6140</v>
       </c>
       <c r="AC12" s="3" t="s">
         <v>13</v>
@@ -16912,7 +18549,7 @@
       </c>
       <c r="Z13" s="12">
         <f t="shared" si="4"/>
-        <v>18975</v>
+        <v>23250</v>
       </c>
       <c r="AC13" s="3" t="s">
         <v>14</v>
@@ -17001,7 +18638,7 @@
       </c>
       <c r="Z14" s="12">
         <f t="shared" si="4"/>
-        <v>785</v>
+        <v>987.5</v>
       </c>
       <c r="AC14" s="3" t="s">
         <v>15</v>
@@ -17064,7 +18701,7 @@
       </c>
       <c r="Z15">
         <f t="shared" si="4"/>
-        <v>2135</v>
+        <v>2840</v>
       </c>
       <c r="AC15" s="3" t="s">
         <v>16</v>
@@ -29395,7 +31032,7 @@
         <v>307</v>
       </c>
       <c r="E311" t="str">
-        <f t="shared" ref="E311:E354" si="66">E306</f>
+        <f t="shared" ref="E311:E374" si="66">E306</f>
         <v>귀신 베기</v>
       </c>
       <c r="F311">
@@ -29807,7 +31444,7 @@
         <v>91000</v>
       </c>
       <c r="H321" t="str">
-        <f t="shared" ref="H321:H354" si="67">H306</f>
+        <f t="shared" ref="H321:H384" si="67">H306</f>
         <v>섬광 베기</v>
       </c>
       <c r="I321">
@@ -31039,11 +32676,11 @@
         <v>금강 베기</v>
       </c>
       <c r="F352">
-        <f t="shared" ref="F352:F354" si="68">VLOOKUP(E352,$Q:$R,2,FALSE)</f>
+        <f t="shared" ref="F352:F404" si="68">VLOOKUP(E352,$Q:$R,2,FALSE)</f>
         <v>43</v>
       </c>
       <c r="G352">
-        <f t="shared" ref="G352:G354" si="69">G347+VLOOKUP(E352,$Q$20:$R$31,2,FALSE)</f>
+        <f t="shared" ref="G352:G404" si="69">G347+VLOOKUP(E352,$Q$20:$R$31,2,FALSE)</f>
         <v>35000</v>
       </c>
       <c r="H352" t="str">
@@ -31051,22 +32688,22 @@
         <v>태극 베기</v>
       </c>
       <c r="I352">
-        <f t="shared" ref="I352:I354" si="70">VLOOKUP(H352,$Q:$R,2,FALSE)</f>
+        <f t="shared" ref="I352:I404" si="70">VLOOKUP(H352,$Q:$R,2,FALSE)</f>
         <v>55</v>
       </c>
       <c r="J352">
-        <f t="shared" ref="J352:J354" si="71">IF(I352=42,J337+$R$23,IF(I352=46,J337+$R$24,IF(I352=61,J337+$R$30,J347+VLOOKUP(H352,$Q$20:$R$31,2,FALSE))))</f>
+        <f t="shared" ref="J352:J404" si="71">IF(I352=42,J337+$R$23,IF(I352=46,J337+$R$24,IF(I352=61,J337+$R$30,J347+VLOOKUP(H352,$Q$20:$R$31,2,FALSE))))</f>
         <v>65</v>
       </c>
       <c r="K352" s="10">
         <v>348</v>
       </c>
       <c r="L352" s="10" t="str">
-        <f t="shared" ref="L352:L354" si="72">IF(H352=0,F352&amp;",-1",F352&amp;","&amp;I352)</f>
+        <f t="shared" ref="L352:L404" si="72">IF(H352=0,F352&amp;",-1",F352&amp;","&amp;I352)</f>
         <v>43,55</v>
       </c>
       <c r="M352" s="10" t="str">
-        <f t="shared" ref="M352:M354" si="73">IF(H352=0,G352/100&amp;","&amp;0,G352/100&amp;","&amp;J352/100)</f>
+        <f t="shared" ref="M352:M404" si="73">IF(H352=0,G352/100&amp;","&amp;0,G352/100&amp;","&amp;J352/100)</f>
         <v>350,0.65</v>
       </c>
     </row>
@@ -31148,6 +32785,1966 @@
       <c r="M354" s="10" t="str">
         <f t="shared" si="73"/>
         <v>3250,4.5</v>
+      </c>
+    </row>
+    <row r="355" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D355" s="10">
+        <v>351</v>
+      </c>
+      <c r="E355" t="str">
+        <f t="shared" si="66"/>
+        <v>천상 베기</v>
+      </c>
+      <c r="F355">
+        <f t="shared" si="68"/>
+        <v>36</v>
+      </c>
+      <c r="G355">
+        <f t="shared" si="69"/>
+        <v>167500</v>
+      </c>
+      <c r="H355" t="str">
+        <f t="shared" si="67"/>
+        <v>심연 베기</v>
+      </c>
+      <c r="I355">
+        <f t="shared" si="70"/>
+        <v>50</v>
+      </c>
+      <c r="J355">
+        <f t="shared" si="71"/>
+        <v>4825</v>
+      </c>
+      <c r="K355" s="10">
+        <v>351</v>
+      </c>
+      <c r="L355" s="10" t="str">
+        <f t="shared" si="72"/>
+        <v>36,50</v>
+      </c>
+      <c r="M355" s="10" t="str">
+        <f t="shared" si="73"/>
+        <v>1675,48.25</v>
+      </c>
+    </row>
+    <row r="356" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D356" s="10">
+        <v>352</v>
+      </c>
+      <c r="E356" t="str">
+        <f t="shared" si="66"/>
+        <v>귀신 베기</v>
+      </c>
+      <c r="F356">
+        <f t="shared" si="68"/>
+        <v>39</v>
+      </c>
+      <c r="G356">
+        <f t="shared" si="69"/>
+        <v>101500</v>
+      </c>
+      <c r="H356" t="str">
+        <f t="shared" si="67"/>
+        <v>섬광 베기</v>
+      </c>
+      <c r="I356">
+        <f t="shared" si="70"/>
+        <v>47</v>
+      </c>
+      <c r="J356">
+        <f t="shared" si="71"/>
+        <v>16250</v>
+      </c>
+      <c r="K356" s="10">
+        <v>352</v>
+      </c>
+      <c r="L356" s="10" t="str">
+        <f t="shared" si="72"/>
+        <v>39,47</v>
+      </c>
+      <c r="M356" s="10" t="str">
+        <f t="shared" si="73"/>
+        <v>1015,162.5</v>
+      </c>
+    </row>
+    <row r="357" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D357" s="10">
+        <v>353</v>
+      </c>
+      <c r="E357" t="str">
+        <f t="shared" si="66"/>
+        <v>금강 베기</v>
+      </c>
+      <c r="F357">
+        <f t="shared" si="68"/>
+        <v>43</v>
+      </c>
+      <c r="G357">
+        <f t="shared" si="69"/>
+        <v>35500</v>
+      </c>
+      <c r="H357" t="str">
+        <f t="shared" si="67"/>
+        <v>태극 베기</v>
+      </c>
+      <c r="I357">
+        <f t="shared" si="70"/>
+        <v>55</v>
+      </c>
+      <c r="J357">
+        <f t="shared" si="71"/>
+        <v>66</v>
+      </c>
+      <c r="K357" s="10">
+        <v>353</v>
+      </c>
+      <c r="L357" s="10" t="str">
+        <f t="shared" si="72"/>
+        <v>43,55</v>
+      </c>
+      <c r="M357" s="10" t="str">
+        <f t="shared" si="73"/>
+        <v>355,0.66</v>
+      </c>
+    </row>
+    <row r="358" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D358" s="10">
+        <v>354</v>
+      </c>
+      <c r="E358" t="str">
+        <f t="shared" si="66"/>
+        <v>귀살 베기</v>
+      </c>
+      <c r="F358">
+        <f t="shared" si="68"/>
+        <v>60</v>
+      </c>
+      <c r="G358">
+        <f t="shared" si="69"/>
+        <v>111</v>
+      </c>
+      <c r="H358" t="str">
+        <f t="shared" si="67"/>
+        <v>흉수 베기</v>
+      </c>
+      <c r="I358">
+        <f t="shared" si="70"/>
+        <v>46</v>
+      </c>
+      <c r="J358">
+        <f t="shared" si="71"/>
+        <v>1600</v>
+      </c>
+      <c r="K358" s="10">
+        <v>354</v>
+      </c>
+      <c r="L358" s="10" t="str">
+        <f t="shared" si="72"/>
+        <v>60,46</v>
+      </c>
+      <c r="M358" s="10" t="str">
+        <f t="shared" si="73"/>
+        <v>1.11,16</v>
+      </c>
+    </row>
+    <row r="359" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D359" s="10">
+        <v>355</v>
+      </c>
+      <c r="E359" t="str">
+        <f t="shared" si="66"/>
+        <v>지옥 베기</v>
+      </c>
+      <c r="F359">
+        <f t="shared" si="68"/>
+        <v>35</v>
+      </c>
+      <c r="G359">
+        <f t="shared" si="69"/>
+        <v>330000</v>
+      </c>
+      <c r="H359" t="str">
+        <f t="shared" si="67"/>
+        <v>신선 베기</v>
+      </c>
+      <c r="I359">
+        <f t="shared" si="70"/>
+        <v>54</v>
+      </c>
+      <c r="J359">
+        <f t="shared" si="71"/>
+        <v>455</v>
+      </c>
+      <c r="K359" s="10">
+        <v>355</v>
+      </c>
+      <c r="L359" s="10" t="str">
+        <f t="shared" si="72"/>
+        <v>35,54</v>
+      </c>
+      <c r="M359" s="10" t="str">
+        <f t="shared" si="73"/>
+        <v>3300,4.55</v>
+      </c>
+    </row>
+    <row r="360" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D360" s="9">
+        <v>356</v>
+      </c>
+      <c r="E360" t="str">
+        <f t="shared" si="66"/>
+        <v>천상 베기</v>
+      </c>
+      <c r="F360">
+        <f t="shared" si="68"/>
+        <v>36</v>
+      </c>
+      <c r="G360">
+        <f t="shared" si="69"/>
+        <v>170000</v>
+      </c>
+      <c r="H360" t="str">
+        <f t="shared" si="67"/>
+        <v>심연 베기</v>
+      </c>
+      <c r="I360">
+        <f t="shared" si="70"/>
+        <v>50</v>
+      </c>
+      <c r="J360">
+        <f t="shared" si="71"/>
+        <v>4900</v>
+      </c>
+      <c r="K360" s="10">
+        <v>356</v>
+      </c>
+      <c r="L360" s="10" t="str">
+        <f t="shared" si="72"/>
+        <v>36,50</v>
+      </c>
+      <c r="M360" s="10" t="str">
+        <f t="shared" si="73"/>
+        <v>1700,49</v>
+      </c>
+    </row>
+    <row r="361" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D361" s="10">
+        <v>357</v>
+      </c>
+      <c r="E361" t="str">
+        <f t="shared" si="66"/>
+        <v>귀신 베기</v>
+      </c>
+      <c r="F361">
+        <f t="shared" si="68"/>
+        <v>39</v>
+      </c>
+      <c r="G361">
+        <f t="shared" si="69"/>
+        <v>103000</v>
+      </c>
+      <c r="H361" t="str">
+        <f t="shared" si="67"/>
+        <v>섬광 베기</v>
+      </c>
+      <c r="I361">
+        <f t="shared" si="70"/>
+        <v>47</v>
+      </c>
+      <c r="J361">
+        <f t="shared" si="71"/>
+        <v>16500</v>
+      </c>
+      <c r="K361" s="10">
+        <v>357</v>
+      </c>
+      <c r="L361" s="10" t="str">
+        <f t="shared" si="72"/>
+        <v>39,47</v>
+      </c>
+      <c r="M361" s="10" t="str">
+        <f t="shared" si="73"/>
+        <v>1030,165</v>
+      </c>
+    </row>
+    <row r="362" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D362" s="10">
+        <v>358</v>
+      </c>
+      <c r="E362" t="str">
+        <f t="shared" si="66"/>
+        <v>금강 베기</v>
+      </c>
+      <c r="F362">
+        <f t="shared" si="68"/>
+        <v>43</v>
+      </c>
+      <c r="G362">
+        <f t="shared" si="69"/>
+        <v>36000</v>
+      </c>
+      <c r="H362" t="str">
+        <f t="shared" si="67"/>
+        <v>태극 베기</v>
+      </c>
+      <c r="I362">
+        <f t="shared" si="70"/>
+        <v>55</v>
+      </c>
+      <c r="J362">
+        <f t="shared" si="71"/>
+        <v>67</v>
+      </c>
+      <c r="K362" s="10">
+        <v>358</v>
+      </c>
+      <c r="L362" s="10" t="str">
+        <f t="shared" si="72"/>
+        <v>43,55</v>
+      </c>
+      <c r="M362" s="10" t="str">
+        <f t="shared" si="73"/>
+        <v>360,0.67</v>
+      </c>
+    </row>
+    <row r="363" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D363" s="10">
+        <v>359</v>
+      </c>
+      <c r="E363" t="str">
+        <f t="shared" si="66"/>
+        <v>귀살 베기</v>
+      </c>
+      <c r="F363">
+        <f t="shared" si="68"/>
+        <v>60</v>
+      </c>
+      <c r="G363">
+        <f t="shared" si="69"/>
+        <v>112</v>
+      </c>
+      <c r="H363" t="str">
+        <f t="shared" si="67"/>
+        <v>천구 베기</v>
+      </c>
+      <c r="I363">
+        <f t="shared" si="70"/>
+        <v>61</v>
+      </c>
+      <c r="J363">
+        <f t="shared" si="71"/>
+        <v>65</v>
+      </c>
+      <c r="K363" s="10">
+        <v>359</v>
+      </c>
+      <c r="L363" s="10" t="str">
+        <f t="shared" si="72"/>
+        <v>60,61</v>
+      </c>
+      <c r="M363" s="10" t="str">
+        <f t="shared" si="73"/>
+        <v>1.12,0.65</v>
+      </c>
+    </row>
+    <row r="364" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D364" s="10">
+        <v>360</v>
+      </c>
+      <c r="E364" t="str">
+        <f t="shared" si="66"/>
+        <v>지옥 베기</v>
+      </c>
+      <c r="F364">
+        <f t="shared" si="68"/>
+        <v>35</v>
+      </c>
+      <c r="G364">
+        <f t="shared" si="69"/>
+        <v>335000</v>
+      </c>
+      <c r="H364" t="str">
+        <f t="shared" si="67"/>
+        <v>신선 베기</v>
+      </c>
+      <c r="I364">
+        <f t="shared" si="70"/>
+        <v>54</v>
+      </c>
+      <c r="J364">
+        <f t="shared" si="71"/>
+        <v>460</v>
+      </c>
+      <c r="K364" s="10">
+        <v>360</v>
+      </c>
+      <c r="L364" s="10" t="str">
+        <f t="shared" si="72"/>
+        <v>35,54</v>
+      </c>
+      <c r="M364" s="10" t="str">
+        <f t="shared" si="73"/>
+        <v>3350,4.6</v>
+      </c>
+    </row>
+    <row r="365" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D365" s="10">
+        <v>361</v>
+      </c>
+      <c r="E365" t="str">
+        <f t="shared" si="66"/>
+        <v>천상 베기</v>
+      </c>
+      <c r="F365">
+        <f t="shared" si="68"/>
+        <v>36</v>
+      </c>
+      <c r="G365">
+        <f t="shared" si="69"/>
+        <v>172500</v>
+      </c>
+      <c r="H365" t="str">
+        <f t="shared" si="67"/>
+        <v>심연 베기</v>
+      </c>
+      <c r="I365">
+        <f t="shared" si="70"/>
+        <v>50</v>
+      </c>
+      <c r="J365">
+        <f t="shared" si="71"/>
+        <v>4975</v>
+      </c>
+      <c r="K365" s="10">
+        <v>361</v>
+      </c>
+      <c r="L365" s="10" t="str">
+        <f t="shared" si="72"/>
+        <v>36,50</v>
+      </c>
+      <c r="M365" s="10" t="str">
+        <f t="shared" si="73"/>
+        <v>1725,49.75</v>
+      </c>
+    </row>
+    <row r="366" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D366" s="10">
+        <v>362</v>
+      </c>
+      <c r="E366" t="str">
+        <f t="shared" si="66"/>
+        <v>귀신 베기</v>
+      </c>
+      <c r="F366">
+        <f t="shared" si="68"/>
+        <v>39</v>
+      </c>
+      <c r="G366">
+        <f t="shared" si="69"/>
+        <v>104500</v>
+      </c>
+      <c r="H366" t="str">
+        <f t="shared" si="67"/>
+        <v>섬광 베기</v>
+      </c>
+      <c r="I366">
+        <f t="shared" si="70"/>
+        <v>47</v>
+      </c>
+      <c r="J366">
+        <f t="shared" si="71"/>
+        <v>16750</v>
+      </c>
+      <c r="K366" s="10">
+        <v>362</v>
+      </c>
+      <c r="L366" s="10" t="str">
+        <f t="shared" si="72"/>
+        <v>39,47</v>
+      </c>
+      <c r="M366" s="10" t="str">
+        <f t="shared" si="73"/>
+        <v>1045,167.5</v>
+      </c>
+    </row>
+    <row r="367" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D367" s="10">
+        <v>363</v>
+      </c>
+      <c r="E367" t="str">
+        <f t="shared" si="66"/>
+        <v>금강 베기</v>
+      </c>
+      <c r="F367">
+        <f t="shared" si="68"/>
+        <v>43</v>
+      </c>
+      <c r="G367">
+        <f t="shared" si="69"/>
+        <v>36500</v>
+      </c>
+      <c r="H367" t="str">
+        <f t="shared" si="67"/>
+        <v>태극 베기</v>
+      </c>
+      <c r="I367">
+        <f t="shared" si="70"/>
+        <v>55</v>
+      </c>
+      <c r="J367">
+        <f t="shared" si="71"/>
+        <v>68</v>
+      </c>
+      <c r="K367" s="10">
+        <v>363</v>
+      </c>
+      <c r="L367" s="10" t="str">
+        <f t="shared" si="72"/>
+        <v>43,55</v>
+      </c>
+      <c r="M367" s="10" t="str">
+        <f t="shared" si="73"/>
+        <v>365,0.68</v>
+      </c>
+    </row>
+    <row r="368" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D368" s="10">
+        <v>364</v>
+      </c>
+      <c r="E368" t="str">
+        <f t="shared" si="66"/>
+        <v>귀살 베기</v>
+      </c>
+      <c r="F368">
+        <f t="shared" si="68"/>
+        <v>60</v>
+      </c>
+      <c r="G368">
+        <f t="shared" si="69"/>
+        <v>113</v>
+      </c>
+      <c r="H368" t="str">
+        <f t="shared" si="67"/>
+        <v>신수 베기</v>
+      </c>
+      <c r="I368">
+        <f t="shared" si="70"/>
+        <v>42</v>
+      </c>
+      <c r="J368">
+        <f t="shared" si="71"/>
+        <v>16500</v>
+      </c>
+      <c r="K368" s="10">
+        <v>364</v>
+      </c>
+      <c r="L368" s="10" t="str">
+        <f t="shared" si="72"/>
+        <v>60,42</v>
+      </c>
+      <c r="M368" s="10" t="str">
+        <f t="shared" si="73"/>
+        <v>1.13,165</v>
+      </c>
+    </row>
+    <row r="369" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D369" s="10">
+        <v>365</v>
+      </c>
+      <c r="E369" t="str">
+        <f t="shared" si="66"/>
+        <v>지옥 베기</v>
+      </c>
+      <c r="F369">
+        <f t="shared" si="68"/>
+        <v>35</v>
+      </c>
+      <c r="G369">
+        <f t="shared" si="69"/>
+        <v>340000</v>
+      </c>
+      <c r="H369" t="str">
+        <f t="shared" si="67"/>
+        <v>신선 베기</v>
+      </c>
+      <c r="I369">
+        <f t="shared" si="70"/>
+        <v>54</v>
+      </c>
+      <c r="J369">
+        <f t="shared" si="71"/>
+        <v>465</v>
+      </c>
+      <c r="K369" s="10">
+        <v>365</v>
+      </c>
+      <c r="L369" s="10" t="str">
+        <f t="shared" si="72"/>
+        <v>35,54</v>
+      </c>
+      <c r="M369" s="10" t="str">
+        <f t="shared" si="73"/>
+        <v>3400,4.65</v>
+      </c>
+    </row>
+    <row r="370" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D370" s="10">
+        <v>366</v>
+      </c>
+      <c r="E370" t="str">
+        <f t="shared" si="66"/>
+        <v>천상 베기</v>
+      </c>
+      <c r="F370">
+        <f t="shared" si="68"/>
+        <v>36</v>
+      </c>
+      <c r="G370">
+        <f t="shared" si="69"/>
+        <v>175000</v>
+      </c>
+      <c r="H370" t="str">
+        <f t="shared" si="67"/>
+        <v>심연 베기</v>
+      </c>
+      <c r="I370">
+        <f t="shared" si="70"/>
+        <v>50</v>
+      </c>
+      <c r="J370">
+        <f t="shared" si="71"/>
+        <v>5050</v>
+      </c>
+      <c r="K370" s="10">
+        <v>366</v>
+      </c>
+      <c r="L370" s="10" t="str">
+        <f t="shared" si="72"/>
+        <v>36,50</v>
+      </c>
+      <c r="M370" s="10" t="str">
+        <f t="shared" si="73"/>
+        <v>1750,50.5</v>
+      </c>
+    </row>
+    <row r="371" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D371" s="10">
+        <v>367</v>
+      </c>
+      <c r="E371" t="str">
+        <f t="shared" si="66"/>
+        <v>귀신 베기</v>
+      </c>
+      <c r="F371">
+        <f t="shared" si="68"/>
+        <v>39</v>
+      </c>
+      <c r="G371">
+        <f t="shared" si="69"/>
+        <v>106000</v>
+      </c>
+      <c r="H371" t="str">
+        <f t="shared" si="67"/>
+        <v>섬광 베기</v>
+      </c>
+      <c r="I371">
+        <f t="shared" si="70"/>
+        <v>47</v>
+      </c>
+      <c r="J371">
+        <f t="shared" si="71"/>
+        <v>17000</v>
+      </c>
+      <c r="K371" s="10">
+        <v>367</v>
+      </c>
+      <c r="L371" s="10" t="str">
+        <f t="shared" si="72"/>
+        <v>39,47</v>
+      </c>
+      <c r="M371" s="10" t="str">
+        <f t="shared" si="73"/>
+        <v>1060,170</v>
+      </c>
+    </row>
+    <row r="372" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D372" s="9">
+        <v>368</v>
+      </c>
+      <c r="E372" t="str">
+        <f t="shared" si="66"/>
+        <v>금강 베기</v>
+      </c>
+      <c r="F372">
+        <f t="shared" si="68"/>
+        <v>43</v>
+      </c>
+      <c r="G372">
+        <f t="shared" si="69"/>
+        <v>37000</v>
+      </c>
+      <c r="H372" t="str">
+        <f t="shared" si="67"/>
+        <v>태극 베기</v>
+      </c>
+      <c r="I372">
+        <f t="shared" si="70"/>
+        <v>55</v>
+      </c>
+      <c r="J372">
+        <f t="shared" si="71"/>
+        <v>69</v>
+      </c>
+      <c r="K372" s="10">
+        <v>368</v>
+      </c>
+      <c r="L372" s="10" t="str">
+        <f t="shared" si="72"/>
+        <v>43,55</v>
+      </c>
+      <c r="M372" s="10" t="str">
+        <f t="shared" si="73"/>
+        <v>370,0.69</v>
+      </c>
+    </row>
+    <row r="373" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D373" s="10">
+        <v>369</v>
+      </c>
+      <c r="E373" t="str">
+        <f t="shared" si="66"/>
+        <v>귀살 베기</v>
+      </c>
+      <c r="F373">
+        <f t="shared" si="68"/>
+        <v>60</v>
+      </c>
+      <c r="G373">
+        <f t="shared" si="69"/>
+        <v>114</v>
+      </c>
+      <c r="H373" t="str">
+        <f t="shared" si="67"/>
+        <v>흉수 베기</v>
+      </c>
+      <c r="I373">
+        <f t="shared" si="70"/>
+        <v>46</v>
+      </c>
+      <c r="J373">
+        <f t="shared" si="71"/>
+        <v>1650</v>
+      </c>
+      <c r="K373" s="10">
+        <v>369</v>
+      </c>
+      <c r="L373" s="10" t="str">
+        <f t="shared" si="72"/>
+        <v>60,46</v>
+      </c>
+      <c r="M373" s="10" t="str">
+        <f t="shared" si="73"/>
+        <v>1.14,16.5</v>
+      </c>
+    </row>
+    <row r="374" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D374" s="10">
+        <v>370</v>
+      </c>
+      <c r="E374" t="str">
+        <f t="shared" si="66"/>
+        <v>지옥 베기</v>
+      </c>
+      <c r="F374">
+        <f t="shared" si="68"/>
+        <v>35</v>
+      </c>
+      <c r="G374">
+        <f t="shared" si="69"/>
+        <v>345000</v>
+      </c>
+      <c r="H374" t="str">
+        <f t="shared" si="67"/>
+        <v>신선 베기</v>
+      </c>
+      <c r="I374">
+        <f t="shared" si="70"/>
+        <v>54</v>
+      </c>
+      <c r="J374">
+        <f t="shared" si="71"/>
+        <v>470</v>
+      </c>
+      <c r="K374" s="10">
+        <v>370</v>
+      </c>
+      <c r="L374" s="10" t="str">
+        <f t="shared" si="72"/>
+        <v>35,54</v>
+      </c>
+      <c r="M374" s="10" t="str">
+        <f t="shared" si="73"/>
+        <v>3450,4.7</v>
+      </c>
+    </row>
+    <row r="375" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D375" s="10">
+        <v>371</v>
+      </c>
+      <c r="E375" t="str">
+        <f t="shared" ref="E375:E404" si="74">E370</f>
+        <v>천상 베기</v>
+      </c>
+      <c r="F375">
+        <f t="shared" si="68"/>
+        <v>36</v>
+      </c>
+      <c r="G375">
+        <f t="shared" si="69"/>
+        <v>177500</v>
+      </c>
+      <c r="H375" t="str">
+        <f t="shared" si="67"/>
+        <v>심연 베기</v>
+      </c>
+      <c r="I375">
+        <f t="shared" si="70"/>
+        <v>50</v>
+      </c>
+      <c r="J375">
+        <f t="shared" si="71"/>
+        <v>5125</v>
+      </c>
+      <c r="K375" s="10">
+        <v>371</v>
+      </c>
+      <c r="L375" s="10" t="str">
+        <f t="shared" si="72"/>
+        <v>36,50</v>
+      </c>
+      <c r="M375" s="10" t="str">
+        <f t="shared" si="73"/>
+        <v>1775,51.25</v>
+      </c>
+    </row>
+    <row r="376" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D376" s="10">
+        <v>372</v>
+      </c>
+      <c r="E376" t="str">
+        <f t="shared" si="74"/>
+        <v>귀신 베기</v>
+      </c>
+      <c r="F376">
+        <f t="shared" si="68"/>
+        <v>39</v>
+      </c>
+      <c r="G376">
+        <f t="shared" si="69"/>
+        <v>107500</v>
+      </c>
+      <c r="H376" t="str">
+        <f t="shared" si="67"/>
+        <v>섬광 베기</v>
+      </c>
+      <c r="I376">
+        <f t="shared" si="70"/>
+        <v>47</v>
+      </c>
+      <c r="J376">
+        <f t="shared" si="71"/>
+        <v>17250</v>
+      </c>
+      <c r="K376" s="10">
+        <v>372</v>
+      </c>
+      <c r="L376" s="10" t="str">
+        <f t="shared" si="72"/>
+        <v>39,47</v>
+      </c>
+      <c r="M376" s="10" t="str">
+        <f t="shared" si="73"/>
+        <v>1075,172.5</v>
+      </c>
+    </row>
+    <row r="377" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D377" s="10">
+        <v>373</v>
+      </c>
+      <c r="E377" t="str">
+        <f t="shared" si="74"/>
+        <v>금강 베기</v>
+      </c>
+      <c r="F377">
+        <f t="shared" si="68"/>
+        <v>43</v>
+      </c>
+      <c r="G377">
+        <f t="shared" si="69"/>
+        <v>37500</v>
+      </c>
+      <c r="H377" t="str">
+        <f t="shared" si="67"/>
+        <v>태극 베기</v>
+      </c>
+      <c r="I377">
+        <f t="shared" si="70"/>
+        <v>55</v>
+      </c>
+      <c r="J377">
+        <f t="shared" si="71"/>
+        <v>70</v>
+      </c>
+      <c r="K377" s="10">
+        <v>373</v>
+      </c>
+      <c r="L377" s="10" t="str">
+        <f t="shared" si="72"/>
+        <v>43,55</v>
+      </c>
+      <c r="M377" s="10" t="str">
+        <f t="shared" si="73"/>
+        <v>375,0.7</v>
+      </c>
+    </row>
+    <row r="378" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D378" s="10">
+        <v>374</v>
+      </c>
+      <c r="E378" t="str">
+        <f t="shared" si="74"/>
+        <v>귀살 베기</v>
+      </c>
+      <c r="F378">
+        <f t="shared" si="68"/>
+        <v>60</v>
+      </c>
+      <c r="G378">
+        <f t="shared" si="69"/>
+        <v>115</v>
+      </c>
+      <c r="H378" t="str">
+        <f t="shared" si="67"/>
+        <v>천구 베기</v>
+      </c>
+      <c r="I378">
+        <f t="shared" si="70"/>
+        <v>61</v>
+      </c>
+      <c r="J378">
+        <f t="shared" si="71"/>
+        <v>67.5</v>
+      </c>
+      <c r="K378" s="10">
+        <v>374</v>
+      </c>
+      <c r="L378" s="10" t="str">
+        <f t="shared" si="72"/>
+        <v>60,61</v>
+      </c>
+      <c r="M378" s="10" t="str">
+        <f t="shared" si="73"/>
+        <v>1.15,0.675</v>
+      </c>
+    </row>
+    <row r="379" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D379" s="9">
+        <v>375</v>
+      </c>
+      <c r="E379" t="str">
+        <f t="shared" si="74"/>
+        <v>지옥 베기</v>
+      </c>
+      <c r="F379">
+        <f t="shared" si="68"/>
+        <v>35</v>
+      </c>
+      <c r="G379">
+        <f t="shared" si="69"/>
+        <v>350000</v>
+      </c>
+      <c r="H379" t="str">
+        <f t="shared" si="67"/>
+        <v>신선 베기</v>
+      </c>
+      <c r="I379">
+        <f t="shared" si="70"/>
+        <v>54</v>
+      </c>
+      <c r="J379">
+        <f t="shared" si="71"/>
+        <v>475</v>
+      </c>
+      <c r="K379" s="10">
+        <v>375</v>
+      </c>
+      <c r="L379" s="10" t="str">
+        <f t="shared" si="72"/>
+        <v>35,54</v>
+      </c>
+      <c r="M379" s="10" t="str">
+        <f t="shared" si="73"/>
+        <v>3500,4.75</v>
+      </c>
+    </row>
+    <row r="380" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D380" s="10">
+        <v>376</v>
+      </c>
+      <c r="E380" t="str">
+        <f t="shared" si="74"/>
+        <v>천상 베기</v>
+      </c>
+      <c r="F380">
+        <f t="shared" si="68"/>
+        <v>36</v>
+      </c>
+      <c r="G380">
+        <f t="shared" si="69"/>
+        <v>180000</v>
+      </c>
+      <c r="H380" t="str">
+        <f t="shared" si="67"/>
+        <v>심연 베기</v>
+      </c>
+      <c r="I380">
+        <f t="shared" si="70"/>
+        <v>50</v>
+      </c>
+      <c r="J380">
+        <f t="shared" si="71"/>
+        <v>5200</v>
+      </c>
+      <c r="K380" s="10">
+        <v>376</v>
+      </c>
+      <c r="L380" s="10" t="str">
+        <f t="shared" si="72"/>
+        <v>36,50</v>
+      </c>
+      <c r="M380" s="10" t="str">
+        <f t="shared" si="73"/>
+        <v>1800,52</v>
+      </c>
+    </row>
+    <row r="381" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D381" s="10">
+        <v>377</v>
+      </c>
+      <c r="E381" t="str">
+        <f t="shared" si="74"/>
+        <v>귀신 베기</v>
+      </c>
+      <c r="F381">
+        <f t="shared" si="68"/>
+        <v>39</v>
+      </c>
+      <c r="G381">
+        <f t="shared" si="69"/>
+        <v>109000</v>
+      </c>
+      <c r="H381" t="str">
+        <f t="shared" si="67"/>
+        <v>섬광 베기</v>
+      </c>
+      <c r="I381">
+        <f t="shared" si="70"/>
+        <v>47</v>
+      </c>
+      <c r="J381">
+        <f t="shared" si="71"/>
+        <v>17500</v>
+      </c>
+      <c r="K381" s="10">
+        <v>377</v>
+      </c>
+      <c r="L381" s="10" t="str">
+        <f t="shared" si="72"/>
+        <v>39,47</v>
+      </c>
+      <c r="M381" s="10" t="str">
+        <f t="shared" si="73"/>
+        <v>1090,175</v>
+      </c>
+    </row>
+    <row r="382" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D382" s="10">
+        <v>378</v>
+      </c>
+      <c r="E382" t="str">
+        <f t="shared" si="74"/>
+        <v>금강 베기</v>
+      </c>
+      <c r="F382">
+        <f t="shared" si="68"/>
+        <v>43</v>
+      </c>
+      <c r="G382">
+        <f t="shared" si="69"/>
+        <v>38000</v>
+      </c>
+      <c r="H382" t="str">
+        <f t="shared" si="67"/>
+        <v>태극 베기</v>
+      </c>
+      <c r="I382">
+        <f t="shared" si="70"/>
+        <v>55</v>
+      </c>
+      <c r="J382">
+        <f t="shared" si="71"/>
+        <v>71</v>
+      </c>
+      <c r="K382" s="10">
+        <v>378</v>
+      </c>
+      <c r="L382" s="10" t="str">
+        <f t="shared" si="72"/>
+        <v>43,55</v>
+      </c>
+      <c r="M382" s="10" t="str">
+        <f t="shared" si="73"/>
+        <v>380,0.71</v>
+      </c>
+    </row>
+    <row r="383" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D383" s="10">
+        <v>379</v>
+      </c>
+      <c r="E383" t="str">
+        <f t="shared" si="74"/>
+        <v>귀살 베기</v>
+      </c>
+      <c r="F383">
+        <f t="shared" si="68"/>
+        <v>60</v>
+      </c>
+      <c r="G383">
+        <f t="shared" si="69"/>
+        <v>116</v>
+      </c>
+      <c r="H383" t="str">
+        <f t="shared" si="67"/>
+        <v>신수 베기</v>
+      </c>
+      <c r="I383">
+        <f t="shared" si="70"/>
+        <v>42</v>
+      </c>
+      <c r="J383">
+        <f t="shared" si="71"/>
+        <v>17000</v>
+      </c>
+      <c r="K383" s="10">
+        <v>379</v>
+      </c>
+      <c r="L383" s="10" t="str">
+        <f t="shared" si="72"/>
+        <v>60,42</v>
+      </c>
+      <c r="M383" s="10" t="str">
+        <f t="shared" si="73"/>
+        <v>1.16,170</v>
+      </c>
+    </row>
+    <row r="384" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D384" s="10">
+        <v>380</v>
+      </c>
+      <c r="E384" t="str">
+        <f t="shared" si="74"/>
+        <v>지옥 베기</v>
+      </c>
+      <c r="F384">
+        <f t="shared" si="68"/>
+        <v>35</v>
+      </c>
+      <c r="G384">
+        <f t="shared" si="69"/>
+        <v>355000</v>
+      </c>
+      <c r="H384" t="str">
+        <f t="shared" si="67"/>
+        <v>신선 베기</v>
+      </c>
+      <c r="I384">
+        <f t="shared" si="70"/>
+        <v>54</v>
+      </c>
+      <c r="J384">
+        <f t="shared" si="71"/>
+        <v>480</v>
+      </c>
+      <c r="K384" s="10">
+        <v>380</v>
+      </c>
+      <c r="L384" s="10" t="str">
+        <f t="shared" si="72"/>
+        <v>35,54</v>
+      </c>
+      <c r="M384" s="10" t="str">
+        <f t="shared" si="73"/>
+        <v>3550,4.8</v>
+      </c>
+    </row>
+    <row r="385" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D385" s="10">
+        <v>381</v>
+      </c>
+      <c r="E385" t="str">
+        <f t="shared" si="74"/>
+        <v>천상 베기</v>
+      </c>
+      <c r="F385">
+        <f t="shared" si="68"/>
+        <v>36</v>
+      </c>
+      <c r="G385">
+        <f t="shared" si="69"/>
+        <v>182500</v>
+      </c>
+      <c r="H385" t="str">
+        <f t="shared" ref="H385:H404" si="75">H370</f>
+        <v>심연 베기</v>
+      </c>
+      <c r="I385">
+        <f t="shared" si="70"/>
+        <v>50</v>
+      </c>
+      <c r="J385">
+        <f t="shared" si="71"/>
+        <v>5275</v>
+      </c>
+      <c r="K385" s="10">
+        <v>381</v>
+      </c>
+      <c r="L385" s="10" t="str">
+        <f t="shared" si="72"/>
+        <v>36,50</v>
+      </c>
+      <c r="M385" s="10" t="str">
+        <f t="shared" si="73"/>
+        <v>1825,52.75</v>
+      </c>
+    </row>
+    <row r="386" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D386" s="10">
+        <v>382</v>
+      </c>
+      <c r="E386" t="str">
+        <f t="shared" si="74"/>
+        <v>귀신 베기</v>
+      </c>
+      <c r="F386">
+        <f t="shared" si="68"/>
+        <v>39</v>
+      </c>
+      <c r="G386">
+        <f t="shared" si="69"/>
+        <v>110500</v>
+      </c>
+      <c r="H386" t="str">
+        <f t="shared" si="75"/>
+        <v>섬광 베기</v>
+      </c>
+      <c r="I386">
+        <f t="shared" si="70"/>
+        <v>47</v>
+      </c>
+      <c r="J386">
+        <f t="shared" si="71"/>
+        <v>17750</v>
+      </c>
+      <c r="K386" s="10">
+        <v>382</v>
+      </c>
+      <c r="L386" s="10" t="str">
+        <f t="shared" si="72"/>
+        <v>39,47</v>
+      </c>
+      <c r="M386" s="10" t="str">
+        <f t="shared" si="73"/>
+        <v>1105,177.5</v>
+      </c>
+    </row>
+    <row r="387" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D387" s="10">
+        <v>383</v>
+      </c>
+      <c r="E387" t="str">
+        <f t="shared" si="74"/>
+        <v>금강 베기</v>
+      </c>
+      <c r="F387">
+        <f t="shared" si="68"/>
+        <v>43</v>
+      </c>
+      <c r="G387">
+        <f t="shared" si="69"/>
+        <v>38500</v>
+      </c>
+      <c r="H387" t="str">
+        <f t="shared" si="75"/>
+        <v>태극 베기</v>
+      </c>
+      <c r="I387">
+        <f t="shared" si="70"/>
+        <v>55</v>
+      </c>
+      <c r="J387">
+        <f t="shared" si="71"/>
+        <v>72</v>
+      </c>
+      <c r="K387" s="10">
+        <v>383</v>
+      </c>
+      <c r="L387" s="10" t="str">
+        <f t="shared" si="72"/>
+        <v>43,55</v>
+      </c>
+      <c r="M387" s="10" t="str">
+        <f t="shared" si="73"/>
+        <v>385,0.72</v>
+      </c>
+    </row>
+    <row r="388" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D388" s="10">
+        <v>384</v>
+      </c>
+      <c r="E388" t="str">
+        <f t="shared" si="74"/>
+        <v>귀살 베기</v>
+      </c>
+      <c r="F388">
+        <f t="shared" si="68"/>
+        <v>60</v>
+      </c>
+      <c r="G388">
+        <f t="shared" si="69"/>
+        <v>117</v>
+      </c>
+      <c r="H388" t="str">
+        <f t="shared" si="75"/>
+        <v>흉수 베기</v>
+      </c>
+      <c r="I388">
+        <f t="shared" si="70"/>
+        <v>46</v>
+      </c>
+      <c r="J388">
+        <f t="shared" si="71"/>
+        <v>1700</v>
+      </c>
+      <c r="K388" s="10">
+        <v>384</v>
+      </c>
+      <c r="L388" s="10" t="str">
+        <f t="shared" si="72"/>
+        <v>60,46</v>
+      </c>
+      <c r="M388" s="10" t="str">
+        <f t="shared" si="73"/>
+        <v>1.17,17</v>
+      </c>
+    </row>
+    <row r="389" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D389" s="10">
+        <v>385</v>
+      </c>
+      <c r="E389" t="str">
+        <f t="shared" si="74"/>
+        <v>지옥 베기</v>
+      </c>
+      <c r="F389">
+        <f t="shared" si="68"/>
+        <v>35</v>
+      </c>
+      <c r="G389">
+        <f t="shared" si="69"/>
+        <v>360000</v>
+      </c>
+      <c r="H389" t="str">
+        <f t="shared" si="75"/>
+        <v>신선 베기</v>
+      </c>
+      <c r="I389">
+        <f t="shared" si="70"/>
+        <v>54</v>
+      </c>
+      <c r="J389">
+        <f t="shared" si="71"/>
+        <v>485</v>
+      </c>
+      <c r="K389" s="10">
+        <v>385</v>
+      </c>
+      <c r="L389" s="10" t="str">
+        <f t="shared" si="72"/>
+        <v>35,54</v>
+      </c>
+      <c r="M389" s="10" t="str">
+        <f t="shared" si="73"/>
+        <v>3600,4.85</v>
+      </c>
+    </row>
+    <row r="390" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D390" s="10">
+        <v>386</v>
+      </c>
+      <c r="E390" t="str">
+        <f t="shared" si="74"/>
+        <v>천상 베기</v>
+      </c>
+      <c r="F390">
+        <f t="shared" si="68"/>
+        <v>36</v>
+      </c>
+      <c r="G390">
+        <f t="shared" si="69"/>
+        <v>185000</v>
+      </c>
+      <c r="H390" t="str">
+        <f t="shared" si="75"/>
+        <v>심연 베기</v>
+      </c>
+      <c r="I390">
+        <f t="shared" si="70"/>
+        <v>50</v>
+      </c>
+      <c r="J390">
+        <f t="shared" si="71"/>
+        <v>5350</v>
+      </c>
+      <c r="K390" s="10">
+        <v>386</v>
+      </c>
+      <c r="L390" s="10" t="str">
+        <f t="shared" si="72"/>
+        <v>36,50</v>
+      </c>
+      <c r="M390" s="10" t="str">
+        <f t="shared" si="73"/>
+        <v>1850,53.5</v>
+      </c>
+    </row>
+    <row r="391" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D391" s="9">
+        <v>387</v>
+      </c>
+      <c r="E391" t="str">
+        <f t="shared" si="74"/>
+        <v>귀신 베기</v>
+      </c>
+      <c r="F391">
+        <f t="shared" si="68"/>
+        <v>39</v>
+      </c>
+      <c r="G391">
+        <f t="shared" si="69"/>
+        <v>112000</v>
+      </c>
+      <c r="H391" t="str">
+        <f t="shared" si="75"/>
+        <v>섬광 베기</v>
+      </c>
+      <c r="I391">
+        <f t="shared" si="70"/>
+        <v>47</v>
+      </c>
+      <c r="J391">
+        <f t="shared" si="71"/>
+        <v>18000</v>
+      </c>
+      <c r="K391" s="10">
+        <v>387</v>
+      </c>
+      <c r="L391" s="10" t="str">
+        <f t="shared" si="72"/>
+        <v>39,47</v>
+      </c>
+      <c r="M391" s="10" t="str">
+        <f t="shared" si="73"/>
+        <v>1120,180</v>
+      </c>
+    </row>
+    <row r="392" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D392" s="10">
+        <v>388</v>
+      </c>
+      <c r="E392" t="str">
+        <f t="shared" si="74"/>
+        <v>금강 베기</v>
+      </c>
+      <c r="F392">
+        <f t="shared" si="68"/>
+        <v>43</v>
+      </c>
+      <c r="G392">
+        <f t="shared" si="69"/>
+        <v>39000</v>
+      </c>
+      <c r="H392" t="str">
+        <f t="shared" si="75"/>
+        <v>태극 베기</v>
+      </c>
+      <c r="I392">
+        <f t="shared" si="70"/>
+        <v>55</v>
+      </c>
+      <c r="J392">
+        <f t="shared" si="71"/>
+        <v>73</v>
+      </c>
+      <c r="K392" s="10">
+        <v>388</v>
+      </c>
+      <c r="L392" s="10" t="str">
+        <f t="shared" si="72"/>
+        <v>43,55</v>
+      </c>
+      <c r="M392" s="10" t="str">
+        <f t="shared" si="73"/>
+        <v>390,0.73</v>
+      </c>
+    </row>
+    <row r="393" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D393" s="10">
+        <v>389</v>
+      </c>
+      <c r="E393" t="str">
+        <f t="shared" si="74"/>
+        <v>귀살 베기</v>
+      </c>
+      <c r="F393">
+        <f t="shared" si="68"/>
+        <v>60</v>
+      </c>
+      <c r="G393">
+        <f t="shared" si="69"/>
+        <v>118</v>
+      </c>
+      <c r="H393" t="str">
+        <f t="shared" si="75"/>
+        <v>천구 베기</v>
+      </c>
+      <c r="I393">
+        <f t="shared" si="70"/>
+        <v>61</v>
+      </c>
+      <c r="J393">
+        <f t="shared" si="71"/>
+        <v>70</v>
+      </c>
+      <c r="K393" s="10">
+        <v>389</v>
+      </c>
+      <c r="L393" s="10" t="str">
+        <f t="shared" si="72"/>
+        <v>60,61</v>
+      </c>
+      <c r="M393" s="10" t="str">
+        <f t="shared" si="73"/>
+        <v>1.18,0.7</v>
+      </c>
+    </row>
+    <row r="394" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D394" s="10">
+        <v>390</v>
+      </c>
+      <c r="E394" t="str">
+        <f t="shared" si="74"/>
+        <v>지옥 베기</v>
+      </c>
+      <c r="F394">
+        <f t="shared" si="68"/>
+        <v>35</v>
+      </c>
+      <c r="G394">
+        <f t="shared" si="69"/>
+        <v>365000</v>
+      </c>
+      <c r="H394" t="str">
+        <f t="shared" si="75"/>
+        <v>신선 베기</v>
+      </c>
+      <c r="I394">
+        <f t="shared" si="70"/>
+        <v>54</v>
+      </c>
+      <c r="J394">
+        <f t="shared" si="71"/>
+        <v>490</v>
+      </c>
+      <c r="K394" s="10">
+        <v>390</v>
+      </c>
+      <c r="L394" s="10" t="str">
+        <f t="shared" si="72"/>
+        <v>35,54</v>
+      </c>
+      <c r="M394" s="10" t="str">
+        <f t="shared" si="73"/>
+        <v>3650,4.9</v>
+      </c>
+    </row>
+    <row r="395" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D395" s="10">
+        <v>391</v>
+      </c>
+      <c r="E395" t="str">
+        <f t="shared" si="74"/>
+        <v>천상 베기</v>
+      </c>
+      <c r="F395">
+        <f t="shared" si="68"/>
+        <v>36</v>
+      </c>
+      <c r="G395">
+        <f t="shared" si="69"/>
+        <v>187500</v>
+      </c>
+      <c r="H395" t="str">
+        <f t="shared" si="75"/>
+        <v>심연 베기</v>
+      </c>
+      <c r="I395">
+        <f t="shared" si="70"/>
+        <v>50</v>
+      </c>
+      <c r="J395">
+        <f t="shared" si="71"/>
+        <v>5425</v>
+      </c>
+      <c r="K395" s="10">
+        <v>391</v>
+      </c>
+      <c r="L395" s="10" t="str">
+        <f t="shared" si="72"/>
+        <v>36,50</v>
+      </c>
+      <c r="M395" s="10" t="str">
+        <f t="shared" si="73"/>
+        <v>1875,54.25</v>
+      </c>
+    </row>
+    <row r="396" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D396" s="10">
+        <v>392</v>
+      </c>
+      <c r="E396" t="str">
+        <f t="shared" si="74"/>
+        <v>귀신 베기</v>
+      </c>
+      <c r="F396">
+        <f t="shared" si="68"/>
+        <v>39</v>
+      </c>
+      <c r="G396">
+        <f t="shared" si="69"/>
+        <v>113500</v>
+      </c>
+      <c r="H396" t="str">
+        <f t="shared" si="75"/>
+        <v>섬광 베기</v>
+      </c>
+      <c r="I396">
+        <f t="shared" si="70"/>
+        <v>47</v>
+      </c>
+      <c r="J396">
+        <f t="shared" si="71"/>
+        <v>18250</v>
+      </c>
+      <c r="K396" s="10">
+        <v>392</v>
+      </c>
+      <c r="L396" s="10" t="str">
+        <f t="shared" si="72"/>
+        <v>39,47</v>
+      </c>
+      <c r="M396" s="10" t="str">
+        <f t="shared" si="73"/>
+        <v>1135,182.5</v>
+      </c>
+    </row>
+    <row r="397" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D397" s="10">
+        <v>393</v>
+      </c>
+      <c r="E397" t="str">
+        <f t="shared" si="74"/>
+        <v>금강 베기</v>
+      </c>
+      <c r="F397">
+        <f t="shared" si="68"/>
+        <v>43</v>
+      </c>
+      <c r="G397">
+        <f t="shared" si="69"/>
+        <v>39500</v>
+      </c>
+      <c r="H397" t="str">
+        <f t="shared" si="75"/>
+        <v>태극 베기</v>
+      </c>
+      <c r="I397">
+        <f t="shared" si="70"/>
+        <v>55</v>
+      </c>
+      <c r="J397">
+        <f t="shared" si="71"/>
+        <v>74</v>
+      </c>
+      <c r="K397" s="10">
+        <v>393</v>
+      </c>
+      <c r="L397" s="10" t="str">
+        <f t="shared" si="72"/>
+        <v>43,55</v>
+      </c>
+      <c r="M397" s="10" t="str">
+        <f t="shared" si="73"/>
+        <v>395,0.74</v>
+      </c>
+    </row>
+    <row r="398" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D398" s="10">
+        <v>394</v>
+      </c>
+      <c r="E398" t="str">
+        <f t="shared" si="74"/>
+        <v>귀살 베기</v>
+      </c>
+      <c r="F398">
+        <f t="shared" si="68"/>
+        <v>60</v>
+      </c>
+      <c r="G398">
+        <f t="shared" si="69"/>
+        <v>119</v>
+      </c>
+      <c r="H398" t="str">
+        <f t="shared" si="75"/>
+        <v>신수 베기</v>
+      </c>
+      <c r="I398">
+        <f t="shared" si="70"/>
+        <v>42</v>
+      </c>
+      <c r="J398">
+        <f t="shared" si="71"/>
+        <v>17500</v>
+      </c>
+      <c r="K398" s="10">
+        <v>394</v>
+      </c>
+      <c r="L398" s="10" t="str">
+        <f t="shared" si="72"/>
+        <v>60,42</v>
+      </c>
+      <c r="M398" s="10" t="str">
+        <f t="shared" si="73"/>
+        <v>1.19,175</v>
+      </c>
+    </row>
+    <row r="399" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D399" s="10">
+        <v>395</v>
+      </c>
+      <c r="E399" t="str">
+        <f t="shared" si="74"/>
+        <v>지옥 베기</v>
+      </c>
+      <c r="F399">
+        <f t="shared" si="68"/>
+        <v>35</v>
+      </c>
+      <c r="G399">
+        <f t="shared" si="69"/>
+        <v>370000</v>
+      </c>
+      <c r="H399" t="str">
+        <f t="shared" si="75"/>
+        <v>신선 베기</v>
+      </c>
+      <c r="I399">
+        <f t="shared" si="70"/>
+        <v>54</v>
+      </c>
+      <c r="J399">
+        <f t="shared" si="71"/>
+        <v>495</v>
+      </c>
+      <c r="K399" s="10">
+        <v>395</v>
+      </c>
+      <c r="L399" s="10" t="str">
+        <f t="shared" si="72"/>
+        <v>35,54</v>
+      </c>
+      <c r="M399" s="10" t="str">
+        <f t="shared" si="73"/>
+        <v>3700,4.95</v>
+      </c>
+    </row>
+    <row r="400" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D400" s="10">
+        <v>396</v>
+      </c>
+      <c r="E400" t="str">
+        <f t="shared" si="74"/>
+        <v>천상 베기</v>
+      </c>
+      <c r="F400">
+        <f t="shared" si="68"/>
+        <v>36</v>
+      </c>
+      <c r="G400">
+        <f t="shared" si="69"/>
+        <v>190000</v>
+      </c>
+      <c r="H400" t="str">
+        <f t="shared" si="75"/>
+        <v>심연 베기</v>
+      </c>
+      <c r="I400">
+        <f t="shared" si="70"/>
+        <v>50</v>
+      </c>
+      <c r="J400">
+        <f t="shared" si="71"/>
+        <v>5500</v>
+      </c>
+      <c r="K400" s="10">
+        <v>396</v>
+      </c>
+      <c r="L400" s="10" t="str">
+        <f t="shared" si="72"/>
+        <v>36,50</v>
+      </c>
+      <c r="M400" s="10" t="str">
+        <f t="shared" si="73"/>
+        <v>1900,55</v>
+      </c>
+    </row>
+    <row r="401" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D401" s="10">
+        <v>397</v>
+      </c>
+      <c r="E401" t="str">
+        <f t="shared" si="74"/>
+        <v>귀신 베기</v>
+      </c>
+      <c r="F401">
+        <f t="shared" si="68"/>
+        <v>39</v>
+      </c>
+      <c r="G401">
+        <f t="shared" si="69"/>
+        <v>115000</v>
+      </c>
+      <c r="H401" t="str">
+        <f t="shared" si="75"/>
+        <v>섬광 베기</v>
+      </c>
+      <c r="I401">
+        <f t="shared" si="70"/>
+        <v>47</v>
+      </c>
+      <c r="J401">
+        <f t="shared" si="71"/>
+        <v>18500</v>
+      </c>
+      <c r="K401" s="10">
+        <v>397</v>
+      </c>
+      <c r="L401" s="10" t="str">
+        <f t="shared" si="72"/>
+        <v>39,47</v>
+      </c>
+      <c r="M401" s="10" t="str">
+        <f t="shared" si="73"/>
+        <v>1150,185</v>
+      </c>
+    </row>
+    <row r="402" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D402" s="10">
+        <v>398</v>
+      </c>
+      <c r="E402" t="str">
+        <f t="shared" si="74"/>
+        <v>금강 베기</v>
+      </c>
+      <c r="F402">
+        <f t="shared" si="68"/>
+        <v>43</v>
+      </c>
+      <c r="G402">
+        <f t="shared" si="69"/>
+        <v>40000</v>
+      </c>
+      <c r="H402" t="str">
+        <f t="shared" si="75"/>
+        <v>태극 베기</v>
+      </c>
+      <c r="I402">
+        <f t="shared" si="70"/>
+        <v>55</v>
+      </c>
+      <c r="J402">
+        <f t="shared" si="71"/>
+        <v>75</v>
+      </c>
+      <c r="K402" s="10">
+        <v>398</v>
+      </c>
+      <c r="L402" s="10" t="str">
+        <f t="shared" si="72"/>
+        <v>43,55</v>
+      </c>
+      <c r="M402" s="10" t="str">
+        <f t="shared" si="73"/>
+        <v>400,0.75</v>
+      </c>
+    </row>
+    <row r="403" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D403" s="9">
+        <v>399</v>
+      </c>
+      <c r="E403" t="str">
+        <f t="shared" si="74"/>
+        <v>귀살 베기</v>
+      </c>
+      <c r="F403">
+        <f t="shared" si="68"/>
+        <v>60</v>
+      </c>
+      <c r="G403">
+        <f t="shared" si="69"/>
+        <v>120</v>
+      </c>
+      <c r="H403" t="str">
+        <f t="shared" si="75"/>
+        <v>흉수 베기</v>
+      </c>
+      <c r="I403">
+        <f t="shared" si="70"/>
+        <v>46</v>
+      </c>
+      <c r="J403">
+        <f t="shared" si="71"/>
+        <v>1750</v>
+      </c>
+      <c r="K403" s="10">
+        <v>399</v>
+      </c>
+      <c r="L403" s="10" t="str">
+        <f t="shared" si="72"/>
+        <v>60,46</v>
+      </c>
+      <c r="M403" s="10" t="str">
+        <f t="shared" si="73"/>
+        <v>1.2,17.5</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/Meditation.xlsx
+++ b/Assets/06.Table/Meditation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45AE3311-12F9-42A0-964C-222F7FF3AD46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45FD5F25-ED25-45A5-82A1-7EEBEEAABE2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -1990,11 +1990,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E801"/>
+  <dimension ref="A1:E901"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A787" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B794" sqref="B794"/>
+      <pane ySplit="1" topLeftCell="A870" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C881" sqref="C881"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -18823,9 +18823,2109 @@
         <v>0</v>
       </c>
     </row>
+    <row r="802" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A802">
+        <v>800</v>
+      </c>
+      <c r="B802" s="18" t="str">
+        <f>VLOOKUP(A802,AbilBalance!D:M,9,FALSE)</f>
+        <v>35,54</v>
+      </c>
+      <c r="C802" s="19" t="str">
+        <f>VLOOKUP(A802,AbilBalance!D:M,10,FALSE)</f>
+        <v>5005,6.255</v>
+      </c>
+      <c r="D802">
+        <f>ROUNDUP(VLOOKUP(A802,LevelBalance!U:V,2,FALSE)/(24*60),0)</f>
+        <v>3160</v>
+      </c>
+      <c r="E802">
+        <f>VLOOKUP(A802,LevelBalance!U:X,4,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="803" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A803">
+        <v>801</v>
+      </c>
+      <c r="B803" s="18" t="str">
+        <f>VLOOKUP(A803,AbilBalance!D:M,9,FALSE)</f>
+        <v>36,50</v>
+      </c>
+      <c r="C803" s="19" t="str">
+        <f>VLOOKUP(A803,AbilBalance!D:M,10,FALSE)</f>
+        <v>2552.5,74.575</v>
+      </c>
+      <c r="D803">
+        <f>ROUNDUP(VLOOKUP(A803,LevelBalance!U:V,2,FALSE)/(24*60),0)</f>
+        <v>3160</v>
+      </c>
+      <c r="E803">
+        <f>VLOOKUP(A803,LevelBalance!U:X,4,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="804" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A804">
+        <v>802</v>
+      </c>
+      <c r="B804" s="18" t="str">
+        <f>VLOOKUP(A804,AbilBalance!D:M,9,FALSE)</f>
+        <v>39,47</v>
+      </c>
+      <c r="C804" s="19" t="str">
+        <f>VLOOKUP(A804,AbilBalance!D:M,10,FALSE)</f>
+        <v>1541.5,250.25</v>
+      </c>
+      <c r="D804">
+        <f>ROUNDUP(VLOOKUP(A804,LevelBalance!U:V,2,FALSE)/(24*60),0)</f>
+        <v>3160</v>
+      </c>
+      <c r="E804">
+        <f>VLOOKUP(A804,LevelBalance!U:X,4,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="805" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A805">
+        <v>803</v>
+      </c>
+      <c r="B805" s="18" t="str">
+        <f>VLOOKUP(A805,AbilBalance!D:M,9,FALSE)</f>
+        <v>43,55</v>
+      </c>
+      <c r="C805" s="19" t="str">
+        <f>VLOOKUP(A805,AbilBalance!D:M,10,FALSE)</f>
+        <v>530.5,1.011</v>
+      </c>
+      <c r="D805">
+        <f>ROUNDUP(VLOOKUP(A805,LevelBalance!U:V,2,FALSE)/(24*60),0)</f>
+        <v>3160</v>
+      </c>
+      <c r="E805">
+        <f>VLOOKUP(A805,LevelBalance!U:X,4,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="806" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A806">
+        <v>804</v>
+      </c>
+      <c r="B806" s="18" t="str">
+        <f>VLOOKUP(A806,AbilBalance!D:M,9,FALSE)</f>
+        <v>60,46</v>
+      </c>
+      <c r="C806" s="19" t="str">
+        <f>VLOOKUP(A806,AbilBalance!D:M,10,FALSE)</f>
+        <v>1.461,21.55</v>
+      </c>
+      <c r="D806">
+        <f>ROUNDUP(VLOOKUP(A806,LevelBalance!U:V,2,FALSE)/(24*60),0)</f>
+        <v>3160</v>
+      </c>
+      <c r="E806">
+        <f>VLOOKUP(A806,LevelBalance!U:X,4,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="807" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A807">
+        <v>805</v>
+      </c>
+      <c r="B807" s="18" t="str">
+        <f>VLOOKUP(A807,AbilBalance!D:M,9,FALSE)</f>
+        <v>35,54</v>
+      </c>
+      <c r="C807" s="19" t="str">
+        <f>VLOOKUP(A807,AbilBalance!D:M,10,FALSE)</f>
+        <v>5010,6.26</v>
+      </c>
+      <c r="D807">
+        <f>ROUNDUP(VLOOKUP(A807,LevelBalance!U:V,2,FALSE)/(24*60),0)</f>
+        <v>3195</v>
+      </c>
+      <c r="E807">
+        <f>VLOOKUP(A807,LevelBalance!U:X,4,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="808" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A808">
+        <v>806</v>
+      </c>
+      <c r="B808" s="18" t="str">
+        <f>VLOOKUP(A808,AbilBalance!D:M,9,FALSE)</f>
+        <v>36,50</v>
+      </c>
+      <c r="C808" s="19" t="str">
+        <f>VLOOKUP(A808,AbilBalance!D:M,10,FALSE)</f>
+        <v>2555,74.65</v>
+      </c>
+      <c r="D808">
+        <f>ROUNDUP(VLOOKUP(A808,LevelBalance!U:V,2,FALSE)/(24*60),0)</f>
+        <v>3195</v>
+      </c>
+      <c r="E808">
+        <f>VLOOKUP(A808,LevelBalance!U:X,4,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="809" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A809">
+        <v>807</v>
+      </c>
+      <c r="B809" s="18" t="str">
+        <f>VLOOKUP(A809,AbilBalance!D:M,9,FALSE)</f>
+        <v>39,47</v>
+      </c>
+      <c r="C809" s="19" t="str">
+        <f>VLOOKUP(A809,AbilBalance!D:M,10,FALSE)</f>
+        <v>1543,250.5</v>
+      </c>
+      <c r="D809">
+        <f>ROUNDUP(VLOOKUP(A809,LevelBalance!U:V,2,FALSE)/(24*60),0)</f>
+        <v>3195</v>
+      </c>
+      <c r="E809">
+        <f>VLOOKUP(A809,LevelBalance!U:X,4,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="810" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A810">
+        <v>808</v>
+      </c>
+      <c r="B810" s="18" t="str">
+        <f>VLOOKUP(A810,AbilBalance!D:M,9,FALSE)</f>
+        <v>43,55</v>
+      </c>
+      <c r="C810" s="19" t="str">
+        <f>VLOOKUP(A810,AbilBalance!D:M,10,FALSE)</f>
+        <v>531,1.012</v>
+      </c>
+      <c r="D810">
+        <f>ROUNDUP(VLOOKUP(A810,LevelBalance!U:V,2,FALSE)/(24*60),0)</f>
+        <v>3195</v>
+      </c>
+      <c r="E810">
+        <f>VLOOKUP(A810,LevelBalance!U:X,4,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="811" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A811">
+        <v>809</v>
+      </c>
+      <c r="B811" s="18" t="str">
+        <f>VLOOKUP(A811,AbilBalance!D:M,9,FALSE)</f>
+        <v>60,61</v>
+      </c>
+      <c r="C811" s="19" t="str">
+        <f>VLOOKUP(A811,AbilBalance!D:M,10,FALSE)</f>
+        <v>1.462,0.9275</v>
+      </c>
+      <c r="D811">
+        <f>ROUNDUP(VLOOKUP(A811,LevelBalance!U:V,2,FALSE)/(24*60),0)</f>
+        <v>3195</v>
+      </c>
+      <c r="E811">
+        <f>VLOOKUP(A811,LevelBalance!U:X,4,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="812" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A812">
+        <v>810</v>
+      </c>
+      <c r="B812" s="18" t="str">
+        <f>VLOOKUP(A812,AbilBalance!D:M,9,FALSE)</f>
+        <v>35,54</v>
+      </c>
+      <c r="C812" s="19" t="str">
+        <f>VLOOKUP(A812,AbilBalance!D:M,10,FALSE)</f>
+        <v>5015,6.265</v>
+      </c>
+      <c r="D812">
+        <f>ROUNDUP(VLOOKUP(A812,LevelBalance!U:V,2,FALSE)/(24*60),0)</f>
+        <v>3195</v>
+      </c>
+      <c r="E812">
+        <f>VLOOKUP(A812,LevelBalance!U:X,4,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="813" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A813">
+        <v>811</v>
+      </c>
+      <c r="B813" s="18" t="str">
+        <f>VLOOKUP(A813,AbilBalance!D:M,9,FALSE)</f>
+        <v>36,50</v>
+      </c>
+      <c r="C813" s="19" t="str">
+        <f>VLOOKUP(A813,AbilBalance!D:M,10,FALSE)</f>
+        <v>2557.5,74.725</v>
+      </c>
+      <c r="D813">
+        <f>ROUNDUP(VLOOKUP(A813,LevelBalance!U:V,2,FALSE)/(24*60),0)</f>
+        <v>3195</v>
+      </c>
+      <c r="E813">
+        <f>VLOOKUP(A813,LevelBalance!U:X,4,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="814" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A814">
+        <v>812</v>
+      </c>
+      <c r="B814" s="18" t="str">
+        <f>VLOOKUP(A814,AbilBalance!D:M,9,FALSE)</f>
+        <v>39,47</v>
+      </c>
+      <c r="C814" s="19" t="str">
+        <f>VLOOKUP(A814,AbilBalance!D:M,10,FALSE)</f>
+        <v>1544.5,250.75</v>
+      </c>
+      <c r="D814">
+        <f>ROUNDUP(VLOOKUP(A814,LevelBalance!U:V,2,FALSE)/(24*60),0)</f>
+        <v>3195</v>
+      </c>
+      <c r="E814">
+        <f>VLOOKUP(A814,LevelBalance!U:X,4,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="815" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A815">
+        <v>813</v>
+      </c>
+      <c r="B815" s="18" t="str">
+        <f>VLOOKUP(A815,AbilBalance!D:M,9,FALSE)</f>
+        <v>43,55</v>
+      </c>
+      <c r="C815" s="19" t="str">
+        <f>VLOOKUP(A815,AbilBalance!D:M,10,FALSE)</f>
+        <v>531.5,1.013</v>
+      </c>
+      <c r="D815">
+        <f>ROUNDUP(VLOOKUP(A815,LevelBalance!U:V,2,FALSE)/(24*60),0)</f>
+        <v>3195</v>
+      </c>
+      <c r="E815">
+        <f>VLOOKUP(A815,LevelBalance!U:X,4,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="816" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A816">
+        <v>814</v>
+      </c>
+      <c r="B816" s="18" t="str">
+        <f>VLOOKUP(A816,AbilBalance!D:M,9,FALSE)</f>
+        <v>60,42</v>
+      </c>
+      <c r="C816" s="19" t="str">
+        <f>VLOOKUP(A816,AbilBalance!D:M,10,FALSE)</f>
+        <v>1.463,220.5</v>
+      </c>
+      <c r="D816">
+        <f>ROUNDUP(VLOOKUP(A816,LevelBalance!U:V,2,FALSE)/(24*60),0)</f>
+        <v>3195</v>
+      </c>
+      <c r="E816">
+        <f>VLOOKUP(A816,LevelBalance!U:X,4,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="817" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A817">
+        <v>815</v>
+      </c>
+      <c r="B817" s="18" t="str">
+        <f>VLOOKUP(A817,AbilBalance!D:M,9,FALSE)</f>
+        <v>35,54</v>
+      </c>
+      <c r="C817" s="19" t="str">
+        <f>VLOOKUP(A817,AbilBalance!D:M,10,FALSE)</f>
+        <v>5020,6.27</v>
+      </c>
+      <c r="D817">
+        <f>ROUNDUP(VLOOKUP(A817,LevelBalance!U:V,2,FALSE)/(24*60),0)</f>
+        <v>3230</v>
+      </c>
+      <c r="E817">
+        <f>VLOOKUP(A817,LevelBalance!U:X,4,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="818" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A818">
+        <v>816</v>
+      </c>
+      <c r="B818" s="18" t="str">
+        <f>VLOOKUP(A818,AbilBalance!D:M,9,FALSE)</f>
+        <v>36,50</v>
+      </c>
+      <c r="C818" s="19" t="str">
+        <f>VLOOKUP(A818,AbilBalance!D:M,10,FALSE)</f>
+        <v>2560,74.8</v>
+      </c>
+      <c r="D818">
+        <f>ROUNDUP(VLOOKUP(A818,LevelBalance!U:V,2,FALSE)/(24*60),0)</f>
+        <v>3230</v>
+      </c>
+      <c r="E818">
+        <f>VLOOKUP(A818,LevelBalance!U:X,4,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="819" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A819">
+        <v>817</v>
+      </c>
+      <c r="B819" s="18" t="str">
+        <f>VLOOKUP(A819,AbilBalance!D:M,9,FALSE)</f>
+        <v>39,47</v>
+      </c>
+      <c r="C819" s="19" t="str">
+        <f>VLOOKUP(A819,AbilBalance!D:M,10,FALSE)</f>
+        <v>1546,251</v>
+      </c>
+      <c r="D819">
+        <f>ROUNDUP(VLOOKUP(A819,LevelBalance!U:V,2,FALSE)/(24*60),0)</f>
+        <v>3230</v>
+      </c>
+      <c r="E819">
+        <f>VLOOKUP(A819,LevelBalance!U:X,4,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="820" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A820">
+        <v>818</v>
+      </c>
+      <c r="B820" s="18" t="str">
+        <f>VLOOKUP(A820,AbilBalance!D:M,9,FALSE)</f>
+        <v>43,55</v>
+      </c>
+      <c r="C820" s="19" t="str">
+        <f>VLOOKUP(A820,AbilBalance!D:M,10,FALSE)</f>
+        <v>532,1.014</v>
+      </c>
+      <c r="D820">
+        <f>ROUNDUP(VLOOKUP(A820,LevelBalance!U:V,2,FALSE)/(24*60),0)</f>
+        <v>3230</v>
+      </c>
+      <c r="E820">
+        <f>VLOOKUP(A820,LevelBalance!U:X,4,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="821" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A821">
+        <v>819</v>
+      </c>
+      <c r="B821" s="18" t="str">
+        <f>VLOOKUP(A821,AbilBalance!D:M,9,FALSE)</f>
+        <v>60,46</v>
+      </c>
+      <c r="C821" s="19" t="str">
+        <f>VLOOKUP(A821,AbilBalance!D:M,10,FALSE)</f>
+        <v>1.464,21.6</v>
+      </c>
+      <c r="D821">
+        <f>ROUNDUP(VLOOKUP(A821,LevelBalance!U:V,2,FALSE)/(24*60),0)</f>
+        <v>3230</v>
+      </c>
+      <c r="E821">
+        <f>VLOOKUP(A821,LevelBalance!U:X,4,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="822" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A822">
+        <v>820</v>
+      </c>
+      <c r="B822" s="18" t="str">
+        <f>VLOOKUP(A822,AbilBalance!D:M,9,FALSE)</f>
+        <v>35,54</v>
+      </c>
+      <c r="C822" s="19" t="str">
+        <f>VLOOKUP(A822,AbilBalance!D:M,10,FALSE)</f>
+        <v>5025,6.275</v>
+      </c>
+      <c r="D822">
+        <f>ROUNDUP(VLOOKUP(A822,LevelBalance!U:V,2,FALSE)/(24*60),0)</f>
+        <v>3230</v>
+      </c>
+      <c r="E822">
+        <f>VLOOKUP(A822,LevelBalance!U:X,4,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="823" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A823">
+        <v>821</v>
+      </c>
+      <c r="B823" s="18" t="str">
+        <f>VLOOKUP(A823,AbilBalance!D:M,9,FALSE)</f>
+        <v>36,50</v>
+      </c>
+      <c r="C823" s="19" t="str">
+        <f>VLOOKUP(A823,AbilBalance!D:M,10,FALSE)</f>
+        <v>2562.5,74.875</v>
+      </c>
+      <c r="D823">
+        <f>ROUNDUP(VLOOKUP(A823,LevelBalance!U:V,2,FALSE)/(24*60),0)</f>
+        <v>3230</v>
+      </c>
+      <c r="E823">
+        <f>VLOOKUP(A823,LevelBalance!U:X,4,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="824" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A824">
+        <v>822</v>
+      </c>
+      <c r="B824" s="18" t="str">
+        <f>VLOOKUP(A824,AbilBalance!D:M,9,FALSE)</f>
+        <v>39,47</v>
+      </c>
+      <c r="C824" s="19" t="str">
+        <f>VLOOKUP(A824,AbilBalance!D:M,10,FALSE)</f>
+        <v>1547.5,251.25</v>
+      </c>
+      <c r="D824">
+        <f>ROUNDUP(VLOOKUP(A824,LevelBalance!U:V,2,FALSE)/(24*60),0)</f>
+        <v>3230</v>
+      </c>
+      <c r="E824">
+        <f>VLOOKUP(A824,LevelBalance!U:X,4,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="825" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A825">
+        <v>823</v>
+      </c>
+      <c r="B825" s="18" t="str">
+        <f>VLOOKUP(A825,AbilBalance!D:M,9,FALSE)</f>
+        <v>43,55</v>
+      </c>
+      <c r="C825" s="19" t="str">
+        <f>VLOOKUP(A825,AbilBalance!D:M,10,FALSE)</f>
+        <v>532.5,1.015</v>
+      </c>
+      <c r="D825">
+        <f>ROUNDUP(VLOOKUP(A825,LevelBalance!U:V,2,FALSE)/(24*60),0)</f>
+        <v>3230</v>
+      </c>
+      <c r="E825">
+        <f>VLOOKUP(A825,LevelBalance!U:X,4,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="826" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A826">
+        <v>824</v>
+      </c>
+      <c r="B826" s="18" t="str">
+        <f>VLOOKUP(A826,AbilBalance!D:M,9,FALSE)</f>
+        <v>60,61</v>
+      </c>
+      <c r="C826" s="19" t="str">
+        <f>VLOOKUP(A826,AbilBalance!D:M,10,FALSE)</f>
+        <v>1.465,0.93</v>
+      </c>
+      <c r="D826">
+        <f>ROUNDUP(VLOOKUP(A826,LevelBalance!U:V,2,FALSE)/(24*60),0)</f>
+        <v>3230</v>
+      </c>
+      <c r="E826">
+        <f>VLOOKUP(A826,LevelBalance!U:X,4,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="827" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A827">
+        <v>825</v>
+      </c>
+      <c r="B827" s="18" t="str">
+        <f>VLOOKUP(A827,AbilBalance!D:M,9,FALSE)</f>
+        <v>35,54</v>
+      </c>
+      <c r="C827" s="19" t="str">
+        <f>VLOOKUP(A827,AbilBalance!D:M,10,FALSE)</f>
+        <v>5030,6.28</v>
+      </c>
+      <c r="D827">
+        <f>ROUNDUP(VLOOKUP(A827,LevelBalance!U:V,2,FALSE)/(24*60),0)</f>
+        <v>3264</v>
+      </c>
+      <c r="E827">
+        <f>VLOOKUP(A827,LevelBalance!U:X,4,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="828" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A828">
+        <v>826</v>
+      </c>
+      <c r="B828" s="18" t="str">
+        <f>VLOOKUP(A828,AbilBalance!D:M,9,FALSE)</f>
+        <v>36,50</v>
+      </c>
+      <c r="C828" s="19" t="str">
+        <f>VLOOKUP(A828,AbilBalance!D:M,10,FALSE)</f>
+        <v>2565,74.95</v>
+      </c>
+      <c r="D828">
+        <f>ROUNDUP(VLOOKUP(A828,LevelBalance!U:V,2,FALSE)/(24*60),0)</f>
+        <v>3264</v>
+      </c>
+      <c r="E828">
+        <f>VLOOKUP(A828,LevelBalance!U:X,4,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="829" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A829">
+        <v>827</v>
+      </c>
+      <c r="B829" s="18" t="str">
+        <f>VLOOKUP(A829,AbilBalance!D:M,9,FALSE)</f>
+        <v>39,47</v>
+      </c>
+      <c r="C829" s="19" t="str">
+        <f>VLOOKUP(A829,AbilBalance!D:M,10,FALSE)</f>
+        <v>1549,251.5</v>
+      </c>
+      <c r="D829">
+        <f>ROUNDUP(VLOOKUP(A829,LevelBalance!U:V,2,FALSE)/(24*60),0)</f>
+        <v>3264</v>
+      </c>
+      <c r="E829">
+        <f>VLOOKUP(A829,LevelBalance!U:X,4,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="830" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A830">
+        <v>828</v>
+      </c>
+      <c r="B830" s="18" t="str">
+        <f>VLOOKUP(A830,AbilBalance!D:M,9,FALSE)</f>
+        <v>43,55</v>
+      </c>
+      <c r="C830" s="19" t="str">
+        <f>VLOOKUP(A830,AbilBalance!D:M,10,FALSE)</f>
+        <v>533,1.016</v>
+      </c>
+      <c r="D830">
+        <f>ROUNDUP(VLOOKUP(A830,LevelBalance!U:V,2,FALSE)/(24*60),0)</f>
+        <v>3264</v>
+      </c>
+      <c r="E830">
+        <f>VLOOKUP(A830,LevelBalance!U:X,4,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="831" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A831">
+        <v>829</v>
+      </c>
+      <c r="B831" s="18" t="str">
+        <f>VLOOKUP(A831,AbilBalance!D:M,9,FALSE)</f>
+        <v>60,42</v>
+      </c>
+      <c r="C831" s="19" t="str">
+        <f>VLOOKUP(A831,AbilBalance!D:M,10,FALSE)</f>
+        <v>1.466,221</v>
+      </c>
+      <c r="D831">
+        <f>ROUNDUP(VLOOKUP(A831,LevelBalance!U:V,2,FALSE)/(24*60),0)</f>
+        <v>3264</v>
+      </c>
+      <c r="E831">
+        <f>VLOOKUP(A831,LevelBalance!U:X,4,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="832" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A832">
+        <v>830</v>
+      </c>
+      <c r="B832" s="18" t="str">
+        <f>VLOOKUP(A832,AbilBalance!D:M,9,FALSE)</f>
+        <v>35,54</v>
+      </c>
+      <c r="C832" s="19" t="str">
+        <f>VLOOKUP(A832,AbilBalance!D:M,10,FALSE)</f>
+        <v>5035,6.285</v>
+      </c>
+      <c r="D832">
+        <f>ROUNDUP(VLOOKUP(A832,LevelBalance!U:V,2,FALSE)/(24*60),0)</f>
+        <v>3264</v>
+      </c>
+      <c r="E832">
+        <f>VLOOKUP(A832,LevelBalance!U:X,4,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="833" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A833">
+        <v>831</v>
+      </c>
+      <c r="B833" s="18" t="str">
+        <f>VLOOKUP(A833,AbilBalance!D:M,9,FALSE)</f>
+        <v>36,50</v>
+      </c>
+      <c r="C833" s="19" t="str">
+        <f>VLOOKUP(A833,AbilBalance!D:M,10,FALSE)</f>
+        <v>2567.5,75.025</v>
+      </c>
+      <c r="D833">
+        <f>ROUNDUP(VLOOKUP(A833,LevelBalance!U:V,2,FALSE)/(24*60),0)</f>
+        <v>3264</v>
+      </c>
+      <c r="E833">
+        <f>VLOOKUP(A833,LevelBalance!U:X,4,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="834" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A834">
+        <v>832</v>
+      </c>
+      <c r="B834" s="18" t="str">
+        <f>VLOOKUP(A834,AbilBalance!D:M,9,FALSE)</f>
+        <v>39,47</v>
+      </c>
+      <c r="C834" s="19" t="str">
+        <f>VLOOKUP(A834,AbilBalance!D:M,10,FALSE)</f>
+        <v>1550.5,251.75</v>
+      </c>
+      <c r="D834">
+        <f>ROUNDUP(VLOOKUP(A834,LevelBalance!U:V,2,FALSE)/(24*60),0)</f>
+        <v>3264</v>
+      </c>
+      <c r="E834">
+        <f>VLOOKUP(A834,LevelBalance!U:X,4,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="835" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A835">
+        <v>833</v>
+      </c>
+      <c r="B835" s="18" t="str">
+        <f>VLOOKUP(A835,AbilBalance!D:M,9,FALSE)</f>
+        <v>43,55</v>
+      </c>
+      <c r="C835" s="19" t="str">
+        <f>VLOOKUP(A835,AbilBalance!D:M,10,FALSE)</f>
+        <v>533.5,1.017</v>
+      </c>
+      <c r="D835">
+        <f>ROUNDUP(VLOOKUP(A835,LevelBalance!U:V,2,FALSE)/(24*60),0)</f>
+        <v>3264</v>
+      </c>
+      <c r="E835">
+        <f>VLOOKUP(A835,LevelBalance!U:X,4,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="836" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A836">
+        <v>834</v>
+      </c>
+      <c r="B836" s="18" t="str">
+        <f>VLOOKUP(A836,AbilBalance!D:M,9,FALSE)</f>
+        <v>60,46</v>
+      </c>
+      <c r="C836" s="19" t="str">
+        <f>VLOOKUP(A836,AbilBalance!D:M,10,FALSE)</f>
+        <v>1.467,21.65</v>
+      </c>
+      <c r="D836">
+        <f>ROUNDUP(VLOOKUP(A836,LevelBalance!U:V,2,FALSE)/(24*60),0)</f>
+        <v>3264</v>
+      </c>
+      <c r="E836">
+        <f>VLOOKUP(A836,LevelBalance!U:X,4,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="837" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A837">
+        <v>835</v>
+      </c>
+      <c r="B837" s="18" t="str">
+        <f>VLOOKUP(A837,AbilBalance!D:M,9,FALSE)</f>
+        <v>35,54</v>
+      </c>
+      <c r="C837" s="19" t="str">
+        <f>VLOOKUP(A837,AbilBalance!D:M,10,FALSE)</f>
+        <v>5040,6.29</v>
+      </c>
+      <c r="D837">
+        <f>ROUNDUP(VLOOKUP(A837,LevelBalance!U:V,2,FALSE)/(24*60),0)</f>
+        <v>3299</v>
+      </c>
+      <c r="E837">
+        <f>VLOOKUP(A837,LevelBalance!U:X,4,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="838" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A838">
+        <v>836</v>
+      </c>
+      <c r="B838" s="18" t="str">
+        <f>VLOOKUP(A838,AbilBalance!D:M,9,FALSE)</f>
+        <v>36,50</v>
+      </c>
+      <c r="C838" s="19" t="str">
+        <f>VLOOKUP(A838,AbilBalance!D:M,10,FALSE)</f>
+        <v>2570,75.1</v>
+      </c>
+      <c r="D838">
+        <f>ROUNDUP(VLOOKUP(A838,LevelBalance!U:V,2,FALSE)/(24*60),0)</f>
+        <v>3299</v>
+      </c>
+      <c r="E838">
+        <f>VLOOKUP(A838,LevelBalance!U:X,4,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="839" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A839">
+        <v>837</v>
+      </c>
+      <c r="B839" s="18" t="str">
+        <f>VLOOKUP(A839,AbilBalance!D:M,9,FALSE)</f>
+        <v>39,47</v>
+      </c>
+      <c r="C839" s="19" t="str">
+        <f>VLOOKUP(A839,AbilBalance!D:M,10,FALSE)</f>
+        <v>1552,252</v>
+      </c>
+      <c r="D839">
+        <f>ROUNDUP(VLOOKUP(A839,LevelBalance!U:V,2,FALSE)/(24*60),0)</f>
+        <v>3299</v>
+      </c>
+      <c r="E839">
+        <f>VLOOKUP(A839,LevelBalance!U:X,4,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="840" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A840">
+        <v>838</v>
+      </c>
+      <c r="B840" s="18" t="str">
+        <f>VLOOKUP(A840,AbilBalance!D:M,9,FALSE)</f>
+        <v>43,55</v>
+      </c>
+      <c r="C840" s="19" t="str">
+        <f>VLOOKUP(A840,AbilBalance!D:M,10,FALSE)</f>
+        <v>534,1.018</v>
+      </c>
+      <c r="D840">
+        <f>ROUNDUP(VLOOKUP(A840,LevelBalance!U:V,2,FALSE)/(24*60),0)</f>
+        <v>3299</v>
+      </c>
+      <c r="E840">
+        <f>VLOOKUP(A840,LevelBalance!U:X,4,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="841" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A841">
+        <v>839</v>
+      </c>
+      <c r="B841" s="18" t="str">
+        <f>VLOOKUP(A841,AbilBalance!D:M,9,FALSE)</f>
+        <v>60,61</v>
+      </c>
+      <c r="C841" s="19" t="str">
+        <f>VLOOKUP(A841,AbilBalance!D:M,10,FALSE)</f>
+        <v>1.468,0.9325</v>
+      </c>
+      <c r="D841">
+        <f>ROUNDUP(VLOOKUP(A841,LevelBalance!U:V,2,FALSE)/(24*60),0)</f>
+        <v>3299</v>
+      </c>
+      <c r="E841">
+        <f>VLOOKUP(A841,LevelBalance!U:X,4,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="842" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A842">
+        <v>840</v>
+      </c>
+      <c r="B842" s="18" t="str">
+        <f>VLOOKUP(A842,AbilBalance!D:M,9,FALSE)</f>
+        <v>35,54</v>
+      </c>
+      <c r="C842" s="19" t="str">
+        <f>VLOOKUP(A842,AbilBalance!D:M,10,FALSE)</f>
+        <v>5045,6.295</v>
+      </c>
+      <c r="D842">
+        <f>ROUNDUP(VLOOKUP(A842,LevelBalance!U:V,2,FALSE)/(24*60),0)</f>
+        <v>3299</v>
+      </c>
+      <c r="E842">
+        <f>VLOOKUP(A842,LevelBalance!U:X,4,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="843" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A843">
+        <v>841</v>
+      </c>
+      <c r="B843" s="18" t="str">
+        <f>VLOOKUP(A843,AbilBalance!D:M,9,FALSE)</f>
+        <v>36,50</v>
+      </c>
+      <c r="C843" s="19" t="str">
+        <f>VLOOKUP(A843,AbilBalance!D:M,10,FALSE)</f>
+        <v>2572.5,75.175</v>
+      </c>
+      <c r="D843">
+        <f>ROUNDUP(VLOOKUP(A843,LevelBalance!U:V,2,FALSE)/(24*60),0)</f>
+        <v>3299</v>
+      </c>
+      <c r="E843">
+        <f>VLOOKUP(A843,LevelBalance!U:X,4,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="844" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A844">
+        <v>842</v>
+      </c>
+      <c r="B844" s="18" t="str">
+        <f>VLOOKUP(A844,AbilBalance!D:M,9,FALSE)</f>
+        <v>39,47</v>
+      </c>
+      <c r="C844" s="19" t="str">
+        <f>VLOOKUP(A844,AbilBalance!D:M,10,FALSE)</f>
+        <v>1553.5,252.25</v>
+      </c>
+      <c r="D844">
+        <f>ROUNDUP(VLOOKUP(A844,LevelBalance!U:V,2,FALSE)/(24*60),0)</f>
+        <v>3299</v>
+      </c>
+      <c r="E844">
+        <f>VLOOKUP(A844,LevelBalance!U:X,4,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="845" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A845">
+        <v>843</v>
+      </c>
+      <c r="B845" s="18" t="str">
+        <f>VLOOKUP(A845,AbilBalance!D:M,9,FALSE)</f>
+        <v>43,55</v>
+      </c>
+      <c r="C845" s="19" t="str">
+        <f>VLOOKUP(A845,AbilBalance!D:M,10,FALSE)</f>
+        <v>534.5,1.019</v>
+      </c>
+      <c r="D845">
+        <f>ROUNDUP(VLOOKUP(A845,LevelBalance!U:V,2,FALSE)/(24*60),0)</f>
+        <v>3299</v>
+      </c>
+      <c r="E845">
+        <f>VLOOKUP(A845,LevelBalance!U:X,4,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="846" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A846">
+        <v>844</v>
+      </c>
+      <c r="B846" s="18" t="str">
+        <f>VLOOKUP(A846,AbilBalance!D:M,9,FALSE)</f>
+        <v>60,42</v>
+      </c>
+      <c r="C846" s="19" t="str">
+        <f>VLOOKUP(A846,AbilBalance!D:M,10,FALSE)</f>
+        <v>1.469,221.5</v>
+      </c>
+      <c r="D846">
+        <f>ROUNDUP(VLOOKUP(A846,LevelBalance!U:V,2,FALSE)/(24*60),0)</f>
+        <v>3299</v>
+      </c>
+      <c r="E846">
+        <f>VLOOKUP(A846,LevelBalance!U:X,4,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="847" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A847">
+        <v>845</v>
+      </c>
+      <c r="B847" s="18" t="str">
+        <f>VLOOKUP(A847,AbilBalance!D:M,9,FALSE)</f>
+        <v>35,54</v>
+      </c>
+      <c r="C847" s="19" t="str">
+        <f>VLOOKUP(A847,AbilBalance!D:M,10,FALSE)</f>
+        <v>5050,6.3</v>
+      </c>
+      <c r="D847">
+        <f>ROUNDUP(VLOOKUP(A847,LevelBalance!U:V,2,FALSE)/(24*60),0)</f>
+        <v>3334</v>
+      </c>
+      <c r="E847">
+        <f>VLOOKUP(A847,LevelBalance!U:X,4,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="848" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A848">
+        <v>846</v>
+      </c>
+      <c r="B848" s="18" t="str">
+        <f>VLOOKUP(A848,AbilBalance!D:M,9,FALSE)</f>
+        <v>36,50</v>
+      </c>
+      <c r="C848" s="19" t="str">
+        <f>VLOOKUP(A848,AbilBalance!D:M,10,FALSE)</f>
+        <v>2575,75.25</v>
+      </c>
+      <c r="D848">
+        <f>ROUNDUP(VLOOKUP(A848,LevelBalance!U:V,2,FALSE)/(24*60),0)</f>
+        <v>3334</v>
+      </c>
+      <c r="E848">
+        <f>VLOOKUP(A848,LevelBalance!U:X,4,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="849" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A849">
+        <v>847</v>
+      </c>
+      <c r="B849" s="18" t="str">
+        <f>VLOOKUP(A849,AbilBalance!D:M,9,FALSE)</f>
+        <v>39,47</v>
+      </c>
+      <c r="C849" s="19" t="str">
+        <f>VLOOKUP(A849,AbilBalance!D:M,10,FALSE)</f>
+        <v>1555,252.5</v>
+      </c>
+      <c r="D849">
+        <f>ROUNDUP(VLOOKUP(A849,LevelBalance!U:V,2,FALSE)/(24*60),0)</f>
+        <v>3334</v>
+      </c>
+      <c r="E849">
+        <f>VLOOKUP(A849,LevelBalance!U:X,4,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="850" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A850">
+        <v>848</v>
+      </c>
+      <c r="B850" s="18" t="str">
+        <f>VLOOKUP(A850,AbilBalance!D:M,9,FALSE)</f>
+        <v>43,55</v>
+      </c>
+      <c r="C850" s="19" t="str">
+        <f>VLOOKUP(A850,AbilBalance!D:M,10,FALSE)</f>
+        <v>535,1.02</v>
+      </c>
+      <c r="D850">
+        <f>ROUNDUP(VLOOKUP(A850,LevelBalance!U:V,2,FALSE)/(24*60),0)</f>
+        <v>3334</v>
+      </c>
+      <c r="E850">
+        <f>VLOOKUP(A850,LevelBalance!U:X,4,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="851" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A851">
+        <v>849</v>
+      </c>
+      <c r="B851" s="18" t="str">
+        <f>VLOOKUP(A851,AbilBalance!D:M,9,FALSE)</f>
+        <v>60,46</v>
+      </c>
+      <c r="C851" s="19" t="str">
+        <f>VLOOKUP(A851,AbilBalance!D:M,10,FALSE)</f>
+        <v>1.47,21.7</v>
+      </c>
+      <c r="D851">
+        <f>ROUNDUP(VLOOKUP(A851,LevelBalance!U:V,2,FALSE)/(24*60),0)</f>
+        <v>3334</v>
+      </c>
+      <c r="E851">
+        <f>VLOOKUP(A851,LevelBalance!U:X,4,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="852" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A852">
+        <v>850</v>
+      </c>
+      <c r="B852" s="18" t="str">
+        <f>VLOOKUP(A852,AbilBalance!D:M,9,FALSE)</f>
+        <v>35,54</v>
+      </c>
+      <c r="C852" s="19" t="str">
+        <f>VLOOKUP(A852,AbilBalance!D:M,10,FALSE)</f>
+        <v>5055,6.305</v>
+      </c>
+      <c r="D852">
+        <f>ROUNDUP(VLOOKUP(A852,LevelBalance!U:V,2,FALSE)/(24*60),0)</f>
+        <v>3334</v>
+      </c>
+      <c r="E852">
+        <f>VLOOKUP(A852,LevelBalance!U:X,4,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="853" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A853">
+        <v>851</v>
+      </c>
+      <c r="B853" s="18" t="str">
+        <f>VLOOKUP(A853,AbilBalance!D:M,9,FALSE)</f>
+        <v>36,50</v>
+      </c>
+      <c r="C853" s="19" t="str">
+        <f>VLOOKUP(A853,AbilBalance!D:M,10,FALSE)</f>
+        <v>2577.5,75.325</v>
+      </c>
+      <c r="D853">
+        <f>ROUNDUP(VLOOKUP(A853,LevelBalance!U:V,2,FALSE)/(24*60),0)</f>
+        <v>3334</v>
+      </c>
+      <c r="E853">
+        <f>VLOOKUP(A853,LevelBalance!U:X,4,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="854" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A854">
+        <v>852</v>
+      </c>
+      <c r="B854" s="18" t="str">
+        <f>VLOOKUP(A854,AbilBalance!D:M,9,FALSE)</f>
+        <v>39,47</v>
+      </c>
+      <c r="C854" s="19" t="str">
+        <f>VLOOKUP(A854,AbilBalance!D:M,10,FALSE)</f>
+        <v>1556.5,252.75</v>
+      </c>
+      <c r="D854">
+        <f>ROUNDUP(VLOOKUP(A854,LevelBalance!U:V,2,FALSE)/(24*60),0)</f>
+        <v>3334</v>
+      </c>
+      <c r="E854">
+        <f>VLOOKUP(A854,LevelBalance!U:X,4,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="855" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A855">
+        <v>853</v>
+      </c>
+      <c r="B855" s="18" t="str">
+        <f>VLOOKUP(A855,AbilBalance!D:M,9,FALSE)</f>
+        <v>43,55</v>
+      </c>
+      <c r="C855" s="19" t="str">
+        <f>VLOOKUP(A855,AbilBalance!D:M,10,FALSE)</f>
+        <v>535.5,1.021</v>
+      </c>
+      <c r="D855">
+        <f>ROUNDUP(VLOOKUP(A855,LevelBalance!U:V,2,FALSE)/(24*60),0)</f>
+        <v>3334</v>
+      </c>
+      <c r="E855">
+        <f>VLOOKUP(A855,LevelBalance!U:X,4,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="856" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A856">
+        <v>854</v>
+      </c>
+      <c r="B856" s="18" t="str">
+        <f>VLOOKUP(A856,AbilBalance!D:M,9,FALSE)</f>
+        <v>60,61</v>
+      </c>
+      <c r="C856" s="19" t="str">
+        <f>VLOOKUP(A856,AbilBalance!D:M,10,FALSE)</f>
+        <v>1.471,0.935</v>
+      </c>
+      <c r="D856">
+        <f>ROUNDUP(VLOOKUP(A856,LevelBalance!U:V,2,FALSE)/(24*60),0)</f>
+        <v>3334</v>
+      </c>
+      <c r="E856">
+        <f>VLOOKUP(A856,LevelBalance!U:X,4,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="857" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A857">
+        <v>855</v>
+      </c>
+      <c r="B857" s="18" t="str">
+        <f>VLOOKUP(A857,AbilBalance!D:M,9,FALSE)</f>
+        <v>35,54</v>
+      </c>
+      <c r="C857" s="19" t="str">
+        <f>VLOOKUP(A857,AbilBalance!D:M,10,FALSE)</f>
+        <v>5060,6.31</v>
+      </c>
+      <c r="D857">
+        <f>ROUNDUP(VLOOKUP(A857,LevelBalance!U:V,2,FALSE)/(24*60),0)</f>
+        <v>3369</v>
+      </c>
+      <c r="E857">
+        <f>VLOOKUP(A857,LevelBalance!U:X,4,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="858" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A858">
+        <v>856</v>
+      </c>
+      <c r="B858" s="18" t="str">
+        <f>VLOOKUP(A858,AbilBalance!D:M,9,FALSE)</f>
+        <v>36,50</v>
+      </c>
+      <c r="C858" s="19" t="str">
+        <f>VLOOKUP(A858,AbilBalance!D:M,10,FALSE)</f>
+        <v>2580,75.4</v>
+      </c>
+      <c r="D858">
+        <f>ROUNDUP(VLOOKUP(A858,LevelBalance!U:V,2,FALSE)/(24*60),0)</f>
+        <v>3369</v>
+      </c>
+      <c r="E858">
+        <f>VLOOKUP(A858,LevelBalance!U:X,4,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="859" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A859">
+        <v>857</v>
+      </c>
+      <c r="B859" s="18" t="str">
+        <f>VLOOKUP(A859,AbilBalance!D:M,9,FALSE)</f>
+        <v>39,47</v>
+      </c>
+      <c r="C859" s="19" t="str">
+        <f>VLOOKUP(A859,AbilBalance!D:M,10,FALSE)</f>
+        <v>1558,253</v>
+      </c>
+      <c r="D859">
+        <f>ROUNDUP(VLOOKUP(A859,LevelBalance!U:V,2,FALSE)/(24*60),0)</f>
+        <v>3369</v>
+      </c>
+      <c r="E859">
+        <f>VLOOKUP(A859,LevelBalance!U:X,4,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="860" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A860">
+        <v>858</v>
+      </c>
+      <c r="B860" s="18" t="str">
+        <f>VLOOKUP(A860,AbilBalance!D:M,9,FALSE)</f>
+        <v>43,55</v>
+      </c>
+      <c r="C860" s="19" t="str">
+        <f>VLOOKUP(A860,AbilBalance!D:M,10,FALSE)</f>
+        <v>536,1.022</v>
+      </c>
+      <c r="D860">
+        <f>ROUNDUP(VLOOKUP(A860,LevelBalance!U:V,2,FALSE)/(24*60),0)</f>
+        <v>3369</v>
+      </c>
+      <c r="E860">
+        <f>VLOOKUP(A860,LevelBalance!U:X,4,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="861" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A861">
+        <v>859</v>
+      </c>
+      <c r="B861" s="18" t="str">
+        <f>VLOOKUP(A861,AbilBalance!D:M,9,FALSE)</f>
+        <v>60,42</v>
+      </c>
+      <c r="C861" s="19" t="str">
+        <f>VLOOKUP(A861,AbilBalance!D:M,10,FALSE)</f>
+        <v>1.472,222</v>
+      </c>
+      <c r="D861">
+        <f>ROUNDUP(VLOOKUP(A861,LevelBalance!U:V,2,FALSE)/(24*60),0)</f>
+        <v>3369</v>
+      </c>
+      <c r="E861">
+        <f>VLOOKUP(A861,LevelBalance!U:X,4,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="862" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A862">
+        <v>860</v>
+      </c>
+      <c r="B862" s="18" t="str">
+        <f>VLOOKUP(A862,AbilBalance!D:M,9,FALSE)</f>
+        <v>35,54</v>
+      </c>
+      <c r="C862" s="19" t="str">
+        <f>VLOOKUP(A862,AbilBalance!D:M,10,FALSE)</f>
+        <v>5065,6.315</v>
+      </c>
+      <c r="D862">
+        <f>ROUNDUP(VLOOKUP(A862,LevelBalance!U:V,2,FALSE)/(24*60),0)</f>
+        <v>3369</v>
+      </c>
+      <c r="E862">
+        <f>VLOOKUP(A862,LevelBalance!U:X,4,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="863" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A863">
+        <v>861</v>
+      </c>
+      <c r="B863" s="18" t="str">
+        <f>VLOOKUP(A863,AbilBalance!D:M,9,FALSE)</f>
+        <v>36,50</v>
+      </c>
+      <c r="C863" s="19" t="str">
+        <f>VLOOKUP(A863,AbilBalance!D:M,10,FALSE)</f>
+        <v>2582.5,75.475</v>
+      </c>
+      <c r="D863">
+        <f>ROUNDUP(VLOOKUP(A863,LevelBalance!U:V,2,FALSE)/(24*60),0)</f>
+        <v>3369</v>
+      </c>
+      <c r="E863">
+        <f>VLOOKUP(A863,LevelBalance!U:X,4,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="864" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A864">
+        <v>862</v>
+      </c>
+      <c r="B864" s="18" t="str">
+        <f>VLOOKUP(A864,AbilBalance!D:M,9,FALSE)</f>
+        <v>39,47</v>
+      </c>
+      <c r="C864" s="19" t="str">
+        <f>VLOOKUP(A864,AbilBalance!D:M,10,FALSE)</f>
+        <v>1559.5,253.25</v>
+      </c>
+      <c r="D864">
+        <f>ROUNDUP(VLOOKUP(A864,LevelBalance!U:V,2,FALSE)/(24*60),0)</f>
+        <v>3369</v>
+      </c>
+      <c r="E864">
+        <f>VLOOKUP(A864,LevelBalance!U:X,4,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="865" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A865">
+        <v>863</v>
+      </c>
+      <c r="B865" s="18" t="str">
+        <f>VLOOKUP(A865,AbilBalance!D:M,9,FALSE)</f>
+        <v>43,55</v>
+      </c>
+      <c r="C865" s="19" t="str">
+        <f>VLOOKUP(A865,AbilBalance!D:M,10,FALSE)</f>
+        <v>536.5,1.023</v>
+      </c>
+      <c r="D865">
+        <f>ROUNDUP(VLOOKUP(A865,LevelBalance!U:V,2,FALSE)/(24*60),0)</f>
+        <v>3369</v>
+      </c>
+      <c r="E865">
+        <f>VLOOKUP(A865,LevelBalance!U:X,4,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="866" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A866">
+        <v>864</v>
+      </c>
+      <c r="B866" s="18" t="str">
+        <f>VLOOKUP(A866,AbilBalance!D:M,9,FALSE)</f>
+        <v>60,46</v>
+      </c>
+      <c r="C866" s="19" t="str">
+        <f>VLOOKUP(A866,AbilBalance!D:M,10,FALSE)</f>
+        <v>1.473,21.75</v>
+      </c>
+      <c r="D866">
+        <f>ROUNDUP(VLOOKUP(A866,LevelBalance!U:V,2,FALSE)/(24*60),0)</f>
+        <v>3369</v>
+      </c>
+      <c r="E866">
+        <f>VLOOKUP(A866,LevelBalance!U:X,4,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="867" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A867">
+        <v>865</v>
+      </c>
+      <c r="B867" s="18" t="str">
+        <f>VLOOKUP(A867,AbilBalance!D:M,9,FALSE)</f>
+        <v>35,54</v>
+      </c>
+      <c r="C867" s="19" t="str">
+        <f>VLOOKUP(A867,AbilBalance!D:M,10,FALSE)</f>
+        <v>5070,6.32</v>
+      </c>
+      <c r="D867">
+        <f>ROUNDUP(VLOOKUP(A867,LevelBalance!U:V,2,FALSE)/(24*60),0)</f>
+        <v>3403</v>
+      </c>
+      <c r="E867">
+        <f>VLOOKUP(A867,LevelBalance!U:X,4,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="868" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A868">
+        <v>866</v>
+      </c>
+      <c r="B868" s="18" t="str">
+        <f>VLOOKUP(A868,AbilBalance!D:M,9,FALSE)</f>
+        <v>36,50</v>
+      </c>
+      <c r="C868" s="19" t="str">
+        <f>VLOOKUP(A868,AbilBalance!D:M,10,FALSE)</f>
+        <v>2585,75.55</v>
+      </c>
+      <c r="D868">
+        <f>ROUNDUP(VLOOKUP(A868,LevelBalance!U:V,2,FALSE)/(24*60),0)</f>
+        <v>3403</v>
+      </c>
+      <c r="E868">
+        <f>VLOOKUP(A868,LevelBalance!U:X,4,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="869" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A869">
+        <v>867</v>
+      </c>
+      <c r="B869" s="18" t="str">
+        <f>VLOOKUP(A869,AbilBalance!D:M,9,FALSE)</f>
+        <v>39,47</v>
+      </c>
+      <c r="C869" s="19" t="str">
+        <f>VLOOKUP(A869,AbilBalance!D:M,10,FALSE)</f>
+        <v>1561,253.5</v>
+      </c>
+      <c r="D869">
+        <f>ROUNDUP(VLOOKUP(A869,LevelBalance!U:V,2,FALSE)/(24*60),0)</f>
+        <v>3403</v>
+      </c>
+      <c r="E869">
+        <f>VLOOKUP(A869,LevelBalance!U:X,4,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="870" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A870">
+        <v>868</v>
+      </c>
+      <c r="B870" s="18" t="str">
+        <f>VLOOKUP(A870,AbilBalance!D:M,9,FALSE)</f>
+        <v>43,55</v>
+      </c>
+      <c r="C870" s="19" t="str">
+        <f>VLOOKUP(A870,AbilBalance!D:M,10,FALSE)</f>
+        <v>537,1.024</v>
+      </c>
+      <c r="D870">
+        <f>ROUNDUP(VLOOKUP(A870,LevelBalance!U:V,2,FALSE)/(24*60),0)</f>
+        <v>3403</v>
+      </c>
+      <c r="E870">
+        <f>VLOOKUP(A870,LevelBalance!U:X,4,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="871" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A871">
+        <v>869</v>
+      </c>
+      <c r="B871" s="18" t="str">
+        <f>VLOOKUP(A871,AbilBalance!D:M,9,FALSE)</f>
+        <v>60,61</v>
+      </c>
+      <c r="C871" s="19" t="str">
+        <f>VLOOKUP(A871,AbilBalance!D:M,10,FALSE)</f>
+        <v>1.474,0.9375</v>
+      </c>
+      <c r="D871">
+        <f>ROUNDUP(VLOOKUP(A871,LevelBalance!U:V,2,FALSE)/(24*60),0)</f>
+        <v>3403</v>
+      </c>
+      <c r="E871">
+        <f>VLOOKUP(A871,LevelBalance!U:X,4,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="872" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A872">
+        <v>870</v>
+      </c>
+      <c r="B872" s="18" t="str">
+        <f>VLOOKUP(A872,AbilBalance!D:M,9,FALSE)</f>
+        <v>35,54</v>
+      </c>
+      <c r="C872" s="19" t="str">
+        <f>VLOOKUP(A872,AbilBalance!D:M,10,FALSE)</f>
+        <v>5075,6.325</v>
+      </c>
+      <c r="D872">
+        <f>ROUNDUP(VLOOKUP(A872,LevelBalance!U:V,2,FALSE)/(24*60),0)</f>
+        <v>3403</v>
+      </c>
+      <c r="E872">
+        <f>VLOOKUP(A872,LevelBalance!U:X,4,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="873" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A873">
+        <v>871</v>
+      </c>
+      <c r="B873" s="18" t="str">
+        <f>VLOOKUP(A873,AbilBalance!D:M,9,FALSE)</f>
+        <v>36,50</v>
+      </c>
+      <c r="C873" s="19" t="str">
+        <f>VLOOKUP(A873,AbilBalance!D:M,10,FALSE)</f>
+        <v>2587.5,75.625</v>
+      </c>
+      <c r="D873">
+        <f>ROUNDUP(VLOOKUP(A873,LevelBalance!U:V,2,FALSE)/(24*60),0)</f>
+        <v>3403</v>
+      </c>
+      <c r="E873">
+        <f>VLOOKUP(A873,LevelBalance!U:X,4,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="874" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A874">
+        <v>872</v>
+      </c>
+      <c r="B874" s="18" t="str">
+        <f>VLOOKUP(A874,AbilBalance!D:M,9,FALSE)</f>
+        <v>39,47</v>
+      </c>
+      <c r="C874" s="19" t="str">
+        <f>VLOOKUP(A874,AbilBalance!D:M,10,FALSE)</f>
+        <v>1562.5,253.75</v>
+      </c>
+      <c r="D874">
+        <f>ROUNDUP(VLOOKUP(A874,LevelBalance!U:V,2,FALSE)/(24*60),0)</f>
+        <v>3403</v>
+      </c>
+      <c r="E874">
+        <f>VLOOKUP(A874,LevelBalance!U:X,4,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="875" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A875">
+        <v>873</v>
+      </c>
+      <c r="B875" s="18" t="str">
+        <f>VLOOKUP(A875,AbilBalance!D:M,9,FALSE)</f>
+        <v>43,55</v>
+      </c>
+      <c r="C875" s="19" t="str">
+        <f>VLOOKUP(A875,AbilBalance!D:M,10,FALSE)</f>
+        <v>537.5,1.025</v>
+      </c>
+      <c r="D875">
+        <f>ROUNDUP(VLOOKUP(A875,LevelBalance!U:V,2,FALSE)/(24*60),0)</f>
+        <v>3403</v>
+      </c>
+      <c r="E875">
+        <f>VLOOKUP(A875,LevelBalance!U:X,4,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="876" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A876">
+        <v>874</v>
+      </c>
+      <c r="B876" s="18" t="str">
+        <f>VLOOKUP(A876,AbilBalance!D:M,9,FALSE)</f>
+        <v>60,42</v>
+      </c>
+      <c r="C876" s="19" t="str">
+        <f>VLOOKUP(A876,AbilBalance!D:M,10,FALSE)</f>
+        <v>1.475,222.5</v>
+      </c>
+      <c r="D876">
+        <f>ROUNDUP(VLOOKUP(A876,LevelBalance!U:V,2,FALSE)/(24*60),0)</f>
+        <v>3403</v>
+      </c>
+      <c r="E876">
+        <f>VLOOKUP(A876,LevelBalance!U:X,4,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="877" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A877">
+        <v>875</v>
+      </c>
+      <c r="B877" s="18" t="str">
+        <f>VLOOKUP(A877,AbilBalance!D:M,9,FALSE)</f>
+        <v>35,54</v>
+      </c>
+      <c r="C877" s="19" t="str">
+        <f>VLOOKUP(A877,AbilBalance!D:M,10,FALSE)</f>
+        <v>5080,6.33</v>
+      </c>
+      <c r="D877">
+        <f>ROUNDUP(VLOOKUP(A877,LevelBalance!U:V,2,FALSE)/(24*60),0)</f>
+        <v>3438</v>
+      </c>
+      <c r="E877">
+        <f>VLOOKUP(A877,LevelBalance!U:X,4,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="878" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A878">
+        <v>876</v>
+      </c>
+      <c r="B878" s="18" t="str">
+        <f>VLOOKUP(A878,AbilBalance!D:M,9,FALSE)</f>
+        <v>36,50</v>
+      </c>
+      <c r="C878" s="19" t="str">
+        <f>VLOOKUP(A878,AbilBalance!D:M,10,FALSE)</f>
+        <v>2590,75.7</v>
+      </c>
+      <c r="D878">
+        <f>ROUNDUP(VLOOKUP(A878,LevelBalance!U:V,2,FALSE)/(24*60),0)</f>
+        <v>3438</v>
+      </c>
+      <c r="E878">
+        <f>VLOOKUP(A878,LevelBalance!U:X,4,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="879" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A879">
+        <v>877</v>
+      </c>
+      <c r="B879" s="18" t="str">
+        <f>VLOOKUP(A879,AbilBalance!D:M,9,FALSE)</f>
+        <v>39,47</v>
+      </c>
+      <c r="C879" s="19" t="str">
+        <f>VLOOKUP(A879,AbilBalance!D:M,10,FALSE)</f>
+        <v>1564,254</v>
+      </c>
+      <c r="D879">
+        <f>ROUNDUP(VLOOKUP(A879,LevelBalance!U:V,2,FALSE)/(24*60),0)</f>
+        <v>3438</v>
+      </c>
+      <c r="E879">
+        <f>VLOOKUP(A879,LevelBalance!U:X,4,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="880" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A880">
+        <v>878</v>
+      </c>
+      <c r="B880" s="18" t="str">
+        <f>VLOOKUP(A880,AbilBalance!D:M,9,FALSE)</f>
+        <v>43,55</v>
+      </c>
+      <c r="C880" s="19" t="str">
+        <f>VLOOKUP(A880,AbilBalance!D:M,10,FALSE)</f>
+        <v>538,1.026</v>
+      </c>
+      <c r="D880">
+        <f>ROUNDUP(VLOOKUP(A880,LevelBalance!U:V,2,FALSE)/(24*60),0)</f>
+        <v>3438</v>
+      </c>
+      <c r="E880">
+        <f>VLOOKUP(A880,LevelBalance!U:X,4,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="881" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A881">
+        <v>879</v>
+      </c>
+      <c r="B881" s="18" t="str">
+        <f>VLOOKUP(A881,AbilBalance!D:M,9,FALSE)</f>
+        <v>60,46</v>
+      </c>
+      <c r="C881" s="19" t="str">
+        <f>VLOOKUP(A881,AbilBalance!D:M,10,FALSE)</f>
+        <v>1.476,21.8</v>
+      </c>
+      <c r="D881">
+        <f>ROUNDUP(VLOOKUP(A881,LevelBalance!U:V,2,FALSE)/(24*60),0)</f>
+        <v>3438</v>
+      </c>
+      <c r="E881">
+        <f>VLOOKUP(A881,LevelBalance!U:X,4,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="882" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A882">
+        <v>880</v>
+      </c>
+      <c r="B882" s="18" t="str">
+        <f>VLOOKUP(A882,AbilBalance!D:M,9,FALSE)</f>
+        <v>35,54</v>
+      </c>
+      <c r="C882" s="19" t="str">
+        <f>VLOOKUP(A882,AbilBalance!D:M,10,FALSE)</f>
+        <v>5085,6.335</v>
+      </c>
+      <c r="D882">
+        <f>ROUNDUP(VLOOKUP(A882,LevelBalance!U:V,2,FALSE)/(24*60),0)</f>
+        <v>3438</v>
+      </c>
+      <c r="E882">
+        <f>VLOOKUP(A882,LevelBalance!U:X,4,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="883" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A883">
+        <v>881</v>
+      </c>
+      <c r="B883" s="18" t="str">
+        <f>VLOOKUP(A883,AbilBalance!D:M,9,FALSE)</f>
+        <v>36,50</v>
+      </c>
+      <c r="C883" s="19" t="str">
+        <f>VLOOKUP(A883,AbilBalance!D:M,10,FALSE)</f>
+        <v>2592.5,75.775</v>
+      </c>
+      <c r="D883">
+        <f>ROUNDUP(VLOOKUP(A883,LevelBalance!U:V,2,FALSE)/(24*60),0)</f>
+        <v>3438</v>
+      </c>
+      <c r="E883">
+        <f>VLOOKUP(A883,LevelBalance!U:X,4,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="884" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A884">
+        <v>882</v>
+      </c>
+      <c r="B884" s="18" t="str">
+        <f>VLOOKUP(A884,AbilBalance!D:M,9,FALSE)</f>
+        <v>39,47</v>
+      </c>
+      <c r="C884" s="19" t="str">
+        <f>VLOOKUP(A884,AbilBalance!D:M,10,FALSE)</f>
+        <v>1565.5,254.25</v>
+      </c>
+      <c r="D884">
+        <f>ROUNDUP(VLOOKUP(A884,LevelBalance!U:V,2,FALSE)/(24*60),0)</f>
+        <v>3438</v>
+      </c>
+      <c r="E884">
+        <f>VLOOKUP(A884,LevelBalance!U:X,4,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="885" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A885">
+        <v>883</v>
+      </c>
+      <c r="B885" s="18" t="str">
+        <f>VLOOKUP(A885,AbilBalance!D:M,9,FALSE)</f>
+        <v>43,55</v>
+      </c>
+      <c r="C885" s="19" t="str">
+        <f>VLOOKUP(A885,AbilBalance!D:M,10,FALSE)</f>
+        <v>538.5,1.027</v>
+      </c>
+      <c r="D885">
+        <f>ROUNDUP(VLOOKUP(A885,LevelBalance!U:V,2,FALSE)/(24*60),0)</f>
+        <v>3438</v>
+      </c>
+      <c r="E885">
+        <f>VLOOKUP(A885,LevelBalance!U:X,4,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="886" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A886">
+        <v>884</v>
+      </c>
+      <c r="B886" s="18" t="str">
+        <f>VLOOKUP(A886,AbilBalance!D:M,9,FALSE)</f>
+        <v>60,61</v>
+      </c>
+      <c r="C886" s="19" t="str">
+        <f>VLOOKUP(A886,AbilBalance!D:M,10,FALSE)</f>
+        <v>1.477,0.94</v>
+      </c>
+      <c r="D886">
+        <f>ROUNDUP(VLOOKUP(A886,LevelBalance!U:V,2,FALSE)/(24*60),0)</f>
+        <v>3438</v>
+      </c>
+      <c r="E886">
+        <f>VLOOKUP(A886,LevelBalance!U:X,4,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="887" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A887">
+        <v>885</v>
+      </c>
+      <c r="B887" s="18" t="str">
+        <f>VLOOKUP(A887,AbilBalance!D:M,9,FALSE)</f>
+        <v>35,54</v>
+      </c>
+      <c r="C887" s="19" t="str">
+        <f>VLOOKUP(A887,AbilBalance!D:M,10,FALSE)</f>
+        <v>5090,6.34</v>
+      </c>
+      <c r="D887">
+        <f>ROUNDUP(VLOOKUP(A887,LevelBalance!U:V,2,FALSE)/(24*60),0)</f>
+        <v>3473</v>
+      </c>
+      <c r="E887">
+        <f>VLOOKUP(A887,LevelBalance!U:X,4,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="888" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A888">
+        <v>886</v>
+      </c>
+      <c r="B888" s="18" t="str">
+        <f>VLOOKUP(A888,AbilBalance!D:M,9,FALSE)</f>
+        <v>36,50</v>
+      </c>
+      <c r="C888" s="19" t="str">
+        <f>VLOOKUP(A888,AbilBalance!D:M,10,FALSE)</f>
+        <v>2595,75.85</v>
+      </c>
+      <c r="D888">
+        <f>ROUNDUP(VLOOKUP(A888,LevelBalance!U:V,2,FALSE)/(24*60),0)</f>
+        <v>3473</v>
+      </c>
+      <c r="E888">
+        <f>VLOOKUP(A888,LevelBalance!U:X,4,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="889" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A889">
+        <v>887</v>
+      </c>
+      <c r="B889" s="18" t="str">
+        <f>VLOOKUP(A889,AbilBalance!D:M,9,FALSE)</f>
+        <v>39,47</v>
+      </c>
+      <c r="C889" s="19" t="str">
+        <f>VLOOKUP(A889,AbilBalance!D:M,10,FALSE)</f>
+        <v>1567,254.5</v>
+      </c>
+      <c r="D889">
+        <f>ROUNDUP(VLOOKUP(A889,LevelBalance!U:V,2,FALSE)/(24*60),0)</f>
+        <v>3473</v>
+      </c>
+      <c r="E889">
+        <f>VLOOKUP(A889,LevelBalance!U:X,4,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="890" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A890">
+        <v>888</v>
+      </c>
+      <c r="B890" s="18" t="str">
+        <f>VLOOKUP(A890,AbilBalance!D:M,9,FALSE)</f>
+        <v>43,55</v>
+      </c>
+      <c r="C890" s="19" t="str">
+        <f>VLOOKUP(A890,AbilBalance!D:M,10,FALSE)</f>
+        <v>539,1.028</v>
+      </c>
+      <c r="D890">
+        <f>ROUNDUP(VLOOKUP(A890,LevelBalance!U:V,2,FALSE)/(24*60),0)</f>
+        <v>3473</v>
+      </c>
+      <c r="E890">
+        <f>VLOOKUP(A890,LevelBalance!U:X,4,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="891" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A891">
+        <v>889</v>
+      </c>
+      <c r="B891" s="18" t="str">
+        <f>VLOOKUP(A891,AbilBalance!D:M,9,FALSE)</f>
+        <v>60,42</v>
+      </c>
+      <c r="C891" s="19" t="str">
+        <f>VLOOKUP(A891,AbilBalance!D:M,10,FALSE)</f>
+        <v>1.478,223</v>
+      </c>
+      <c r="D891">
+        <f>ROUNDUP(VLOOKUP(A891,LevelBalance!U:V,2,FALSE)/(24*60),0)</f>
+        <v>3473</v>
+      </c>
+      <c r="E891">
+        <f>VLOOKUP(A891,LevelBalance!U:X,4,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="892" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A892">
+        <v>890</v>
+      </c>
+      <c r="B892" s="18" t="str">
+        <f>VLOOKUP(A892,AbilBalance!D:M,9,FALSE)</f>
+        <v>35,54</v>
+      </c>
+      <c r="C892" s="19" t="str">
+        <f>VLOOKUP(A892,AbilBalance!D:M,10,FALSE)</f>
+        <v>5095,6.345</v>
+      </c>
+      <c r="D892">
+        <f>ROUNDUP(VLOOKUP(A892,LevelBalance!U:V,2,FALSE)/(24*60),0)</f>
+        <v>3473</v>
+      </c>
+      <c r="E892">
+        <f>VLOOKUP(A892,LevelBalance!U:X,4,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="893" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A893">
+        <v>891</v>
+      </c>
+      <c r="B893" s="18" t="str">
+        <f>VLOOKUP(A893,AbilBalance!D:M,9,FALSE)</f>
+        <v>36,50</v>
+      </c>
+      <c r="C893" s="19" t="str">
+        <f>VLOOKUP(A893,AbilBalance!D:M,10,FALSE)</f>
+        <v>2597.5,75.925</v>
+      </c>
+      <c r="D893">
+        <f>ROUNDUP(VLOOKUP(A893,LevelBalance!U:V,2,FALSE)/(24*60),0)</f>
+        <v>3473</v>
+      </c>
+      <c r="E893">
+        <f>VLOOKUP(A893,LevelBalance!U:X,4,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="894" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A894">
+        <v>892</v>
+      </c>
+      <c r="B894" s="18" t="str">
+        <f>VLOOKUP(A894,AbilBalance!D:M,9,FALSE)</f>
+        <v>39,47</v>
+      </c>
+      <c r="C894" s="19" t="str">
+        <f>VLOOKUP(A894,AbilBalance!D:M,10,FALSE)</f>
+        <v>1568.5,254.75</v>
+      </c>
+      <c r="D894">
+        <f>ROUNDUP(VLOOKUP(A894,LevelBalance!U:V,2,FALSE)/(24*60),0)</f>
+        <v>3473</v>
+      </c>
+      <c r="E894">
+        <f>VLOOKUP(A894,LevelBalance!U:X,4,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="895" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A895">
+        <v>893</v>
+      </c>
+      <c r="B895" s="18" t="str">
+        <f>VLOOKUP(A895,AbilBalance!D:M,9,FALSE)</f>
+        <v>43,55</v>
+      </c>
+      <c r="C895" s="19" t="str">
+        <f>VLOOKUP(A895,AbilBalance!D:M,10,FALSE)</f>
+        <v>539.5,1.029</v>
+      </c>
+      <c r="D895">
+        <f>ROUNDUP(VLOOKUP(A895,LevelBalance!U:V,2,FALSE)/(24*60),0)</f>
+        <v>3473</v>
+      </c>
+      <c r="E895">
+        <f>VLOOKUP(A895,LevelBalance!U:X,4,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="896" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A896">
+        <v>894</v>
+      </c>
+      <c r="B896" s="18" t="str">
+        <f>VLOOKUP(A896,AbilBalance!D:M,9,FALSE)</f>
+        <v>60,46</v>
+      </c>
+      <c r="C896" s="19" t="str">
+        <f>VLOOKUP(A896,AbilBalance!D:M,10,FALSE)</f>
+        <v>1.479,21.85</v>
+      </c>
+      <c r="D896">
+        <f>ROUNDUP(VLOOKUP(A896,LevelBalance!U:V,2,FALSE)/(24*60),0)</f>
+        <v>3473</v>
+      </c>
+      <c r="E896">
+        <f>VLOOKUP(A896,LevelBalance!U:X,4,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="897" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A897">
+        <v>895</v>
+      </c>
+      <c r="B897" s="18" t="str">
+        <f>VLOOKUP(A897,AbilBalance!D:M,9,FALSE)</f>
+        <v>35,54</v>
+      </c>
+      <c r="C897" s="19" t="str">
+        <f>VLOOKUP(A897,AbilBalance!D:M,10,FALSE)</f>
+        <v>5100,6.35</v>
+      </c>
+      <c r="D897">
+        <f>ROUNDUP(VLOOKUP(A897,LevelBalance!U:V,2,FALSE)/(24*60),0)</f>
+        <v>3507</v>
+      </c>
+      <c r="E897">
+        <f>VLOOKUP(A897,LevelBalance!U:X,4,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="898" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A898">
+        <v>896</v>
+      </c>
+      <c r="B898" s="18" t="str">
+        <f>VLOOKUP(A898,AbilBalance!D:M,9,FALSE)</f>
+        <v>36,50</v>
+      </c>
+      <c r="C898" s="19" t="str">
+        <f>VLOOKUP(A898,AbilBalance!D:M,10,FALSE)</f>
+        <v>2600,76</v>
+      </c>
+      <c r="D898">
+        <f>ROUNDUP(VLOOKUP(A898,LevelBalance!U:V,2,FALSE)/(24*60),0)</f>
+        <v>3507</v>
+      </c>
+      <c r="E898">
+        <f>VLOOKUP(A898,LevelBalance!U:X,4,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="899" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A899">
+        <v>897</v>
+      </c>
+      <c r="B899" s="18" t="str">
+        <f>VLOOKUP(A899,AbilBalance!D:M,9,FALSE)</f>
+        <v>39,47</v>
+      </c>
+      <c r="C899" s="19" t="str">
+        <f>VLOOKUP(A899,AbilBalance!D:M,10,FALSE)</f>
+        <v>1570,255</v>
+      </c>
+      <c r="D899">
+        <f>ROUNDUP(VLOOKUP(A899,LevelBalance!U:V,2,FALSE)/(24*60),0)</f>
+        <v>3507</v>
+      </c>
+      <c r="E899">
+        <f>VLOOKUP(A899,LevelBalance!U:X,4,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="900" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A900">
+        <v>898</v>
+      </c>
+      <c r="B900" s="18" t="str">
+        <f>VLOOKUP(A900,AbilBalance!D:M,9,FALSE)</f>
+        <v>43,55</v>
+      </c>
+      <c r="C900" s="19" t="str">
+        <f>VLOOKUP(A900,AbilBalance!D:M,10,FALSE)</f>
+        <v>540,1.03</v>
+      </c>
+      <c r="D900">
+        <f>ROUNDUP(VLOOKUP(A900,LevelBalance!U:V,2,FALSE)/(24*60),0)</f>
+        <v>3507</v>
+      </c>
+      <c r="E900">
+        <f>VLOOKUP(A900,LevelBalance!U:X,4,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="901" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A901">
+        <v>899</v>
+      </c>
+      <c r="B901" s="18" t="str">
+        <f>VLOOKUP(A901,AbilBalance!D:M,9,FALSE)</f>
+        <v>60,61</v>
+      </c>
+      <c r="C901" s="19" t="str">
+        <f>VLOOKUP(A901,AbilBalance!D:M,10,FALSE)</f>
+        <v>1.48,0.9425</v>
+      </c>
+      <c r="D901">
+        <f>ROUNDUP(VLOOKUP(A901,LevelBalance!U:V,2,FALSE)/(24*60),0)</f>
+        <v>3507</v>
+      </c>
+      <c r="E901">
+        <f>VLOOKUP(A901,LevelBalance!U:X,4,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A2:B801">
+  <conditionalFormatting sqref="A2:B901">
     <cfRule type="expression" dxfId="1" priority="51">
       <formula>#REF!=5</formula>
     </cfRule>
@@ -18837,10 +20937,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B4C63F0-02E4-48AB-8F58-B57B021B5DE4}">
-  <dimension ref="A1:X807"/>
+  <dimension ref="A1:X906"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q105" sqref="Q105"/>
+    <sheetView topLeftCell="G891" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W903" sqref="W903"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -41276,7 +43376,7 @@
         <v>780</v>
       </c>
       <c r="V785" s="12">
-        <f t="shared" ref="V785:V807" si="46">V775+50000</f>
+        <f t="shared" ref="V785:V848" si="46">V775+50000</f>
         <v>4450000</v>
       </c>
       <c r="W785" s="12">
@@ -41608,16 +43708,1610 @@
       </c>
     </row>
     <row r="806" spans="21:24" x14ac:dyDescent="0.3">
-      <c r="U806" s="10"/>
-      <c r="V806" s="12"/>
-      <c r="W806" s="12"/>
-      <c r="X806" s="12"/>
+      <c r="U806" s="10">
+        <v>801</v>
+      </c>
+      <c r="V806" s="12">
+        <f t="shared" si="46"/>
+        <v>4550000</v>
+      </c>
+      <c r="W806" s="12">
+        <f>SUM($V$5:V806)</f>
+        <v>1793780000</v>
+      </c>
+      <c r="X806" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="807" spans="21:24" x14ac:dyDescent="0.3">
-      <c r="U807" s="10"/>
-      <c r="V807" s="12"/>
-      <c r="W807" s="12"/>
-      <c r="X807" s="12"/>
+      <c r="U807" s="10">
+        <v>802</v>
+      </c>
+      <c r="V807" s="12">
+        <f t="shared" si="46"/>
+        <v>4550000</v>
+      </c>
+      <c r="W807" s="12">
+        <f>SUM($V$5:V807)</f>
+        <v>1798330000</v>
+      </c>
+      <c r="X807" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="808" spans="21:24" x14ac:dyDescent="0.3">
+      <c r="U808" s="10">
+        <v>803</v>
+      </c>
+      <c r="V808" s="12">
+        <f t="shared" si="46"/>
+        <v>4550000</v>
+      </c>
+      <c r="W808" s="12">
+        <f>SUM($V$5:V808)</f>
+        <v>1802880000</v>
+      </c>
+      <c r="X808" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="809" spans="21:24" x14ac:dyDescent="0.3">
+      <c r="U809" s="10">
+        <v>804</v>
+      </c>
+      <c r="V809" s="12">
+        <f t="shared" si="46"/>
+        <v>4550000</v>
+      </c>
+      <c r="W809" s="12">
+        <f>SUM($V$5:V809)</f>
+        <v>1807430000</v>
+      </c>
+      <c r="X809" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="810" spans="21:24" x14ac:dyDescent="0.3">
+      <c r="U810" s="10">
+        <v>805</v>
+      </c>
+      <c r="V810" s="12">
+        <f t="shared" si="46"/>
+        <v>4600000</v>
+      </c>
+      <c r="W810" s="12">
+        <f>SUM($V$5:V810)</f>
+        <v>1812030000</v>
+      </c>
+      <c r="X810" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="811" spans="21:24" x14ac:dyDescent="0.3">
+      <c r="U811" s="10">
+        <v>806</v>
+      </c>
+      <c r="V811" s="12">
+        <f t="shared" si="46"/>
+        <v>4600000</v>
+      </c>
+      <c r="W811" s="12">
+        <f>SUM($V$5:V811)</f>
+        <v>1816630000</v>
+      </c>
+      <c r="X811" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="812" spans="21:24" x14ac:dyDescent="0.3">
+      <c r="U812" s="10">
+        <v>807</v>
+      </c>
+      <c r="V812" s="12">
+        <f t="shared" si="46"/>
+        <v>4600000</v>
+      </c>
+      <c r="W812" s="12">
+        <f>SUM($V$5:V812)</f>
+        <v>1821230000</v>
+      </c>
+      <c r="X812" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="813" spans="21:24" x14ac:dyDescent="0.3">
+      <c r="U813" s="10">
+        <v>808</v>
+      </c>
+      <c r="V813" s="12">
+        <f t="shared" si="46"/>
+        <v>4600000</v>
+      </c>
+      <c r="W813" s="12">
+        <f>SUM($V$5:V813)</f>
+        <v>1825830000</v>
+      </c>
+      <c r="X813" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="814" spans="21:24" x14ac:dyDescent="0.3">
+      <c r="U814" s="10">
+        <v>809</v>
+      </c>
+      <c r="V814" s="12">
+        <f t="shared" si="46"/>
+        <v>4600000</v>
+      </c>
+      <c r="W814" s="12">
+        <f>SUM($V$5:V814)</f>
+        <v>1830430000</v>
+      </c>
+      <c r="X814" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="815" spans="21:24" x14ac:dyDescent="0.3">
+      <c r="U815" s="10">
+        <v>810</v>
+      </c>
+      <c r="V815" s="12">
+        <f t="shared" si="46"/>
+        <v>4600000</v>
+      </c>
+      <c r="W815" s="12">
+        <f>SUM($V$5:V815)</f>
+        <v>1835030000</v>
+      </c>
+      <c r="X815" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="816" spans="21:24" x14ac:dyDescent="0.3">
+      <c r="U816" s="10">
+        <v>811</v>
+      </c>
+      <c r="V816" s="12">
+        <f t="shared" si="46"/>
+        <v>4600000</v>
+      </c>
+      <c r="W816" s="12">
+        <f>SUM($V$5:V816)</f>
+        <v>1839630000</v>
+      </c>
+      <c r="X816" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="817" spans="21:24" x14ac:dyDescent="0.3">
+      <c r="U817" s="10">
+        <v>812</v>
+      </c>
+      <c r="V817" s="12">
+        <f t="shared" si="46"/>
+        <v>4600000</v>
+      </c>
+      <c r="W817" s="12">
+        <f>SUM($V$5:V817)</f>
+        <v>1844230000</v>
+      </c>
+      <c r="X817" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="818" spans="21:24" x14ac:dyDescent="0.3">
+      <c r="U818" s="10">
+        <v>813</v>
+      </c>
+      <c r="V818" s="12">
+        <f t="shared" si="46"/>
+        <v>4600000</v>
+      </c>
+      <c r="W818" s="12">
+        <f>SUM($V$5:V818)</f>
+        <v>1848830000</v>
+      </c>
+      <c r="X818" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="819" spans="21:24" x14ac:dyDescent="0.3">
+      <c r="U819" s="10">
+        <v>814</v>
+      </c>
+      <c r="V819" s="12">
+        <f t="shared" si="46"/>
+        <v>4600000</v>
+      </c>
+      <c r="W819" s="12">
+        <f>SUM($V$5:V819)</f>
+        <v>1853430000</v>
+      </c>
+      <c r="X819" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="820" spans="21:24" x14ac:dyDescent="0.3">
+      <c r="U820" s="10">
+        <v>815</v>
+      </c>
+      <c r="V820" s="12">
+        <f t="shared" si="46"/>
+        <v>4650000</v>
+      </c>
+      <c r="W820" s="12">
+        <f>SUM($V$5:V820)</f>
+        <v>1858080000</v>
+      </c>
+      <c r="X820" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="821" spans="21:24" x14ac:dyDescent="0.3">
+      <c r="U821" s="10">
+        <v>816</v>
+      </c>
+      <c r="V821" s="12">
+        <f t="shared" si="46"/>
+        <v>4650000</v>
+      </c>
+      <c r="W821" s="12">
+        <f>SUM($V$5:V821)</f>
+        <v>1862730000</v>
+      </c>
+      <c r="X821" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="822" spans="21:24" x14ac:dyDescent="0.3">
+      <c r="U822" s="10">
+        <v>817</v>
+      </c>
+      <c r="V822" s="12">
+        <f t="shared" si="46"/>
+        <v>4650000</v>
+      </c>
+      <c r="W822" s="12">
+        <f>SUM($V$5:V822)</f>
+        <v>1867380000</v>
+      </c>
+      <c r="X822" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="823" spans="21:24" x14ac:dyDescent="0.3">
+      <c r="U823" s="10">
+        <v>818</v>
+      </c>
+      <c r="V823" s="12">
+        <f t="shared" si="46"/>
+        <v>4650000</v>
+      </c>
+      <c r="W823" s="12">
+        <f>SUM($V$5:V823)</f>
+        <v>1872030000</v>
+      </c>
+      <c r="X823" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="824" spans="21:24" x14ac:dyDescent="0.3">
+      <c r="U824" s="10">
+        <v>819</v>
+      </c>
+      <c r="V824" s="12">
+        <f t="shared" si="46"/>
+        <v>4650000</v>
+      </c>
+      <c r="W824" s="12">
+        <f>SUM($V$5:V824)</f>
+        <v>1876680000</v>
+      </c>
+      <c r="X824" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="825" spans="21:24" x14ac:dyDescent="0.3">
+      <c r="U825" s="10">
+        <v>820</v>
+      </c>
+      <c r="V825" s="12">
+        <f t="shared" si="46"/>
+        <v>4650000</v>
+      </c>
+      <c r="W825" s="12">
+        <f>SUM($V$5:V825)</f>
+        <v>1881330000</v>
+      </c>
+      <c r="X825" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="826" spans="21:24" x14ac:dyDescent="0.3">
+      <c r="U826" s="10">
+        <v>821</v>
+      </c>
+      <c r="V826" s="12">
+        <f t="shared" si="46"/>
+        <v>4650000</v>
+      </c>
+      <c r="W826" s="12">
+        <f>SUM($V$5:V826)</f>
+        <v>1885980000</v>
+      </c>
+      <c r="X826" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="827" spans="21:24" x14ac:dyDescent="0.3">
+      <c r="U827" s="10">
+        <v>822</v>
+      </c>
+      <c r="V827" s="12">
+        <f t="shared" si="46"/>
+        <v>4650000</v>
+      </c>
+      <c r="W827" s="12">
+        <f>SUM($V$5:V827)</f>
+        <v>1890630000</v>
+      </c>
+      <c r="X827" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="828" spans="21:24" x14ac:dyDescent="0.3">
+      <c r="U828" s="10">
+        <v>823</v>
+      </c>
+      <c r="V828" s="12">
+        <f t="shared" si="46"/>
+        <v>4650000</v>
+      </c>
+      <c r="W828" s="12">
+        <f>SUM($V$5:V828)</f>
+        <v>1895280000</v>
+      </c>
+      <c r="X828" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="829" spans="21:24" x14ac:dyDescent="0.3">
+      <c r="U829" s="10">
+        <v>824</v>
+      </c>
+      <c r="V829" s="12">
+        <f t="shared" si="46"/>
+        <v>4650000</v>
+      </c>
+      <c r="W829" s="12">
+        <f>SUM($V$5:V829)</f>
+        <v>1899930000</v>
+      </c>
+      <c r="X829" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="830" spans="21:24" x14ac:dyDescent="0.3">
+      <c r="U830" s="10">
+        <v>825</v>
+      </c>
+      <c r="V830" s="12">
+        <f t="shared" si="46"/>
+        <v>4700000</v>
+      </c>
+      <c r="W830" s="12">
+        <f>SUM($V$5:V830)</f>
+        <v>1904630000</v>
+      </c>
+      <c r="X830" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="831" spans="21:24" x14ac:dyDescent="0.3">
+      <c r="U831" s="10">
+        <v>826</v>
+      </c>
+      <c r="V831" s="12">
+        <f t="shared" si="46"/>
+        <v>4700000</v>
+      </c>
+      <c r="W831" s="12">
+        <f>SUM($V$5:V831)</f>
+        <v>1909330000</v>
+      </c>
+      <c r="X831" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="832" spans="21:24" x14ac:dyDescent="0.3">
+      <c r="U832" s="10">
+        <v>827</v>
+      </c>
+      <c r="V832" s="12">
+        <f t="shared" si="46"/>
+        <v>4700000</v>
+      </c>
+      <c r="W832" s="12">
+        <f>SUM($V$5:V832)</f>
+        <v>1914030000</v>
+      </c>
+      <c r="X832" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="833" spans="21:24" x14ac:dyDescent="0.3">
+      <c r="U833" s="10">
+        <v>828</v>
+      </c>
+      <c r="V833" s="12">
+        <f t="shared" si="46"/>
+        <v>4700000</v>
+      </c>
+      <c r="W833" s="12">
+        <f>SUM($V$5:V833)</f>
+        <v>1918730000</v>
+      </c>
+      <c r="X833" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="834" spans="21:24" x14ac:dyDescent="0.3">
+      <c r="U834" s="10">
+        <v>829</v>
+      </c>
+      <c r="V834" s="12">
+        <f t="shared" si="46"/>
+        <v>4700000</v>
+      </c>
+      <c r="W834" s="12">
+        <f>SUM($V$5:V834)</f>
+        <v>1923430000</v>
+      </c>
+      <c r="X834" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="835" spans="21:24" x14ac:dyDescent="0.3">
+      <c r="U835" s="10">
+        <v>830</v>
+      </c>
+      <c r="V835" s="12">
+        <f t="shared" si="46"/>
+        <v>4700000</v>
+      </c>
+      <c r="W835" s="12">
+        <f>SUM($V$5:V835)</f>
+        <v>1928130000</v>
+      </c>
+      <c r="X835" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="836" spans="21:24" x14ac:dyDescent="0.3">
+      <c r="U836" s="10">
+        <v>831</v>
+      </c>
+      <c r="V836" s="12">
+        <f t="shared" si="46"/>
+        <v>4700000</v>
+      </c>
+      <c r="W836" s="12">
+        <f>SUM($V$5:V836)</f>
+        <v>1932830000</v>
+      </c>
+      <c r="X836" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="837" spans="21:24" x14ac:dyDescent="0.3">
+      <c r="U837" s="10">
+        <v>832</v>
+      </c>
+      <c r="V837" s="12">
+        <f t="shared" si="46"/>
+        <v>4700000</v>
+      </c>
+      <c r="W837" s="12">
+        <f>SUM($V$5:V837)</f>
+        <v>1937530000</v>
+      </c>
+      <c r="X837" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="838" spans="21:24" x14ac:dyDescent="0.3">
+      <c r="U838" s="10">
+        <v>833</v>
+      </c>
+      <c r="V838" s="12">
+        <f t="shared" si="46"/>
+        <v>4700000</v>
+      </c>
+      <c r="W838" s="12">
+        <f>SUM($V$5:V838)</f>
+        <v>1942230000</v>
+      </c>
+      <c r="X838" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="839" spans="21:24" x14ac:dyDescent="0.3">
+      <c r="U839" s="10">
+        <v>834</v>
+      </c>
+      <c r="V839" s="12">
+        <f t="shared" si="46"/>
+        <v>4700000</v>
+      </c>
+      <c r="W839" s="12">
+        <f>SUM($V$5:V839)</f>
+        <v>1946930000</v>
+      </c>
+      <c r="X839" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="840" spans="21:24" x14ac:dyDescent="0.3">
+      <c r="U840" s="10">
+        <v>835</v>
+      </c>
+      <c r="V840" s="12">
+        <f t="shared" si="46"/>
+        <v>4750000</v>
+      </c>
+      <c r="W840" s="12">
+        <f>SUM($V$5:V840)</f>
+        <v>1951680000</v>
+      </c>
+      <c r="X840" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="841" spans="21:24" x14ac:dyDescent="0.3">
+      <c r="U841" s="10">
+        <v>836</v>
+      </c>
+      <c r="V841" s="12">
+        <f t="shared" si="46"/>
+        <v>4750000</v>
+      </c>
+      <c r="W841" s="12">
+        <f>SUM($V$5:V841)</f>
+        <v>1956430000</v>
+      </c>
+      <c r="X841" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="842" spans="21:24" x14ac:dyDescent="0.3">
+      <c r="U842" s="10">
+        <v>837</v>
+      </c>
+      <c r="V842" s="12">
+        <f t="shared" si="46"/>
+        <v>4750000</v>
+      </c>
+      <c r="W842" s="12">
+        <f>SUM($V$5:V842)</f>
+        <v>1961180000</v>
+      </c>
+      <c r="X842" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="843" spans="21:24" x14ac:dyDescent="0.3">
+      <c r="U843" s="10">
+        <v>838</v>
+      </c>
+      <c r="V843" s="12">
+        <f t="shared" si="46"/>
+        <v>4750000</v>
+      </c>
+      <c r="W843" s="12">
+        <f>SUM($V$5:V843)</f>
+        <v>1965930000</v>
+      </c>
+      <c r="X843" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="844" spans="21:24" x14ac:dyDescent="0.3">
+      <c r="U844" s="10">
+        <v>839</v>
+      </c>
+      <c r="V844" s="12">
+        <f t="shared" si="46"/>
+        <v>4750000</v>
+      </c>
+      <c r="W844" s="12">
+        <f>SUM($V$5:V844)</f>
+        <v>1970680000</v>
+      </c>
+      <c r="X844" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="845" spans="21:24" x14ac:dyDescent="0.3">
+      <c r="U845" s="10">
+        <v>840</v>
+      </c>
+      <c r="V845" s="12">
+        <f t="shared" si="46"/>
+        <v>4750000</v>
+      </c>
+      <c r="W845" s="12">
+        <f>SUM($V$5:V845)</f>
+        <v>1975430000</v>
+      </c>
+      <c r="X845" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="846" spans="21:24" x14ac:dyDescent="0.3">
+      <c r="U846" s="10">
+        <v>841</v>
+      </c>
+      <c r="V846" s="12">
+        <f t="shared" si="46"/>
+        <v>4750000</v>
+      </c>
+      <c r="W846" s="12">
+        <f>SUM($V$5:V846)</f>
+        <v>1980180000</v>
+      </c>
+      <c r="X846" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="847" spans="21:24" x14ac:dyDescent="0.3">
+      <c r="U847" s="10">
+        <v>842</v>
+      </c>
+      <c r="V847" s="12">
+        <f t="shared" si="46"/>
+        <v>4750000</v>
+      </c>
+      <c r="W847" s="12">
+        <f>SUM($V$5:V847)</f>
+        <v>1984930000</v>
+      </c>
+      <c r="X847" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="848" spans="21:24" x14ac:dyDescent="0.3">
+      <c r="U848" s="10">
+        <v>843</v>
+      </c>
+      <c r="V848" s="12">
+        <f t="shared" si="46"/>
+        <v>4750000</v>
+      </c>
+      <c r="W848" s="12">
+        <f>SUM($V$5:V848)</f>
+        <v>1989680000</v>
+      </c>
+      <c r="X848" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="849" spans="21:24" x14ac:dyDescent="0.3">
+      <c r="U849" s="10">
+        <v>844</v>
+      </c>
+      <c r="V849" s="12">
+        <f t="shared" ref="V849:V906" si="47">V839+50000</f>
+        <v>4750000</v>
+      </c>
+      <c r="W849" s="12">
+        <f>SUM($V$5:V849)</f>
+        <v>1994430000</v>
+      </c>
+      <c r="X849" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="850" spans="21:24" x14ac:dyDescent="0.3">
+      <c r="U850" s="10">
+        <v>845</v>
+      </c>
+      <c r="V850" s="12">
+        <f t="shared" si="47"/>
+        <v>4800000</v>
+      </c>
+      <c r="W850" s="12">
+        <f>SUM($V$5:V850)</f>
+        <v>1999230000</v>
+      </c>
+      <c r="X850" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="851" spans="21:24" x14ac:dyDescent="0.3">
+      <c r="U851" s="10">
+        <v>846</v>
+      </c>
+      <c r="V851" s="12">
+        <f t="shared" si="47"/>
+        <v>4800000</v>
+      </c>
+      <c r="W851" s="12">
+        <f>SUM($V$5:V851)</f>
+        <v>2004030000</v>
+      </c>
+      <c r="X851" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="852" spans="21:24" x14ac:dyDescent="0.3">
+      <c r="U852" s="10">
+        <v>847</v>
+      </c>
+      <c r="V852" s="12">
+        <f t="shared" si="47"/>
+        <v>4800000</v>
+      </c>
+      <c r="W852" s="12">
+        <f>SUM($V$5:V852)</f>
+        <v>2008830000</v>
+      </c>
+      <c r="X852" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="853" spans="21:24" x14ac:dyDescent="0.3">
+      <c r="U853" s="10">
+        <v>848</v>
+      </c>
+      <c r="V853" s="12">
+        <f t="shared" si="47"/>
+        <v>4800000</v>
+      </c>
+      <c r="W853" s="12">
+        <f>SUM($V$5:V853)</f>
+        <v>2013630000</v>
+      </c>
+      <c r="X853" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="854" spans="21:24" x14ac:dyDescent="0.3">
+      <c r="U854" s="10">
+        <v>849</v>
+      </c>
+      <c r="V854" s="12">
+        <f t="shared" si="47"/>
+        <v>4800000</v>
+      </c>
+      <c r="W854" s="12">
+        <f>SUM($V$5:V854)</f>
+        <v>2018430000</v>
+      </c>
+      <c r="X854" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="855" spans="21:24" x14ac:dyDescent="0.3">
+      <c r="U855" s="10">
+        <v>850</v>
+      </c>
+      <c r="V855" s="12">
+        <f t="shared" si="47"/>
+        <v>4800000</v>
+      </c>
+      <c r="W855" s="12">
+        <f>SUM($V$5:V855)</f>
+        <v>2023230000</v>
+      </c>
+      <c r="X855" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="856" spans="21:24" x14ac:dyDescent="0.3">
+      <c r="U856" s="10">
+        <v>851</v>
+      </c>
+      <c r="V856" s="12">
+        <f t="shared" si="47"/>
+        <v>4800000</v>
+      </c>
+      <c r="W856" s="12">
+        <f>SUM($V$5:V856)</f>
+        <v>2028030000</v>
+      </c>
+      <c r="X856" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="857" spans="21:24" x14ac:dyDescent="0.3">
+      <c r="U857" s="10">
+        <v>852</v>
+      </c>
+      <c r="V857" s="12">
+        <f t="shared" si="47"/>
+        <v>4800000</v>
+      </c>
+      <c r="W857" s="12">
+        <f>SUM($V$5:V857)</f>
+        <v>2032830000</v>
+      </c>
+      <c r="X857" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="858" spans="21:24" x14ac:dyDescent="0.3">
+      <c r="U858" s="10">
+        <v>853</v>
+      </c>
+      <c r="V858" s="12">
+        <f t="shared" si="47"/>
+        <v>4800000</v>
+      </c>
+      <c r="W858" s="12">
+        <f>SUM($V$5:V858)</f>
+        <v>2037630000</v>
+      </c>
+      <c r="X858" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="859" spans="21:24" x14ac:dyDescent="0.3">
+      <c r="U859" s="10">
+        <v>854</v>
+      </c>
+      <c r="V859" s="12">
+        <f t="shared" si="47"/>
+        <v>4800000</v>
+      </c>
+      <c r="W859" s="12">
+        <f>SUM($V$5:V859)</f>
+        <v>2042430000</v>
+      </c>
+      <c r="X859" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="860" spans="21:24" x14ac:dyDescent="0.3">
+      <c r="U860" s="10">
+        <v>855</v>
+      </c>
+      <c r="V860" s="12">
+        <f t="shared" si="47"/>
+        <v>4850000</v>
+      </c>
+      <c r="W860" s="12">
+        <f>SUM($V$5:V860)</f>
+        <v>2047280000</v>
+      </c>
+      <c r="X860" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="861" spans="21:24" x14ac:dyDescent="0.3">
+      <c r="U861" s="10">
+        <v>856</v>
+      </c>
+      <c r="V861" s="12">
+        <f t="shared" si="47"/>
+        <v>4850000</v>
+      </c>
+      <c r="W861" s="12">
+        <f>SUM($V$5:V861)</f>
+        <v>2052130000</v>
+      </c>
+      <c r="X861" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="862" spans="21:24" x14ac:dyDescent="0.3">
+      <c r="U862" s="10">
+        <v>857</v>
+      </c>
+      <c r="V862" s="12">
+        <f t="shared" si="47"/>
+        <v>4850000</v>
+      </c>
+      <c r="W862" s="12">
+        <f>SUM($V$5:V862)</f>
+        <v>2056980000</v>
+      </c>
+      <c r="X862" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="863" spans="21:24" x14ac:dyDescent="0.3">
+      <c r="U863" s="10">
+        <v>858</v>
+      </c>
+      <c r="V863" s="12">
+        <f t="shared" si="47"/>
+        <v>4850000</v>
+      </c>
+      <c r="W863" s="12">
+        <f>SUM($V$5:V863)</f>
+        <v>2061830000</v>
+      </c>
+      <c r="X863" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="864" spans="21:24" x14ac:dyDescent="0.3">
+      <c r="U864" s="10">
+        <v>859</v>
+      </c>
+      <c r="V864" s="12">
+        <f t="shared" si="47"/>
+        <v>4850000</v>
+      </c>
+      <c r="W864" s="12">
+        <f>SUM($V$5:V864)</f>
+        <v>2066680000</v>
+      </c>
+      <c r="X864" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="865" spans="21:24" x14ac:dyDescent="0.3">
+      <c r="U865" s="10">
+        <v>860</v>
+      </c>
+      <c r="V865" s="12">
+        <f t="shared" si="47"/>
+        <v>4850000</v>
+      </c>
+      <c r="W865" s="12">
+        <f>SUM($V$5:V865)</f>
+        <v>2071530000</v>
+      </c>
+      <c r="X865" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="866" spans="21:24" x14ac:dyDescent="0.3">
+      <c r="U866" s="10">
+        <v>861</v>
+      </c>
+      <c r="V866" s="12">
+        <f t="shared" si="47"/>
+        <v>4850000</v>
+      </c>
+      <c r="W866" s="12">
+        <f>SUM($V$5:V866)</f>
+        <v>2076380000</v>
+      </c>
+      <c r="X866" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="867" spans="21:24" x14ac:dyDescent="0.3">
+      <c r="U867" s="10">
+        <v>862</v>
+      </c>
+      <c r="V867" s="12">
+        <f t="shared" si="47"/>
+        <v>4850000</v>
+      </c>
+      <c r="W867" s="12">
+        <f>SUM($V$5:V867)</f>
+        <v>2081230000</v>
+      </c>
+      <c r="X867" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="868" spans="21:24" x14ac:dyDescent="0.3">
+      <c r="U868" s="10">
+        <v>863</v>
+      </c>
+      <c r="V868" s="12">
+        <f t="shared" si="47"/>
+        <v>4850000</v>
+      </c>
+      <c r="W868" s="12">
+        <f>SUM($V$5:V868)</f>
+        <v>2086080000</v>
+      </c>
+      <c r="X868" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="869" spans="21:24" x14ac:dyDescent="0.3">
+      <c r="U869" s="10">
+        <v>864</v>
+      </c>
+      <c r="V869" s="12">
+        <f t="shared" si="47"/>
+        <v>4850000</v>
+      </c>
+      <c r="W869" s="12">
+        <f>SUM($V$5:V869)</f>
+        <v>2090930000</v>
+      </c>
+      <c r="X869" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="870" spans="21:24" x14ac:dyDescent="0.3">
+      <c r="U870" s="10">
+        <v>865</v>
+      </c>
+      <c r="V870" s="12">
+        <f t="shared" si="47"/>
+        <v>4900000</v>
+      </c>
+      <c r="W870" s="12">
+        <f>SUM($V$5:V870)</f>
+        <v>2095830000</v>
+      </c>
+      <c r="X870" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="871" spans="21:24" x14ac:dyDescent="0.3">
+      <c r="U871" s="10">
+        <v>866</v>
+      </c>
+      <c r="V871" s="12">
+        <f t="shared" si="47"/>
+        <v>4900000</v>
+      </c>
+      <c r="W871" s="12">
+        <f>SUM($V$5:V871)</f>
+        <v>2100730000</v>
+      </c>
+      <c r="X871" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="872" spans="21:24" x14ac:dyDescent="0.3">
+      <c r="U872" s="10">
+        <v>867</v>
+      </c>
+      <c r="V872" s="12">
+        <f t="shared" si="47"/>
+        <v>4900000</v>
+      </c>
+      <c r="W872" s="12">
+        <f>SUM($V$5:V872)</f>
+        <v>2105630000</v>
+      </c>
+      <c r="X872" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="873" spans="21:24" x14ac:dyDescent="0.3">
+      <c r="U873" s="10">
+        <v>868</v>
+      </c>
+      <c r="V873" s="12">
+        <f t="shared" si="47"/>
+        <v>4900000</v>
+      </c>
+      <c r="W873" s="12">
+        <f>SUM($V$5:V873)</f>
+        <v>2110530000</v>
+      </c>
+      <c r="X873" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="874" spans="21:24" x14ac:dyDescent="0.3">
+      <c r="U874" s="10">
+        <v>869</v>
+      </c>
+      <c r="V874" s="12">
+        <f t="shared" si="47"/>
+        <v>4900000</v>
+      </c>
+      <c r="W874" s="12">
+        <f>SUM($V$5:V874)</f>
+        <v>2115430000</v>
+      </c>
+      <c r="X874" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="875" spans="21:24" x14ac:dyDescent="0.3">
+      <c r="U875" s="10">
+        <v>870</v>
+      </c>
+      <c r="V875" s="12">
+        <f t="shared" si="47"/>
+        <v>4900000</v>
+      </c>
+      <c r="W875" s="12">
+        <f>SUM($V$5:V875)</f>
+        <v>2120330000</v>
+      </c>
+      <c r="X875" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="876" spans="21:24" x14ac:dyDescent="0.3">
+      <c r="U876" s="10">
+        <v>871</v>
+      </c>
+      <c r="V876" s="12">
+        <f t="shared" si="47"/>
+        <v>4900000</v>
+      </c>
+      <c r="W876" s="12">
+        <f>SUM($V$5:V876)</f>
+        <v>2125230000</v>
+      </c>
+      <c r="X876" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="877" spans="21:24" x14ac:dyDescent="0.3">
+      <c r="U877" s="10">
+        <v>872</v>
+      </c>
+      <c r="V877" s="12">
+        <f t="shared" si="47"/>
+        <v>4900000</v>
+      </c>
+      <c r="W877" s="12">
+        <f>SUM($V$5:V877)</f>
+        <v>2130130000</v>
+      </c>
+      <c r="X877" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="878" spans="21:24" x14ac:dyDescent="0.3">
+      <c r="U878" s="10">
+        <v>873</v>
+      </c>
+      <c r="V878" s="12">
+        <f t="shared" si="47"/>
+        <v>4900000</v>
+      </c>
+      <c r="W878" s="12">
+        <f>SUM($V$5:V878)</f>
+        <v>2135030000</v>
+      </c>
+      <c r="X878" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="879" spans="21:24" x14ac:dyDescent="0.3">
+      <c r="U879" s="10">
+        <v>874</v>
+      </c>
+      <c r="V879" s="12">
+        <f t="shared" si="47"/>
+        <v>4900000</v>
+      </c>
+      <c r="W879" s="12">
+        <f>SUM($V$5:V879)</f>
+        <v>2139930000</v>
+      </c>
+      <c r="X879" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="880" spans="21:24" x14ac:dyDescent="0.3">
+      <c r="U880" s="10">
+        <v>875</v>
+      </c>
+      <c r="V880" s="12">
+        <f t="shared" si="47"/>
+        <v>4950000</v>
+      </c>
+      <c r="W880" s="12">
+        <f>SUM($V$5:V880)</f>
+        <v>2144880000</v>
+      </c>
+      <c r="X880" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="881" spans="21:24" x14ac:dyDescent="0.3">
+      <c r="U881" s="10">
+        <v>876</v>
+      </c>
+      <c r="V881" s="12">
+        <f t="shared" si="47"/>
+        <v>4950000</v>
+      </c>
+      <c r="W881" s="12">
+        <f>SUM($V$5:V881)</f>
+        <v>2149830000</v>
+      </c>
+      <c r="X881" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="882" spans="21:24" x14ac:dyDescent="0.3">
+      <c r="U882" s="10">
+        <v>877</v>
+      </c>
+      <c r="V882" s="12">
+        <f t="shared" si="47"/>
+        <v>4950000</v>
+      </c>
+      <c r="W882" s="12">
+        <f>SUM($V$5:V882)</f>
+        <v>2154780000</v>
+      </c>
+      <c r="X882" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="883" spans="21:24" x14ac:dyDescent="0.3">
+      <c r="U883" s="10">
+        <v>878</v>
+      </c>
+      <c r="V883" s="12">
+        <f t="shared" si="47"/>
+        <v>4950000</v>
+      </c>
+      <c r="W883" s="12">
+        <f>SUM($V$5:V883)</f>
+        <v>2159730000</v>
+      </c>
+      <c r="X883" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="884" spans="21:24" x14ac:dyDescent="0.3">
+      <c r="U884" s="10">
+        <v>879</v>
+      </c>
+      <c r="V884" s="12">
+        <f t="shared" si="47"/>
+        <v>4950000</v>
+      </c>
+      <c r="W884" s="12">
+        <f>SUM($V$5:V884)</f>
+        <v>2164680000</v>
+      </c>
+      <c r="X884" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="885" spans="21:24" x14ac:dyDescent="0.3">
+      <c r="U885" s="10">
+        <v>880</v>
+      </c>
+      <c r="V885" s="12">
+        <f t="shared" si="47"/>
+        <v>4950000</v>
+      </c>
+      <c r="W885" s="12">
+        <f>SUM($V$5:V885)</f>
+        <v>2169630000</v>
+      </c>
+      <c r="X885" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="886" spans="21:24" x14ac:dyDescent="0.3">
+      <c r="U886" s="10">
+        <v>881</v>
+      </c>
+      <c r="V886" s="12">
+        <f t="shared" si="47"/>
+        <v>4950000</v>
+      </c>
+      <c r="W886" s="12">
+        <f>SUM($V$5:V886)</f>
+        <v>2174580000</v>
+      </c>
+      <c r="X886" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="887" spans="21:24" x14ac:dyDescent="0.3">
+      <c r="U887" s="10">
+        <v>882</v>
+      </c>
+      <c r="V887" s="12">
+        <f t="shared" si="47"/>
+        <v>4950000</v>
+      </c>
+      <c r="W887" s="12">
+        <f>SUM($V$5:V887)</f>
+        <v>2179530000</v>
+      </c>
+      <c r="X887" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="888" spans="21:24" x14ac:dyDescent="0.3">
+      <c r="U888" s="10">
+        <v>883</v>
+      </c>
+      <c r="V888" s="12">
+        <f t="shared" si="47"/>
+        <v>4950000</v>
+      </c>
+      <c r="W888" s="12">
+        <f>SUM($V$5:V888)</f>
+        <v>2184480000</v>
+      </c>
+      <c r="X888" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="889" spans="21:24" x14ac:dyDescent="0.3">
+      <c r="U889" s="10">
+        <v>884</v>
+      </c>
+      <c r="V889" s="12">
+        <f t="shared" si="47"/>
+        <v>4950000</v>
+      </c>
+      <c r="W889" s="12">
+        <f>SUM($V$5:V889)</f>
+        <v>2189430000</v>
+      </c>
+      <c r="X889" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="890" spans="21:24" x14ac:dyDescent="0.3">
+      <c r="U890" s="10">
+        <v>885</v>
+      </c>
+      <c r="V890" s="12">
+        <f t="shared" si="47"/>
+        <v>5000000</v>
+      </c>
+      <c r="W890" s="12">
+        <f>SUM($V$5:V890)</f>
+        <v>2194430000</v>
+      </c>
+      <c r="X890" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="891" spans="21:24" x14ac:dyDescent="0.3">
+      <c r="U891" s="10">
+        <v>886</v>
+      </c>
+      <c r="V891" s="12">
+        <f t="shared" si="47"/>
+        <v>5000000</v>
+      </c>
+      <c r="W891" s="12">
+        <f>SUM($V$5:V891)</f>
+        <v>2199430000</v>
+      </c>
+      <c r="X891" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="892" spans="21:24" x14ac:dyDescent="0.3">
+      <c r="U892" s="10">
+        <v>887</v>
+      </c>
+      <c r="V892" s="12">
+        <f t="shared" si="47"/>
+        <v>5000000</v>
+      </c>
+      <c r="W892" s="12">
+        <f>SUM($V$5:V892)</f>
+        <v>2204430000</v>
+      </c>
+      <c r="X892" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="893" spans="21:24" x14ac:dyDescent="0.3">
+      <c r="U893" s="10">
+        <v>888</v>
+      </c>
+      <c r="V893" s="12">
+        <f t="shared" si="47"/>
+        <v>5000000</v>
+      </c>
+      <c r="W893" s="12">
+        <f>SUM($V$5:V893)</f>
+        <v>2209430000</v>
+      </c>
+      <c r="X893" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="894" spans="21:24" x14ac:dyDescent="0.3">
+      <c r="U894" s="10">
+        <v>889</v>
+      </c>
+      <c r="V894" s="12">
+        <f t="shared" si="47"/>
+        <v>5000000</v>
+      </c>
+      <c r="W894" s="12">
+        <f>SUM($V$5:V894)</f>
+        <v>2214430000</v>
+      </c>
+      <c r="X894" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="895" spans="21:24" x14ac:dyDescent="0.3">
+      <c r="U895" s="10">
+        <v>890</v>
+      </c>
+      <c r="V895" s="12">
+        <f t="shared" si="47"/>
+        <v>5000000</v>
+      </c>
+      <c r="W895" s="12">
+        <f>SUM($V$5:V895)</f>
+        <v>2219430000</v>
+      </c>
+      <c r="X895" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="896" spans="21:24" x14ac:dyDescent="0.3">
+      <c r="U896" s="10">
+        <v>891</v>
+      </c>
+      <c r="V896" s="12">
+        <f t="shared" si="47"/>
+        <v>5000000</v>
+      </c>
+      <c r="W896" s="12">
+        <f>SUM($V$5:V896)</f>
+        <v>2224430000</v>
+      </c>
+      <c r="X896" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="897" spans="21:24" x14ac:dyDescent="0.3">
+      <c r="U897" s="10">
+        <v>892</v>
+      </c>
+      <c r="V897" s="12">
+        <f t="shared" si="47"/>
+        <v>5000000</v>
+      </c>
+      <c r="W897" s="12">
+        <f>SUM($V$5:V897)</f>
+        <v>2229430000</v>
+      </c>
+      <c r="X897" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="898" spans="21:24" x14ac:dyDescent="0.3">
+      <c r="U898" s="10">
+        <v>893</v>
+      </c>
+      <c r="V898" s="12">
+        <f t="shared" si="47"/>
+        <v>5000000</v>
+      </c>
+      <c r="W898" s="12">
+        <f>SUM($V$5:V898)</f>
+        <v>2234430000</v>
+      </c>
+      <c r="X898" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="899" spans="21:24" x14ac:dyDescent="0.3">
+      <c r="U899" s="10">
+        <v>894</v>
+      </c>
+      <c r="V899" s="12">
+        <f t="shared" si="47"/>
+        <v>5000000</v>
+      </c>
+      <c r="W899" s="12">
+        <f>SUM($V$5:V899)</f>
+        <v>2239430000</v>
+      </c>
+      <c r="X899" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="900" spans="21:24" x14ac:dyDescent="0.3">
+      <c r="U900" s="10">
+        <v>895</v>
+      </c>
+      <c r="V900" s="12">
+        <f t="shared" si="47"/>
+        <v>5050000</v>
+      </c>
+      <c r="W900" s="12">
+        <f>SUM($V$5:V900)</f>
+        <v>2244480000</v>
+      </c>
+      <c r="X900" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="901" spans="21:24" x14ac:dyDescent="0.3">
+      <c r="U901" s="10">
+        <v>896</v>
+      </c>
+      <c r="V901" s="12">
+        <f t="shared" si="47"/>
+        <v>5050000</v>
+      </c>
+      <c r="W901" s="12">
+        <f>SUM($V$5:V901)</f>
+        <v>2249530000</v>
+      </c>
+      <c r="X901" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="902" spans="21:24" x14ac:dyDescent="0.3">
+      <c r="U902" s="10">
+        <v>897</v>
+      </c>
+      <c r="V902" s="12">
+        <f t="shared" si="47"/>
+        <v>5050000</v>
+      </c>
+      <c r="W902" s="12">
+        <f>SUM($V$5:V902)</f>
+        <v>2254580000</v>
+      </c>
+      <c r="X902" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="903" spans="21:24" x14ac:dyDescent="0.3">
+      <c r="U903" s="10">
+        <v>898</v>
+      </c>
+      <c r="V903" s="12">
+        <f t="shared" si="47"/>
+        <v>5050000</v>
+      </c>
+      <c r="W903" s="12">
+        <f>SUM($V$5:V903)</f>
+        <v>2259630000</v>
+      </c>
+      <c r="X903" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="904" spans="21:24" x14ac:dyDescent="0.3">
+      <c r="U904" s="10">
+        <v>899</v>
+      </c>
+      <c r="V904" s="12">
+        <f t="shared" si="47"/>
+        <v>5050000</v>
+      </c>
+      <c r="W904" s="12">
+        <f>SUM($V$5:V904)</f>
+        <v>2264680000</v>
+      </c>
+      <c r="X904" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="905" spans="21:24" x14ac:dyDescent="0.3">
+      <c r="U905" s="10">
+        <v>900</v>
+      </c>
+      <c r="V905" s="12">
+        <f t="shared" si="47"/>
+        <v>5050000</v>
+      </c>
+      <c r="W905" s="12">
+        <f>SUM($V$5:V905)</f>
+        <v>2269730000</v>
+      </c>
+      <c r="X905" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="906" spans="21:24" x14ac:dyDescent="0.3">
+      <c r="U906" s="10"/>
+      <c r="V906" s="12"/>
+      <c r="W906" s="12"/>
+      <c r="X906" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -41633,10 +45327,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B4BD32F-D36A-49D0-8344-521F56FEBBC4}">
-  <dimension ref="C2:AF804"/>
+  <dimension ref="C2:AF904"/>
   <sheetViews>
-    <sheetView topLeftCell="A787" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="E802" sqref="E802"/>
+    <sheetView topLeftCell="A883" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="D897" sqref="D897"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -41783,7 +45477,7 @@
       </c>
       <c r="Z4" s="12">
         <f t="shared" ref="Z4:Z15" si="4">SUMIFS(G:G,E:E,Q4)+SUMIFS(J:J,H:H,Q4)</f>
-        <v>51956110</v>
+        <v>62071110</v>
       </c>
       <c r="AC4" s="3" t="s">
         <v>4</v>
@@ -41862,7 +45556,7 @@
       </c>
       <c r="Z5" s="12">
         <f t="shared" si="4"/>
-        <v>26496200</v>
+        <v>31648700</v>
       </c>
       <c r="AC5" s="3" t="s">
         <v>6</v>
@@ -41941,7 +45635,7 @@
       </c>
       <c r="Z6" s="12">
         <f t="shared" si="4"/>
-        <v>16043450</v>
+        <v>19154950</v>
       </c>
       <c r="AC6" s="3" t="s">
         <v>7</v>
@@ -42020,7 +45714,7 @@
       </c>
       <c r="Z7" s="12">
         <f t="shared" si="4"/>
-        <v>857550</v>
+        <v>990600</v>
       </c>
       <c r="AC7" s="3" t="s">
         <v>8</v>
@@ -42099,7 +45793,7 @@
       </c>
       <c r="Z8" s="12">
         <f t="shared" si="4"/>
-        <v>82600</v>
+        <v>97790</v>
       </c>
       <c r="AC8" s="3" t="s">
         <v>9</v>
@@ -42178,7 +45872,7 @@
       </c>
       <c r="Z9" s="12">
         <f t="shared" si="4"/>
-        <v>5606350</v>
+        <v>6676850</v>
       </c>
       <c r="AC9" s="3" t="s">
         <v>10</v>
@@ -42257,7 +45951,7 @@
       </c>
       <c r="Z10" s="12">
         <f t="shared" si="4"/>
-        <v>2574100</v>
+        <v>3079350</v>
       </c>
       <c r="AC10" s="3" t="s">
         <v>11</v>
@@ -42336,7 +46030,7 @@
       </c>
       <c r="Z11" s="12">
         <f t="shared" si="4"/>
-        <v>764750</v>
+        <v>915325</v>
       </c>
       <c r="AC11" s="3" t="s">
         <v>12</v>
@@ -42415,7 +46109,7 @@
       </c>
       <c r="Z12" s="12">
         <f t="shared" si="4"/>
-        <v>17332.999999999993</v>
+        <v>20273.999999999982</v>
       </c>
       <c r="AC12" s="3" t="s">
         <v>13</v>
@@ -42504,7 +46198,7 @@
       </c>
       <c r="Z13" s="12">
         <f t="shared" si="4"/>
-        <v>71440.5</v>
+        <v>84055.5</v>
       </c>
       <c r="AC13" s="3" t="s">
         <v>14</v>
@@ -42593,7 +46287,7 @@
       </c>
       <c r="Z14" s="12">
         <f t="shared" si="4"/>
-        <v>3350</v>
+        <v>4004.5</v>
       </c>
       <c r="AC14" s="3" t="s">
         <v>15</v>
@@ -42656,7 +46350,7 @@
       </c>
       <c r="Z15">
         <f t="shared" si="4"/>
-        <v>10433</v>
+        <v>12474</v>
       </c>
       <c r="AC15" s="3" t="s">
         <v>16</v>
@@ -60721,7 +64415,7 @@
         <v>금강 베기</v>
       </c>
       <c r="F452">
-        <f t="shared" ref="F452:F515" si="80">VLOOKUP(E452,$Q:$R,2,FALSE)</f>
+        <f t="shared" ref="F452:F504" si="80">VLOOKUP(E452,$Q:$R,2,FALSE)</f>
         <v>43</v>
       </c>
       <c r="G452">
@@ -61093,7 +64787,7 @@
         <v>섬광 베기</v>
       </c>
       <c r="I461">
-        <f t="shared" ref="I461:I524" si="81">VLOOKUP(H461,$Q:$R,2,FALSE)</f>
+        <f t="shared" ref="I461:I504" si="81">VLOOKUP(H461,$Q:$R,2,FALSE)</f>
         <v>47</v>
       </c>
       <c r="J461">
@@ -72997,7 +76691,7 @@
         <v>755</v>
       </c>
       <c r="E759" t="str">
-        <f t="shared" ref="E759:E804" si="136">E754</f>
+        <f t="shared" ref="E759:E822" si="136">E754</f>
         <v>지옥 베기</v>
       </c>
       <c r="F759">
@@ -73409,7 +77103,7 @@
         <v>497000</v>
       </c>
       <c r="H769" t="str">
-        <f t="shared" ref="H769:H804" si="137">H754</f>
+        <f t="shared" ref="H769:H832" si="137">H754</f>
         <v>신선 베기</v>
       </c>
       <c r="I769">
@@ -74721,11 +78415,11 @@
         <v>금강 베기</v>
       </c>
       <c r="F802">
-        <f t="shared" ref="F802:F804" si="144">VLOOKUP(E802,$Q:$R,2,FALSE)</f>
+        <f t="shared" ref="F802:F811" si="144">VLOOKUP(E802,$Q:$R,2,FALSE)</f>
         <v>43</v>
       </c>
       <c r="G802">
-        <f t="shared" ref="G802:G804" si="145">G797+VLOOKUP(E802,$T$20:$U$31,2,FALSE)</f>
+        <f t="shared" ref="G802:G811" si="145">G797+VLOOKUP(E802,$T$20:$U$31,2,FALSE)</f>
         <v>53000</v>
       </c>
       <c r="H802" t="str">
@@ -74733,7 +78427,7 @@
         <v>태극 베기</v>
       </c>
       <c r="I802">
-        <f t="shared" ref="I802:I804" si="146">VLOOKUP(H802,$Q:$R,2,FALSE)</f>
+        <f t="shared" ref="I802:I811" si="146">VLOOKUP(H802,$Q:$R,2,FALSE)</f>
         <v>55</v>
       </c>
       <c r="J802">
@@ -74830,6 +78524,4006 @@
       <c r="M804" s="10" t="str">
         <f t="shared" si="143"/>
         <v>5005,6.255</v>
+      </c>
+    </row>
+    <row r="805" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D805" s="10">
+        <v>801</v>
+      </c>
+      <c r="E805" t="str">
+        <f t="shared" si="136"/>
+        <v>천상 베기</v>
+      </c>
+      <c r="F805">
+        <f t="shared" si="144"/>
+        <v>36</v>
+      </c>
+      <c r="G805">
+        <f t="shared" si="145"/>
+        <v>255250</v>
+      </c>
+      <c r="H805" t="str">
+        <f t="shared" si="137"/>
+        <v>심연 베기</v>
+      </c>
+      <c r="I805">
+        <f t="shared" si="146"/>
+        <v>50</v>
+      </c>
+      <c r="J805">
+        <f t="shared" ref="J805:J838" si="147">ROUNDUP(IF(I805=42,J790+$U$23,IF(I805=46,J790+$U$24,IF(I805=61,J790+$U$30,J800+VLOOKUP(H805,$T$20:$U$31,2,FALSE)))),2)</f>
+        <v>7457.5</v>
+      </c>
+      <c r="K805" s="10">
+        <v>801</v>
+      </c>
+      <c r="L805" s="10" t="str">
+        <f t="shared" ref="L805:L838" si="148">IF(H805=0,F805&amp;",-1",F805&amp;","&amp;I805)</f>
+        <v>36,50</v>
+      </c>
+      <c r="M805" s="10" t="str">
+        <f t="shared" ref="M805:M838" si="149">IF(H805=0,G805/100&amp;","&amp;0,G805/100&amp;","&amp;J805/100)</f>
+        <v>2552.5,74.575</v>
+      </c>
+    </row>
+    <row r="806" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D806" s="10">
+        <v>802</v>
+      </c>
+      <c r="E806" t="str">
+        <f t="shared" si="136"/>
+        <v>귀신 베기</v>
+      </c>
+      <c r="F806">
+        <f t="shared" si="144"/>
+        <v>39</v>
+      </c>
+      <c r="G806">
+        <f t="shared" si="145"/>
+        <v>154150</v>
+      </c>
+      <c r="H806" t="str">
+        <f t="shared" si="137"/>
+        <v>섬광 베기</v>
+      </c>
+      <c r="I806">
+        <f t="shared" si="146"/>
+        <v>47</v>
+      </c>
+      <c r="J806">
+        <f t="shared" si="147"/>
+        <v>25025</v>
+      </c>
+      <c r="K806" s="10">
+        <v>802</v>
+      </c>
+      <c r="L806" s="10" t="str">
+        <f t="shared" si="148"/>
+        <v>39,47</v>
+      </c>
+      <c r="M806" s="10" t="str">
+        <f t="shared" si="149"/>
+        <v>1541.5,250.25</v>
+      </c>
+    </row>
+    <row r="807" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D807" s="10">
+        <v>803</v>
+      </c>
+      <c r="E807" t="str">
+        <f t="shared" si="136"/>
+        <v>금강 베기</v>
+      </c>
+      <c r="F807">
+        <f t="shared" si="144"/>
+        <v>43</v>
+      </c>
+      <c r="G807">
+        <f t="shared" si="145"/>
+        <v>53050</v>
+      </c>
+      <c r="H807" t="str">
+        <f t="shared" si="137"/>
+        <v>태극 베기</v>
+      </c>
+      <c r="I807">
+        <f t="shared" si="146"/>
+        <v>55</v>
+      </c>
+      <c r="J807">
+        <f t="shared" si="147"/>
+        <v>101.1</v>
+      </c>
+      <c r="K807" s="10">
+        <v>803</v>
+      </c>
+      <c r="L807" s="10" t="str">
+        <f t="shared" si="148"/>
+        <v>43,55</v>
+      </c>
+      <c r="M807" s="10" t="str">
+        <f t="shared" si="149"/>
+        <v>530.5,1.011</v>
+      </c>
+    </row>
+    <row r="808" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D808" s="10">
+        <v>804</v>
+      </c>
+      <c r="E808" t="str">
+        <f t="shared" si="136"/>
+        <v>귀살 베기</v>
+      </c>
+      <c r="F808">
+        <f t="shared" si="144"/>
+        <v>60</v>
+      </c>
+      <c r="G808">
+        <f t="shared" si="145"/>
+        <v>146.09999999999965</v>
+      </c>
+      <c r="H808" t="str">
+        <f t="shared" si="137"/>
+        <v>흉수 베기</v>
+      </c>
+      <c r="I808">
+        <f t="shared" si="146"/>
+        <v>46</v>
+      </c>
+      <c r="J808">
+        <f t="shared" si="147"/>
+        <v>2155</v>
+      </c>
+      <c r="K808" s="10">
+        <v>804</v>
+      </c>
+      <c r="L808" s="10" t="str">
+        <f t="shared" si="148"/>
+        <v>60,46</v>
+      </c>
+      <c r="M808" s="10" t="str">
+        <f t="shared" si="149"/>
+        <v>1.461,21.55</v>
+      </c>
+    </row>
+    <row r="809" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D809" s="10">
+        <v>805</v>
+      </c>
+      <c r="E809" t="str">
+        <f t="shared" si="136"/>
+        <v>지옥 베기</v>
+      </c>
+      <c r="F809">
+        <f t="shared" si="144"/>
+        <v>35</v>
+      </c>
+      <c r="G809">
+        <f t="shared" si="145"/>
+        <v>501000</v>
+      </c>
+      <c r="H809" t="str">
+        <f t="shared" si="137"/>
+        <v>신선 베기</v>
+      </c>
+      <c r="I809">
+        <f t="shared" si="146"/>
+        <v>54</v>
+      </c>
+      <c r="J809">
+        <f t="shared" si="147"/>
+        <v>626</v>
+      </c>
+      <c r="K809" s="10">
+        <v>805</v>
+      </c>
+      <c r="L809" s="10" t="str">
+        <f t="shared" si="148"/>
+        <v>35,54</v>
+      </c>
+      <c r="M809" s="10" t="str">
+        <f t="shared" si="149"/>
+        <v>5010,6.26</v>
+      </c>
+    </row>
+    <row r="810" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D810" s="10">
+        <v>806</v>
+      </c>
+      <c r="E810" t="str">
+        <f t="shared" si="136"/>
+        <v>천상 베기</v>
+      </c>
+      <c r="F810">
+        <f t="shared" si="144"/>
+        <v>36</v>
+      </c>
+      <c r="G810">
+        <f t="shared" si="145"/>
+        <v>255500</v>
+      </c>
+      <c r="H810" t="str">
+        <f t="shared" si="137"/>
+        <v>심연 베기</v>
+      </c>
+      <c r="I810">
+        <f t="shared" si="146"/>
+        <v>50</v>
+      </c>
+      <c r="J810">
+        <f t="shared" si="147"/>
+        <v>7465</v>
+      </c>
+      <c r="K810" s="10">
+        <v>806</v>
+      </c>
+      <c r="L810" s="10" t="str">
+        <f t="shared" si="148"/>
+        <v>36,50</v>
+      </c>
+      <c r="M810" s="10" t="str">
+        <f t="shared" si="149"/>
+        <v>2555,74.65</v>
+      </c>
+    </row>
+    <row r="811" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D811" s="10">
+        <v>807</v>
+      </c>
+      <c r="E811" t="str">
+        <f t="shared" si="136"/>
+        <v>귀신 베기</v>
+      </c>
+      <c r="F811">
+        <f t="shared" si="144"/>
+        <v>39</v>
+      </c>
+      <c r="G811">
+        <f t="shared" si="145"/>
+        <v>154300</v>
+      </c>
+      <c r="H811" t="str">
+        <f t="shared" si="137"/>
+        <v>섬광 베기</v>
+      </c>
+      <c r="I811">
+        <f t="shared" si="146"/>
+        <v>47</v>
+      </c>
+      <c r="J811">
+        <f t="shared" si="147"/>
+        <v>25050</v>
+      </c>
+      <c r="K811" s="10">
+        <v>807</v>
+      </c>
+      <c r="L811" s="10" t="str">
+        <f t="shared" si="148"/>
+        <v>39,47</v>
+      </c>
+      <c r="M811" s="10" t="str">
+        <f t="shared" si="149"/>
+        <v>1543,250.5</v>
+      </c>
+    </row>
+    <row r="812" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D812" s="10">
+        <v>808</v>
+      </c>
+      <c r="E812" t="str">
+        <f t="shared" si="136"/>
+        <v>금강 베기</v>
+      </c>
+      <c r="F812">
+        <f t="shared" ref="F812:F845" si="150">VLOOKUP(E812,$Q:$R,2,FALSE)</f>
+        <v>43</v>
+      </c>
+      <c r="G812">
+        <f t="shared" ref="G812:G845" si="151">G807+VLOOKUP(E812,$T$20:$U$31,2,FALSE)</f>
+        <v>53100</v>
+      </c>
+      <c r="H812" t="str">
+        <f t="shared" si="137"/>
+        <v>태극 베기</v>
+      </c>
+      <c r="I812">
+        <f t="shared" ref="I812:I845" si="152">VLOOKUP(H812,$Q:$R,2,FALSE)</f>
+        <v>55</v>
+      </c>
+      <c r="J812">
+        <f t="shared" si="147"/>
+        <v>101.2</v>
+      </c>
+      <c r="K812" s="10">
+        <v>808</v>
+      </c>
+      <c r="L812" s="10" t="str">
+        <f t="shared" si="148"/>
+        <v>43,55</v>
+      </c>
+      <c r="M812" s="10" t="str">
+        <f t="shared" si="149"/>
+        <v>531,1.012</v>
+      </c>
+    </row>
+    <row r="813" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D813" s="10">
+        <v>809</v>
+      </c>
+      <c r="E813" t="str">
+        <f t="shared" si="136"/>
+        <v>귀살 베기</v>
+      </c>
+      <c r="F813">
+        <f t="shared" si="150"/>
+        <v>60</v>
+      </c>
+      <c r="G813">
+        <f t="shared" si="151"/>
+        <v>146.19999999999965</v>
+      </c>
+      <c r="H813" t="str">
+        <f t="shared" si="137"/>
+        <v>천구 베기</v>
+      </c>
+      <c r="I813">
+        <f t="shared" si="152"/>
+        <v>61</v>
+      </c>
+      <c r="J813">
+        <f t="shared" si="147"/>
+        <v>92.75</v>
+      </c>
+      <c r="K813" s="10">
+        <v>809</v>
+      </c>
+      <c r="L813" s="10" t="str">
+        <f t="shared" si="148"/>
+        <v>60,61</v>
+      </c>
+      <c r="M813" s="10" t="str">
+        <f t="shared" si="149"/>
+        <v>1.462,0.9275</v>
+      </c>
+    </row>
+    <row r="814" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D814" s="10">
+        <v>810</v>
+      </c>
+      <c r="E814" t="str">
+        <f t="shared" si="136"/>
+        <v>지옥 베기</v>
+      </c>
+      <c r="F814">
+        <f t="shared" si="150"/>
+        <v>35</v>
+      </c>
+      <c r="G814">
+        <f t="shared" si="151"/>
+        <v>501500</v>
+      </c>
+      <c r="H814" t="str">
+        <f t="shared" si="137"/>
+        <v>신선 베기</v>
+      </c>
+      <c r="I814">
+        <f t="shared" si="152"/>
+        <v>54</v>
+      </c>
+      <c r="J814">
+        <f t="shared" si="147"/>
+        <v>626.5</v>
+      </c>
+      <c r="K814" s="10">
+        <v>810</v>
+      </c>
+      <c r="L814" s="10" t="str">
+        <f t="shared" si="148"/>
+        <v>35,54</v>
+      </c>
+      <c r="M814" s="10" t="str">
+        <f t="shared" si="149"/>
+        <v>5015,6.265</v>
+      </c>
+    </row>
+    <row r="815" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D815" s="10">
+        <v>811</v>
+      </c>
+      <c r="E815" t="str">
+        <f t="shared" si="136"/>
+        <v>천상 베기</v>
+      </c>
+      <c r="F815">
+        <f t="shared" si="150"/>
+        <v>36</v>
+      </c>
+      <c r="G815">
+        <f t="shared" si="151"/>
+        <v>255750</v>
+      </c>
+      <c r="H815" t="str">
+        <f t="shared" si="137"/>
+        <v>심연 베기</v>
+      </c>
+      <c r="I815">
+        <f t="shared" si="152"/>
+        <v>50</v>
+      </c>
+      <c r="J815">
+        <f t="shared" si="147"/>
+        <v>7472.5</v>
+      </c>
+      <c r="K815" s="10">
+        <v>811</v>
+      </c>
+      <c r="L815" s="10" t="str">
+        <f t="shared" si="148"/>
+        <v>36,50</v>
+      </c>
+      <c r="M815" s="10" t="str">
+        <f t="shared" si="149"/>
+        <v>2557.5,74.725</v>
+      </c>
+    </row>
+    <row r="816" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D816" s="10">
+        <v>812</v>
+      </c>
+      <c r="E816" t="str">
+        <f t="shared" si="136"/>
+        <v>귀신 베기</v>
+      </c>
+      <c r="F816">
+        <f t="shared" si="150"/>
+        <v>39</v>
+      </c>
+      <c r="G816">
+        <f t="shared" si="151"/>
+        <v>154450</v>
+      </c>
+      <c r="H816" t="str">
+        <f t="shared" si="137"/>
+        <v>섬광 베기</v>
+      </c>
+      <c r="I816">
+        <f t="shared" si="152"/>
+        <v>47</v>
+      </c>
+      <c r="J816">
+        <f t="shared" si="147"/>
+        <v>25075</v>
+      </c>
+      <c r="K816" s="10">
+        <v>812</v>
+      </c>
+      <c r="L816" s="10" t="str">
+        <f t="shared" si="148"/>
+        <v>39,47</v>
+      </c>
+      <c r="M816" s="10" t="str">
+        <f t="shared" si="149"/>
+        <v>1544.5,250.75</v>
+      </c>
+    </row>
+    <row r="817" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D817" s="10">
+        <v>813</v>
+      </c>
+      <c r="E817" t="str">
+        <f t="shared" si="136"/>
+        <v>금강 베기</v>
+      </c>
+      <c r="F817">
+        <f t="shared" si="150"/>
+        <v>43</v>
+      </c>
+      <c r="G817">
+        <f t="shared" si="151"/>
+        <v>53150</v>
+      </c>
+      <c r="H817" t="str">
+        <f t="shared" si="137"/>
+        <v>태극 베기</v>
+      </c>
+      <c r="I817">
+        <f t="shared" si="152"/>
+        <v>55</v>
+      </c>
+      <c r="J817">
+        <f t="shared" si="147"/>
+        <v>101.3</v>
+      </c>
+      <c r="K817" s="10">
+        <v>813</v>
+      </c>
+      <c r="L817" s="10" t="str">
+        <f t="shared" si="148"/>
+        <v>43,55</v>
+      </c>
+      <c r="M817" s="10" t="str">
+        <f t="shared" si="149"/>
+        <v>531.5,1.013</v>
+      </c>
+    </row>
+    <row r="818" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D818" s="10">
+        <v>814</v>
+      </c>
+      <c r="E818" t="str">
+        <f t="shared" si="136"/>
+        <v>귀살 베기</v>
+      </c>
+      <c r="F818">
+        <f t="shared" si="150"/>
+        <v>60</v>
+      </c>
+      <c r="G818">
+        <f t="shared" si="151"/>
+        <v>146.29999999999964</v>
+      </c>
+      <c r="H818" t="str">
+        <f t="shared" si="137"/>
+        <v>신수 베기</v>
+      </c>
+      <c r="I818">
+        <f t="shared" si="152"/>
+        <v>42</v>
+      </c>
+      <c r="J818">
+        <f t="shared" si="147"/>
+        <v>22050</v>
+      </c>
+      <c r="K818" s="10">
+        <v>814</v>
+      </c>
+      <c r="L818" s="10" t="str">
+        <f t="shared" si="148"/>
+        <v>60,42</v>
+      </c>
+      <c r="M818" s="10" t="str">
+        <f t="shared" si="149"/>
+        <v>1.463,220.5</v>
+      </c>
+    </row>
+    <row r="819" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D819" s="10">
+        <v>815</v>
+      </c>
+      <c r="E819" t="str">
+        <f t="shared" si="136"/>
+        <v>지옥 베기</v>
+      </c>
+      <c r="F819">
+        <f t="shared" si="150"/>
+        <v>35</v>
+      </c>
+      <c r="G819">
+        <f t="shared" si="151"/>
+        <v>502000</v>
+      </c>
+      <c r="H819" t="str">
+        <f t="shared" si="137"/>
+        <v>신선 베기</v>
+      </c>
+      <c r="I819">
+        <f t="shared" si="152"/>
+        <v>54</v>
+      </c>
+      <c r="J819">
+        <f t="shared" si="147"/>
+        <v>627</v>
+      </c>
+      <c r="K819" s="10">
+        <v>815</v>
+      </c>
+      <c r="L819" s="10" t="str">
+        <f t="shared" si="148"/>
+        <v>35,54</v>
+      </c>
+      <c r="M819" s="10" t="str">
+        <f t="shared" si="149"/>
+        <v>5020,6.27</v>
+      </c>
+    </row>
+    <row r="820" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D820" s="10">
+        <v>816</v>
+      </c>
+      <c r="E820" t="str">
+        <f t="shared" si="136"/>
+        <v>천상 베기</v>
+      </c>
+      <c r="F820">
+        <f t="shared" si="150"/>
+        <v>36</v>
+      </c>
+      <c r="G820">
+        <f t="shared" si="151"/>
+        <v>256000</v>
+      </c>
+      <c r="H820" t="str">
+        <f t="shared" si="137"/>
+        <v>심연 베기</v>
+      </c>
+      <c r="I820">
+        <f t="shared" si="152"/>
+        <v>50</v>
+      </c>
+      <c r="J820">
+        <f t="shared" si="147"/>
+        <v>7480</v>
+      </c>
+      <c r="K820" s="10">
+        <v>816</v>
+      </c>
+      <c r="L820" s="10" t="str">
+        <f t="shared" si="148"/>
+        <v>36,50</v>
+      </c>
+      <c r="M820" s="10" t="str">
+        <f t="shared" si="149"/>
+        <v>2560,74.8</v>
+      </c>
+    </row>
+    <row r="821" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D821" s="10">
+        <v>817</v>
+      </c>
+      <c r="E821" t="str">
+        <f t="shared" si="136"/>
+        <v>귀신 베기</v>
+      </c>
+      <c r="F821">
+        <f t="shared" si="150"/>
+        <v>39</v>
+      </c>
+      <c r="G821">
+        <f t="shared" si="151"/>
+        <v>154600</v>
+      </c>
+      <c r="H821" t="str">
+        <f t="shared" si="137"/>
+        <v>섬광 베기</v>
+      </c>
+      <c r="I821">
+        <f t="shared" si="152"/>
+        <v>47</v>
+      </c>
+      <c r="J821">
+        <f t="shared" si="147"/>
+        <v>25100</v>
+      </c>
+      <c r="K821" s="10">
+        <v>817</v>
+      </c>
+      <c r="L821" s="10" t="str">
+        <f t="shared" si="148"/>
+        <v>39,47</v>
+      </c>
+      <c r="M821" s="10" t="str">
+        <f t="shared" si="149"/>
+        <v>1546,251</v>
+      </c>
+    </row>
+    <row r="822" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D822" s="10">
+        <v>818</v>
+      </c>
+      <c r="E822" t="str">
+        <f t="shared" si="136"/>
+        <v>금강 베기</v>
+      </c>
+      <c r="F822">
+        <f t="shared" si="150"/>
+        <v>43</v>
+      </c>
+      <c r="G822">
+        <f t="shared" si="151"/>
+        <v>53200</v>
+      </c>
+      <c r="H822" t="str">
+        <f t="shared" si="137"/>
+        <v>태극 베기</v>
+      </c>
+      <c r="I822">
+        <f t="shared" si="152"/>
+        <v>55</v>
+      </c>
+      <c r="J822">
+        <f t="shared" si="147"/>
+        <v>101.4</v>
+      </c>
+      <c r="K822" s="10">
+        <v>818</v>
+      </c>
+      <c r="L822" s="10" t="str">
+        <f t="shared" si="148"/>
+        <v>43,55</v>
+      </c>
+      <c r="M822" s="10" t="str">
+        <f t="shared" si="149"/>
+        <v>532,1.014</v>
+      </c>
+    </row>
+    <row r="823" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D823" s="10">
+        <v>819</v>
+      </c>
+      <c r="E823" t="str">
+        <f t="shared" ref="E823:E886" si="153">E818</f>
+        <v>귀살 베기</v>
+      </c>
+      <c r="F823">
+        <f t="shared" si="150"/>
+        <v>60</v>
+      </c>
+      <c r="G823">
+        <f t="shared" si="151"/>
+        <v>146.39999999999964</v>
+      </c>
+      <c r="H823" t="str">
+        <f t="shared" si="137"/>
+        <v>흉수 베기</v>
+      </c>
+      <c r="I823">
+        <f t="shared" si="152"/>
+        <v>46</v>
+      </c>
+      <c r="J823">
+        <f t="shared" si="147"/>
+        <v>2160</v>
+      </c>
+      <c r="K823" s="10">
+        <v>819</v>
+      </c>
+      <c r="L823" s="10" t="str">
+        <f t="shared" si="148"/>
+        <v>60,46</v>
+      </c>
+      <c r="M823" s="10" t="str">
+        <f t="shared" si="149"/>
+        <v>1.464,21.6</v>
+      </c>
+    </row>
+    <row r="824" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D824" s="10">
+        <v>820</v>
+      </c>
+      <c r="E824" t="str">
+        <f t="shared" si="153"/>
+        <v>지옥 베기</v>
+      </c>
+      <c r="F824">
+        <f t="shared" si="150"/>
+        <v>35</v>
+      </c>
+      <c r="G824">
+        <f t="shared" si="151"/>
+        <v>502500</v>
+      </c>
+      <c r="H824" t="str">
+        <f t="shared" si="137"/>
+        <v>신선 베기</v>
+      </c>
+      <c r="I824">
+        <f t="shared" si="152"/>
+        <v>54</v>
+      </c>
+      <c r="J824">
+        <f t="shared" si="147"/>
+        <v>627.5</v>
+      </c>
+      <c r="K824" s="10">
+        <v>820</v>
+      </c>
+      <c r="L824" s="10" t="str">
+        <f t="shared" si="148"/>
+        <v>35,54</v>
+      </c>
+      <c r="M824" s="10" t="str">
+        <f t="shared" si="149"/>
+        <v>5025,6.275</v>
+      </c>
+    </row>
+    <row r="825" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D825" s="10">
+        <v>821</v>
+      </c>
+      <c r="E825" t="str">
+        <f t="shared" si="153"/>
+        <v>천상 베기</v>
+      </c>
+      <c r="F825">
+        <f t="shared" si="150"/>
+        <v>36</v>
+      </c>
+      <c r="G825">
+        <f t="shared" si="151"/>
+        <v>256250</v>
+      </c>
+      <c r="H825" t="str">
+        <f t="shared" si="137"/>
+        <v>심연 베기</v>
+      </c>
+      <c r="I825">
+        <f t="shared" si="152"/>
+        <v>50</v>
+      </c>
+      <c r="J825">
+        <f t="shared" si="147"/>
+        <v>7487.5</v>
+      </c>
+      <c r="K825" s="10">
+        <v>821</v>
+      </c>
+      <c r="L825" s="10" t="str">
+        <f t="shared" si="148"/>
+        <v>36,50</v>
+      </c>
+      <c r="M825" s="10" t="str">
+        <f t="shared" si="149"/>
+        <v>2562.5,74.875</v>
+      </c>
+    </row>
+    <row r="826" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D826" s="10">
+        <v>822</v>
+      </c>
+      <c r="E826" t="str">
+        <f t="shared" si="153"/>
+        <v>귀신 베기</v>
+      </c>
+      <c r="F826">
+        <f t="shared" si="150"/>
+        <v>39</v>
+      </c>
+      <c r="G826">
+        <f t="shared" si="151"/>
+        <v>154750</v>
+      </c>
+      <c r="H826" t="str">
+        <f t="shared" si="137"/>
+        <v>섬광 베기</v>
+      </c>
+      <c r="I826">
+        <f t="shared" si="152"/>
+        <v>47</v>
+      </c>
+      <c r="J826">
+        <f t="shared" si="147"/>
+        <v>25125</v>
+      </c>
+      <c r="K826" s="10">
+        <v>822</v>
+      </c>
+      <c r="L826" s="10" t="str">
+        <f t="shared" si="148"/>
+        <v>39,47</v>
+      </c>
+      <c r="M826" s="10" t="str">
+        <f t="shared" si="149"/>
+        <v>1547.5,251.25</v>
+      </c>
+    </row>
+    <row r="827" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D827" s="10">
+        <v>823</v>
+      </c>
+      <c r="E827" t="str">
+        <f t="shared" si="153"/>
+        <v>금강 베기</v>
+      </c>
+      <c r="F827">
+        <f t="shared" si="150"/>
+        <v>43</v>
+      </c>
+      <c r="G827">
+        <f t="shared" si="151"/>
+        <v>53250</v>
+      </c>
+      <c r="H827" t="str">
+        <f t="shared" si="137"/>
+        <v>태극 베기</v>
+      </c>
+      <c r="I827">
+        <f t="shared" si="152"/>
+        <v>55</v>
+      </c>
+      <c r="J827">
+        <f t="shared" si="147"/>
+        <v>101.5</v>
+      </c>
+      <c r="K827" s="10">
+        <v>823</v>
+      </c>
+      <c r="L827" s="10" t="str">
+        <f t="shared" si="148"/>
+        <v>43,55</v>
+      </c>
+      <c r="M827" s="10" t="str">
+        <f t="shared" si="149"/>
+        <v>532.5,1.015</v>
+      </c>
+    </row>
+    <row r="828" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D828" s="10">
+        <v>824</v>
+      </c>
+      <c r="E828" t="str">
+        <f t="shared" si="153"/>
+        <v>귀살 베기</v>
+      </c>
+      <c r="F828">
+        <f t="shared" si="150"/>
+        <v>60</v>
+      </c>
+      <c r="G828">
+        <f t="shared" si="151"/>
+        <v>146.49999999999963</v>
+      </c>
+      <c r="H828" t="str">
+        <f t="shared" si="137"/>
+        <v>천구 베기</v>
+      </c>
+      <c r="I828">
+        <f t="shared" si="152"/>
+        <v>61</v>
+      </c>
+      <c r="J828">
+        <f t="shared" si="147"/>
+        <v>93</v>
+      </c>
+      <c r="K828" s="10">
+        <v>824</v>
+      </c>
+      <c r="L828" s="10" t="str">
+        <f t="shared" si="148"/>
+        <v>60,61</v>
+      </c>
+      <c r="M828" s="10" t="str">
+        <f t="shared" si="149"/>
+        <v>1.465,0.93</v>
+      </c>
+    </row>
+    <row r="829" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D829" s="10">
+        <v>825</v>
+      </c>
+      <c r="E829" t="str">
+        <f t="shared" si="153"/>
+        <v>지옥 베기</v>
+      </c>
+      <c r="F829">
+        <f t="shared" si="150"/>
+        <v>35</v>
+      </c>
+      <c r="G829">
+        <f t="shared" si="151"/>
+        <v>503000</v>
+      </c>
+      <c r="H829" t="str">
+        <f t="shared" si="137"/>
+        <v>신선 베기</v>
+      </c>
+      <c r="I829">
+        <f t="shared" si="152"/>
+        <v>54</v>
+      </c>
+      <c r="J829">
+        <f t="shared" si="147"/>
+        <v>628</v>
+      </c>
+      <c r="K829" s="10">
+        <v>825</v>
+      </c>
+      <c r="L829" s="10" t="str">
+        <f t="shared" si="148"/>
+        <v>35,54</v>
+      </c>
+      <c r="M829" s="10" t="str">
+        <f t="shared" si="149"/>
+        <v>5030,6.28</v>
+      </c>
+    </row>
+    <row r="830" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D830" s="10">
+        <v>826</v>
+      </c>
+      <c r="E830" t="str">
+        <f t="shared" si="153"/>
+        <v>천상 베기</v>
+      </c>
+      <c r="F830">
+        <f t="shared" si="150"/>
+        <v>36</v>
+      </c>
+      <c r="G830">
+        <f t="shared" si="151"/>
+        <v>256500</v>
+      </c>
+      <c r="H830" t="str">
+        <f t="shared" si="137"/>
+        <v>심연 베기</v>
+      </c>
+      <c r="I830">
+        <f t="shared" si="152"/>
+        <v>50</v>
+      </c>
+      <c r="J830">
+        <f t="shared" si="147"/>
+        <v>7495</v>
+      </c>
+      <c r="K830" s="10">
+        <v>826</v>
+      </c>
+      <c r="L830" s="10" t="str">
+        <f t="shared" si="148"/>
+        <v>36,50</v>
+      </c>
+      <c r="M830" s="10" t="str">
+        <f t="shared" si="149"/>
+        <v>2565,74.95</v>
+      </c>
+    </row>
+    <row r="831" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D831" s="10">
+        <v>827</v>
+      </c>
+      <c r="E831" t="str">
+        <f t="shared" si="153"/>
+        <v>귀신 베기</v>
+      </c>
+      <c r="F831">
+        <f t="shared" si="150"/>
+        <v>39</v>
+      </c>
+      <c r="G831">
+        <f t="shared" si="151"/>
+        <v>154900</v>
+      </c>
+      <c r="H831" t="str">
+        <f t="shared" si="137"/>
+        <v>섬광 베기</v>
+      </c>
+      <c r="I831">
+        <f t="shared" si="152"/>
+        <v>47</v>
+      </c>
+      <c r="J831">
+        <f t="shared" si="147"/>
+        <v>25150</v>
+      </c>
+      <c r="K831" s="10">
+        <v>827</v>
+      </c>
+      <c r="L831" s="10" t="str">
+        <f t="shared" si="148"/>
+        <v>39,47</v>
+      </c>
+      <c r="M831" s="10" t="str">
+        <f t="shared" si="149"/>
+        <v>1549,251.5</v>
+      </c>
+    </row>
+    <row r="832" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D832" s="10">
+        <v>828</v>
+      </c>
+      <c r="E832" t="str">
+        <f t="shared" si="153"/>
+        <v>금강 베기</v>
+      </c>
+      <c r="F832">
+        <f t="shared" si="150"/>
+        <v>43</v>
+      </c>
+      <c r="G832">
+        <f t="shared" si="151"/>
+        <v>53300</v>
+      </c>
+      <c r="H832" t="str">
+        <f t="shared" si="137"/>
+        <v>태극 베기</v>
+      </c>
+      <c r="I832">
+        <f t="shared" si="152"/>
+        <v>55</v>
+      </c>
+      <c r="J832">
+        <f t="shared" si="147"/>
+        <v>101.6</v>
+      </c>
+      <c r="K832" s="10">
+        <v>828</v>
+      </c>
+      <c r="L832" s="10" t="str">
+        <f t="shared" si="148"/>
+        <v>43,55</v>
+      </c>
+      <c r="M832" s="10" t="str">
+        <f t="shared" si="149"/>
+        <v>533,1.016</v>
+      </c>
+    </row>
+    <row r="833" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D833" s="10">
+        <v>829</v>
+      </c>
+      <c r="E833" t="str">
+        <f t="shared" si="153"/>
+        <v>귀살 베기</v>
+      </c>
+      <c r="F833">
+        <f t="shared" si="150"/>
+        <v>60</v>
+      </c>
+      <c r="G833">
+        <f t="shared" si="151"/>
+        <v>146.59999999999962</v>
+      </c>
+      <c r="H833" t="str">
+        <f t="shared" ref="H833:H896" si="154">H818</f>
+        <v>신수 베기</v>
+      </c>
+      <c r="I833">
+        <f t="shared" si="152"/>
+        <v>42</v>
+      </c>
+      <c r="J833">
+        <f t="shared" si="147"/>
+        <v>22100</v>
+      </c>
+      <c r="K833" s="10">
+        <v>829</v>
+      </c>
+      <c r="L833" s="10" t="str">
+        <f t="shared" si="148"/>
+        <v>60,42</v>
+      </c>
+      <c r="M833" s="10" t="str">
+        <f t="shared" si="149"/>
+        <v>1.466,221</v>
+      </c>
+    </row>
+    <row r="834" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D834" s="10">
+        <v>830</v>
+      </c>
+      <c r="E834" t="str">
+        <f t="shared" si="153"/>
+        <v>지옥 베기</v>
+      </c>
+      <c r="F834">
+        <f t="shared" si="150"/>
+        <v>35</v>
+      </c>
+      <c r="G834">
+        <f t="shared" si="151"/>
+        <v>503500</v>
+      </c>
+      <c r="H834" t="str">
+        <f t="shared" si="154"/>
+        <v>신선 베기</v>
+      </c>
+      <c r="I834">
+        <f t="shared" si="152"/>
+        <v>54</v>
+      </c>
+      <c r="J834">
+        <f t="shared" si="147"/>
+        <v>628.5</v>
+      </c>
+      <c r="K834" s="10">
+        <v>830</v>
+      </c>
+      <c r="L834" s="10" t="str">
+        <f t="shared" si="148"/>
+        <v>35,54</v>
+      </c>
+      <c r="M834" s="10" t="str">
+        <f t="shared" si="149"/>
+        <v>5035,6.285</v>
+      </c>
+    </row>
+    <row r="835" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D835" s="10">
+        <v>831</v>
+      </c>
+      <c r="E835" t="str">
+        <f t="shared" si="153"/>
+        <v>천상 베기</v>
+      </c>
+      <c r="F835">
+        <f t="shared" si="150"/>
+        <v>36</v>
+      </c>
+      <c r="G835">
+        <f t="shared" si="151"/>
+        <v>256750</v>
+      </c>
+      <c r="H835" t="str">
+        <f t="shared" si="154"/>
+        <v>심연 베기</v>
+      </c>
+      <c r="I835">
+        <f t="shared" si="152"/>
+        <v>50</v>
+      </c>
+      <c r="J835">
+        <f t="shared" si="147"/>
+        <v>7502.5</v>
+      </c>
+      <c r="K835" s="10">
+        <v>831</v>
+      </c>
+      <c r="L835" s="10" t="str">
+        <f t="shared" si="148"/>
+        <v>36,50</v>
+      </c>
+      <c r="M835" s="10" t="str">
+        <f t="shared" si="149"/>
+        <v>2567.5,75.025</v>
+      </c>
+    </row>
+    <row r="836" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D836" s="10">
+        <v>832</v>
+      </c>
+      <c r="E836" t="str">
+        <f t="shared" si="153"/>
+        <v>귀신 베기</v>
+      </c>
+      <c r="F836">
+        <f t="shared" si="150"/>
+        <v>39</v>
+      </c>
+      <c r="G836">
+        <f t="shared" si="151"/>
+        <v>155050</v>
+      </c>
+      <c r="H836" t="str">
+        <f t="shared" si="154"/>
+        <v>섬광 베기</v>
+      </c>
+      <c r="I836">
+        <f t="shared" si="152"/>
+        <v>47</v>
+      </c>
+      <c r="J836">
+        <f t="shared" si="147"/>
+        <v>25175</v>
+      </c>
+      <c r="K836" s="10">
+        <v>832</v>
+      </c>
+      <c r="L836" s="10" t="str">
+        <f t="shared" si="148"/>
+        <v>39,47</v>
+      </c>
+      <c r="M836" s="10" t="str">
+        <f t="shared" si="149"/>
+        <v>1550.5,251.75</v>
+      </c>
+    </row>
+    <row r="837" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D837" s="10">
+        <v>833</v>
+      </c>
+      <c r="E837" t="str">
+        <f t="shared" si="153"/>
+        <v>금강 베기</v>
+      </c>
+      <c r="F837">
+        <f t="shared" si="150"/>
+        <v>43</v>
+      </c>
+      <c r="G837">
+        <f t="shared" si="151"/>
+        <v>53350</v>
+      </c>
+      <c r="H837" t="str">
+        <f t="shared" si="154"/>
+        <v>태극 베기</v>
+      </c>
+      <c r="I837">
+        <f t="shared" si="152"/>
+        <v>55</v>
+      </c>
+      <c r="J837">
+        <f t="shared" si="147"/>
+        <v>101.7</v>
+      </c>
+      <c r="K837" s="10">
+        <v>833</v>
+      </c>
+      <c r="L837" s="10" t="str">
+        <f t="shared" si="148"/>
+        <v>43,55</v>
+      </c>
+      <c r="M837" s="10" t="str">
+        <f t="shared" si="149"/>
+        <v>533.5,1.017</v>
+      </c>
+    </row>
+    <row r="838" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D838" s="10">
+        <v>834</v>
+      </c>
+      <c r="E838" t="str">
+        <f t="shared" si="153"/>
+        <v>귀살 베기</v>
+      </c>
+      <c r="F838">
+        <f t="shared" si="150"/>
+        <v>60</v>
+      </c>
+      <c r="G838">
+        <f t="shared" si="151"/>
+        <v>146.69999999999962</v>
+      </c>
+      <c r="H838" t="str">
+        <f t="shared" si="154"/>
+        <v>흉수 베기</v>
+      </c>
+      <c r="I838">
+        <f t="shared" si="152"/>
+        <v>46</v>
+      </c>
+      <c r="J838">
+        <f t="shared" si="147"/>
+        <v>2165</v>
+      </c>
+      <c r="K838" s="10">
+        <v>834</v>
+      </c>
+      <c r="L838" s="10" t="str">
+        <f t="shared" si="148"/>
+        <v>60,46</v>
+      </c>
+      <c r="M838" s="10" t="str">
+        <f t="shared" si="149"/>
+        <v>1.467,21.65</v>
+      </c>
+    </row>
+    <row r="839" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D839" s="10">
+        <v>835</v>
+      </c>
+      <c r="E839" t="str">
+        <f t="shared" si="153"/>
+        <v>지옥 베기</v>
+      </c>
+      <c r="F839">
+        <f t="shared" si="150"/>
+        <v>35</v>
+      </c>
+      <c r="G839">
+        <f t="shared" si="151"/>
+        <v>504000</v>
+      </c>
+      <c r="H839" t="str">
+        <f t="shared" si="154"/>
+        <v>신선 베기</v>
+      </c>
+      <c r="I839">
+        <f t="shared" si="152"/>
+        <v>54</v>
+      </c>
+      <c r="J839">
+        <f t="shared" ref="J839:J902" si="155">ROUNDUP(IF(I839=42,J824+$U$23,IF(I839=46,J824+$U$24,IF(I839=61,J824+$U$30,J834+VLOOKUP(H839,$T$20:$U$31,2,FALSE)))),2)</f>
+        <v>629</v>
+      </c>
+      <c r="K839" s="10">
+        <v>835</v>
+      </c>
+      <c r="L839" s="10" t="str">
+        <f t="shared" ref="L839:L902" si="156">IF(H839=0,F839&amp;",-1",F839&amp;","&amp;I839)</f>
+        <v>35,54</v>
+      </c>
+      <c r="M839" s="10" t="str">
+        <f t="shared" ref="M839:M902" si="157">IF(H839=0,G839/100&amp;","&amp;0,G839/100&amp;","&amp;J839/100)</f>
+        <v>5040,6.29</v>
+      </c>
+    </row>
+    <row r="840" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D840" s="10">
+        <v>836</v>
+      </c>
+      <c r="E840" t="str">
+        <f t="shared" si="153"/>
+        <v>천상 베기</v>
+      </c>
+      <c r="F840">
+        <f t="shared" si="150"/>
+        <v>36</v>
+      </c>
+      <c r="G840">
+        <f t="shared" si="151"/>
+        <v>257000</v>
+      </c>
+      <c r="H840" t="str">
+        <f t="shared" si="154"/>
+        <v>심연 베기</v>
+      </c>
+      <c r="I840">
+        <f t="shared" si="152"/>
+        <v>50</v>
+      </c>
+      <c r="J840">
+        <f t="shared" si="155"/>
+        <v>7510</v>
+      </c>
+      <c r="K840" s="10">
+        <v>836</v>
+      </c>
+      <c r="L840" s="10" t="str">
+        <f t="shared" si="156"/>
+        <v>36,50</v>
+      </c>
+      <c r="M840" s="10" t="str">
+        <f t="shared" si="157"/>
+        <v>2570,75.1</v>
+      </c>
+    </row>
+    <row r="841" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D841" s="10">
+        <v>837</v>
+      </c>
+      <c r="E841" t="str">
+        <f t="shared" si="153"/>
+        <v>귀신 베기</v>
+      </c>
+      <c r="F841">
+        <f t="shared" si="150"/>
+        <v>39</v>
+      </c>
+      <c r="G841">
+        <f t="shared" si="151"/>
+        <v>155200</v>
+      </c>
+      <c r="H841" t="str">
+        <f t="shared" si="154"/>
+        <v>섬광 베기</v>
+      </c>
+      <c r="I841">
+        <f t="shared" si="152"/>
+        <v>47</v>
+      </c>
+      <c r="J841">
+        <f t="shared" si="155"/>
+        <v>25200</v>
+      </c>
+      <c r="K841" s="10">
+        <v>837</v>
+      </c>
+      <c r="L841" s="10" t="str">
+        <f t="shared" si="156"/>
+        <v>39,47</v>
+      </c>
+      <c r="M841" s="10" t="str">
+        <f t="shared" si="157"/>
+        <v>1552,252</v>
+      </c>
+    </row>
+    <row r="842" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D842" s="10">
+        <v>838</v>
+      </c>
+      <c r="E842" t="str">
+        <f t="shared" si="153"/>
+        <v>금강 베기</v>
+      </c>
+      <c r="F842">
+        <f t="shared" si="150"/>
+        <v>43</v>
+      </c>
+      <c r="G842">
+        <f t="shared" si="151"/>
+        <v>53400</v>
+      </c>
+      <c r="H842" t="str">
+        <f t="shared" si="154"/>
+        <v>태극 베기</v>
+      </c>
+      <c r="I842">
+        <f t="shared" si="152"/>
+        <v>55</v>
+      </c>
+      <c r="J842">
+        <f t="shared" si="155"/>
+        <v>101.8</v>
+      </c>
+      <c r="K842" s="10">
+        <v>838</v>
+      </c>
+      <c r="L842" s="10" t="str">
+        <f t="shared" si="156"/>
+        <v>43,55</v>
+      </c>
+      <c r="M842" s="10" t="str">
+        <f t="shared" si="157"/>
+        <v>534,1.018</v>
+      </c>
+    </row>
+    <row r="843" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D843" s="10">
+        <v>839</v>
+      </c>
+      <c r="E843" t="str">
+        <f t="shared" si="153"/>
+        <v>귀살 베기</v>
+      </c>
+      <c r="F843">
+        <f t="shared" si="150"/>
+        <v>60</v>
+      </c>
+      <c r="G843">
+        <f t="shared" si="151"/>
+        <v>146.79999999999961</v>
+      </c>
+      <c r="H843" t="str">
+        <f t="shared" si="154"/>
+        <v>천구 베기</v>
+      </c>
+      <c r="I843">
+        <f t="shared" si="152"/>
+        <v>61</v>
+      </c>
+      <c r="J843">
+        <f t="shared" si="155"/>
+        <v>93.25</v>
+      </c>
+      <c r="K843" s="10">
+        <v>839</v>
+      </c>
+      <c r="L843" s="10" t="str">
+        <f t="shared" si="156"/>
+        <v>60,61</v>
+      </c>
+      <c r="M843" s="10" t="str">
+        <f t="shared" si="157"/>
+        <v>1.468,0.9325</v>
+      </c>
+    </row>
+    <row r="844" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D844" s="10">
+        <v>840</v>
+      </c>
+      <c r="E844" t="str">
+        <f t="shared" si="153"/>
+        <v>지옥 베기</v>
+      </c>
+      <c r="F844">
+        <f t="shared" si="150"/>
+        <v>35</v>
+      </c>
+      <c r="G844">
+        <f t="shared" si="151"/>
+        <v>504500</v>
+      </c>
+      <c r="H844" t="str">
+        <f t="shared" si="154"/>
+        <v>신선 베기</v>
+      </c>
+      <c r="I844">
+        <f t="shared" si="152"/>
+        <v>54</v>
+      </c>
+      <c r="J844">
+        <f t="shared" si="155"/>
+        <v>629.5</v>
+      </c>
+      <c r="K844" s="10">
+        <v>840</v>
+      </c>
+      <c r="L844" s="10" t="str">
+        <f t="shared" si="156"/>
+        <v>35,54</v>
+      </c>
+      <c r="M844" s="10" t="str">
+        <f t="shared" si="157"/>
+        <v>5045,6.295</v>
+      </c>
+    </row>
+    <row r="845" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D845" s="10">
+        <v>841</v>
+      </c>
+      <c r="E845" t="str">
+        <f t="shared" si="153"/>
+        <v>천상 베기</v>
+      </c>
+      <c r="F845">
+        <f t="shared" si="150"/>
+        <v>36</v>
+      </c>
+      <c r="G845">
+        <f t="shared" si="151"/>
+        <v>257250</v>
+      </c>
+      <c r="H845" t="str">
+        <f t="shared" si="154"/>
+        <v>심연 베기</v>
+      </c>
+      <c r="I845">
+        <f t="shared" si="152"/>
+        <v>50</v>
+      </c>
+      <c r="J845">
+        <f t="shared" si="155"/>
+        <v>7517.5</v>
+      </c>
+      <c r="K845" s="10">
+        <v>841</v>
+      </c>
+      <c r="L845" s="10" t="str">
+        <f t="shared" si="156"/>
+        <v>36,50</v>
+      </c>
+      <c r="M845" s="10" t="str">
+        <f t="shared" si="157"/>
+        <v>2572.5,75.175</v>
+      </c>
+    </row>
+    <row r="846" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D846" s="10">
+        <v>842</v>
+      </c>
+      <c r="E846" t="str">
+        <f t="shared" si="153"/>
+        <v>귀신 베기</v>
+      </c>
+      <c r="F846">
+        <f t="shared" ref="F846:F904" si="158">VLOOKUP(E846,$Q:$R,2,FALSE)</f>
+        <v>39</v>
+      </c>
+      <c r="G846">
+        <f t="shared" ref="G846:G904" si="159">G841+VLOOKUP(E846,$T$20:$U$31,2,FALSE)</f>
+        <v>155350</v>
+      </c>
+      <c r="H846" t="str">
+        <f t="shared" si="154"/>
+        <v>섬광 베기</v>
+      </c>
+      <c r="I846">
+        <f t="shared" ref="I846:I904" si="160">VLOOKUP(H846,$Q:$R,2,FALSE)</f>
+        <v>47</v>
+      </c>
+      <c r="J846">
+        <f t="shared" si="155"/>
+        <v>25225</v>
+      </c>
+      <c r="K846" s="10">
+        <v>842</v>
+      </c>
+      <c r="L846" s="10" t="str">
+        <f t="shared" si="156"/>
+        <v>39,47</v>
+      </c>
+      <c r="M846" s="10" t="str">
+        <f t="shared" si="157"/>
+        <v>1553.5,252.25</v>
+      </c>
+    </row>
+    <row r="847" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D847" s="10">
+        <v>843</v>
+      </c>
+      <c r="E847" t="str">
+        <f t="shared" si="153"/>
+        <v>금강 베기</v>
+      </c>
+      <c r="F847">
+        <f t="shared" si="158"/>
+        <v>43</v>
+      </c>
+      <c r="G847">
+        <f t="shared" si="159"/>
+        <v>53450</v>
+      </c>
+      <c r="H847" t="str">
+        <f t="shared" si="154"/>
+        <v>태극 베기</v>
+      </c>
+      <c r="I847">
+        <f t="shared" si="160"/>
+        <v>55</v>
+      </c>
+      <c r="J847">
+        <f t="shared" si="155"/>
+        <v>101.9</v>
+      </c>
+      <c r="K847" s="10">
+        <v>843</v>
+      </c>
+      <c r="L847" s="10" t="str">
+        <f t="shared" si="156"/>
+        <v>43,55</v>
+      </c>
+      <c r="M847" s="10" t="str">
+        <f t="shared" si="157"/>
+        <v>534.5,1.019</v>
+      </c>
+    </row>
+    <row r="848" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D848" s="10">
+        <v>844</v>
+      </c>
+      <c r="E848" t="str">
+        <f t="shared" si="153"/>
+        <v>귀살 베기</v>
+      </c>
+      <c r="F848">
+        <f t="shared" si="158"/>
+        <v>60</v>
+      </c>
+      <c r="G848">
+        <f t="shared" si="159"/>
+        <v>146.89999999999961</v>
+      </c>
+      <c r="H848" t="str">
+        <f t="shared" si="154"/>
+        <v>신수 베기</v>
+      </c>
+      <c r="I848">
+        <f t="shared" si="160"/>
+        <v>42</v>
+      </c>
+      <c r="J848">
+        <f t="shared" si="155"/>
+        <v>22150</v>
+      </c>
+      <c r="K848" s="10">
+        <v>844</v>
+      </c>
+      <c r="L848" s="10" t="str">
+        <f t="shared" si="156"/>
+        <v>60,42</v>
+      </c>
+      <c r="M848" s="10" t="str">
+        <f t="shared" si="157"/>
+        <v>1.469,221.5</v>
+      </c>
+    </row>
+    <row r="849" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D849" s="10">
+        <v>845</v>
+      </c>
+      <c r="E849" t="str">
+        <f t="shared" si="153"/>
+        <v>지옥 베기</v>
+      </c>
+      <c r="F849">
+        <f t="shared" si="158"/>
+        <v>35</v>
+      </c>
+      <c r="G849">
+        <f t="shared" si="159"/>
+        <v>505000</v>
+      </c>
+      <c r="H849" t="str">
+        <f t="shared" si="154"/>
+        <v>신선 베기</v>
+      </c>
+      <c r="I849">
+        <f t="shared" si="160"/>
+        <v>54</v>
+      </c>
+      <c r="J849">
+        <f t="shared" si="155"/>
+        <v>630</v>
+      </c>
+      <c r="K849" s="10">
+        <v>845</v>
+      </c>
+      <c r="L849" s="10" t="str">
+        <f t="shared" si="156"/>
+        <v>35,54</v>
+      </c>
+      <c r="M849" s="10" t="str">
+        <f t="shared" si="157"/>
+        <v>5050,6.3</v>
+      </c>
+    </row>
+    <row r="850" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D850" s="10">
+        <v>846</v>
+      </c>
+      <c r="E850" t="str">
+        <f t="shared" si="153"/>
+        <v>천상 베기</v>
+      </c>
+      <c r="F850">
+        <f t="shared" si="158"/>
+        <v>36</v>
+      </c>
+      <c r="G850">
+        <f t="shared" si="159"/>
+        <v>257500</v>
+      </c>
+      <c r="H850" t="str">
+        <f t="shared" si="154"/>
+        <v>심연 베기</v>
+      </c>
+      <c r="I850">
+        <f t="shared" si="160"/>
+        <v>50</v>
+      </c>
+      <c r="J850">
+        <f t="shared" si="155"/>
+        <v>7525</v>
+      </c>
+      <c r="K850" s="10">
+        <v>846</v>
+      </c>
+      <c r="L850" s="10" t="str">
+        <f t="shared" si="156"/>
+        <v>36,50</v>
+      </c>
+      <c r="M850" s="10" t="str">
+        <f t="shared" si="157"/>
+        <v>2575,75.25</v>
+      </c>
+    </row>
+    <row r="851" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D851" s="10">
+        <v>847</v>
+      </c>
+      <c r="E851" t="str">
+        <f t="shared" si="153"/>
+        <v>귀신 베기</v>
+      </c>
+      <c r="F851">
+        <f t="shared" si="158"/>
+        <v>39</v>
+      </c>
+      <c r="G851">
+        <f t="shared" si="159"/>
+        <v>155500</v>
+      </c>
+      <c r="H851" t="str">
+        <f t="shared" si="154"/>
+        <v>섬광 베기</v>
+      </c>
+      <c r="I851">
+        <f t="shared" si="160"/>
+        <v>47</v>
+      </c>
+      <c r="J851">
+        <f t="shared" si="155"/>
+        <v>25250</v>
+      </c>
+      <c r="K851" s="10">
+        <v>847</v>
+      </c>
+      <c r="L851" s="10" t="str">
+        <f t="shared" si="156"/>
+        <v>39,47</v>
+      </c>
+      <c r="M851" s="10" t="str">
+        <f t="shared" si="157"/>
+        <v>1555,252.5</v>
+      </c>
+    </row>
+    <row r="852" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D852" s="10">
+        <v>848</v>
+      </c>
+      <c r="E852" t="str">
+        <f t="shared" si="153"/>
+        <v>금강 베기</v>
+      </c>
+      <c r="F852">
+        <f t="shared" si="158"/>
+        <v>43</v>
+      </c>
+      <c r="G852">
+        <f t="shared" si="159"/>
+        <v>53500</v>
+      </c>
+      <c r="H852" t="str">
+        <f t="shared" si="154"/>
+        <v>태극 베기</v>
+      </c>
+      <c r="I852">
+        <f t="shared" si="160"/>
+        <v>55</v>
+      </c>
+      <c r="J852">
+        <f t="shared" si="155"/>
+        <v>102</v>
+      </c>
+      <c r="K852" s="10">
+        <v>848</v>
+      </c>
+      <c r="L852" s="10" t="str">
+        <f t="shared" si="156"/>
+        <v>43,55</v>
+      </c>
+      <c r="M852" s="10" t="str">
+        <f t="shared" si="157"/>
+        <v>535,1.02</v>
+      </c>
+    </row>
+    <row r="853" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D853" s="10">
+        <v>849</v>
+      </c>
+      <c r="E853" t="str">
+        <f t="shared" si="153"/>
+        <v>귀살 베기</v>
+      </c>
+      <c r="F853">
+        <f t="shared" si="158"/>
+        <v>60</v>
+      </c>
+      <c r="G853">
+        <f t="shared" si="159"/>
+        <v>146.9999999999996</v>
+      </c>
+      <c r="H853" t="str">
+        <f t="shared" si="154"/>
+        <v>흉수 베기</v>
+      </c>
+      <c r="I853">
+        <f t="shared" si="160"/>
+        <v>46</v>
+      </c>
+      <c r="J853">
+        <f t="shared" si="155"/>
+        <v>2170</v>
+      </c>
+      <c r="K853" s="10">
+        <v>849</v>
+      </c>
+      <c r="L853" s="10" t="str">
+        <f t="shared" si="156"/>
+        <v>60,46</v>
+      </c>
+      <c r="M853" s="10" t="str">
+        <f t="shared" si="157"/>
+        <v>1.47,21.7</v>
+      </c>
+    </row>
+    <row r="854" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D854" s="10">
+        <v>850</v>
+      </c>
+      <c r="E854" t="str">
+        <f t="shared" si="153"/>
+        <v>지옥 베기</v>
+      </c>
+      <c r="F854">
+        <f t="shared" si="158"/>
+        <v>35</v>
+      </c>
+      <c r="G854">
+        <f t="shared" si="159"/>
+        <v>505500</v>
+      </c>
+      <c r="H854" t="str">
+        <f t="shared" si="154"/>
+        <v>신선 베기</v>
+      </c>
+      <c r="I854">
+        <f t="shared" si="160"/>
+        <v>54</v>
+      </c>
+      <c r="J854">
+        <f t="shared" si="155"/>
+        <v>630.5</v>
+      </c>
+      <c r="K854" s="10">
+        <v>850</v>
+      </c>
+      <c r="L854" s="10" t="str">
+        <f t="shared" si="156"/>
+        <v>35,54</v>
+      </c>
+      <c r="M854" s="10" t="str">
+        <f t="shared" si="157"/>
+        <v>5055,6.305</v>
+      </c>
+    </row>
+    <row r="855" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D855" s="10">
+        <v>851</v>
+      </c>
+      <c r="E855" t="str">
+        <f t="shared" si="153"/>
+        <v>천상 베기</v>
+      </c>
+      <c r="F855">
+        <f t="shared" si="158"/>
+        <v>36</v>
+      </c>
+      <c r="G855">
+        <f t="shared" si="159"/>
+        <v>257750</v>
+      </c>
+      <c r="H855" t="str">
+        <f t="shared" si="154"/>
+        <v>심연 베기</v>
+      </c>
+      <c r="I855">
+        <f t="shared" si="160"/>
+        <v>50</v>
+      </c>
+      <c r="J855">
+        <f t="shared" si="155"/>
+        <v>7532.5</v>
+      </c>
+      <c r="K855" s="10">
+        <v>851</v>
+      </c>
+      <c r="L855" s="10" t="str">
+        <f t="shared" si="156"/>
+        <v>36,50</v>
+      </c>
+      <c r="M855" s="10" t="str">
+        <f t="shared" si="157"/>
+        <v>2577.5,75.325</v>
+      </c>
+    </row>
+    <row r="856" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D856" s="10">
+        <v>852</v>
+      </c>
+      <c r="E856" t="str">
+        <f t="shared" si="153"/>
+        <v>귀신 베기</v>
+      </c>
+      <c r="F856">
+        <f t="shared" si="158"/>
+        <v>39</v>
+      </c>
+      <c r="G856">
+        <f t="shared" si="159"/>
+        <v>155650</v>
+      </c>
+      <c r="H856" t="str">
+        <f t="shared" si="154"/>
+        <v>섬광 베기</v>
+      </c>
+      <c r="I856">
+        <f t="shared" si="160"/>
+        <v>47</v>
+      </c>
+      <c r="J856">
+        <f t="shared" si="155"/>
+        <v>25275</v>
+      </c>
+      <c r="K856" s="10">
+        <v>852</v>
+      </c>
+      <c r="L856" s="10" t="str">
+        <f t="shared" si="156"/>
+        <v>39,47</v>
+      </c>
+      <c r="M856" s="10" t="str">
+        <f t="shared" si="157"/>
+        <v>1556.5,252.75</v>
+      </c>
+    </row>
+    <row r="857" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D857" s="10">
+        <v>853</v>
+      </c>
+      <c r="E857" t="str">
+        <f t="shared" si="153"/>
+        <v>금강 베기</v>
+      </c>
+      <c r="F857">
+        <f t="shared" si="158"/>
+        <v>43</v>
+      </c>
+      <c r="G857">
+        <f t="shared" si="159"/>
+        <v>53550</v>
+      </c>
+      <c r="H857" t="str">
+        <f t="shared" si="154"/>
+        <v>태극 베기</v>
+      </c>
+      <c r="I857">
+        <f t="shared" si="160"/>
+        <v>55</v>
+      </c>
+      <c r="J857">
+        <f t="shared" si="155"/>
+        <v>102.1</v>
+      </c>
+      <c r="K857" s="10">
+        <v>853</v>
+      </c>
+      <c r="L857" s="10" t="str">
+        <f t="shared" si="156"/>
+        <v>43,55</v>
+      </c>
+      <c r="M857" s="10" t="str">
+        <f t="shared" si="157"/>
+        <v>535.5,1.021</v>
+      </c>
+    </row>
+    <row r="858" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D858" s="10">
+        <v>854</v>
+      </c>
+      <c r="E858" t="str">
+        <f t="shared" si="153"/>
+        <v>귀살 베기</v>
+      </c>
+      <c r="F858">
+        <f t="shared" si="158"/>
+        <v>60</v>
+      </c>
+      <c r="G858">
+        <f t="shared" si="159"/>
+        <v>147.0999999999996</v>
+      </c>
+      <c r="H858" t="str">
+        <f t="shared" si="154"/>
+        <v>천구 베기</v>
+      </c>
+      <c r="I858">
+        <f t="shared" si="160"/>
+        <v>61</v>
+      </c>
+      <c r="J858">
+        <f t="shared" si="155"/>
+        <v>93.5</v>
+      </c>
+      <c r="K858" s="10">
+        <v>854</v>
+      </c>
+      <c r="L858" s="10" t="str">
+        <f t="shared" si="156"/>
+        <v>60,61</v>
+      </c>
+      <c r="M858" s="10" t="str">
+        <f t="shared" si="157"/>
+        <v>1.471,0.935</v>
+      </c>
+    </row>
+    <row r="859" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D859" s="10">
+        <v>855</v>
+      </c>
+      <c r="E859" t="str">
+        <f t="shared" si="153"/>
+        <v>지옥 베기</v>
+      </c>
+      <c r="F859">
+        <f t="shared" si="158"/>
+        <v>35</v>
+      </c>
+      <c r="G859">
+        <f t="shared" si="159"/>
+        <v>506000</v>
+      </c>
+      <c r="H859" t="str">
+        <f t="shared" si="154"/>
+        <v>신선 베기</v>
+      </c>
+      <c r="I859">
+        <f t="shared" si="160"/>
+        <v>54</v>
+      </c>
+      <c r="J859">
+        <f t="shared" si="155"/>
+        <v>631</v>
+      </c>
+      <c r="K859" s="10">
+        <v>855</v>
+      </c>
+      <c r="L859" s="10" t="str">
+        <f t="shared" si="156"/>
+        <v>35,54</v>
+      </c>
+      <c r="M859" s="10" t="str">
+        <f t="shared" si="157"/>
+        <v>5060,6.31</v>
+      </c>
+    </row>
+    <row r="860" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D860" s="10">
+        <v>856</v>
+      </c>
+      <c r="E860" t="str">
+        <f t="shared" si="153"/>
+        <v>천상 베기</v>
+      </c>
+      <c r="F860">
+        <f t="shared" si="158"/>
+        <v>36</v>
+      </c>
+      <c r="G860">
+        <f t="shared" si="159"/>
+        <v>258000</v>
+      </c>
+      <c r="H860" t="str">
+        <f t="shared" si="154"/>
+        <v>심연 베기</v>
+      </c>
+      <c r="I860">
+        <f t="shared" si="160"/>
+        <v>50</v>
+      </c>
+      <c r="J860">
+        <f t="shared" si="155"/>
+        <v>7540</v>
+      </c>
+      <c r="K860" s="10">
+        <v>856</v>
+      </c>
+      <c r="L860" s="10" t="str">
+        <f t="shared" si="156"/>
+        <v>36,50</v>
+      </c>
+      <c r="M860" s="10" t="str">
+        <f t="shared" si="157"/>
+        <v>2580,75.4</v>
+      </c>
+    </row>
+    <row r="861" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D861" s="10">
+        <v>857</v>
+      </c>
+      <c r="E861" t="str">
+        <f t="shared" si="153"/>
+        <v>귀신 베기</v>
+      </c>
+      <c r="F861">
+        <f t="shared" si="158"/>
+        <v>39</v>
+      </c>
+      <c r="G861">
+        <f t="shared" si="159"/>
+        <v>155800</v>
+      </c>
+      <c r="H861" t="str">
+        <f t="shared" si="154"/>
+        <v>섬광 베기</v>
+      </c>
+      <c r="I861">
+        <f t="shared" si="160"/>
+        <v>47</v>
+      </c>
+      <c r="J861">
+        <f t="shared" si="155"/>
+        <v>25300</v>
+      </c>
+      <c r="K861" s="10">
+        <v>857</v>
+      </c>
+      <c r="L861" s="10" t="str">
+        <f t="shared" si="156"/>
+        <v>39,47</v>
+      </c>
+      <c r="M861" s="10" t="str">
+        <f t="shared" si="157"/>
+        <v>1558,253</v>
+      </c>
+    </row>
+    <row r="862" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D862" s="10">
+        <v>858</v>
+      </c>
+      <c r="E862" t="str">
+        <f t="shared" si="153"/>
+        <v>금강 베기</v>
+      </c>
+      <c r="F862">
+        <f t="shared" si="158"/>
+        <v>43</v>
+      </c>
+      <c r="G862">
+        <f t="shared" si="159"/>
+        <v>53600</v>
+      </c>
+      <c r="H862" t="str">
+        <f t="shared" si="154"/>
+        <v>태극 베기</v>
+      </c>
+      <c r="I862">
+        <f t="shared" si="160"/>
+        <v>55</v>
+      </c>
+      <c r="J862">
+        <f t="shared" si="155"/>
+        <v>102.2</v>
+      </c>
+      <c r="K862" s="10">
+        <v>858</v>
+      </c>
+      <c r="L862" s="10" t="str">
+        <f t="shared" si="156"/>
+        <v>43,55</v>
+      </c>
+      <c r="M862" s="10" t="str">
+        <f t="shared" si="157"/>
+        <v>536,1.022</v>
+      </c>
+    </row>
+    <row r="863" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D863" s="10">
+        <v>859</v>
+      </c>
+      <c r="E863" t="str">
+        <f t="shared" si="153"/>
+        <v>귀살 베기</v>
+      </c>
+      <c r="F863">
+        <f t="shared" si="158"/>
+        <v>60</v>
+      </c>
+      <c r="G863">
+        <f t="shared" si="159"/>
+        <v>147.19999999999959</v>
+      </c>
+      <c r="H863" t="str">
+        <f t="shared" si="154"/>
+        <v>신수 베기</v>
+      </c>
+      <c r="I863">
+        <f t="shared" si="160"/>
+        <v>42</v>
+      </c>
+      <c r="J863">
+        <f t="shared" si="155"/>
+        <v>22200</v>
+      </c>
+      <c r="K863" s="10">
+        <v>859</v>
+      </c>
+      <c r="L863" s="10" t="str">
+        <f t="shared" si="156"/>
+        <v>60,42</v>
+      </c>
+      <c r="M863" s="10" t="str">
+        <f t="shared" si="157"/>
+        <v>1.472,222</v>
+      </c>
+    </row>
+    <row r="864" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D864" s="10">
+        <v>860</v>
+      </c>
+      <c r="E864" t="str">
+        <f t="shared" si="153"/>
+        <v>지옥 베기</v>
+      </c>
+      <c r="F864">
+        <f t="shared" si="158"/>
+        <v>35</v>
+      </c>
+      <c r="G864">
+        <f t="shared" si="159"/>
+        <v>506500</v>
+      </c>
+      <c r="H864" t="str">
+        <f t="shared" si="154"/>
+        <v>신선 베기</v>
+      </c>
+      <c r="I864">
+        <f t="shared" si="160"/>
+        <v>54</v>
+      </c>
+      <c r="J864">
+        <f t="shared" si="155"/>
+        <v>631.5</v>
+      </c>
+      <c r="K864" s="10">
+        <v>860</v>
+      </c>
+      <c r="L864" s="10" t="str">
+        <f t="shared" si="156"/>
+        <v>35,54</v>
+      </c>
+      <c r="M864" s="10" t="str">
+        <f t="shared" si="157"/>
+        <v>5065,6.315</v>
+      </c>
+    </row>
+    <row r="865" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D865" s="10">
+        <v>861</v>
+      </c>
+      <c r="E865" t="str">
+        <f t="shared" si="153"/>
+        <v>천상 베기</v>
+      </c>
+      <c r="F865">
+        <f t="shared" si="158"/>
+        <v>36</v>
+      </c>
+      <c r="G865">
+        <f t="shared" si="159"/>
+        <v>258250</v>
+      </c>
+      <c r="H865" t="str">
+        <f t="shared" si="154"/>
+        <v>심연 베기</v>
+      </c>
+      <c r="I865">
+        <f t="shared" si="160"/>
+        <v>50</v>
+      </c>
+      <c r="J865">
+        <f t="shared" si="155"/>
+        <v>7547.5</v>
+      </c>
+      <c r="K865" s="10">
+        <v>861</v>
+      </c>
+      <c r="L865" s="10" t="str">
+        <f t="shared" si="156"/>
+        <v>36,50</v>
+      </c>
+      <c r="M865" s="10" t="str">
+        <f t="shared" si="157"/>
+        <v>2582.5,75.475</v>
+      </c>
+    </row>
+    <row r="866" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D866" s="10">
+        <v>862</v>
+      </c>
+      <c r="E866" t="str">
+        <f t="shared" si="153"/>
+        <v>귀신 베기</v>
+      </c>
+      <c r="F866">
+        <f t="shared" si="158"/>
+        <v>39</v>
+      </c>
+      <c r="G866">
+        <f t="shared" si="159"/>
+        <v>155950</v>
+      </c>
+      <c r="H866" t="str">
+        <f t="shared" si="154"/>
+        <v>섬광 베기</v>
+      </c>
+      <c r="I866">
+        <f t="shared" si="160"/>
+        <v>47</v>
+      </c>
+      <c r="J866">
+        <f t="shared" si="155"/>
+        <v>25325</v>
+      </c>
+      <c r="K866" s="10">
+        <v>862</v>
+      </c>
+      <c r="L866" s="10" t="str">
+        <f t="shared" si="156"/>
+        <v>39,47</v>
+      </c>
+      <c r="M866" s="10" t="str">
+        <f t="shared" si="157"/>
+        <v>1559.5,253.25</v>
+      </c>
+    </row>
+    <row r="867" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D867" s="10">
+        <v>863</v>
+      </c>
+      <c r="E867" t="str">
+        <f t="shared" si="153"/>
+        <v>금강 베기</v>
+      </c>
+      <c r="F867">
+        <f t="shared" si="158"/>
+        <v>43</v>
+      </c>
+      <c r="G867">
+        <f t="shared" si="159"/>
+        <v>53650</v>
+      </c>
+      <c r="H867" t="str">
+        <f t="shared" si="154"/>
+        <v>태극 베기</v>
+      </c>
+      <c r="I867">
+        <f t="shared" si="160"/>
+        <v>55</v>
+      </c>
+      <c r="J867">
+        <f t="shared" si="155"/>
+        <v>102.3</v>
+      </c>
+      <c r="K867" s="10">
+        <v>863</v>
+      </c>
+      <c r="L867" s="10" t="str">
+        <f t="shared" si="156"/>
+        <v>43,55</v>
+      </c>
+      <c r="M867" s="10" t="str">
+        <f t="shared" si="157"/>
+        <v>536.5,1.023</v>
+      </c>
+    </row>
+    <row r="868" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D868" s="10">
+        <v>864</v>
+      </c>
+      <c r="E868" t="str">
+        <f t="shared" si="153"/>
+        <v>귀살 베기</v>
+      </c>
+      <c r="F868">
+        <f t="shared" si="158"/>
+        <v>60</v>
+      </c>
+      <c r="G868">
+        <f t="shared" si="159"/>
+        <v>147.29999999999959</v>
+      </c>
+      <c r="H868" t="str">
+        <f t="shared" si="154"/>
+        <v>흉수 베기</v>
+      </c>
+      <c r="I868">
+        <f t="shared" si="160"/>
+        <v>46</v>
+      </c>
+      <c r="J868">
+        <f t="shared" si="155"/>
+        <v>2175</v>
+      </c>
+      <c r="K868" s="10">
+        <v>864</v>
+      </c>
+      <c r="L868" s="10" t="str">
+        <f t="shared" si="156"/>
+        <v>60,46</v>
+      </c>
+      <c r="M868" s="10" t="str">
+        <f t="shared" si="157"/>
+        <v>1.473,21.75</v>
+      </c>
+    </row>
+    <row r="869" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D869" s="10">
+        <v>865</v>
+      </c>
+      <c r="E869" t="str">
+        <f t="shared" si="153"/>
+        <v>지옥 베기</v>
+      </c>
+      <c r="F869">
+        <f t="shared" si="158"/>
+        <v>35</v>
+      </c>
+      <c r="G869">
+        <f t="shared" si="159"/>
+        <v>507000</v>
+      </c>
+      <c r="H869" t="str">
+        <f t="shared" si="154"/>
+        <v>신선 베기</v>
+      </c>
+      <c r="I869">
+        <f t="shared" si="160"/>
+        <v>54</v>
+      </c>
+      <c r="J869">
+        <f t="shared" si="155"/>
+        <v>632</v>
+      </c>
+      <c r="K869" s="10">
+        <v>865</v>
+      </c>
+      <c r="L869" s="10" t="str">
+        <f t="shared" si="156"/>
+        <v>35,54</v>
+      </c>
+      <c r="M869" s="10" t="str">
+        <f t="shared" si="157"/>
+        <v>5070,6.32</v>
+      </c>
+    </row>
+    <row r="870" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D870" s="10">
+        <v>866</v>
+      </c>
+      <c r="E870" t="str">
+        <f t="shared" si="153"/>
+        <v>천상 베기</v>
+      </c>
+      <c r="F870">
+        <f t="shared" si="158"/>
+        <v>36</v>
+      </c>
+      <c r="G870">
+        <f t="shared" si="159"/>
+        <v>258500</v>
+      </c>
+      <c r="H870" t="str">
+        <f t="shared" si="154"/>
+        <v>심연 베기</v>
+      </c>
+      <c r="I870">
+        <f t="shared" si="160"/>
+        <v>50</v>
+      </c>
+      <c r="J870">
+        <f t="shared" si="155"/>
+        <v>7555</v>
+      </c>
+      <c r="K870" s="10">
+        <v>866</v>
+      </c>
+      <c r="L870" s="10" t="str">
+        <f t="shared" si="156"/>
+        <v>36,50</v>
+      </c>
+      <c r="M870" s="10" t="str">
+        <f t="shared" si="157"/>
+        <v>2585,75.55</v>
+      </c>
+    </row>
+    <row r="871" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D871" s="10">
+        <v>867</v>
+      </c>
+      <c r="E871" t="str">
+        <f t="shared" si="153"/>
+        <v>귀신 베기</v>
+      </c>
+      <c r="F871">
+        <f t="shared" si="158"/>
+        <v>39</v>
+      </c>
+      <c r="G871">
+        <f t="shared" si="159"/>
+        <v>156100</v>
+      </c>
+      <c r="H871" t="str">
+        <f t="shared" si="154"/>
+        <v>섬광 베기</v>
+      </c>
+      <c r="I871">
+        <f t="shared" si="160"/>
+        <v>47</v>
+      </c>
+      <c r="J871">
+        <f t="shared" si="155"/>
+        <v>25350</v>
+      </c>
+      <c r="K871" s="10">
+        <v>867</v>
+      </c>
+      <c r="L871" s="10" t="str">
+        <f t="shared" si="156"/>
+        <v>39,47</v>
+      </c>
+      <c r="M871" s="10" t="str">
+        <f t="shared" si="157"/>
+        <v>1561,253.5</v>
+      </c>
+    </row>
+    <row r="872" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D872" s="10">
+        <v>868</v>
+      </c>
+      <c r="E872" t="str">
+        <f t="shared" si="153"/>
+        <v>금강 베기</v>
+      </c>
+      <c r="F872">
+        <f t="shared" si="158"/>
+        <v>43</v>
+      </c>
+      <c r="G872">
+        <f t="shared" si="159"/>
+        <v>53700</v>
+      </c>
+      <c r="H872" t="str">
+        <f t="shared" si="154"/>
+        <v>태극 베기</v>
+      </c>
+      <c r="I872">
+        <f t="shared" si="160"/>
+        <v>55</v>
+      </c>
+      <c r="J872">
+        <f t="shared" si="155"/>
+        <v>102.4</v>
+      </c>
+      <c r="K872" s="10">
+        <v>868</v>
+      </c>
+      <c r="L872" s="10" t="str">
+        <f t="shared" si="156"/>
+        <v>43,55</v>
+      </c>
+      <c r="M872" s="10" t="str">
+        <f t="shared" si="157"/>
+        <v>537,1.024</v>
+      </c>
+    </row>
+    <row r="873" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D873" s="10">
+        <v>869</v>
+      </c>
+      <c r="E873" t="str">
+        <f t="shared" si="153"/>
+        <v>귀살 베기</v>
+      </c>
+      <c r="F873">
+        <f t="shared" si="158"/>
+        <v>60</v>
+      </c>
+      <c r="G873">
+        <f t="shared" si="159"/>
+        <v>147.39999999999958</v>
+      </c>
+      <c r="H873" t="str">
+        <f t="shared" si="154"/>
+        <v>천구 베기</v>
+      </c>
+      <c r="I873">
+        <f t="shared" si="160"/>
+        <v>61</v>
+      </c>
+      <c r="J873">
+        <f t="shared" si="155"/>
+        <v>93.75</v>
+      </c>
+      <c r="K873" s="10">
+        <v>869</v>
+      </c>
+      <c r="L873" s="10" t="str">
+        <f t="shared" si="156"/>
+        <v>60,61</v>
+      </c>
+      <c r="M873" s="10" t="str">
+        <f t="shared" si="157"/>
+        <v>1.474,0.9375</v>
+      </c>
+    </row>
+    <row r="874" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D874" s="10">
+        <v>870</v>
+      </c>
+      <c r="E874" t="str">
+        <f t="shared" si="153"/>
+        <v>지옥 베기</v>
+      </c>
+      <c r="F874">
+        <f t="shared" si="158"/>
+        <v>35</v>
+      </c>
+      <c r="G874">
+        <f t="shared" si="159"/>
+        <v>507500</v>
+      </c>
+      <c r="H874" t="str">
+        <f t="shared" si="154"/>
+        <v>신선 베기</v>
+      </c>
+      <c r="I874">
+        <f t="shared" si="160"/>
+        <v>54</v>
+      </c>
+      <c r="J874">
+        <f t="shared" si="155"/>
+        <v>632.5</v>
+      </c>
+      <c r="K874" s="10">
+        <v>870</v>
+      </c>
+      <c r="L874" s="10" t="str">
+        <f t="shared" si="156"/>
+        <v>35,54</v>
+      </c>
+      <c r="M874" s="10" t="str">
+        <f t="shared" si="157"/>
+        <v>5075,6.325</v>
+      </c>
+    </row>
+    <row r="875" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D875" s="10">
+        <v>871</v>
+      </c>
+      <c r="E875" t="str">
+        <f t="shared" si="153"/>
+        <v>천상 베기</v>
+      </c>
+      <c r="F875">
+        <f t="shared" si="158"/>
+        <v>36</v>
+      </c>
+      <c r="G875">
+        <f t="shared" si="159"/>
+        <v>258750</v>
+      </c>
+      <c r="H875" t="str">
+        <f t="shared" si="154"/>
+        <v>심연 베기</v>
+      </c>
+      <c r="I875">
+        <f t="shared" si="160"/>
+        <v>50</v>
+      </c>
+      <c r="J875">
+        <f t="shared" si="155"/>
+        <v>7562.5</v>
+      </c>
+      <c r="K875" s="10">
+        <v>871</v>
+      </c>
+      <c r="L875" s="10" t="str">
+        <f t="shared" si="156"/>
+        <v>36,50</v>
+      </c>
+      <c r="M875" s="10" t="str">
+        <f t="shared" si="157"/>
+        <v>2587.5,75.625</v>
+      </c>
+    </row>
+    <row r="876" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D876" s="10">
+        <v>872</v>
+      </c>
+      <c r="E876" t="str">
+        <f t="shared" si="153"/>
+        <v>귀신 베기</v>
+      </c>
+      <c r="F876">
+        <f t="shared" si="158"/>
+        <v>39</v>
+      </c>
+      <c r="G876">
+        <f t="shared" si="159"/>
+        <v>156250</v>
+      </c>
+      <c r="H876" t="str">
+        <f t="shared" si="154"/>
+        <v>섬광 베기</v>
+      </c>
+      <c r="I876">
+        <f t="shared" si="160"/>
+        <v>47</v>
+      </c>
+      <c r="J876">
+        <f t="shared" si="155"/>
+        <v>25375</v>
+      </c>
+      <c r="K876" s="10">
+        <v>872</v>
+      </c>
+      <c r="L876" s="10" t="str">
+        <f t="shared" si="156"/>
+        <v>39,47</v>
+      </c>
+      <c r="M876" s="10" t="str">
+        <f t="shared" si="157"/>
+        <v>1562.5,253.75</v>
+      </c>
+    </row>
+    <row r="877" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D877" s="10">
+        <v>873</v>
+      </c>
+      <c r="E877" t="str">
+        <f t="shared" si="153"/>
+        <v>금강 베기</v>
+      </c>
+      <c r="F877">
+        <f t="shared" si="158"/>
+        <v>43</v>
+      </c>
+      <c r="G877">
+        <f t="shared" si="159"/>
+        <v>53750</v>
+      </c>
+      <c r="H877" t="str">
+        <f t="shared" si="154"/>
+        <v>태극 베기</v>
+      </c>
+      <c r="I877">
+        <f t="shared" si="160"/>
+        <v>55</v>
+      </c>
+      <c r="J877">
+        <f t="shared" si="155"/>
+        <v>102.5</v>
+      </c>
+      <c r="K877" s="10">
+        <v>873</v>
+      </c>
+      <c r="L877" s="10" t="str">
+        <f t="shared" si="156"/>
+        <v>43,55</v>
+      </c>
+      <c r="M877" s="10" t="str">
+        <f t="shared" si="157"/>
+        <v>537.5,1.025</v>
+      </c>
+    </row>
+    <row r="878" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D878" s="10">
+        <v>874</v>
+      </c>
+      <c r="E878" t="str">
+        <f t="shared" si="153"/>
+        <v>귀살 베기</v>
+      </c>
+      <c r="F878">
+        <f t="shared" si="158"/>
+        <v>60</v>
+      </c>
+      <c r="G878">
+        <f t="shared" si="159"/>
+        <v>147.49999999999957</v>
+      </c>
+      <c r="H878" t="str">
+        <f t="shared" si="154"/>
+        <v>신수 베기</v>
+      </c>
+      <c r="I878">
+        <f t="shared" si="160"/>
+        <v>42</v>
+      </c>
+      <c r="J878">
+        <f t="shared" si="155"/>
+        <v>22250</v>
+      </c>
+      <c r="K878" s="10">
+        <v>874</v>
+      </c>
+      <c r="L878" s="10" t="str">
+        <f t="shared" si="156"/>
+        <v>60,42</v>
+      </c>
+      <c r="M878" s="10" t="str">
+        <f t="shared" si="157"/>
+        <v>1.475,222.5</v>
+      </c>
+    </row>
+    <row r="879" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D879" s="10">
+        <v>875</v>
+      </c>
+      <c r="E879" t="str">
+        <f t="shared" si="153"/>
+        <v>지옥 베기</v>
+      </c>
+      <c r="F879">
+        <f t="shared" si="158"/>
+        <v>35</v>
+      </c>
+      <c r="G879">
+        <f t="shared" si="159"/>
+        <v>508000</v>
+      </c>
+      <c r="H879" t="str">
+        <f t="shared" si="154"/>
+        <v>신선 베기</v>
+      </c>
+      <c r="I879">
+        <f t="shared" si="160"/>
+        <v>54</v>
+      </c>
+      <c r="J879">
+        <f t="shared" si="155"/>
+        <v>633</v>
+      </c>
+      <c r="K879" s="10">
+        <v>875</v>
+      </c>
+      <c r="L879" s="10" t="str">
+        <f t="shared" si="156"/>
+        <v>35,54</v>
+      </c>
+      <c r="M879" s="10" t="str">
+        <f t="shared" si="157"/>
+        <v>5080,6.33</v>
+      </c>
+    </row>
+    <row r="880" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D880" s="10">
+        <v>876</v>
+      </c>
+      <c r="E880" t="str">
+        <f t="shared" si="153"/>
+        <v>천상 베기</v>
+      </c>
+      <c r="F880">
+        <f t="shared" si="158"/>
+        <v>36</v>
+      </c>
+      <c r="G880">
+        <f t="shared" si="159"/>
+        <v>259000</v>
+      </c>
+      <c r="H880" t="str">
+        <f t="shared" si="154"/>
+        <v>심연 베기</v>
+      </c>
+      <c r="I880">
+        <f t="shared" si="160"/>
+        <v>50</v>
+      </c>
+      <c r="J880">
+        <f t="shared" si="155"/>
+        <v>7570</v>
+      </c>
+      <c r="K880" s="10">
+        <v>876</v>
+      </c>
+      <c r="L880" s="10" t="str">
+        <f t="shared" si="156"/>
+        <v>36,50</v>
+      </c>
+      <c r="M880" s="10" t="str">
+        <f t="shared" si="157"/>
+        <v>2590,75.7</v>
+      </c>
+    </row>
+    <row r="881" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D881" s="10">
+        <v>877</v>
+      </c>
+      <c r="E881" t="str">
+        <f t="shared" si="153"/>
+        <v>귀신 베기</v>
+      </c>
+      <c r="F881">
+        <f t="shared" si="158"/>
+        <v>39</v>
+      </c>
+      <c r="G881">
+        <f t="shared" si="159"/>
+        <v>156400</v>
+      </c>
+      <c r="H881" t="str">
+        <f t="shared" si="154"/>
+        <v>섬광 베기</v>
+      </c>
+      <c r="I881">
+        <f t="shared" si="160"/>
+        <v>47</v>
+      </c>
+      <c r="J881">
+        <f t="shared" si="155"/>
+        <v>25400</v>
+      </c>
+      <c r="K881" s="10">
+        <v>877</v>
+      </c>
+      <c r="L881" s="10" t="str">
+        <f t="shared" si="156"/>
+        <v>39,47</v>
+      </c>
+      <c r="M881" s="10" t="str">
+        <f t="shared" si="157"/>
+        <v>1564,254</v>
+      </c>
+    </row>
+    <row r="882" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D882" s="10">
+        <v>878</v>
+      </c>
+      <c r="E882" t="str">
+        <f t="shared" si="153"/>
+        <v>금강 베기</v>
+      </c>
+      <c r="F882">
+        <f t="shared" si="158"/>
+        <v>43</v>
+      </c>
+      <c r="G882">
+        <f t="shared" si="159"/>
+        <v>53800</v>
+      </c>
+      <c r="H882" t="str">
+        <f t="shared" si="154"/>
+        <v>태극 베기</v>
+      </c>
+      <c r="I882">
+        <f t="shared" si="160"/>
+        <v>55</v>
+      </c>
+      <c r="J882">
+        <f t="shared" si="155"/>
+        <v>102.6</v>
+      </c>
+      <c r="K882" s="10">
+        <v>878</v>
+      </c>
+      <c r="L882" s="10" t="str">
+        <f t="shared" si="156"/>
+        <v>43,55</v>
+      </c>
+      <c r="M882" s="10" t="str">
+        <f t="shared" si="157"/>
+        <v>538,1.026</v>
+      </c>
+    </row>
+    <row r="883" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D883" s="10">
+        <v>879</v>
+      </c>
+      <c r="E883" t="str">
+        <f t="shared" si="153"/>
+        <v>귀살 베기</v>
+      </c>
+      <c r="F883">
+        <f t="shared" si="158"/>
+        <v>60</v>
+      </c>
+      <c r="G883">
+        <f t="shared" si="159"/>
+        <v>147.59999999999957</v>
+      </c>
+      <c r="H883" t="str">
+        <f t="shared" si="154"/>
+        <v>흉수 베기</v>
+      </c>
+      <c r="I883">
+        <f t="shared" si="160"/>
+        <v>46</v>
+      </c>
+      <c r="J883">
+        <f t="shared" si="155"/>
+        <v>2180</v>
+      </c>
+      <c r="K883" s="10">
+        <v>879</v>
+      </c>
+      <c r="L883" s="10" t="str">
+        <f t="shared" si="156"/>
+        <v>60,46</v>
+      </c>
+      <c r="M883" s="10" t="str">
+        <f t="shared" si="157"/>
+        <v>1.476,21.8</v>
+      </c>
+    </row>
+    <row r="884" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D884" s="10">
+        <v>880</v>
+      </c>
+      <c r="E884" t="str">
+        <f t="shared" si="153"/>
+        <v>지옥 베기</v>
+      </c>
+      <c r="F884">
+        <f t="shared" si="158"/>
+        <v>35</v>
+      </c>
+      <c r="G884">
+        <f t="shared" si="159"/>
+        <v>508500</v>
+      </c>
+      <c r="H884" t="str">
+        <f t="shared" si="154"/>
+        <v>신선 베기</v>
+      </c>
+      <c r="I884">
+        <f t="shared" si="160"/>
+        <v>54</v>
+      </c>
+      <c r="J884">
+        <f t="shared" si="155"/>
+        <v>633.5</v>
+      </c>
+      <c r="K884" s="10">
+        <v>880</v>
+      </c>
+      <c r="L884" s="10" t="str">
+        <f t="shared" si="156"/>
+        <v>35,54</v>
+      </c>
+      <c r="M884" s="10" t="str">
+        <f t="shared" si="157"/>
+        <v>5085,6.335</v>
+      </c>
+    </row>
+    <row r="885" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D885" s="10">
+        <v>881</v>
+      </c>
+      <c r="E885" t="str">
+        <f t="shared" si="153"/>
+        <v>천상 베기</v>
+      </c>
+      <c r="F885">
+        <f t="shared" si="158"/>
+        <v>36</v>
+      </c>
+      <c r="G885">
+        <f t="shared" si="159"/>
+        <v>259250</v>
+      </c>
+      <c r="H885" t="str">
+        <f t="shared" si="154"/>
+        <v>심연 베기</v>
+      </c>
+      <c r="I885">
+        <f t="shared" si="160"/>
+        <v>50</v>
+      </c>
+      <c r="J885">
+        <f t="shared" si="155"/>
+        <v>7577.5</v>
+      </c>
+      <c r="K885" s="10">
+        <v>881</v>
+      </c>
+      <c r="L885" s="10" t="str">
+        <f t="shared" si="156"/>
+        <v>36,50</v>
+      </c>
+      <c r="M885" s="10" t="str">
+        <f t="shared" si="157"/>
+        <v>2592.5,75.775</v>
+      </c>
+    </row>
+    <row r="886" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D886" s="10">
+        <v>882</v>
+      </c>
+      <c r="E886" t="str">
+        <f t="shared" si="153"/>
+        <v>귀신 베기</v>
+      </c>
+      <c r="F886">
+        <f t="shared" si="158"/>
+        <v>39</v>
+      </c>
+      <c r="G886">
+        <f t="shared" si="159"/>
+        <v>156550</v>
+      </c>
+      <c r="H886" t="str">
+        <f t="shared" si="154"/>
+        <v>섬광 베기</v>
+      </c>
+      <c r="I886">
+        <f t="shared" si="160"/>
+        <v>47</v>
+      </c>
+      <c r="J886">
+        <f t="shared" si="155"/>
+        <v>25425</v>
+      </c>
+      <c r="K886" s="10">
+        <v>882</v>
+      </c>
+      <c r="L886" s="10" t="str">
+        <f t="shared" si="156"/>
+        <v>39,47</v>
+      </c>
+      <c r="M886" s="10" t="str">
+        <f t="shared" si="157"/>
+        <v>1565.5,254.25</v>
+      </c>
+    </row>
+    <row r="887" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D887" s="10">
+        <v>883</v>
+      </c>
+      <c r="E887" t="str">
+        <f t="shared" ref="E887:E904" si="161">E882</f>
+        <v>금강 베기</v>
+      </c>
+      <c r="F887">
+        <f t="shared" si="158"/>
+        <v>43</v>
+      </c>
+      <c r="G887">
+        <f t="shared" si="159"/>
+        <v>53850</v>
+      </c>
+      <c r="H887" t="str">
+        <f t="shared" si="154"/>
+        <v>태극 베기</v>
+      </c>
+      <c r="I887">
+        <f t="shared" si="160"/>
+        <v>55</v>
+      </c>
+      <c r="J887">
+        <f t="shared" si="155"/>
+        <v>102.7</v>
+      </c>
+      <c r="K887" s="10">
+        <v>883</v>
+      </c>
+      <c r="L887" s="10" t="str">
+        <f t="shared" si="156"/>
+        <v>43,55</v>
+      </c>
+      <c r="M887" s="10" t="str">
+        <f t="shared" si="157"/>
+        <v>538.5,1.027</v>
+      </c>
+    </row>
+    <row r="888" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D888" s="10">
+        <v>884</v>
+      </c>
+      <c r="E888" t="str">
+        <f t="shared" si="161"/>
+        <v>귀살 베기</v>
+      </c>
+      <c r="F888">
+        <f t="shared" si="158"/>
+        <v>60</v>
+      </c>
+      <c r="G888">
+        <f t="shared" si="159"/>
+        <v>147.69999999999956</v>
+      </c>
+      <c r="H888" t="str">
+        <f t="shared" si="154"/>
+        <v>천구 베기</v>
+      </c>
+      <c r="I888">
+        <f t="shared" si="160"/>
+        <v>61</v>
+      </c>
+      <c r="J888">
+        <f t="shared" si="155"/>
+        <v>94</v>
+      </c>
+      <c r="K888" s="10">
+        <v>884</v>
+      </c>
+      <c r="L888" s="10" t="str">
+        <f t="shared" si="156"/>
+        <v>60,61</v>
+      </c>
+      <c r="M888" s="10" t="str">
+        <f t="shared" si="157"/>
+        <v>1.477,0.94</v>
+      </c>
+    </row>
+    <row r="889" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D889" s="10">
+        <v>885</v>
+      </c>
+      <c r="E889" t="str">
+        <f t="shared" si="161"/>
+        <v>지옥 베기</v>
+      </c>
+      <c r="F889">
+        <f t="shared" si="158"/>
+        <v>35</v>
+      </c>
+      <c r="G889">
+        <f t="shared" si="159"/>
+        <v>509000</v>
+      </c>
+      <c r="H889" t="str">
+        <f t="shared" si="154"/>
+        <v>신선 베기</v>
+      </c>
+      <c r="I889">
+        <f t="shared" si="160"/>
+        <v>54</v>
+      </c>
+      <c r="J889">
+        <f t="shared" si="155"/>
+        <v>634</v>
+      </c>
+      <c r="K889" s="10">
+        <v>885</v>
+      </c>
+      <c r="L889" s="10" t="str">
+        <f t="shared" si="156"/>
+        <v>35,54</v>
+      </c>
+      <c r="M889" s="10" t="str">
+        <f t="shared" si="157"/>
+        <v>5090,6.34</v>
+      </c>
+    </row>
+    <row r="890" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D890" s="10">
+        <v>886</v>
+      </c>
+      <c r="E890" t="str">
+        <f t="shared" si="161"/>
+        <v>천상 베기</v>
+      </c>
+      <c r="F890">
+        <f t="shared" si="158"/>
+        <v>36</v>
+      </c>
+      <c r="G890">
+        <f t="shared" si="159"/>
+        <v>259500</v>
+      </c>
+      <c r="H890" t="str">
+        <f t="shared" si="154"/>
+        <v>심연 베기</v>
+      </c>
+      <c r="I890">
+        <f t="shared" si="160"/>
+        <v>50</v>
+      </c>
+      <c r="J890">
+        <f t="shared" si="155"/>
+        <v>7585</v>
+      </c>
+      <c r="K890" s="10">
+        <v>886</v>
+      </c>
+      <c r="L890" s="10" t="str">
+        <f t="shared" si="156"/>
+        <v>36,50</v>
+      </c>
+      <c r="M890" s="10" t="str">
+        <f t="shared" si="157"/>
+        <v>2595,75.85</v>
+      </c>
+    </row>
+    <row r="891" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D891" s="10">
+        <v>887</v>
+      </c>
+      <c r="E891" t="str">
+        <f t="shared" si="161"/>
+        <v>귀신 베기</v>
+      </c>
+      <c r="F891">
+        <f t="shared" si="158"/>
+        <v>39</v>
+      </c>
+      <c r="G891">
+        <f t="shared" si="159"/>
+        <v>156700</v>
+      </c>
+      <c r="H891" t="str">
+        <f t="shared" si="154"/>
+        <v>섬광 베기</v>
+      </c>
+      <c r="I891">
+        <f t="shared" si="160"/>
+        <v>47</v>
+      </c>
+      <c r="J891">
+        <f t="shared" si="155"/>
+        <v>25450</v>
+      </c>
+      <c r="K891" s="10">
+        <v>887</v>
+      </c>
+      <c r="L891" s="10" t="str">
+        <f t="shared" si="156"/>
+        <v>39,47</v>
+      </c>
+      <c r="M891" s="10" t="str">
+        <f t="shared" si="157"/>
+        <v>1567,254.5</v>
+      </c>
+    </row>
+    <row r="892" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D892" s="10">
+        <v>888</v>
+      </c>
+      <c r="E892" t="str">
+        <f t="shared" si="161"/>
+        <v>금강 베기</v>
+      </c>
+      <c r="F892">
+        <f t="shared" si="158"/>
+        <v>43</v>
+      </c>
+      <c r="G892">
+        <f t="shared" si="159"/>
+        <v>53900</v>
+      </c>
+      <c r="H892" t="str">
+        <f t="shared" si="154"/>
+        <v>태극 베기</v>
+      </c>
+      <c r="I892">
+        <f t="shared" si="160"/>
+        <v>55</v>
+      </c>
+      <c r="J892">
+        <f t="shared" si="155"/>
+        <v>102.8</v>
+      </c>
+      <c r="K892" s="10">
+        <v>888</v>
+      </c>
+      <c r="L892" s="10" t="str">
+        <f t="shared" si="156"/>
+        <v>43,55</v>
+      </c>
+      <c r="M892" s="10" t="str">
+        <f t="shared" si="157"/>
+        <v>539,1.028</v>
+      </c>
+    </row>
+    <row r="893" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D893" s="10">
+        <v>889</v>
+      </c>
+      <c r="E893" t="str">
+        <f t="shared" si="161"/>
+        <v>귀살 베기</v>
+      </c>
+      <c r="F893">
+        <f t="shared" si="158"/>
+        <v>60</v>
+      </c>
+      <c r="G893">
+        <f t="shared" si="159"/>
+        <v>147.79999999999956</v>
+      </c>
+      <c r="H893" t="str">
+        <f t="shared" si="154"/>
+        <v>신수 베기</v>
+      </c>
+      <c r="I893">
+        <f t="shared" si="160"/>
+        <v>42</v>
+      </c>
+      <c r="J893">
+        <f t="shared" si="155"/>
+        <v>22300</v>
+      </c>
+      <c r="K893" s="10">
+        <v>889</v>
+      </c>
+      <c r="L893" s="10" t="str">
+        <f t="shared" si="156"/>
+        <v>60,42</v>
+      </c>
+      <c r="M893" s="10" t="str">
+        <f t="shared" si="157"/>
+        <v>1.478,223</v>
+      </c>
+    </row>
+    <row r="894" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D894" s="10">
+        <v>890</v>
+      </c>
+      <c r="E894" t="str">
+        <f t="shared" si="161"/>
+        <v>지옥 베기</v>
+      </c>
+      <c r="F894">
+        <f t="shared" si="158"/>
+        <v>35</v>
+      </c>
+      <c r="G894">
+        <f t="shared" si="159"/>
+        <v>509500</v>
+      </c>
+      <c r="H894" t="str">
+        <f t="shared" si="154"/>
+        <v>신선 베기</v>
+      </c>
+      <c r="I894">
+        <f t="shared" si="160"/>
+        <v>54</v>
+      </c>
+      <c r="J894">
+        <f t="shared" si="155"/>
+        <v>634.5</v>
+      </c>
+      <c r="K894" s="10">
+        <v>890</v>
+      </c>
+      <c r="L894" s="10" t="str">
+        <f t="shared" si="156"/>
+        <v>35,54</v>
+      </c>
+      <c r="M894" s="10" t="str">
+        <f t="shared" si="157"/>
+        <v>5095,6.345</v>
+      </c>
+    </row>
+    <row r="895" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D895" s="10">
+        <v>891</v>
+      </c>
+      <c r="E895" t="str">
+        <f t="shared" si="161"/>
+        <v>천상 베기</v>
+      </c>
+      <c r="F895">
+        <f t="shared" si="158"/>
+        <v>36</v>
+      </c>
+      <c r="G895">
+        <f t="shared" si="159"/>
+        <v>259750</v>
+      </c>
+      <c r="H895" t="str">
+        <f t="shared" si="154"/>
+        <v>심연 베기</v>
+      </c>
+      <c r="I895">
+        <f t="shared" si="160"/>
+        <v>50</v>
+      </c>
+      <c r="J895">
+        <f t="shared" si="155"/>
+        <v>7592.5</v>
+      </c>
+      <c r="K895" s="10">
+        <v>891</v>
+      </c>
+      <c r="L895" s="10" t="str">
+        <f t="shared" si="156"/>
+        <v>36,50</v>
+      </c>
+      <c r="M895" s="10" t="str">
+        <f t="shared" si="157"/>
+        <v>2597.5,75.925</v>
+      </c>
+    </row>
+    <row r="896" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D896" s="10">
+        <v>892</v>
+      </c>
+      <c r="E896" t="str">
+        <f t="shared" si="161"/>
+        <v>귀신 베기</v>
+      </c>
+      <c r="F896">
+        <f t="shared" si="158"/>
+        <v>39</v>
+      </c>
+      <c r="G896">
+        <f t="shared" si="159"/>
+        <v>156850</v>
+      </c>
+      <c r="H896" t="str">
+        <f t="shared" si="154"/>
+        <v>섬광 베기</v>
+      </c>
+      <c r="I896">
+        <f t="shared" si="160"/>
+        <v>47</v>
+      </c>
+      <c r="J896">
+        <f t="shared" si="155"/>
+        <v>25475</v>
+      </c>
+      <c r="K896" s="10">
+        <v>892</v>
+      </c>
+      <c r="L896" s="10" t="str">
+        <f t="shared" si="156"/>
+        <v>39,47</v>
+      </c>
+      <c r="M896" s="10" t="str">
+        <f t="shared" si="157"/>
+        <v>1568.5,254.75</v>
+      </c>
+    </row>
+    <row r="897" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D897" s="10">
+        <v>893</v>
+      </c>
+      <c r="E897" t="str">
+        <f t="shared" si="161"/>
+        <v>금강 베기</v>
+      </c>
+      <c r="F897">
+        <f t="shared" si="158"/>
+        <v>43</v>
+      </c>
+      <c r="G897">
+        <f t="shared" si="159"/>
+        <v>53950</v>
+      </c>
+      <c r="H897" t="str">
+        <f t="shared" ref="H897:H904" si="162">H882</f>
+        <v>태극 베기</v>
+      </c>
+      <c r="I897">
+        <f t="shared" si="160"/>
+        <v>55</v>
+      </c>
+      <c r="J897">
+        <f t="shared" si="155"/>
+        <v>102.9</v>
+      </c>
+      <c r="K897" s="10">
+        <v>893</v>
+      </c>
+      <c r="L897" s="10" t="str">
+        <f t="shared" si="156"/>
+        <v>43,55</v>
+      </c>
+      <c r="M897" s="10" t="str">
+        <f t="shared" si="157"/>
+        <v>539.5,1.029</v>
+      </c>
+    </row>
+    <row r="898" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D898" s="10">
+        <v>894</v>
+      </c>
+      <c r="E898" t="str">
+        <f t="shared" si="161"/>
+        <v>귀살 베기</v>
+      </c>
+      <c r="F898">
+        <f t="shared" si="158"/>
+        <v>60</v>
+      </c>
+      <c r="G898">
+        <f t="shared" si="159"/>
+        <v>147.89999999999955</v>
+      </c>
+      <c r="H898" t="str">
+        <f t="shared" si="162"/>
+        <v>흉수 베기</v>
+      </c>
+      <c r="I898">
+        <f t="shared" si="160"/>
+        <v>46</v>
+      </c>
+      <c r="J898">
+        <f t="shared" si="155"/>
+        <v>2185</v>
+      </c>
+      <c r="K898" s="10">
+        <v>894</v>
+      </c>
+      <c r="L898" s="10" t="str">
+        <f t="shared" si="156"/>
+        <v>60,46</v>
+      </c>
+      <c r="M898" s="10" t="str">
+        <f t="shared" si="157"/>
+        <v>1.479,21.85</v>
+      </c>
+    </row>
+    <row r="899" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D899" s="10">
+        <v>895</v>
+      </c>
+      <c r="E899" t="str">
+        <f t="shared" si="161"/>
+        <v>지옥 베기</v>
+      </c>
+      <c r="F899">
+        <f t="shared" si="158"/>
+        <v>35</v>
+      </c>
+      <c r="G899">
+        <f t="shared" si="159"/>
+        <v>510000</v>
+      </c>
+      <c r="H899" t="str">
+        <f t="shared" si="162"/>
+        <v>신선 베기</v>
+      </c>
+      <c r="I899">
+        <f t="shared" si="160"/>
+        <v>54</v>
+      </c>
+      <c r="J899">
+        <f t="shared" si="155"/>
+        <v>635</v>
+      </c>
+      <c r="K899" s="10">
+        <v>895</v>
+      </c>
+      <c r="L899" s="10" t="str">
+        <f t="shared" si="156"/>
+        <v>35,54</v>
+      </c>
+      <c r="M899" s="10" t="str">
+        <f t="shared" si="157"/>
+        <v>5100,6.35</v>
+      </c>
+    </row>
+    <row r="900" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D900" s="10">
+        <v>896</v>
+      </c>
+      <c r="E900" t="str">
+        <f t="shared" si="161"/>
+        <v>천상 베기</v>
+      </c>
+      <c r="F900">
+        <f t="shared" si="158"/>
+        <v>36</v>
+      </c>
+      <c r="G900">
+        <f t="shared" si="159"/>
+        <v>260000</v>
+      </c>
+      <c r="H900" t="str">
+        <f t="shared" si="162"/>
+        <v>심연 베기</v>
+      </c>
+      <c r="I900">
+        <f t="shared" si="160"/>
+        <v>50</v>
+      </c>
+      <c r="J900">
+        <f t="shared" si="155"/>
+        <v>7600</v>
+      </c>
+      <c r="K900" s="10">
+        <v>896</v>
+      </c>
+      <c r="L900" s="10" t="str">
+        <f t="shared" si="156"/>
+        <v>36,50</v>
+      </c>
+      <c r="M900" s="10" t="str">
+        <f t="shared" si="157"/>
+        <v>2600,76</v>
+      </c>
+    </row>
+    <row r="901" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D901" s="10">
+        <v>897</v>
+      </c>
+      <c r="E901" t="str">
+        <f t="shared" si="161"/>
+        <v>귀신 베기</v>
+      </c>
+      <c r="F901">
+        <f t="shared" si="158"/>
+        <v>39</v>
+      </c>
+      <c r="G901">
+        <f t="shared" si="159"/>
+        <v>157000</v>
+      </c>
+      <c r="H901" t="str">
+        <f t="shared" si="162"/>
+        <v>섬광 베기</v>
+      </c>
+      <c r="I901">
+        <f t="shared" si="160"/>
+        <v>47</v>
+      </c>
+      <c r="J901">
+        <f t="shared" si="155"/>
+        <v>25500</v>
+      </c>
+      <c r="K901" s="10">
+        <v>897</v>
+      </c>
+      <c r="L901" s="10" t="str">
+        <f t="shared" si="156"/>
+        <v>39,47</v>
+      </c>
+      <c r="M901" s="10" t="str">
+        <f t="shared" si="157"/>
+        <v>1570,255</v>
+      </c>
+    </row>
+    <row r="902" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D902" s="10">
+        <v>898</v>
+      </c>
+      <c r="E902" t="str">
+        <f t="shared" si="161"/>
+        <v>금강 베기</v>
+      </c>
+      <c r="F902">
+        <f t="shared" si="158"/>
+        <v>43</v>
+      </c>
+      <c r="G902">
+        <f t="shared" si="159"/>
+        <v>54000</v>
+      </c>
+      <c r="H902" t="str">
+        <f t="shared" si="162"/>
+        <v>태극 베기</v>
+      </c>
+      <c r="I902">
+        <f t="shared" si="160"/>
+        <v>55</v>
+      </c>
+      <c r="J902">
+        <f t="shared" si="155"/>
+        <v>103</v>
+      </c>
+      <c r="K902" s="10">
+        <v>898</v>
+      </c>
+      <c r="L902" s="10" t="str">
+        <f t="shared" si="156"/>
+        <v>43,55</v>
+      </c>
+      <c r="M902" s="10" t="str">
+        <f t="shared" si="157"/>
+        <v>540,1.03</v>
+      </c>
+    </row>
+    <row r="903" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D903" s="10">
+        <v>899</v>
+      </c>
+      <c r="E903" t="str">
+        <f t="shared" si="161"/>
+        <v>귀살 베기</v>
+      </c>
+      <c r="F903">
+        <f t="shared" si="158"/>
+        <v>60</v>
+      </c>
+      <c r="G903">
+        <f t="shared" si="159"/>
+        <v>147.99999999999955</v>
+      </c>
+      <c r="H903" t="str">
+        <f t="shared" si="162"/>
+        <v>천구 베기</v>
+      </c>
+      <c r="I903">
+        <f t="shared" si="160"/>
+        <v>61</v>
+      </c>
+      <c r="J903">
+        <f t="shared" ref="J903:J904" si="163">ROUNDUP(IF(I903=42,J888+$U$23,IF(I903=46,J888+$U$24,IF(I903=61,J888+$U$30,J898+VLOOKUP(H903,$T$20:$U$31,2,FALSE)))),2)</f>
+        <v>94.25</v>
+      </c>
+      <c r="K903" s="10">
+        <v>899</v>
+      </c>
+      <c r="L903" s="10" t="str">
+        <f t="shared" ref="L903:L904" si="164">IF(H903=0,F903&amp;",-1",F903&amp;","&amp;I903)</f>
+        <v>60,61</v>
+      </c>
+      <c r="M903" s="10" t="str">
+        <f t="shared" ref="M903:M904" si="165">IF(H903=0,G903/100&amp;","&amp;0,G903/100&amp;","&amp;J903/100)</f>
+        <v>1.48,0.9425</v>
+      </c>
+    </row>
+    <row r="904" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D904" s="10">
+        <v>900</v>
+      </c>
+      <c r="E904" t="str">
+        <f t="shared" si="161"/>
+        <v>지옥 베기</v>
+      </c>
+      <c r="F904">
+        <f t="shared" si="158"/>
+        <v>35</v>
+      </c>
+      <c r="G904">
+        <f t="shared" si="159"/>
+        <v>510500</v>
+      </c>
+      <c r="H904" t="str">
+        <f t="shared" si="162"/>
+        <v>신선 베기</v>
+      </c>
+      <c r="I904">
+        <f t="shared" si="160"/>
+        <v>54</v>
+      </c>
+      <c r="J904">
+        <f t="shared" si="163"/>
+        <v>635.5</v>
+      </c>
+      <c r="K904" s="10">
+        <v>900</v>
+      </c>
+      <c r="L904" s="10" t="str">
+        <f t="shared" si="164"/>
+        <v>35,54</v>
+      </c>
+      <c r="M904" s="10" t="str">
+        <f t="shared" si="165"/>
+        <v>5105,6.355</v>
       </c>
     </row>
   </sheetData>
